--- a/논문/20250324/새 Microsoft Excel 워크시트.xlsx
+++ b/논문/20250324/새 Microsoft Excel 워크시트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portfolio\논문\20250324\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92AAC90-E852-45BE-AA57-4DB1C74620F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FC70F9-92E5-4276-885E-784FBEF0B7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="727" windowWidth="13725" windowHeight="12098" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2543" yWindow="480" windowWidth="16125" windowHeight="12098" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="306">
   <si>
     <t>4 0.602740 0.455446 0.365297 0.455446</t>
   </si>
@@ -555,10 +555,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>실제 구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>crop_0_0_202410241905</t>
   </si>
   <si>
@@ -1003,6 +999,14 @@
   </si>
   <si>
     <t>RT-DETR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라벨링 재작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미탐지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1013,7 +1017,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +1068,22 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="한컴돋움"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1135,7 +1155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1298,6 +1318,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1305,7 +1349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1355,12 +1399,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1372,6 +1410,71 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -3052,21 +3155,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68973864-0F46-4A02-99C8-DA7932EAF9E2}">
-  <dimension ref="A1:AC145"/>
+  <dimension ref="A1:AD145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD56" sqref="AD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="11" max="29" width="9" style="20"/>
+    <col min="11" max="19" width="9" style="20"/>
+    <col min="20" max="20" width="9" style="47"/>
+    <col min="21" max="29" width="9" style="20"/>
+    <col min="30" max="30" width="9" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -3077,32 +3183,32 @@
       <c r="G1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="U1" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="U1" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-    </row>
-    <row r="2" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+    </row>
+    <row r="2" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -3113,32 +3219,32 @@
       <c r="G2" t="s">
         <v>169</v>
       </c>
-      <c r="K2" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="U2" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="K2" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="U2" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -3150,56 +3256,56 @@
         <v>169</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="M3" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="N3" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="O3" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="P3" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="Q3" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="R3" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="R3" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="S3" s="33"/>
-      <c r="U3" s="34"/>
+      <c r="S3" s="28"/>
+      <c r="U3" s="32"/>
       <c r="V3" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="W3" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="X3" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="Y3" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Z3" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="AA3" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AB3" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="AB3" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC3" s="33"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="AC3" s="31"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -3234,7 +3340,7 @@
         <v>6</v>
       </c>
       <c r="S4" s="28"/>
-      <c r="U4" s="35"/>
+      <c r="U4" s="33"/>
       <c r="V4" s="20">
         <v>0</v>
       </c>
@@ -3258,9 +3364,9 @@
       </c>
       <c r="AC4" s="28"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -3295,11 +3401,14 @@
       <c r="R5" s="21">
         <v>192</v>
       </c>
-      <c r="S5" s="36">
+      <c r="S5" s="34">
         <f>SUM(L5:R5)</f>
         <v>1296</v>
       </c>
-      <c r="U5" s="37" t="s">
+      <c r="T5" s="46">
+        <v>5</v>
+      </c>
+      <c r="U5" s="35" t="s">
         <v>23</v>
       </c>
       <c r="V5" s="21">
@@ -3323,14 +3432,17 @@
       <c r="AB5" s="21">
         <v>189</v>
       </c>
-      <c r="AC5" s="36">
+      <c r="AC5" s="34">
         <f>SUM(V5:AB5)</f>
         <v>1290</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" ht="25.5" x14ac:dyDescent="0.6">
+      <c r="AD5" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -3342,7 +3454,7 @@
         <v>170</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="L6" s="22">
         <v>26</v>
@@ -3365,12 +3477,12 @@
       <c r="R6" s="22">
         <v>26</v>
       </c>
-      <c r="S6" s="36">
+      <c r="S6" s="34">
         <f>SUM(L6:R6)</f>
         <v>162</v>
       </c>
-      <c r="U6" s="37" t="s">
-        <v>24</v>
+      <c r="U6" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="V6" s="22">
         <v>26</v>
@@ -3379,7 +3491,7 @@
         <v>24</v>
       </c>
       <c r="X6" s="22">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y6" s="22">
         <v>7</v>
@@ -3388,19 +3500,19 @@
         <v>10</v>
       </c>
       <c r="AA6" s="22">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="22">
         <v>29</v>
       </c>
-      <c r="AC6" s="36">
+      <c r="AC6" s="34">
         <f>SUM(V6:AB6)</f>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -3412,7 +3524,7 @@
         <v>170</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L7" s="20">
         <f>L5+L6</f>
@@ -3446,8 +3558,8 @@
         <f>SUM(L7:R7)</f>
         <v>1458</v>
       </c>
-      <c r="U7" s="35" t="s">
-        <v>286</v>
+      <c r="U7" s="33" t="s">
+        <v>285</v>
       </c>
       <c r="V7" s="20">
         <f>V5+V6</f>
@@ -3459,7 +3571,7 @@
       </c>
       <c r="X7" s="20">
         <f t="shared" si="1"/>
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Y7" s="20">
         <f t="shared" si="1"/>
@@ -3471,7 +3583,7 @@
       </c>
       <c r="AA7" s="20">
         <f t="shared" si="1"/>
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AB7" s="20">
         <f t="shared" si="1"/>
@@ -3479,12 +3591,12 @@
       </c>
       <c r="AC7" s="28">
         <f>SUM(V7:AB7)</f>
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>32</v>
@@ -3524,8 +3636,9 @@
         <f t="shared" si="2"/>
         <v>0.11926605504587157</v>
       </c>
-      <c r="S8" s="38"/>
-      <c r="U8" s="39"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="37"/>
       <c r="V8" s="30">
         <f>V6/V7</f>
         <v>0.11872146118721461</v>
@@ -3536,7 +3649,7 @@
       </c>
       <c r="X8" s="30">
         <f t="shared" si="3"/>
-        <v>0.14492753623188406</v>
+        <v>0.12807881773399016</v>
       </c>
       <c r="Y8" s="30">
         <f t="shared" si="3"/>
@@ -3548,17 +3661,18 @@
       </c>
       <c r="AA8" s="30">
         <f t="shared" si="3"/>
-        <v>0.21929824561403508</v>
+        <v>0.20535714285714285</v>
       </c>
       <c r="AB8" s="30">
         <f t="shared" si="3"/>
         <v>0.13302752293577982</v>
       </c>
-      <c r="AC8" s="38"/>
-    </row>
-    <row r="9" spans="1:29" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="53"/>
+    </row>
+    <row r="9" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A9" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>33</v>
@@ -3569,28 +3683,30 @@
       <c r="G9" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-    </row>
-    <row r="10" spans="1:29" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="53"/>
+    </row>
+    <row r="10" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A10" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>34</v>
@@ -3603,32 +3719,34 @@
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="K10" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="U10" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="K10" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="53"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -3640,58 +3758,58 @@
         <v>166</v>
       </c>
       <c r="I11" t="s">
-        <v>171</v>
-      </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="M11" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="N11" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="O11" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="P11" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="P11" s="25" t="s">
+      <c r="Q11" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="R11" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="R11" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="S11" s="33"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="25" t="s">
+      <c r="S11" s="28"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="W11" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="W11" s="25" t="s">
+      <c r="X11" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="X11" s="25" t="s">
+      <c r="Y11" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="Y11" s="25" t="s">
+      <c r="Z11" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="Z11" s="25" t="s">
+      <c r="AA11" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="AA11" s="25" t="s">
+      <c r="AB11" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="AB11" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC11" s="33"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="AC11" s="28"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -3732,7 +3850,7 @@
         <v>6</v>
       </c>
       <c r="S12" s="28"/>
-      <c r="U12" s="35"/>
+      <c r="U12" s="33"/>
       <c r="V12" s="20">
         <v>0</v>
       </c>
@@ -3756,9 +3874,9 @@
       </c>
       <c r="AC12" s="28"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -3774,7 +3892,7 @@
       </c>
       <c r="I13">
         <f>COUNTIF(G:G,1)</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>23</v>
@@ -3800,21 +3918,24 @@
       <c r="R13" s="21">
         <v>208</v>
       </c>
-      <c r="S13" s="36">
+      <c r="S13" s="34">
         <f>SUM(L13:R13)</f>
         <v>1396</v>
       </c>
-      <c r="U13" s="37" t="s">
+      <c r="T13" s="46">
+        <v>62</v>
+      </c>
+      <c r="U13" s="35" t="s">
         <v>23</v>
       </c>
       <c r="V13" s="21">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="W13" s="21">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X13" s="21">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="Y13" s="21">
         <v>192</v>
@@ -3823,19 +3944,22 @@
         <v>183</v>
       </c>
       <c r="AA13" s="21">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB13" s="21">
-        <v>208</v>
-      </c>
-      <c r="AC13" s="36">
+        <v>205</v>
+      </c>
+      <c r="AC13" s="34">
         <f>SUM(V13:AB13)</f>
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="25.5" x14ac:dyDescent="0.6">
+        <v>1373</v>
+      </c>
+      <c r="AD13" s="45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -3854,7 +3978,7 @@
         <v>20</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="L14" s="22">
         <v>9</v>
@@ -3877,21 +4001,21 @@
       <c r="R14" s="22">
         <v>10</v>
       </c>
-      <c r="S14" s="36">
+      <c r="S14" s="34">
         <f>SUM(L14:R14)</f>
         <v>62</v>
       </c>
-      <c r="U14" s="37" t="s">
-        <v>24</v>
+      <c r="U14" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="V14" s="22">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W14" s="22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X14" s="22">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Y14" s="22">
         <v>7</v>
@@ -3900,19 +4024,22 @@
         <v>10</v>
       </c>
       <c r="AA14" s="22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AB14" s="22">
-        <v>9</v>
-      </c>
-      <c r="AC14" s="36">
+        <v>13</v>
+      </c>
+      <c r="AC14" s="34">
         <f>SUM(V14:AB14)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.6">
+        <v>85</v>
+      </c>
+      <c r="AD14" s="48">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -3931,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L15" s="20">
         <f>L13+L14</f>
@@ -3965,8 +4092,8 @@
         <f>SUM(L15:R15)</f>
         <v>1458</v>
       </c>
-      <c r="U15" s="35" t="s">
-        <v>286</v>
+      <c r="U15" s="33" t="s">
+        <v>285</v>
       </c>
       <c r="V15" s="20">
         <f>V13+V14</f>
@@ -3978,7 +4105,7 @@
       </c>
       <c r="X15" s="20">
         <f t="shared" si="10"/>
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Y15" s="20">
         <f t="shared" si="10"/>
@@ -3990,23 +4117,23 @@
       </c>
       <c r="AA15" s="20">
         <f t="shared" si="10"/>
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AB15" s="20">
         <f t="shared" si="10"/>
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AC15" s="28">
         <f>SUM(V15:AB15)</f>
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F16" t="s">
         <v>170</v>
@@ -4021,51 +4148,48 @@
         <f>COUNTIF(G:G,4)</f>
         <v>2</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30">
+      <c r="K16" s="26"/>
+      <c r="L16" s="44">
         <f>L14/L15</f>
         <v>4.1095890410958902E-2</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="44">
         <f t="shared" ref="M16" si="11">M14/M15</f>
         <v>5.9405940594059403E-2</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="44">
         <f t="shared" ref="N16" si="12">N14/N15</f>
         <v>2.9556650246305417E-2</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="44">
         <f t="shared" ref="O16" si="13">O14/O15</f>
         <v>3.5175879396984924E-2</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="44">
         <f t="shared" ref="P16" si="14">P14/P15</f>
         <v>5.181347150259067E-2</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="44">
         <f t="shared" ref="Q16" si="15">Q14/Q15</f>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="R16" s="30">
+      <c r="R16" s="44">
         <f t="shared" ref="R16" si="16">R14/R15</f>
         <v>4.5871559633027525E-2</v>
       </c>
-      <c r="S16" s="38">
-        <f>1432-S15</f>
-        <v>-26</v>
-      </c>
-      <c r="U16" s="39"/>
+      <c r="S16" s="28"/>
+      <c r="U16" s="37"/>
       <c r="V16" s="30">
         <f>V14/V15</f>
-        <v>4.1095890410958902E-2</v>
+        <v>6.3926940639269403E-2</v>
       </c>
       <c r="W16" s="30">
         <f t="shared" ref="W16:AB16" si="17">W14/W15</f>
-        <v>5.9405940594059403E-2</v>
+        <v>6.4356435643564358E-2</v>
       </c>
       <c r="X16" s="30">
         <f t="shared" si="17"/>
-        <v>4.8309178743961352E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="Y16" s="30">
         <f t="shared" si="17"/>
@@ -4077,20 +4201,20 @@
       </c>
       <c r="AA16" s="30">
         <f t="shared" si="17"/>
-        <v>5.2631578947368418E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="AB16" s="30">
         <f t="shared" si="17"/>
-        <v>4.1474654377880185E-2</v>
-      </c>
-      <c r="AC16" s="38">
+        <v>5.9633027522935783E-2</v>
+      </c>
+      <c r="AC16" s="36">
         <f>1432-AC15</f>
-        <v>-33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -4108,32 +4232,32 @@
         <f>COUNTIF(G:G,5)</f>
         <v>44</v>
       </c>
-      <c r="K17" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="U17" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="K17" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="U17" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -4151,56 +4275,56 @@
         <f>COUNTIF(G:G,6)</f>
         <v>23</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25" t="s">
+      <c r="K18" s="26"/>
+      <c r="L18" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="M18" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="N18" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="N18" s="25" t="s">
+      <c r="O18" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="O18" s="25" t="s">
+      <c r="P18" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="P18" s="25" t="s">
+      <c r="Q18" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="Q18" s="25" t="s">
+      <c r="R18" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="R18" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="S18" s="33"/>
-      <c r="U18" s="34"/>
+      <c r="S18" s="28"/>
+      <c r="U18" s="32"/>
       <c r="V18" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="W18" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="W18" s="25" t="s">
+      <c r="X18" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="X18" s="25" t="s">
+      <c r="Y18" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="Y18" s="25" t="s">
+      <c r="Z18" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="Z18" s="25" t="s">
+      <c r="AA18" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="AA18" s="25" t="s">
+      <c r="AB18" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="AB18" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC18" s="33"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="AC18" s="31"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -4213,7 +4337,7 @@
       </c>
       <c r="I19" s="16">
         <f>SUM(I12:I18)</f>
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="20">
@@ -4238,7 +4362,7 @@
         <v>6</v>
       </c>
       <c r="S19" s="28"/>
-      <c r="U19" s="35"/>
+      <c r="U19" s="33"/>
       <c r="V19" s="20">
         <v>0</v>
       </c>
@@ -4262,9 +4386,9 @@
       </c>
       <c r="AC19" s="28"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -4299,42 +4423,45 @@
       <c r="R20" s="21">
         <v>206</v>
       </c>
-      <c r="S20" s="36">
+      <c r="S20" s="34">
         <f>SUM(L20:R20)</f>
         <v>1387</v>
       </c>
-      <c r="U20" s="37" t="s">
+      <c r="T20" s="46">
+        <v>37</v>
+      </c>
+      <c r="U20" s="35" t="s">
         <v>23</v>
       </c>
       <c r="V20" s="21">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="W20" s="21">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="X20" s="21">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="Y20" s="21">
+        <v>192</v>
+      </c>
+      <c r="Z20" s="21">
         <v>183</v>
       </c>
-      <c r="Z20" s="21">
-        <v>216</v>
-      </c>
       <c r="AA20" s="21">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AB20" s="21">
-        <v>206</v>
-      </c>
-      <c r="AC20" s="36">
+        <v>202</v>
+      </c>
+      <c r="AC20" s="34">
         <f>SUM(V20:AB20)</f>
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="25.5" x14ac:dyDescent="0.6">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
@@ -4346,7 +4473,7 @@
         <v>169</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="L21" s="22">
         <v>10</v>
@@ -4369,42 +4496,42 @@
       <c r="R21" s="22">
         <v>12</v>
       </c>
-      <c r="S21" s="36">
+      <c r="S21" s="34">
         <f>SUM(L21:R21)</f>
         <v>71</v>
       </c>
-      <c r="U21" s="37" t="s">
-        <v>24</v>
+      <c r="U21" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="V21" s="22">
+        <v>17</v>
+      </c>
+      <c r="W21" s="22">
+        <v>17</v>
+      </c>
+      <c r="X21" s="22">
+        <v>23</v>
+      </c>
+      <c r="Y21" s="22">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="22">
         <v>10</v>
       </c>
-      <c r="W21" s="22">
-        <v>8</v>
-      </c>
-      <c r="X21" s="22">
-        <v>19</v>
-      </c>
-      <c r="Y21" s="22">
-        <v>10</v>
-      </c>
-      <c r="Z21" s="22">
-        <v>12</v>
-      </c>
       <c r="AA21" s="22">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AB21" s="22">
-        <v>6</v>
-      </c>
-      <c r="AC21" s="36">
+        <v>16</v>
+      </c>
+      <c r="AC21" s="34">
         <f>SUM(V21:AB21)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -4416,7 +4543,7 @@
         <v>169</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L22" s="20">
         <f>L20+L21</f>
@@ -4450,8 +4577,8 @@
         <f>SUM(L22:R22)</f>
         <v>1458</v>
       </c>
-      <c r="U22" s="35" t="s">
-        <v>286</v>
+      <c r="U22" s="33" t="s">
+        <v>285</v>
       </c>
       <c r="V22" s="20">
         <f>V20+V21</f>
@@ -4463,32 +4590,32 @@
       </c>
       <c r="X22" s="20">
         <f t="shared" si="24"/>
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Y22" s="20">
         <f t="shared" si="24"/>
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Z22" s="20">
         <f t="shared" si="24"/>
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="AA22" s="20">
         <f t="shared" si="24"/>
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AB22" s="20">
         <f t="shared" si="24"/>
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AC22" s="28">
         <f>SUM(V22:AB22)</f>
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
@@ -4528,41 +4655,41 @@
         <f t="shared" ref="R23" si="30">R21/R22</f>
         <v>5.5045871559633031E-2</v>
       </c>
-      <c r="S23" s="38"/>
-      <c r="U23" s="39"/>
+      <c r="S23" s="36"/>
+      <c r="U23" s="37"/>
       <c r="V23" s="30">
         <f>V21/V22</f>
-        <v>4.5662100456621002E-2</v>
+        <v>7.7625570776255703E-2</v>
       </c>
       <c r="W23" s="30">
         <f t="shared" ref="W23:AB23" si="31">W21/W22</f>
-        <v>3.9603960396039604E-2</v>
+        <v>8.4158415841584164E-2</v>
       </c>
       <c r="X23" s="30">
         <f t="shared" si="31"/>
-        <v>9.1787439613526575E-2</v>
+        <v>0.11330049261083744</v>
       </c>
       <c r="Y23" s="30">
         <f t="shared" si="31"/>
-        <v>5.181347150259067E-2</v>
+        <v>3.5175879396984924E-2</v>
       </c>
       <c r="Z23" s="30">
         <f t="shared" si="31"/>
-        <v>5.2631578947368418E-2</v>
+        <v>5.181347150259067E-2</v>
       </c>
       <c r="AA23" s="30">
         <f t="shared" si="31"/>
-        <v>5.5045871559633031E-2</v>
+        <v>0.10267857142857142</v>
       </c>
       <c r="AB23" s="30">
         <f t="shared" si="31"/>
-        <v>2.8301886792452831E-2</v>
-      </c>
-      <c r="AC23" s="38"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.6">
+        <v>7.3394495412844041E-2</v>
+      </c>
+      <c r="AC23" s="36"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -4573,22 +4700,22 @@
       <c r="G24" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F25" t="s">
         <v>170</v>
@@ -4597,9 +4724,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F26" t="s">
         <v>170</v>
@@ -4607,64 +4734,66 @@
       <c r="G26" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-    </row>
-    <row r="27" spans="1:29" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="54"/>
+    </row>
+    <row r="27" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="F27" t="s">
         <v>165</v>
       </c>
       <c r="G27" t="s">
         <v>165</v>
       </c>
-      <c r="K27" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="K27" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="54"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
@@ -4677,54 +4806,55 @@
       </c>
       <c r="K28" s="24"/>
       <c r="L28" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="M28" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="N28" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="N28" s="25" t="s">
+      <c r="O28" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="O28" s="25" t="s">
+      <c r="P28" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="P28" s="25" t="s">
+      <c r="Q28" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="Q28" s="25" t="s">
+      <c r="R28" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="R28" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="S28" s="33"/>
-      <c r="U28" s="34"/>
+      <c r="S28" s="31"/>
+      <c r="U28" s="32"/>
       <c r="V28" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="W28" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="W28" s="25" t="s">
+      <c r="X28" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="X28" s="25" t="s">
+      <c r="Y28" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="Y28" s="25" t="s">
+      <c r="Z28" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="Z28" s="25" t="s">
+      <c r="AA28" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="AA28" s="25" t="s">
+      <c r="AB28" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="AB28" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC28" s="33"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="49"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" t="s">
         <v>52</v>
@@ -4758,7 +4888,7 @@
         <v>6</v>
       </c>
       <c r="S29" s="28"/>
-      <c r="U29" s="35"/>
+      <c r="U29" s="33"/>
       <c r="V29" s="20">
         <v>0</v>
       </c>
@@ -4782,9 +4912,9 @@
       </c>
       <c r="AC29" s="28"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -4819,11 +4949,14 @@
       <c r="R30" s="21">
         <v>188</v>
       </c>
-      <c r="S30" s="36">
+      <c r="S30" s="34">
         <f>SUM(L30:R30)</f>
         <v>1289</v>
       </c>
-      <c r="U30" s="37" t="s">
+      <c r="T30" s="46">
+        <v>5</v>
+      </c>
+      <c r="U30" s="35" t="s">
         <v>23</v>
       </c>
       <c r="V30" s="21">
@@ -4847,14 +4980,17 @@
       <c r="AB30" s="21">
         <v>188</v>
       </c>
-      <c r="AC30" s="36">
+      <c r="AC30" s="34">
         <f>SUM(V30:AB30)</f>
         <v>1289</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" ht="25.5" x14ac:dyDescent="0.6">
+      <c r="AD30" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
@@ -4866,7 +5002,7 @@
         <v>166</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="L31" s="22">
         <v>26</v>
@@ -4875,7 +5011,7 @@
         <v>24</v>
       </c>
       <c r="N31" s="22">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O31" s="22">
         <v>7</v>
@@ -4884,17 +5020,17 @@
         <v>10</v>
       </c>
       <c r="Q31" s="22">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R31" s="22">
         <v>30</v>
       </c>
-      <c r="S31" s="36">
+      <c r="S31" s="34">
         <f>SUM(L31:R31)</f>
-        <v>177</v>
-      </c>
-      <c r="U31" s="37" t="s">
-        <v>24</v>
+        <v>169</v>
+      </c>
+      <c r="U31" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="V31" s="22">
         <v>26</v>
@@ -4903,7 +5039,7 @@
         <v>24</v>
       </c>
       <c r="X31" s="22">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y31" s="22">
         <v>7</v>
@@ -4912,19 +5048,19 @@
         <v>10</v>
       </c>
       <c r="AA31" s="22">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB31" s="22">
         <v>30</v>
       </c>
-      <c r="AC31" s="36">
+      <c r="AC31" s="34">
         <f>SUM(V31:AB31)</f>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" t="s">
         <v>55</v>
@@ -4936,7 +5072,7 @@
         <v>166</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L32" s="20">
         <f>L30+L31</f>
@@ -4948,7 +5084,7 @@
       </c>
       <c r="N32" s="20">
         <f t="shared" si="32"/>
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O32" s="20">
         <f t="shared" si="32"/>
@@ -4960,7 +5096,7 @@
       </c>
       <c r="Q32" s="20">
         <f t="shared" si="32"/>
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R32" s="20">
         <f t="shared" si="32"/>
@@ -4968,10 +5104,10 @@
       </c>
       <c r="S32" s="28">
         <f>SUM(L32:R32)</f>
-        <v>1466</v>
-      </c>
-      <c r="U32" s="35" t="s">
-        <v>286</v>
+        <v>1458</v>
+      </c>
+      <c r="U32" s="33" t="s">
+        <v>285</v>
       </c>
       <c r="V32" s="20">
         <f>V30+V31</f>
@@ -4983,7 +5119,7 @@
       </c>
       <c r="X32" s="20">
         <f t="shared" si="33"/>
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Y32" s="20">
         <f t="shared" si="33"/>
@@ -4995,7 +5131,7 @@
       </c>
       <c r="AA32" s="20">
         <f t="shared" si="33"/>
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AB32" s="20">
         <f t="shared" si="33"/>
@@ -5003,12 +5139,12 @@
       </c>
       <c r="AC32" s="28">
         <f>SUM(V32:AB32)</f>
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
@@ -5030,7 +5166,7 @@
       </c>
       <c r="N33" s="30">
         <f t="shared" si="34"/>
-        <v>0.14492753623188406</v>
+        <v>0.12807881773399016</v>
       </c>
       <c r="O33" s="30">
         <f t="shared" si="34"/>
@@ -5042,14 +5178,14 @@
       </c>
       <c r="Q33" s="30">
         <f t="shared" si="34"/>
-        <v>0.21929824561403508</v>
+        <v>0.20535714285714285</v>
       </c>
       <c r="R33" s="30">
         <f t="shared" si="34"/>
         <v>0.13761467889908258</v>
       </c>
-      <c r="S33" s="38"/>
-      <c r="U33" s="39"/>
+      <c r="S33" s="36"/>
+      <c r="U33" s="37"/>
       <c r="V33" s="30">
         <f>V31/V32</f>
         <v>0.11872146118721461</v>
@@ -5060,7 +5196,7 @@
       </c>
       <c r="X33" s="30">
         <f t="shared" si="35"/>
-        <v>0.14492753623188406</v>
+        <v>0.12807881773399016</v>
       </c>
       <c r="Y33" s="30">
         <f t="shared" si="35"/>
@@ -5072,17 +5208,17 @@
       </c>
       <c r="AA33" s="30">
         <f t="shared" si="35"/>
-        <v>0.21929824561403508</v>
+        <v>0.20535714285714285</v>
       </c>
       <c r="AB33" s="30">
         <f t="shared" si="35"/>
         <v>0.13761467889908258</v>
       </c>
-      <c r="AC33" s="38"/>
-    </row>
-    <row r="34" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="AC33" s="36"/>
+    </row>
+    <row r="34" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
@@ -5093,28 +5229,28 @@
       <c r="G34" t="s">
         <v>167</v>
       </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-    </row>
-    <row r="35" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+    </row>
+    <row r="35" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
@@ -5125,32 +5261,32 @@
       <c r="G35" t="s">
         <v>167</v>
       </c>
-      <c r="K35" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="U35" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-    </row>
-    <row r="36" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="K35" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="U35" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+    </row>
+    <row r="36" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A36" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C36" s="1">
         <v>105049</v>
@@ -5163,53 +5299,54 @@
       </c>
       <c r="K36" s="24"/>
       <c r="L36" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="M36" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="M36" s="25" t="s">
+      <c r="N36" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="N36" s="25" t="s">
+      <c r="O36" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="O36" s="25" t="s">
+      <c r="P36" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="P36" s="25" t="s">
+      <c r="Q36" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="Q36" s="25" t="s">
+      <c r="R36" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="R36" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="S36" s="33"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="34"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="32"/>
       <c r="V36" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="W36" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="W36" s="25" t="s">
+      <c r="X36" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="X36" s="25" t="s">
+      <c r="Y36" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="Y36" s="25" t="s">
+      <c r="Z36" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="Z36" s="25" t="s">
+      <c r="AA36" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="AA36" s="25" t="s">
+      <c r="AB36" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="AB36" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC36" s="33"/>
-    </row>
-    <row r="37" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="54"/>
+    </row>
+    <row r="37" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F37" t="s">
         <v>167</v>
       </c>
@@ -5239,8 +5376,8 @@
         <v>6</v>
       </c>
       <c r="S37" s="28"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="35"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="33"/>
       <c r="V37" s="20">
         <v>0</v>
       </c>
@@ -5263,10 +5400,11 @@
         <v>6</v>
       </c>
       <c r="AC37" s="28"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="AD37" s="54"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s">
         <v>61</v>
@@ -5301,11 +5439,14 @@
       <c r="R38" s="21">
         <v>204</v>
       </c>
-      <c r="S38" s="36">
+      <c r="S38" s="34">
         <f>SUM(L38:R38)</f>
         <v>1379</v>
       </c>
-      <c r="U38" s="37" t="s">
+      <c r="T38" s="46">
+        <v>64</v>
+      </c>
+      <c r="U38" s="35" t="s">
         <v>23</v>
       </c>
       <c r="V38" s="21">
@@ -5324,19 +5465,22 @@
         <v>183</v>
       </c>
       <c r="AA38" s="21">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB38" s="21">
         <v>204</v>
       </c>
-      <c r="AC38" s="36">
+      <c r="AC38" s="34">
         <f>SUM(V38:AB38)</f>
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="25.5" x14ac:dyDescent="0.6">
+        <v>1373</v>
+      </c>
+      <c r="AD38" s="45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B39" t="s">
         <v>62</v>
@@ -5348,7 +5492,7 @@
         <v>165</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="L39" s="22">
         <v>11</v>
@@ -5357,7 +5501,7 @@
         <v>16</v>
       </c>
       <c r="N39" s="22">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O39" s="22">
         <v>7</v>
@@ -5366,17 +5510,17 @@
         <v>10</v>
       </c>
       <c r="Q39" s="22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R39" s="22">
         <v>14</v>
       </c>
-      <c r="S39" s="36">
+      <c r="S39" s="34">
         <f>SUM(L39:R39)</f>
-        <v>85</v>
-      </c>
-      <c r="U39" s="37" t="s">
-        <v>24</v>
+        <v>79</v>
+      </c>
+      <c r="U39" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="V39" s="22">
         <v>12</v>
@@ -5385,7 +5529,7 @@
         <v>21</v>
       </c>
       <c r="X39" s="22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y39" s="22">
         <v>7</v>
@@ -5394,19 +5538,19 @@
         <v>10</v>
       </c>
       <c r="AA39" s="22">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AB39" s="22">
         <v>14</v>
       </c>
-      <c r="AC39" s="36">
+      <c r="AC39" s="34">
         <f>SUM(V39:AB39)</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B40" t="s">
         <v>63</v>
@@ -5418,7 +5562,7 @@
         <v>165</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L40" s="20">
         <f>L38+L39</f>
@@ -5430,7 +5574,7 @@
       </c>
       <c r="N40" s="20">
         <f t="shared" si="36"/>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O40" s="20">
         <f t="shared" si="36"/>
@@ -5442,7 +5586,7 @@
       </c>
       <c r="Q40" s="20">
         <f t="shared" si="36"/>
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R40" s="20">
         <f t="shared" si="36"/>
@@ -5450,10 +5594,10 @@
       </c>
       <c r="S40" s="28">
         <f>SUM(L40:R40)</f>
-        <v>1464</v>
-      </c>
-      <c r="U40" s="35" t="s">
-        <v>286</v>
+        <v>1458</v>
+      </c>
+      <c r="U40" s="33" t="s">
+        <v>285</v>
       </c>
       <c r="V40" s="20">
         <f>V38+V39</f>
@@ -5465,7 +5609,7 @@
       </c>
       <c r="X40" s="20">
         <f t="shared" si="37"/>
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Y40" s="20">
         <f t="shared" si="37"/>
@@ -5477,7 +5621,7 @@
       </c>
       <c r="AA40" s="20">
         <f t="shared" si="37"/>
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AB40" s="20">
         <f t="shared" si="37"/>
@@ -5485,12 +5629,12 @@
       </c>
       <c r="AC40" s="28">
         <f>SUM(V40:AB40)</f>
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s">
         <v>64</v>
@@ -5512,7 +5656,7 @@
       </c>
       <c r="N41" s="30">
         <f t="shared" si="38"/>
-        <v>6.8292682926829273E-2</v>
+        <v>5.9113300492610835E-2</v>
       </c>
       <c r="O41" s="30">
         <f t="shared" si="38"/>
@@ -5524,17 +5668,14 @@
       </c>
       <c r="Q41" s="30">
         <f t="shared" si="38"/>
-        <v>5.701754385964912E-2</v>
+        <v>4.0178571428571432E-2</v>
       </c>
       <c r="R41" s="30">
         <f t="shared" si="38"/>
         <v>6.4220183486238536E-2</v>
       </c>
-      <c r="S41" s="38">
-        <f>1432-S40</f>
-        <v>-32</v>
-      </c>
-      <c r="U41" s="39"/>
+      <c r="S41" s="36"/>
+      <c r="U41" s="37"/>
       <c r="V41" s="30">
         <f>V39/V40</f>
         <v>5.4794520547945202E-2</v>
@@ -5545,7 +5686,7 @@
       </c>
       <c r="X41" s="30">
         <f t="shared" si="39"/>
-        <v>7.7294685990338161E-2</v>
+        <v>5.9113300492610835E-2</v>
       </c>
       <c r="Y41" s="30">
         <f t="shared" si="39"/>
@@ -5557,17 +5698,17 @@
       </c>
       <c r="AA41" s="30">
         <f t="shared" si="39"/>
-        <v>5.2631578947368418E-2</v>
+        <v>4.0178571428571432E-2</v>
       </c>
       <c r="AB41" s="30">
         <f t="shared" si="39"/>
         <v>6.4220183486238536E-2</v>
       </c>
-      <c r="AC41" s="38"/>
-    </row>
-    <row r="42" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="AC41" s="36"/>
+    </row>
+    <row r="42" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B42" t="s">
         <v>65</v>
@@ -5578,32 +5719,32 @@
       <c r="G42" t="s">
         <v>167</v>
       </c>
-      <c r="K42" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="U42" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="K42" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="U42" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="39"/>
+      <c r="AC42" s="39"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B43" t="s">
         <v>66</v>
@@ -5616,54 +5757,54 @@
       </c>
       <c r="K43" s="24"/>
       <c r="L43" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="M43" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="M43" s="25" t="s">
+      <c r="N43" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="N43" s="25" t="s">
+      <c r="O43" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="O43" s="25" t="s">
+      <c r="P43" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="P43" s="25" t="s">
+      <c r="Q43" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="Q43" s="25" t="s">
+      <c r="R43" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="R43" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="S43" s="33"/>
-      <c r="U43" s="34"/>
+      <c r="S43" s="31"/>
+      <c r="U43" s="32"/>
       <c r="V43" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="W43" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="W43" s="25" t="s">
+      <c r="X43" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="X43" s="25" t="s">
+      <c r="Y43" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="Y43" s="25" t="s">
+      <c r="Z43" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="Z43" s="25" t="s">
+      <c r="AA43" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="AA43" s="25" t="s">
+      <c r="AB43" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="AB43" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC43" s="33"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="AC43" s="31"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
@@ -5697,7 +5838,7 @@
         <v>6</v>
       </c>
       <c r="S44" s="28"/>
-      <c r="U44" s="35"/>
+      <c r="U44" s="33"/>
       <c r="V44" s="20">
         <v>0</v>
       </c>
@@ -5721,9 +5862,9 @@
       </c>
       <c r="AC44" s="28"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" t="s">
         <v>68</v>
@@ -5753,16 +5894,19 @@
         <v>183</v>
       </c>
       <c r="Q45" s="21">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R45" s="21">
         <v>204</v>
       </c>
-      <c r="S45" s="36">
+      <c r="S45" s="34">
         <f>SUM(L45:R45)</f>
-        <v>1352</v>
-      </c>
-      <c r="U45" s="37" t="s">
+        <v>1351</v>
+      </c>
+      <c r="T45" s="46">
+        <v>111</v>
+      </c>
+      <c r="U45" s="35" t="s">
         <v>23</v>
       </c>
       <c r="V45" s="21">
@@ -5786,14 +5930,17 @@
       <c r="AB45" s="21">
         <v>205</v>
       </c>
-      <c r="AC45" s="36">
+      <c r="AC45" s="34">
         <f>SUM(V45:AB45)</f>
         <v>1346</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" ht="25.5" x14ac:dyDescent="0.6">
+      <c r="AD45" s="52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B46" t="s">
         <v>69</v>
@@ -5805,7 +5952,7 @@
         <v>169</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="L46" s="22">
         <v>18</v>
@@ -5814,7 +5961,7 @@
         <v>15</v>
       </c>
       <c r="N46" s="22">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O46" s="22">
         <v>7</v>
@@ -5823,17 +5970,17 @@
         <v>10</v>
       </c>
       <c r="Q46" s="22">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R46" s="22">
         <v>14</v>
       </c>
-      <c r="S46" s="36">
+      <c r="S46" s="34">
         <f>SUM(L46:R46)</f>
-        <v>114</v>
-      </c>
-      <c r="U46" s="37" t="s">
-        <v>24</v>
+        <v>107</v>
+      </c>
+      <c r="U46" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="V46" s="22">
         <v>14</v>
@@ -5842,7 +5989,7 @@
         <v>19</v>
       </c>
       <c r="X46" s="22">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y46" s="22">
         <v>7</v>
@@ -5851,19 +5998,19 @@
         <v>10</v>
       </c>
       <c r="AA46" s="22">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AB46" s="22">
         <v>13</v>
       </c>
-      <c r="AC46" s="36">
+      <c r="AC46" s="34">
         <f>SUM(V46:AB46)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s">
         <v>70</v>
@@ -5875,7 +6022,7 @@
         <v>169</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L47" s="20">
         <f>L45+L46</f>
@@ -5887,7 +6034,7 @@
       </c>
       <c r="N47" s="20">
         <f t="shared" si="40"/>
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O47" s="20">
         <f t="shared" si="40"/>
@@ -5899,7 +6046,7 @@
       </c>
       <c r="Q47" s="20">
         <f t="shared" si="40"/>
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="R47" s="20">
         <f t="shared" si="40"/>
@@ -5907,10 +6054,10 @@
       </c>
       <c r="S47" s="28">
         <f>SUM(L47:R47)</f>
-        <v>1466</v>
-      </c>
-      <c r="U47" s="35" t="s">
-        <v>286</v>
+        <v>1458</v>
+      </c>
+      <c r="U47" s="33" t="s">
+        <v>285</v>
       </c>
       <c r="V47" s="20">
         <f>V45+V46</f>
@@ -5922,7 +6069,7 @@
       </c>
       <c r="X47" s="20">
         <f t="shared" si="41"/>
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Y47" s="20">
         <f t="shared" si="41"/>
@@ -5934,7 +6081,7 @@
       </c>
       <c r="AA47" s="20">
         <f t="shared" si="41"/>
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AB47" s="20">
         <f t="shared" si="41"/>
@@ -5942,12 +6089,12 @@
       </c>
       <c r="AC47" s="28">
         <f>SUM(V47:AB47)</f>
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B48" t="s">
         <v>71</v>
@@ -5969,7 +6116,7 @@
       </c>
       <c r="N48" s="30">
         <f t="shared" si="42"/>
-        <v>0.13106796116504854</v>
+        <v>0.11822660098522167</v>
       </c>
       <c r="O48" s="30">
         <f t="shared" si="42"/>
@@ -5981,14 +6128,14 @@
       </c>
       <c r="Q48" s="30">
         <f t="shared" si="42"/>
-        <v>0.10043668122270742</v>
+        <v>8.4821428571428575E-2</v>
       </c>
       <c r="R48" s="30">
         <f t="shared" si="42"/>
         <v>6.4220183486238536E-2</v>
       </c>
-      <c r="S48" s="38"/>
-      <c r="U48" s="39"/>
+      <c r="S48" s="36"/>
+      <c r="U48" s="37"/>
       <c r="V48" s="30">
         <f>V46/V47</f>
         <v>6.3926940639269403E-2</v>
@@ -5999,7 +6146,7 @@
       </c>
       <c r="X48" s="30">
         <f t="shared" si="43"/>
-        <v>0.13526570048309178</v>
+        <v>0.11822660098522167</v>
       </c>
       <c r="Y48" s="30">
         <f t="shared" si="43"/>
@@ -6011,17 +6158,17 @@
       </c>
       <c r="AA48" s="30">
         <f t="shared" si="43"/>
-        <v>0.12719298245614036</v>
+        <v>0.11160714285714286</v>
       </c>
       <c r="AB48" s="30">
         <f t="shared" si="43"/>
         <v>5.9633027522935783E-2</v>
       </c>
-      <c r="AC48" s="38"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="AC48" s="36"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s">
         <v>72</v>
@@ -6033,9 +6180,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
@@ -6047,9 +6194,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s">
         <v>74</v>
@@ -6060,32 +6207,32 @@
       <c r="G51" t="s">
         <v>170</v>
       </c>
-      <c r="K51" s="32" t="s">
+      <c r="K51" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+      <c r="U51" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="U51" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="V51" s="32"/>
-      <c r="W51" s="32"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="32"/>
-      <c r="AA51" s="32"/>
-      <c r="AB51" s="32"/>
-      <c r="AC51" s="32"/>
-    </row>
-    <row r="52" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="38"/>
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="38"/>
+      <c r="AB51" s="38"/>
+      <c r="AC51" s="38"/>
+    </row>
+    <row r="52" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
@@ -6096,32 +6243,32 @@
       <c r="G52" t="s">
         <v>170</v>
       </c>
-      <c r="K52" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="U52" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="V52" s="31"/>
-      <c r="W52" s="31"/>
-      <c r="X52" s="31"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="31"/>
-      <c r="AB52" s="31"/>
-      <c r="AC52" s="31"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="K52" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="U52" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="39"/>
+      <c r="Z52" s="39"/>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s">
         <v>76</v>
@@ -6134,54 +6281,54 @@
       </c>
       <c r="K53" s="24"/>
       <c r="L53" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="M53" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="M53" s="25" t="s">
+      <c r="N53" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="N53" s="25" t="s">
+      <c r="O53" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="O53" s="25" t="s">
+      <c r="P53" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="P53" s="25" t="s">
+      <c r="Q53" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="Q53" s="25" t="s">
+      <c r="R53" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="R53" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="S53" s="33"/>
-      <c r="U53" s="34"/>
+      <c r="S53" s="31"/>
+      <c r="U53" s="32"/>
       <c r="V53" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="W53" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="W53" s="25" t="s">
+      <c r="X53" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="X53" s="25" t="s">
+      <c r="Y53" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="Y53" s="25" t="s">
+      <c r="Z53" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="Z53" s="25" t="s">
+      <c r="AA53" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="AA53" s="25" t="s">
+      <c r="AB53" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="AB53" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC53" s="33"/>
-    </row>
-    <row r="54" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AC53" s="31"/>
+    </row>
+    <row r="54" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A54" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C54" s="1">
         <v>105823</v>
@@ -6215,8 +6362,8 @@
         <v>6</v>
       </c>
       <c r="S54" s="28"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="35"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="33"/>
       <c r="V54" s="20">
         <v>0</v>
       </c>
@@ -6239,8 +6386,9 @@
         <v>6</v>
       </c>
       <c r="AC54" s="28"/>
-    </row>
-    <row r="55" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD54" s="54"/>
+    </row>
+    <row r="55" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F55" t="s">
         <v>169</v>
       </c>
@@ -6271,12 +6419,14 @@
       <c r="R55" s="21">
         <v>188</v>
       </c>
-      <c r="S55" s="36">
+      <c r="S55" s="34">
         <f>SUM(L55:R55)</f>
         <v>1289</v>
       </c>
-      <c r="T55" s="20"/>
-      <c r="U55" s="37" t="s">
+      <c r="T55" s="47">
+        <v>8</v>
+      </c>
+      <c r="U55" s="35" t="s">
         <v>23</v>
       </c>
       <c r="V55" s="21">
@@ -6286,7 +6436,7 @@
         <v>180</v>
       </c>
       <c r="X55" s="21">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y55" s="21">
         <v>192</v>
@@ -6295,19 +6445,22 @@
         <v>183</v>
       </c>
       <c r="AA55" s="21">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB55" s="21">
-        <v>192</v>
-      </c>
-      <c r="AC55" s="36">
+        <v>193</v>
+      </c>
+      <c r="AC55" s="34">
         <f>SUM(V55:AB55)</f>
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.6">
+        <v>1297</v>
+      </c>
+      <c r="AD55" s="54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A56" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C56" s="2">
         <v>105846</v>
@@ -6319,7 +6472,7 @@
         <v>169</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="L56" s="22">
         <v>26</v>
@@ -6328,7 +6481,7 @@
         <v>24</v>
       </c>
       <c r="N56" s="22">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O56" s="22">
         <v>7</v>
@@ -6337,18 +6490,18 @@
         <v>10</v>
       </c>
       <c r="Q56" s="22">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R56" s="22">
         <v>30</v>
       </c>
-      <c r="S56" s="36">
+      <c r="S56" s="34">
         <f>SUM(L56:R56)</f>
-        <v>177</v>
-      </c>
-      <c r="T56" s="20"/>
-      <c r="U56" s="37" t="s">
-        <v>24</v>
+        <v>169</v>
+      </c>
+      <c r="T56" s="47"/>
+      <c r="U56" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="V56" s="22">
         <v>26</v>
@@ -6357,7 +6510,7 @@
         <v>22</v>
       </c>
       <c r="X56" s="22">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y56" s="22">
         <v>7</v>
@@ -6366,17 +6519,18 @@
         <v>10</v>
       </c>
       <c r="AA56" s="22">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB56" s="22">
-        <v>26</v>
-      </c>
-      <c r="AC56" s="36">
+        <v>25</v>
+      </c>
+      <c r="AC56" s="34">
         <f>SUM(V56:AB56)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.6">
+        <v>161</v>
+      </c>
+      <c r="AD56" s="55"/>
+    </row>
+    <row r="57" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F57" t="s">
         <v>169</v>
       </c>
@@ -6384,7 +6538,7 @@
         <v>169</v>
       </c>
       <c r="K57" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L57" s="20">
         <f>L55+L56</f>
@@ -6396,7 +6550,7 @@
       </c>
       <c r="N57" s="20">
         <f t="shared" si="44"/>
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O57" s="20">
         <f t="shared" si="44"/>
@@ -6408,7 +6562,7 @@
       </c>
       <c r="Q57" s="20">
         <f t="shared" si="44"/>
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R57" s="20">
         <f t="shared" si="44"/>
@@ -6416,11 +6570,11 @@
       </c>
       <c r="S57" s="28">
         <f>SUM(L57:R57)</f>
-        <v>1466</v>
-      </c>
-      <c r="T57" s="20"/>
-      <c r="U57" s="35" t="s">
-        <v>286</v>
+        <v>1458</v>
+      </c>
+      <c r="T57" s="47"/>
+      <c r="U57" s="33" t="s">
+        <v>285</v>
       </c>
       <c r="V57" s="20">
         <f>V55+V56</f>
@@ -6432,7 +6586,7 @@
       </c>
       <c r="X57" s="20">
         <f t="shared" si="45"/>
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Y57" s="20">
         <f t="shared" si="45"/>
@@ -6444,7 +6598,7 @@
       </c>
       <c r="AA57" s="20">
         <f t="shared" si="45"/>
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AB57" s="20">
         <f t="shared" si="45"/>
@@ -6452,10 +6606,11 @@
       </c>
       <c r="AC57" s="28">
         <f>SUM(V57:AB57)</f>
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1458</v>
+      </c>
+      <c r="AD57" s="55"/>
+    </row>
+    <row r="58" spans="1:30" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="F58" t="s">
         <v>165</v>
       </c>
@@ -6473,7 +6628,7 @@
       </c>
       <c r="N58" s="30">
         <f t="shared" si="46"/>
-        <v>0.14492753623188406</v>
+        <v>0.12807881773399016</v>
       </c>
       <c r="O58" s="30">
         <f t="shared" si="46"/>
@@ -6485,15 +6640,15 @@
       </c>
       <c r="Q58" s="30">
         <f t="shared" si="46"/>
-        <v>0.21929824561403508</v>
+        <v>0.20535714285714285</v>
       </c>
       <c r="R58" s="30">
         <f t="shared" si="46"/>
         <v>0.13761467889908258</v>
       </c>
-      <c r="S58" s="38"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="39"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="37"/>
       <c r="V58" s="30">
         <f>V56/V57</f>
         <v>0.11872146118721461</v>
@@ -6504,7 +6659,7 @@
       </c>
       <c r="X58" s="30">
         <f t="shared" si="47"/>
-        <v>0.14492753623188406</v>
+        <v>0.12315270935960591</v>
       </c>
       <c r="Y58" s="30">
         <f t="shared" si="47"/>
@@ -6516,44 +6671,46 @@
       </c>
       <c r="AA58" s="30">
         <f t="shared" si="47"/>
-        <v>0.21491228070175439</v>
+        <v>0.20535714285714285</v>
       </c>
       <c r="AB58" s="30">
         <f t="shared" si="47"/>
-        <v>0.11926605504587157</v>
-      </c>
-      <c r="AC58" s="38"/>
-    </row>
-    <row r="59" spans="1:29" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>0.11467889908256881</v>
+      </c>
+      <c r="AC58" s="36"/>
+      <c r="AD58" s="55"/>
+    </row>
+    <row r="59" spans="1:30" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="F59" t="s">
         <v>165</v>
       </c>
       <c r="G59" t="s">
         <v>165</v>
       </c>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31"/>
-      <c r="W59" s="31"/>
-      <c r="X59" s="31"/>
-      <c r="Y59" s="31"/>
-      <c r="Z59" s="31"/>
-      <c r="AA59" s="31"/>
-      <c r="AB59" s="31"/>
-      <c r="AC59" s="31"/>
-    </row>
-    <row r="60" spans="1:29" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="47"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="39"/>
+      <c r="Z59" s="39"/>
+      <c r="AA59" s="39"/>
+      <c r="AB59" s="39"/>
+      <c r="AC59" s="39"/>
+      <c r="AD59" s="55"/>
+    </row>
+    <row r="60" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A60" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C60" s="1">
         <v>105919</v>
@@ -6564,31 +6721,32 @@
       <c r="G60" t="s">
         <v>165</v>
       </c>
-      <c r="K60" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="V60" s="31"/>
-      <c r="W60" s="31"/>
-      <c r="X60" s="31"/>
-      <c r="Y60" s="31"/>
-      <c r="Z60" s="31"/>
-      <c r="AA60" s="31"/>
-      <c r="AB60" s="31"/>
-      <c r="AC60" s="31"/>
-    </row>
-    <row r="61" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="K60" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="47"/>
+      <c r="U60" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="39"/>
+      <c r="AB60" s="39"/>
+      <c r="AC60" s="39"/>
+      <c r="AD60" s="54"/>
+    </row>
+    <row r="61" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F61" t="s">
         <v>169</v>
       </c>
@@ -6597,53 +6755,54 @@
       </c>
       <c r="K61" s="24"/>
       <c r="L61" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="M61" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="M61" s="25" t="s">
+      <c r="N61" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="N61" s="25" t="s">
+      <c r="O61" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="O61" s="25" t="s">
+      <c r="P61" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="P61" s="25" t="s">
+      <c r="Q61" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="Q61" s="25" t="s">
+      <c r="R61" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="R61" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="S61" s="33"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="34"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="47"/>
+      <c r="U61" s="32"/>
       <c r="V61" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="W61" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="W61" s="25" t="s">
+      <c r="X61" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="X61" s="25" t="s">
+      <c r="Y61" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="Y61" s="25" t="s">
+      <c r="Z61" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="Z61" s="25" t="s">
+      <c r="AA61" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="AA61" s="25" t="s">
+      <c r="AB61" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="AB61" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC61" s="33"/>
-    </row>
-    <row r="62" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AC61" s="31"/>
+      <c r="AD61" s="54"/>
+    </row>
+    <row r="62" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F62" t="s">
         <v>169</v>
       </c>
@@ -6673,8 +6832,8 @@
         <v>6</v>
       </c>
       <c r="S62" s="28"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="35"/>
+      <c r="T62" s="47"/>
+      <c r="U62" s="33"/>
       <c r="V62" s="20">
         <v>0</v>
       </c>
@@ -6697,10 +6856,11 @@
         <v>6</v>
       </c>
       <c r="AC62" s="28"/>
-    </row>
-    <row r="63" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD62" s="54"/>
+    </row>
+    <row r="63" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A63" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C63" s="2">
         <v>105940</v>
@@ -6735,22 +6895,24 @@
       <c r="R63" s="21">
         <v>203</v>
       </c>
-      <c r="S63" s="36">
+      <c r="S63" s="34">
         <f>SUM(L63:R63)</f>
         <v>1319</v>
       </c>
-      <c r="T63" s="20"/>
-      <c r="U63" s="37" t="s">
+      <c r="T63" s="46">
+        <v>20</v>
+      </c>
+      <c r="U63" s="35" t="s">
         <v>23</v>
       </c>
       <c r="V63" s="21">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="W63" s="21">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="X63" s="21">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Y63" s="21">
         <v>192</v>
@@ -6759,17 +6921,20 @@
         <v>183</v>
       </c>
       <c r="AA63" s="21">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB63" s="21">
-        <v>208</v>
-      </c>
-      <c r="AC63" s="36">
+        <v>209</v>
+      </c>
+      <c r="AC63" s="34">
         <f>SUM(V63:AB63)</f>
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.6">
+        <v>1405</v>
+      </c>
+      <c r="AD63" s="50">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F64" t="s">
         <v>165</v>
       </c>
@@ -6777,7 +6942,7 @@
         <v>165</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="L64" s="22">
         <v>21</v>
@@ -6786,7 +6951,7 @@
         <v>24</v>
       </c>
       <c r="N64" s="22">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O64" s="22">
         <v>7</v>
@@ -6795,24 +6960,24 @@
         <v>10</v>
       </c>
       <c r="Q64" s="22">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R64" s="22">
         <v>15</v>
       </c>
-      <c r="S64" s="36">
+      <c r="S64" s="34">
         <f>SUM(L64:R64)</f>
-        <v>147</v>
-      </c>
-      <c r="T64" s="20"/>
-      <c r="U64" s="37" t="s">
-        <v>24</v>
+        <v>139</v>
+      </c>
+      <c r="T64" s="47"/>
+      <c r="U64" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="V64" s="22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="W64" s="22">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="X64" s="22">
         <v>10</v>
@@ -6824,17 +6989,18 @@
         <v>10</v>
       </c>
       <c r="AA64" s="22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AB64" s="22">
         <v>9</v>
       </c>
-      <c r="AC64" s="36">
+      <c r="AC64" s="34">
         <f>SUM(V64:AB64)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.6">
+        <v>53</v>
+      </c>
+      <c r="AD64" s="55"/>
+    </row>
+    <row r="65" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F65" t="s">
         <v>169</v>
       </c>
@@ -6842,7 +7008,7 @@
         <v>169</v>
       </c>
       <c r="K65" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L65" s="20">
         <f>L63+L64</f>
@@ -6854,7 +7020,7 @@
       </c>
       <c r="N65" s="20">
         <f t="shared" si="48"/>
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O65" s="20">
         <f t="shared" si="48"/>
@@ -6866,7 +7032,7 @@
       </c>
       <c r="Q65" s="20">
         <f t="shared" si="48"/>
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R65" s="20">
         <f t="shared" si="48"/>
@@ -6874,11 +7040,11 @@
       </c>
       <c r="S65" s="28">
         <f>SUM(L65:R65)</f>
-        <v>1466</v>
-      </c>
-      <c r="T65" s="20"/>
-      <c r="U65" s="35" t="s">
-        <v>286</v>
+        <v>1458</v>
+      </c>
+      <c r="T65" s="47"/>
+      <c r="U65" s="33" t="s">
+        <v>285</v>
       </c>
       <c r="V65" s="20">
         <f>V63+V64</f>
@@ -6890,7 +7056,7 @@
       </c>
       <c r="X65" s="20">
         <f t="shared" si="49"/>
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Y65" s="20">
         <f t="shared" si="49"/>
@@ -6902,20 +7068,21 @@
       </c>
       <c r="AA65" s="20">
         <f t="shared" si="49"/>
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AB65" s="20">
         <f t="shared" si="49"/>
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AC65" s="28">
         <f>SUM(V65:AB65)</f>
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1458</v>
+      </c>
+      <c r="AD65" s="55"/>
+    </row>
+    <row r="66" spans="1:30" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A66" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C66" s="17">
         <v>110001</v>
@@ -6937,7 +7104,7 @@
       </c>
       <c r="N66" s="30">
         <f t="shared" si="50"/>
-        <v>0.14009661835748793</v>
+        <v>0.12315270935960591</v>
       </c>
       <c r="O66" s="30">
         <f t="shared" si="50"/>
@@ -6949,29 +7116,26 @@
       </c>
       <c r="Q66" s="30">
         <f t="shared" si="50"/>
-        <v>0.17982456140350878</v>
+        <v>0.16517857142857142</v>
       </c>
       <c r="R66" s="30">
         <f t="shared" si="50"/>
         <v>6.8807339449541288E-2</v>
       </c>
-      <c r="S66" s="38">
-        <f>1432-S65</f>
-        <v>-34</v>
-      </c>
-      <c r="T66" s="20"/>
-      <c r="U66" s="39"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="47"/>
+      <c r="U66" s="37"/>
       <c r="V66" s="30">
         <f>V64/V65</f>
-        <v>4.1095890410958902E-2</v>
+        <v>2.7397260273972601E-2</v>
       </c>
       <c r="W66" s="30">
         <f t="shared" ref="W66:AB66" si="51">W64/W65</f>
-        <v>5.9405940594059403E-2</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="X66" s="30">
         <f t="shared" si="51"/>
-        <v>4.8309178743961352E-2</v>
+        <v>4.9261083743842367E-2</v>
       </c>
       <c r="Y66" s="30">
         <f t="shared" si="51"/>
@@ -6983,49 +7147,48 @@
       </c>
       <c r="AA66" s="30">
         <f t="shared" si="51"/>
-        <v>5.2631578947368418E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="AB66" s="30">
         <f t="shared" si="51"/>
-        <v>4.1474654377880185E-2</v>
-      </c>
-      <c r="AC66" s="38">
-        <f>1432-AC65</f>
-        <v>-33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>4.1284403669724773E-2</v>
+      </c>
+      <c r="AC66" s="36"/>
+      <c r="AD66" s="56"/>
+    </row>
+    <row r="67" spans="1:30" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="F67" t="s">
         <v>170</v>
       </c>
       <c r="G67" t="s">
         <v>170</v>
       </c>
-      <c r="K67" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="20"/>
-      <c r="U67" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="V67" s="31"/>
-      <c r="W67" s="31"/>
-      <c r="X67" s="31"/>
-      <c r="Y67" s="31"/>
-      <c r="Z67" s="31"/>
-      <c r="AA67" s="31"/>
-      <c r="AB67" s="31"/>
-      <c r="AC67" s="31"/>
-    </row>
-    <row r="68" spans="1:29" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="K67" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="47"/>
+      <c r="U67" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="39"/>
+      <c r="Y67" s="39"/>
+      <c r="Z67" s="39"/>
+      <c r="AA67" s="39"/>
+      <c r="AB67" s="39"/>
+      <c r="AC67" s="39"/>
+      <c r="AD67" s="56"/>
+    </row>
+    <row r="68" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F68" t="s">
         <v>167</v>
       </c>
@@ -7034,55 +7197,56 @@
       </c>
       <c r="K68" s="24"/>
       <c r="L68" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="M68" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="M68" s="25" t="s">
+      <c r="N68" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="N68" s="25" t="s">
+      <c r="O68" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="O68" s="25" t="s">
+      <c r="P68" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="P68" s="25" t="s">
+      <c r="Q68" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="Q68" s="25" t="s">
+      <c r="R68" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="R68" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="S68" s="33"/>
-      <c r="T68" s="20"/>
-      <c r="U68" s="34"/>
+      <c r="S68" s="31"/>
+      <c r="T68" s="47"/>
+      <c r="U68" s="32"/>
       <c r="V68" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="W68" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="W68" s="25" t="s">
+      <c r="X68" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="X68" s="25" t="s">
+      <c r="Y68" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="Y68" s="25" t="s">
+      <c r="Z68" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="Z68" s="25" t="s">
+      <c r="AA68" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="AA68" s="25" t="s">
+      <c r="AB68" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="AB68" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC68" s="33"/>
-    </row>
-    <row r="69" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AC68" s="31"/>
+      <c r="AD68" s="56"/>
+    </row>
+    <row r="69" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A69" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C69" s="18">
         <v>110023</v>
@@ -7116,8 +7280,8 @@
         <v>6</v>
       </c>
       <c r="S69" s="28"/>
-      <c r="T69" s="20"/>
-      <c r="U69" s="35"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="33"/>
       <c r="V69" s="20">
         <v>0</v>
       </c>
@@ -7140,8 +7304,9 @@
         <v>6</v>
       </c>
       <c r="AC69" s="28"/>
-    </row>
-    <row r="70" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD69" s="57"/>
+    </row>
+    <row r="70" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F70" t="s">
         <v>167</v>
       </c>
@@ -7172,43 +7337,48 @@
       <c r="R70" s="21">
         <v>201</v>
       </c>
-      <c r="S70" s="36">
+      <c r="S70" s="34">
         <f>SUM(L70:R70)</f>
         <v>1329</v>
       </c>
-      <c r="T70" s="20"/>
-      <c r="U70" s="37" t="s">
+      <c r="T70" s="47">
+        <v>64</v>
+      </c>
+      <c r="U70" s="35" t="s">
         <v>23</v>
       </c>
       <c r="V70" s="21">
+        <v>213</v>
+      </c>
+      <c r="W70" s="21">
+        <v>195</v>
+      </c>
+      <c r="X70" s="21">
+        <v>198</v>
+      </c>
+      <c r="Y70" s="21">
+        <v>192</v>
+      </c>
+      <c r="Z70" s="21">
+        <v>183</v>
+      </c>
+      <c r="AA70" s="21">
+        <v>217</v>
+      </c>
+      <c r="AB70" s="21">
         <v>209</v>
       </c>
-      <c r="W70" s="21">
-        <v>194</v>
-      </c>
-      <c r="X70" s="21">
-        <v>188</v>
-      </c>
-      <c r="Y70" s="21">
-        <v>183</v>
-      </c>
-      <c r="Z70" s="21">
-        <v>216</v>
-      </c>
-      <c r="AA70" s="21">
-        <v>206</v>
-      </c>
-      <c r="AB70" s="21">
-        <v>206</v>
-      </c>
-      <c r="AC70" s="36">
+      <c r="AC70" s="34">
         <f>SUM(V70:AB70)</f>
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.6">
+        <v>1407</v>
+      </c>
+      <c r="AD70" s="51">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A71" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C71" s="2">
         <v>110117</v>
@@ -7220,7 +7390,7 @@
         <v>167</v>
       </c>
       <c r="K71" s="27" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="L71" s="22">
         <v>19</v>
@@ -7229,7 +7399,7 @@
         <v>19</v>
       </c>
       <c r="N71" s="22">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O71" s="22">
         <v>7</v>
@@ -7238,46 +7408,47 @@
         <v>10</v>
       </c>
       <c r="Q71" s="22">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R71" s="22">
         <v>17</v>
       </c>
-      <c r="S71" s="36">
+      <c r="S71" s="34">
         <f>SUM(L71:R71)</f>
-        <v>137</v>
-      </c>
-      <c r="T71" s="20"/>
-      <c r="U71" s="37" t="s">
-        <v>24</v>
+        <v>129</v>
+      </c>
+      <c r="T71" s="47"/>
+      <c r="U71" s="27" t="s">
+        <v>305</v>
       </c>
       <c r="V71" s="22">
+        <v>6</v>
+      </c>
+      <c r="W71" s="22">
+        <v>7</v>
+      </c>
+      <c r="X71" s="22">
+        <v>5</v>
+      </c>
+      <c r="Y71" s="22">
+        <v>7</v>
+      </c>
+      <c r="Z71" s="22">
         <v>10</v>
       </c>
-      <c r="W71" s="22">
-        <v>8</v>
-      </c>
-      <c r="X71" s="22">
-        <v>19</v>
-      </c>
-      <c r="Y71" s="22">
-        <v>10</v>
-      </c>
-      <c r="Z71" s="22">
-        <v>12</v>
-      </c>
       <c r="AA71" s="22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AB71" s="22">
-        <v>6</v>
-      </c>
-      <c r="AC71" s="36">
+        <v>9</v>
+      </c>
+      <c r="AC71" s="34">
         <f>SUM(V71:AB71)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.6">
+        <v>51</v>
+      </c>
+      <c r="AD71" s="55"/>
+    </row>
+    <row r="72" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F72" t="s">
         <v>166</v>
       </c>
@@ -7285,7 +7456,7 @@
         <v>166</v>
       </c>
       <c r="K72" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L72" s="20">
         <f>L70+L71</f>
@@ -7297,7 +7468,7 @@
       </c>
       <c r="N72" s="20">
         <f t="shared" si="52"/>
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O72" s="20">
         <f t="shared" si="52"/>
@@ -7309,7 +7480,7 @@
       </c>
       <c r="Q72" s="20">
         <f t="shared" si="52"/>
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R72" s="20">
         <f t="shared" si="52"/>
@@ -7317,11 +7488,11 @@
       </c>
       <c r="S72" s="28">
         <f>SUM(L72:R72)</f>
-        <v>1466</v>
-      </c>
-      <c r="T72" s="20"/>
-      <c r="U72" s="35" t="s">
-        <v>286</v>
+        <v>1458</v>
+      </c>
+      <c r="T72" s="47"/>
+      <c r="U72" s="33" t="s">
+        <v>285</v>
       </c>
       <c r="V72" s="20">
         <f>V70+V71</f>
@@ -7333,30 +7504,31 @@
       </c>
       <c r="X72" s="20">
         <f t="shared" si="53"/>
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Y72" s="20">
         <f t="shared" si="53"/>
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Z72" s="20">
         <f t="shared" si="53"/>
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="AA72" s="20">
         <f t="shared" si="53"/>
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AB72" s="20">
         <f t="shared" si="53"/>
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AC72" s="28">
         <f>SUM(V72:AB72)</f>
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+        <v>1458</v>
+      </c>
+      <c r="AD72" s="55"/>
+    </row>
+    <row r="73" spans="1:30" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="F73" t="s">
         <v>170</v>
       </c>
@@ -7374,7 +7546,7 @@
       </c>
       <c r="N73" s="30">
         <f t="shared" si="54"/>
-        <v>0.12560386473429952</v>
+        <v>0.10837438423645321</v>
       </c>
       <c r="O73" s="30">
         <f t="shared" si="54"/>
@@ -7386,48 +7558,49 @@
       </c>
       <c r="Q73" s="30">
         <f t="shared" si="54"/>
-        <v>0.17105263157894737</v>
+        <v>0.15625</v>
       </c>
       <c r="R73" s="30">
         <f t="shared" si="54"/>
         <v>7.7981651376146793E-2</v>
       </c>
-      <c r="S73" s="38"/>
-      <c r="T73" s="20"/>
-      <c r="U73" s="39"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="47"/>
+      <c r="U73" s="37"/>
       <c r="V73" s="30">
         <f>V71/V72</f>
-        <v>4.5662100456621002E-2</v>
+        <v>2.7397260273972601E-2</v>
       </c>
       <c r="W73" s="30">
         <f t="shared" ref="W73:AB73" si="55">W71/W72</f>
-        <v>3.9603960396039604E-2</v>
+        <v>3.4653465346534656E-2</v>
       </c>
       <c r="X73" s="30">
         <f t="shared" si="55"/>
-        <v>9.1787439613526575E-2</v>
+        <v>2.4630541871921183E-2</v>
       </c>
       <c r="Y73" s="30">
         <f t="shared" si="55"/>
-        <v>5.181347150259067E-2</v>
+        <v>3.5175879396984924E-2</v>
       </c>
       <c r="Z73" s="30">
         <f t="shared" si="55"/>
-        <v>5.2631578947368418E-2</v>
+        <v>5.181347150259067E-2</v>
       </c>
       <c r="AA73" s="30">
         <f t="shared" si="55"/>
-        <v>5.5045871559633031E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="AB73" s="30">
         <f t="shared" si="55"/>
-        <v>2.8301886792452831E-2</v>
-      </c>
-      <c r="AC73" s="38"/>
-    </row>
-    <row r="74" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.6">
+        <v>4.1284403669724773E-2</v>
+      </c>
+      <c r="AC73" s="36"/>
+      <c r="AD73" s="55"/>
+    </row>
+    <row r="74" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A74" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C74" s="18">
         <v>110143</v>
@@ -7447,7 +7620,7 @@
       <c r="Q74" s="20"/>
       <c r="R74" s="20"/>
       <c r="S74" s="20"/>
-      <c r="T74" s="20"/>
+      <c r="T74" s="47"/>
       <c r="U74" s="20"/>
       <c r="V74" s="20"/>
       <c r="W74" s="20"/>
@@ -7457,8 +7630,9 @@
       <c r="AA74" s="20"/>
       <c r="AB74" s="20"/>
       <c r="AC74" s="20"/>
-    </row>
-    <row r="75" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD74" s="57"/>
+    </row>
+    <row r="75" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F75" t="s">
         <v>169</v>
       </c>
@@ -7474,7 +7648,7 @@
       <c r="Q75" s="20"/>
       <c r="R75" s="20"/>
       <c r="S75" s="20"/>
-      <c r="T75" s="20"/>
+      <c r="T75" s="47"/>
       <c r="U75" s="20"/>
       <c r="V75" s="20"/>
       <c r="W75" s="20"/>
@@ -7484,10 +7658,11 @@
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
       <c r="AC75" s="20"/>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="AD75" s="57"/>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B76" t="s">
         <v>99</v>
@@ -7499,9 +7674,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s">
         <v>100</v>
@@ -7513,9 +7688,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A78" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C78" s="1">
         <v>110258</v>
@@ -7535,7 +7710,7 @@
       <c r="Q78" s="20"/>
       <c r="R78" s="20"/>
       <c r="S78" s="20"/>
-      <c r="T78" s="20"/>
+      <c r="T78" s="47"/>
       <c r="U78" s="20"/>
       <c r="V78" s="20"/>
       <c r="W78" s="20"/>
@@ -7545,8 +7720,9 @@
       <c r="AA78" s="20"/>
       <c r="AB78" s="20"/>
       <c r="AC78" s="20"/>
-    </row>
-    <row r="79" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD78" s="54"/>
+    </row>
+    <row r="79" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F79" t="s">
         <v>165</v>
       </c>
@@ -7562,7 +7738,7 @@
       <c r="Q79" s="20"/>
       <c r="R79" s="20"/>
       <c r="S79" s="20"/>
-      <c r="T79" s="20"/>
+      <c r="T79" s="47"/>
       <c r="U79" s="20"/>
       <c r="V79" s="20"/>
       <c r="W79" s="20"/>
@@ -7572,10 +7748,11 @@
       <c r="AA79" s="20"/>
       <c r="AB79" s="20"/>
       <c r="AC79" s="20"/>
-    </row>
-    <row r="80" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD79" s="54"/>
+    </row>
+    <row r="80" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A80" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C80" s="5">
         <v>110341</v>
@@ -7595,7 +7772,7 @@
       <c r="Q80" s="20"/>
       <c r="R80" s="20"/>
       <c r="S80" s="20"/>
-      <c r="T80" s="20"/>
+      <c r="T80" s="47"/>
       <c r="U80" s="20"/>
       <c r="V80" s="20"/>
       <c r="W80" s="20"/>
@@ -7605,8 +7782,9 @@
       <c r="AA80" s="20"/>
       <c r="AB80" s="20"/>
       <c r="AC80" s="20"/>
-    </row>
-    <row r="81" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD80" s="58"/>
+    </row>
+    <row r="81" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F81" t="s">
         <v>166</v>
       </c>
@@ -7622,7 +7800,7 @@
       <c r="Q81" s="20"/>
       <c r="R81" s="20"/>
       <c r="S81" s="20"/>
-      <c r="T81" s="20"/>
+      <c r="T81" s="47"/>
       <c r="U81" s="20"/>
       <c r="V81" s="20"/>
       <c r="W81" s="20"/>
@@ -7632,10 +7810,11 @@
       <c r="AA81" s="20"/>
       <c r="AB81" s="20"/>
       <c r="AC81" s="20"/>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="AD81" s="58"/>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B82" t="s">
         <v>105</v>
@@ -7647,9 +7826,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B83" t="s">
         <v>106</v>
@@ -7661,9 +7840,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A84" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C84" s="19">
         <v>110455</v>
@@ -7683,7 +7862,7 @@
       <c r="Q84" s="20"/>
       <c r="R84" s="20"/>
       <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
+      <c r="T84" s="47"/>
       <c r="U84" s="20"/>
       <c r="V84" s="20"/>
       <c r="W84" s="20"/>
@@ -7693,8 +7872,9 @@
       <c r="AA84" s="20"/>
       <c r="AB84" s="20"/>
       <c r="AC84" s="20"/>
-    </row>
-    <row r="85" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD84" s="59"/>
+    </row>
+    <row r="85" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F85" t="s">
         <v>169</v>
       </c>
@@ -7710,7 +7890,7 @@
       <c r="Q85" s="20"/>
       <c r="R85" s="20"/>
       <c r="S85" s="20"/>
-      <c r="T85" s="20"/>
+      <c r="T85" s="47"/>
       <c r="U85" s="20"/>
       <c r="V85" s="20"/>
       <c r="W85" s="20"/>
@@ -7720,10 +7900,11 @@
       <c r="AA85" s="20"/>
       <c r="AB85" s="20"/>
       <c r="AC85" s="20"/>
-    </row>
-    <row r="86" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD85" s="59"/>
+    </row>
+    <row r="86" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A86" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B86" s="2">
         <v>6</v>
@@ -7746,7 +7927,7 @@
       <c r="Q86" s="20"/>
       <c r="R86" s="20"/>
       <c r="S86" s="20"/>
-      <c r="T86" s="20"/>
+      <c r="T86" s="47"/>
       <c r="U86" s="20"/>
       <c r="V86" s="20"/>
       <c r="W86" s="20"/>
@@ -7756,8 +7937,9 @@
       <c r="AA86" s="20"/>
       <c r="AB86" s="20"/>
       <c r="AC86" s="20"/>
-    </row>
-    <row r="87" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD86" s="55"/>
+    </row>
+    <row r="87" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B87" s="2">
         <v>2</v>
       </c>
@@ -7776,7 +7958,7 @@
       <c r="Q87" s="20"/>
       <c r="R87" s="20"/>
       <c r="S87" s="20"/>
-      <c r="T87" s="20"/>
+      <c r="T87" s="47"/>
       <c r="U87" s="20"/>
       <c r="V87" s="20"/>
       <c r="W87" s="20"/>
@@ -7786,10 +7968,11 @@
       <c r="AA87" s="20"/>
       <c r="AB87" s="20"/>
       <c r="AC87" s="20"/>
-    </row>
-    <row r="88" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD87" s="55"/>
+    </row>
+    <row r="88" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A88" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B88" s="1">
         <v>6</v>
@@ -7812,7 +7995,7 @@
       <c r="Q88" s="20"/>
       <c r="R88" s="20"/>
       <c r="S88" s="20"/>
-      <c r="T88" s="20"/>
+      <c r="T88" s="47"/>
       <c r="U88" s="20"/>
       <c r="V88" s="20"/>
       <c r="W88" s="20"/>
@@ -7822,8 +8005,9 @@
       <c r="AA88" s="20"/>
       <c r="AB88" s="20"/>
       <c r="AC88" s="20"/>
-    </row>
-    <row r="89" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD88" s="54"/>
+    </row>
+    <row r="89" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B89" s="1">
         <v>2</v>
       </c>
@@ -7842,7 +8026,7 @@
       <c r="Q89" s="20"/>
       <c r="R89" s="20"/>
       <c r="S89" s="20"/>
-      <c r="T89" s="20"/>
+      <c r="T89" s="47"/>
       <c r="U89" s="20"/>
       <c r="V89" s="20"/>
       <c r="W89" s="20"/>
@@ -7852,10 +8036,11 @@
       <c r="AA89" s="20"/>
       <c r="AB89" s="20"/>
       <c r="AC89" s="20"/>
-    </row>
-    <row r="90" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD89" s="54"/>
+    </row>
+    <row r="90" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A90" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B90" s="20" t="s">
         <v>113</v>
@@ -7866,10 +8051,12 @@
       <c r="G90" s="20" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="T90" s="47"/>
+      <c r="AD90" s="53"/>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A91" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -7882,7 +8069,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -7895,7 +8082,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7908,9 +8095,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A94" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C94" s="18">
         <v>110628</v>
@@ -7930,7 +8117,7 @@
       <c r="Q94" s="20"/>
       <c r="R94" s="20"/>
       <c r="S94" s="20"/>
-      <c r="T94" s="20"/>
+      <c r="T94" s="47"/>
       <c r="U94" s="20"/>
       <c r="V94" s="20"/>
       <c r="W94" s="20"/>
@@ -7940,8 +8127,9 @@
       <c r="AA94" s="20"/>
       <c r="AB94" s="20"/>
       <c r="AC94" s="20"/>
-    </row>
-    <row r="95" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD94" s="57"/>
+    </row>
+    <row r="95" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F95" t="s">
         <v>166</v>
       </c>
@@ -7957,7 +8145,7 @@
       <c r="Q95" s="20"/>
       <c r="R95" s="20"/>
       <c r="S95" s="20"/>
-      <c r="T95" s="20"/>
+      <c r="T95" s="47"/>
       <c r="U95" s="20"/>
       <c r="V95" s="20"/>
       <c r="W95" s="20"/>
@@ -7967,8 +8155,9 @@
       <c r="AA95" s="20"/>
       <c r="AB95" s="20"/>
       <c r="AC95" s="20"/>
-    </row>
-    <row r="96" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD95" s="57"/>
+    </row>
+    <row r="96" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F96" t="s">
         <v>166</v>
       </c>
@@ -7984,7 +8173,7 @@
       <c r="Q96" s="20"/>
       <c r="R96" s="20"/>
       <c r="S96" s="20"/>
-      <c r="T96" s="20"/>
+      <c r="T96" s="47"/>
       <c r="U96" s="20"/>
       <c r="V96" s="20"/>
       <c r="W96" s="20"/>
@@ -7994,10 +8183,11 @@
       <c r="AA96" s="20"/>
       <c r="AB96" s="20"/>
       <c r="AC96" s="20"/>
-    </row>
-    <row r="97" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD96" s="57"/>
+    </row>
+    <row r="97" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A97" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C97" s="19">
         <v>110650</v>
@@ -8017,7 +8207,7 @@
       <c r="Q97" s="20"/>
       <c r="R97" s="20"/>
       <c r="S97" s="20"/>
-      <c r="T97" s="20"/>
+      <c r="T97" s="47"/>
       <c r="U97" s="20"/>
       <c r="V97" s="20"/>
       <c r="W97" s="20"/>
@@ -8027,8 +8217,9 @@
       <c r="AA97" s="20"/>
       <c r="AB97" s="20"/>
       <c r="AC97" s="20"/>
-    </row>
-    <row r="98" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD97" s="59"/>
+    </row>
+    <row r="98" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F98" t="s">
         <v>166</v>
       </c>
@@ -8044,7 +8235,7 @@
       <c r="Q98" s="20"/>
       <c r="R98" s="20"/>
       <c r="S98" s="20"/>
-      <c r="T98" s="20"/>
+      <c r="T98" s="47"/>
       <c r="U98" s="20"/>
       <c r="V98" s="20"/>
       <c r="W98" s="20"/>
@@ -8054,8 +8245,9 @@
       <c r="AA98" s="20"/>
       <c r="AB98" s="20"/>
       <c r="AC98" s="20"/>
-    </row>
-    <row r="99" spans="1:29" s="19" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD98" s="59"/>
+    </row>
+    <row r="99" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F99" t="s">
         <v>166</v>
       </c>
@@ -8071,7 +8263,7 @@
       <c r="Q99" s="20"/>
       <c r="R99" s="20"/>
       <c r="S99" s="20"/>
-      <c r="T99" s="20"/>
+      <c r="T99" s="47"/>
       <c r="U99" s="20"/>
       <c r="V99" s="20"/>
       <c r="W99" s="20"/>
@@ -8081,13 +8273,14 @@
       <c r="AA99" s="20"/>
       <c r="AB99" s="20"/>
       <c r="AC99" s="20"/>
-    </row>
-    <row r="100" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD99" s="59"/>
+    </row>
+    <row r="100" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A100" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B100" s="20" t="s">
         <v>252</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>253</v>
       </c>
       <c r="F100" s="20" t="s">
         <v>169</v>
@@ -8095,10 +8288,12 @@
       <c r="G100" s="20" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="T100" s="47"/>
+      <c r="AD100" s="53"/>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B101" t="s">
         <v>124</v>
@@ -8110,9 +8305,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A102" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B102" s="20" t="s">
         <v>125</v>
@@ -8123,13 +8318,15 @@
       <c r="G102" s="20" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="103" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="T102" s="47"/>
+      <c r="AD102" s="53"/>
+    </row>
+    <row r="103" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A103" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F103" s="20" t="s">
         <v>169</v>
@@ -8137,10 +8334,12 @@
       <c r="G103" s="20" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="104" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="T103" s="47"/>
+      <c r="AD103" s="53"/>
+    </row>
+    <row r="104" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A104" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>135</v>
@@ -8160,7 +8359,7 @@
       <c r="Q104" s="20"/>
       <c r="R104" s="20"/>
       <c r="S104" s="20"/>
-      <c r="T104" s="20"/>
+      <c r="T104" s="47"/>
       <c r="U104" s="20"/>
       <c r="V104" s="20"/>
       <c r="W104" s="20"/>
@@ -8170,8 +8369,9 @@
       <c r="AA104" s="20"/>
       <c r="AB104" s="20"/>
       <c r="AC104" s="20"/>
-    </row>
-    <row r="105" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD104" s="60"/>
+    </row>
+    <row r="105" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B105" s="6" t="s">
         <v>136</v>
       </c>
@@ -8190,7 +8390,7 @@
       <c r="Q105" s="20"/>
       <c r="R105" s="20"/>
       <c r="S105" s="20"/>
-      <c r="T105" s="20"/>
+      <c r="T105" s="47"/>
       <c r="U105" s="20"/>
       <c r="V105" s="20"/>
       <c r="W105" s="20"/>
@@ -8200,10 +8400,11 @@
       <c r="AA105" s="20"/>
       <c r="AB105" s="20"/>
       <c r="AC105" s="20"/>
-    </row>
-    <row r="106" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD105" s="60"/>
+    </row>
+    <row r="106" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A106" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>137</v>
@@ -8223,7 +8424,7 @@
       <c r="Q106" s="20"/>
       <c r="R106" s="20"/>
       <c r="S106" s="20"/>
-      <c r="T106" s="20"/>
+      <c r="T106" s="47"/>
       <c r="U106" s="20"/>
       <c r="V106" s="20"/>
       <c r="W106" s="20"/>
@@ -8233,8 +8434,9 @@
       <c r="AA106" s="20"/>
       <c r="AB106" s="20"/>
       <c r="AC106" s="20"/>
-    </row>
-    <row r="107" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD106" s="54"/>
+    </row>
+    <row r="107" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B107" s="1" t="s">
         <v>138</v>
       </c>
@@ -8253,7 +8455,7 @@
       <c r="Q107" s="20"/>
       <c r="R107" s="20"/>
       <c r="S107" s="20"/>
-      <c r="T107" s="20"/>
+      <c r="T107" s="47"/>
       <c r="U107" s="20"/>
       <c r="V107" s="20"/>
       <c r="W107" s="20"/>
@@ -8263,10 +8465,11 @@
       <c r="AA107" s="20"/>
       <c r="AB107" s="20"/>
       <c r="AC107" s="20"/>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="AD107" s="54"/>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A108" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B108" t="s">
         <v>139</v>
@@ -8278,9 +8481,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A109" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>135</v>
@@ -8300,7 +8503,7 @@
       <c r="Q109" s="20"/>
       <c r="R109" s="20"/>
       <c r="S109" s="20"/>
-      <c r="T109" s="20"/>
+      <c r="T109" s="47"/>
       <c r="U109" s="20"/>
       <c r="V109" s="20"/>
       <c r="W109" s="20"/>
@@ -8310,8 +8513,9 @@
       <c r="AA109" s="20"/>
       <c r="AB109" s="20"/>
       <c r="AC109" s="20"/>
-    </row>
-    <row r="110" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD109" s="58"/>
+    </row>
+    <row r="110" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B110" s="5" t="s">
         <v>136</v>
       </c>
@@ -8330,7 +8534,7 @@
       <c r="Q110" s="20"/>
       <c r="R110" s="20"/>
       <c r="S110" s="20"/>
-      <c r="T110" s="20"/>
+      <c r="T110" s="47"/>
       <c r="U110" s="20"/>
       <c r="V110" s="20"/>
       <c r="W110" s="20"/>
@@ -8340,10 +8544,11 @@
       <c r="AA110" s="20"/>
       <c r="AB110" s="20"/>
       <c r="AC110" s="20"/>
-    </row>
-    <row r="111" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD110" s="58"/>
+    </row>
+    <row r="111" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A111" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>137</v>
@@ -8363,7 +8568,7 @@
       <c r="Q111" s="20"/>
       <c r="R111" s="20"/>
       <c r="S111" s="20"/>
-      <c r="T111" s="20"/>
+      <c r="T111" s="47"/>
       <c r="U111" s="20"/>
       <c r="V111" s="20"/>
       <c r="W111" s="20"/>
@@ -8373,8 +8578,9 @@
       <c r="AA111" s="20"/>
       <c r="AB111" s="20"/>
       <c r="AC111" s="20"/>
-    </row>
-    <row r="112" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD111" s="55"/>
+    </row>
+    <row r="112" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B112" s="2" t="s">
         <v>138</v>
       </c>
@@ -8393,7 +8599,7 @@
       <c r="Q112" s="20"/>
       <c r="R112" s="20"/>
       <c r="S112" s="20"/>
-      <c r="T112" s="20"/>
+      <c r="T112" s="47"/>
       <c r="U112" s="20"/>
       <c r="V112" s="20"/>
       <c r="W112" s="20"/>
@@ -8403,10 +8609,11 @@
       <c r="AA112" s="20"/>
       <c r="AB112" s="20"/>
       <c r="AC112" s="20"/>
-    </row>
-    <row r="113" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD112" s="55"/>
+    </row>
+    <row r="113" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A113" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B113" s="20" t="s">
         <v>139</v>
@@ -8417,10 +8624,12 @@
       <c r="G113" s="20" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="114" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="T113" s="47"/>
+      <c r="AD113" s="53"/>
+    </row>
+    <row r="114" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A114" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F114" t="s">
         <v>169</v>
@@ -8437,7 +8646,7 @@
       <c r="Q114" s="20"/>
       <c r="R114" s="20"/>
       <c r="S114" s="20"/>
-      <c r="T114" s="20"/>
+      <c r="T114" s="47"/>
       <c r="U114" s="20"/>
       <c r="V114" s="20"/>
       <c r="W114" s="20"/>
@@ -8447,8 +8656,9 @@
       <c r="AA114" s="20"/>
       <c r="AB114" s="20"/>
       <c r="AC114" s="20"/>
-    </row>
-    <row r="115" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD114" s="55"/>
+    </row>
+    <row r="115" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F115" t="s">
         <v>169</v>
       </c>
@@ -8464,7 +8674,7 @@
       <c r="Q115" s="20"/>
       <c r="R115" s="20"/>
       <c r="S115" s="20"/>
-      <c r="T115" s="20"/>
+      <c r="T115" s="47"/>
       <c r="U115" s="20"/>
       <c r="V115" s="20"/>
       <c r="W115" s="20"/>
@@ -8474,8 +8684,9 @@
       <c r="AA115" s="20"/>
       <c r="AB115" s="20"/>
       <c r="AC115" s="20"/>
-    </row>
-    <row r="116" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD115" s="55"/>
+    </row>
+    <row r="116" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F116" t="s">
         <v>165</v>
       </c>
@@ -8491,7 +8702,7 @@
       <c r="Q116" s="20"/>
       <c r="R116" s="20"/>
       <c r="S116" s="20"/>
-      <c r="T116" s="20"/>
+      <c r="T116" s="47"/>
       <c r="U116" s="20"/>
       <c r="V116" s="20"/>
       <c r="W116" s="20"/>
@@ -8501,10 +8712,11 @@
       <c r="AA116" s="20"/>
       <c r="AB116" s="20"/>
       <c r="AC116" s="20"/>
-    </row>
-    <row r="117" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD116" s="55"/>
+    </row>
+    <row r="117" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A117" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>169</v>
@@ -8521,7 +8733,7 @@
       <c r="Q117" s="20"/>
       <c r="R117" s="20"/>
       <c r="S117" s="20"/>
-      <c r="T117" s="20"/>
+      <c r="T117" s="47"/>
       <c r="U117" s="20"/>
       <c r="V117" s="20"/>
       <c r="W117" s="20"/>
@@ -8531,8 +8743,9 @@
       <c r="AA117" s="20"/>
       <c r="AB117" s="20"/>
       <c r="AC117" s="20"/>
-    </row>
-    <row r="118" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD117" s="54"/>
+    </row>
+    <row r="118" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F118" s="1" t="s">
         <v>169</v>
       </c>
@@ -8548,7 +8761,7 @@
       <c r="Q118" s="20"/>
       <c r="R118" s="20"/>
       <c r="S118" s="20"/>
-      <c r="T118" s="20"/>
+      <c r="T118" s="47"/>
       <c r="U118" s="20"/>
       <c r="V118" s="20"/>
       <c r="W118" s="20"/>
@@ -8558,8 +8771,9 @@
       <c r="AA118" s="20"/>
       <c r="AB118" s="20"/>
       <c r="AC118" s="20"/>
-    </row>
-    <row r="119" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD118" s="54"/>
+    </row>
+    <row r="119" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F119" s="1" t="s">
         <v>170</v>
       </c>
@@ -8575,7 +8789,7 @@
       <c r="Q119" s="20"/>
       <c r="R119" s="20"/>
       <c r="S119" s="20"/>
-      <c r="T119" s="20"/>
+      <c r="T119" s="47"/>
       <c r="U119" s="20"/>
       <c r="V119" s="20"/>
       <c r="W119" s="20"/>
@@ -8585,10 +8799,11 @@
       <c r="AA119" s="20"/>
       <c r="AB119" s="20"/>
       <c r="AC119" s="20"/>
-    </row>
-    <row r="120" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD119" s="54"/>
+    </row>
+    <row r="120" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A120" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>169</v>
@@ -8605,7 +8820,7 @@
       <c r="Q120" s="20"/>
       <c r="R120" s="20"/>
       <c r="S120" s="20"/>
-      <c r="T120" s="20"/>
+      <c r="T120" s="47"/>
       <c r="U120" s="20"/>
       <c r="V120" s="20"/>
       <c r="W120" s="20"/>
@@ -8615,8 +8830,9 @@
       <c r="AA120" s="20"/>
       <c r="AB120" s="20"/>
       <c r="AC120" s="20"/>
-    </row>
-    <row r="121" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD120" s="60"/>
+    </row>
+    <row r="121" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F121" s="6" t="s">
         <v>169</v>
       </c>
@@ -8632,7 +8848,7 @@
       <c r="Q121" s="20"/>
       <c r="R121" s="20"/>
       <c r="S121" s="20"/>
-      <c r="T121" s="20"/>
+      <c r="T121" s="47"/>
       <c r="U121" s="20"/>
       <c r="V121" s="20"/>
       <c r="W121" s="20"/>
@@ -8642,8 +8858,9 @@
       <c r="AA121" s="20"/>
       <c r="AB121" s="20"/>
       <c r="AC121" s="20"/>
-    </row>
-    <row r="122" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD121" s="60"/>
+    </row>
+    <row r="122" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F122" s="6" t="s">
         <v>170</v>
       </c>
@@ -8659,7 +8876,7 @@
       <c r="Q122" s="20"/>
       <c r="R122" s="20"/>
       <c r="S122" s="20"/>
-      <c r="T122" s="20"/>
+      <c r="T122" s="47"/>
       <c r="U122" s="20"/>
       <c r="V122" s="20"/>
       <c r="W122" s="20"/>
@@ -8669,10 +8886,11 @@
       <c r="AA122" s="20"/>
       <c r="AB122" s="20"/>
       <c r="AC122" s="20"/>
-    </row>
-    <row r="123" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD122" s="60"/>
+    </row>
+    <row r="123" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A123" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>170</v>
@@ -8689,7 +8907,7 @@
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="20"/>
-      <c r="T123" s="20"/>
+      <c r="T123" s="47"/>
       <c r="U123" s="20"/>
       <c r="V123" s="20"/>
       <c r="W123" s="20"/>
@@ -8699,8 +8917,9 @@
       <c r="AA123" s="20"/>
       <c r="AB123" s="20"/>
       <c r="AC123" s="20"/>
-    </row>
-    <row r="124" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD123" s="54"/>
+    </row>
+    <row r="124" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F124" s="1" t="s">
         <v>169</v>
       </c>
@@ -8716,7 +8935,7 @@
       <c r="Q124" s="20"/>
       <c r="R124" s="20"/>
       <c r="S124" s="20"/>
-      <c r="T124" s="20"/>
+      <c r="T124" s="47"/>
       <c r="U124" s="20"/>
       <c r="V124" s="20"/>
       <c r="W124" s="20"/>
@@ -8726,8 +8945,9 @@
       <c r="AA124" s="20"/>
       <c r="AB124" s="20"/>
       <c r="AC124" s="20"/>
-    </row>
-    <row r="125" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD124" s="54"/>
+    </row>
+    <row r="125" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F125" s="1" t="s">
         <v>169</v>
       </c>
@@ -8743,7 +8963,7 @@
       <c r="Q125" s="20"/>
       <c r="R125" s="20"/>
       <c r="S125" s="20"/>
-      <c r="T125" s="20"/>
+      <c r="T125" s="47"/>
       <c r="U125" s="20"/>
       <c r="V125" s="20"/>
       <c r="W125" s="20"/>
@@ -8753,10 +8973,11 @@
       <c r="AA125" s="20"/>
       <c r="AB125" s="20"/>
       <c r="AC125" s="20"/>
-    </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="AD125" s="54"/>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A126" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B126" t="s">
         <v>152</v>
@@ -8768,9 +8989,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A127" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B127" t="s">
         <v>153</v>
@@ -8782,9 +9003,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A128" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B128" t="s">
         <v>154</v>
@@ -8796,9 +9017,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A129" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B129" t="s">
         <v>155</v>
@@ -8810,12 +9031,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A130" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B130" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F130" t="s">
         <v>166</v>
@@ -8824,9 +9045,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A131" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B131" t="s">
         <v>157</v>
@@ -8838,9 +9059,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A132" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B132" s="20" t="s">
         <v>158</v>
@@ -8851,10 +9072,12 @@
       <c r="G132" s="20" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="133" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="T132" s="47"/>
+      <c r="AD132" s="53"/>
+    </row>
+    <row r="133" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A133" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B133" s="20" t="s">
         <v>159</v>
@@ -8865,10 +9088,12 @@
       <c r="G133" s="20" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="134" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="T133" s="47"/>
+      <c r="AD133" s="53"/>
+    </row>
+    <row r="134" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A134" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>160</v>
@@ -8888,7 +9113,7 @@
       <c r="Q134" s="20"/>
       <c r="R134" s="20"/>
       <c r="S134" s="20"/>
-      <c r="T134" s="20"/>
+      <c r="T134" s="47"/>
       <c r="U134" s="20"/>
       <c r="V134" s="20"/>
       <c r="W134" s="20"/>
@@ -8898,8 +9123,9 @@
       <c r="AA134" s="20"/>
       <c r="AB134" s="20"/>
       <c r="AC134" s="20"/>
-    </row>
-    <row r="135" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD134" s="58"/>
+    </row>
+    <row r="135" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B135" s="5" t="s">
         <v>161</v>
       </c>
@@ -8918,7 +9144,7 @@
       <c r="Q135" s="20"/>
       <c r="R135" s="20"/>
       <c r="S135" s="20"/>
-      <c r="T135" s="20"/>
+      <c r="T135" s="47"/>
       <c r="U135" s="20"/>
       <c r="V135" s="20"/>
       <c r="W135" s="20"/>
@@ -8928,10 +9154,11 @@
       <c r="AA135" s="20"/>
       <c r="AB135" s="20"/>
       <c r="AC135" s="20"/>
-    </row>
-    <row r="136" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD135" s="58"/>
+    </row>
+    <row r="136" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A136" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F136" s="18" t="s">
         <v>169</v>
@@ -8948,7 +9175,7 @@
       <c r="Q136" s="20"/>
       <c r="R136" s="20"/>
       <c r="S136" s="20"/>
-      <c r="T136" s="20"/>
+      <c r="T136" s="47"/>
       <c r="U136" s="20"/>
       <c r="V136" s="20"/>
       <c r="W136" s="20"/>
@@ -8958,8 +9185,9 @@
       <c r="AA136" s="20"/>
       <c r="AB136" s="20"/>
       <c r="AC136" s="20"/>
-    </row>
-    <row r="137" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD136" s="57"/>
+    </row>
+    <row r="137" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F137" s="18" t="s">
         <v>165</v>
       </c>
@@ -8975,7 +9203,7 @@
       <c r="Q137" s="20"/>
       <c r="R137" s="20"/>
       <c r="S137" s="20"/>
-      <c r="T137" s="20"/>
+      <c r="T137" s="47"/>
       <c r="U137" s="20"/>
       <c r="V137" s="20"/>
       <c r="W137" s="20"/>
@@ -8985,8 +9213,9 @@
       <c r="AA137" s="20"/>
       <c r="AB137" s="20"/>
       <c r="AC137" s="20"/>
-    </row>
-    <row r="138" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD137" s="57"/>
+    </row>
+    <row r="138" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
       <c r="F138" s="18" t="s">
         <v>166</v>
       </c>
@@ -9002,7 +9231,7 @@
       <c r="Q138" s="20"/>
       <c r="R138" s="20"/>
       <c r="S138" s="20"/>
-      <c r="T138" s="20"/>
+      <c r="T138" s="47"/>
       <c r="U138" s="20"/>
       <c r="V138" s="20"/>
       <c r="W138" s="20"/>
@@ -9012,81 +9241,124 @@
       <c r="AA138" s="20"/>
       <c r="AB138" s="20"/>
       <c r="AC138" s="20"/>
-    </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.6">
+      <c r="AD138" s="57"/>
+    </row>
+    <row r="139" spans="1:30" x14ac:dyDescent="0.6">
       <c r="A139" t="s">
+        <v>286</v>
+      </c>
+      <c r="B139" t="s">
         <v>287</v>
       </c>
-      <c r="B139" t="s">
+      <c r="F139" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G139" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="B140" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.6">
-      <c r="B140" t="s">
+      <c r="F140" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G140" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="B141" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.6">
-      <c r="B141" t="s">
+      <c r="F141" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="A142" t="s">
+        <v>294</v>
+      </c>
+      <c r="B142" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.6">
-      <c r="A142" t="s">
-        <v>295</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="F142" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G142" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="B143" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.6">
-      <c r="B143" t="s">
+      <c r="F143" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G143" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="B144" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.6">
-      <c r="B144" t="s">
+      <c r="F144" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G144" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B145" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B145" t="s">
-        <v>294</v>
+      <c r="F145" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G145" s="18" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="U51:AC51"/>
-    <mergeCell ref="U52:AC52"/>
-    <mergeCell ref="U59:AC59"/>
-    <mergeCell ref="U60:AC60"/>
-    <mergeCell ref="U67:AC67"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K52:S52"/>
-    <mergeCell ref="K59:S59"/>
-    <mergeCell ref="K60:S60"/>
-    <mergeCell ref="K67:S67"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="U9:AC9"/>
+    <mergeCell ref="U10:AC10"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="K10:S10"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="K27:S27"/>
+    <mergeCell ref="K34:S34"/>
+    <mergeCell ref="K35:S35"/>
+    <mergeCell ref="K24:S24"/>
+    <mergeCell ref="K17:S17"/>
     <mergeCell ref="K42:S42"/>
     <mergeCell ref="U26:AC26"/>
     <mergeCell ref="U27:AC27"/>
     <mergeCell ref="U34:AC34"/>
     <mergeCell ref="U35:AC35"/>
     <mergeCell ref="U42:AC42"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="K26:S26"/>
-    <mergeCell ref="K27:S27"/>
-    <mergeCell ref="K34:S34"/>
-    <mergeCell ref="K35:S35"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="U1:AC1"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U9:AC9"/>
-    <mergeCell ref="U10:AC10"/>
-    <mergeCell ref="K24:S24"/>
-    <mergeCell ref="K17:S17"/>
-    <mergeCell ref="K9:S9"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="K10:S10"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K52:S52"/>
+    <mergeCell ref="K59:S59"/>
+    <mergeCell ref="K60:S60"/>
+    <mergeCell ref="K67:S67"/>
+    <mergeCell ref="U51:AC51"/>
+    <mergeCell ref="U52:AC52"/>
+    <mergeCell ref="U59:AC59"/>
+    <mergeCell ref="U60:AC60"/>
+    <mergeCell ref="U67:AC67"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9108,7 +9380,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1">
         <v>3</v>
@@ -9116,7 +9388,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -9124,7 +9396,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -9132,17 +9404,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/논문/20250324/새 Microsoft Excel 워크시트.xlsx
+++ b/논문/20250324/새 Microsoft Excel 워크시트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portfolio\논문\20250324\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FC70F9-92E5-4276-885E-784FBEF0B7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE7BDB7-68FF-49A0-BBDC-F2A533B45135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2543" yWindow="480" windowWidth="16125" windowHeight="12098" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1310" yWindow="-20880" windowWidth="27100" windowHeight="15290" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="304">
   <si>
     <t>4 0.602740 0.455446 0.365297 0.455446</t>
   </si>
@@ -555,24 +555,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>crop_0_0_202410241905</t>
-  </si>
-  <si>
-    <t>crop_0_0_202410241916</t>
-  </si>
-  <si>
-    <t>crop_1_0_202410241737</t>
-  </si>
-  <si>
-    <t>crop_1_0_202410241846</t>
-  </si>
-  <si>
-    <t>crop_1_0_202410241905</t>
-  </si>
-  <si>
-    <t>crop_2_0_202410241825</t>
-  </si>
-  <si>
     <t>crop_image_250221_100519</t>
   </si>
   <si>
@@ -1007,6 +989,22 @@
   </si>
   <si>
     <t>미탐지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두 동일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 고정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 고정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번 고정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1017,7 +1015,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,7 +1347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1410,28 +1408,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1475,6 +1457,24 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1762,9 +1762,9 @@
       <selection activeCell="G3" sqref="G3:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="25.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:20" ht="25.5">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>6.5989847715736044E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2205,14 +2205,14 @@
       <selection activeCell="K132" sqref="K132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:19" ht="25.5">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>6.5989847715736044E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2507,642 +2507,642 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:1" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:1" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:1" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:1" s="1" customFormat="1">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:1" s="1" customFormat="1">
       <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:1" s="1" customFormat="1">
       <c r="A55" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:1" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:1" s="2" customFormat="1">
       <c r="A57" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:1" s="2" customFormat="1">
       <c r="A58" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:1" s="2" customFormat="1">
       <c r="A59" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:1" s="1" customFormat="1">
       <c r="A60" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:1" s="1" customFormat="1">
       <c r="A61" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:1" s="1" customFormat="1">
       <c r="A62" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:1" s="2" customFormat="1">
       <c r="A63" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:1" s="2" customFormat="1">
       <c r="A64" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:1" s="2" customFormat="1">
       <c r="A65" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:1" s="17" customFormat="1">
       <c r="A66" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:1" s="17" customFormat="1">
       <c r="A67" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:1" s="17" customFormat="1">
       <c r="A68" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:1" s="18" customFormat="1">
       <c r="A69" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:1" s="18" customFormat="1">
       <c r="A70" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:1" s="2" customFormat="1">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:1" s="2" customFormat="1">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:1" s="2" customFormat="1">
       <c r="A73" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:1" s="18" customFormat="1">
       <c r="A74" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:1" s="18" customFormat="1">
       <c r="A75" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:1" s="1" customFormat="1">
       <c r="A78" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:1" s="1" customFormat="1">
       <c r="A79" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:1" s="5" customFormat="1">
       <c r="A80" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:1" s="5" customFormat="1">
       <c r="A81" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:1" s="19" customFormat="1">
       <c r="A84" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:1" s="19" customFormat="1">
       <c r="A85" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:1" s="2" customFormat="1">
       <c r="A86" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:1" s="2" customFormat="1">
       <c r="A87" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:1" s="1" customFormat="1">
       <c r="A88" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:1" s="1" customFormat="1">
       <c r="A89" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:1" s="18" customFormat="1">
       <c r="A91" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:1" s="18" customFormat="1">
       <c r="A92" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:1" s="18" customFormat="1">
       <c r="A93" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:1" s="19" customFormat="1">
       <c r="A94" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:1" s="19" customFormat="1">
       <c r="A95" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:1" s="19" customFormat="1">
       <c r="A96" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:1" s="3" customFormat="1">
       <c r="A97" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:1" s="3" customFormat="1">
       <c r="A98" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:1" s="3" customFormat="1">
       <c r="A99" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:1" s="4" customFormat="1">
       <c r="A104" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="105" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:1" s="4" customFormat="1">
       <c r="A105" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:1" s="2" customFormat="1">
       <c r="A106" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:1" s="2" customFormat="1">
       <c r="A107" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:1" s="6" customFormat="1">
       <c r="A109" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:1" s="6" customFormat="1">
       <c r="A110" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:1" s="1" customFormat="1">
       <c r="A111" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:1" s="1" customFormat="1">
       <c r="A112" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:1" s="5" customFormat="1">
       <c r="A114" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:1" s="5" customFormat="1">
       <c r="A115" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="116" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:1" s="5" customFormat="1">
       <c r="A116" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="117" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:1" s="2" customFormat="1">
       <c r="A117" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="118" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:1" s="2" customFormat="1">
       <c r="A118" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="119" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:1" s="2" customFormat="1">
       <c r="A119" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="120" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:1" s="4" customFormat="1">
       <c r="A120" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:1" s="4" customFormat="1">
       <c r="A121" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:1" s="4" customFormat="1">
       <c r="A122" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="123" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:1" s="2" customFormat="1">
       <c r="A123" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:1" s="2" customFormat="1">
       <c r="A124" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:1" s="2" customFormat="1">
       <c r="A125" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="134" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:1" s="1" customFormat="1">
       <c r="A134" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="135" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:1" s="1" customFormat="1">
       <c r="A135" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:1" s="5" customFormat="1">
       <c r="A136" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="137" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:1" s="5" customFormat="1">
       <c r="A137" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:1" s="5" customFormat="1">
       <c r="A138" s="5" t="s">
         <v>164</v>
       </c>
@@ -3157,22 +3157,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68973864-0F46-4A02-99C8-DA7932EAF9E2}">
   <dimension ref="A1:AD145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD56" sqref="AD56"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y74" sqref="Y74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="11" max="19" width="9" style="20"/>
-    <col min="20" max="20" width="9" style="47"/>
+    <col min="20" max="20" width="9" style="41"/>
     <col min="21" max="29" width="9" style="20"/>
-    <col min="30" max="30" width="9" style="52"/>
+    <col min="30" max="30" width="9" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -3183,32 +3183,32 @@
       <c r="G1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="U1" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-    </row>
-    <row r="2" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="K1" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="U1" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+    </row>
+    <row r="2" spans="1:30" ht="17.25" thickBot="1">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -3219,32 +3219,32 @@
       <c r="G2" t="s">
         <v>169</v>
       </c>
-      <c r="K2" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="U2" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="K2" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="U2" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -3257,55 +3257,55 @@
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="R3" s="20" t="s">
         <v>278</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="P3" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="R3" s="42" t="s">
-        <v>284</v>
       </c>
       <c r="S3" s="28"/>
       <c r="U3" s="32"/>
       <c r="V3" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="X3" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y3" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z3" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA3" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB3" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="W3" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="X3" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y3" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z3" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA3" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB3" s="25" t="s">
-        <v>284</v>
-      </c>
       <c r="AC3" s="31"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -3364,9 +3364,9 @@
       </c>
       <c r="AC4" s="28"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -3405,7 +3405,7 @@
         <f>SUM(L5:R5)</f>
         <v>1296</v>
       </c>
-      <c r="T5" s="46">
+      <c r="T5" s="38">
         <v>5</v>
       </c>
       <c r="U5" s="35" t="s">
@@ -3436,13 +3436,13 @@
         <f>SUM(V5:AB5)</f>
         <v>1290</v>
       </c>
-      <c r="AD5" s="45">
+      <c r="AD5" s="40">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -3454,7 +3454,7 @@
         <v>170</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L6" s="22">
         <v>26</v>
@@ -3482,7 +3482,7 @@
         <v>162</v>
       </c>
       <c r="U6" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="V6" s="22">
         <v>26</v>
@@ -3510,9 +3510,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -3524,7 +3524,7 @@
         <v>170</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L7" s="20">
         <f>L5+L6</f>
@@ -3559,7 +3559,7 @@
         <v>1458</v>
       </c>
       <c r="U7" s="33" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V7" s="20">
         <f>V5+V6</f>
@@ -3594,9 +3594,9 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:30" s="20" customFormat="1" ht="17.25" thickBot="1">
       <c r="A8" s="20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>32</v>
@@ -3637,7 +3637,7 @@
         <v>0.11926605504587157</v>
       </c>
       <c r="S8" s="36"/>
-      <c r="T8" s="47"/>
+      <c r="T8" s="41"/>
       <c r="U8" s="37"/>
       <c r="V8" s="30">
         <f>V6/V7</f>
@@ -3668,11 +3668,11 @@
         <v>0.13302752293577982</v>
       </c>
       <c r="AC8" s="36"/>
-      <c r="AD8" s="53"/>
-    </row>
-    <row r="9" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD8" s="47"/>
+    </row>
+    <row r="9" spans="1:30" s="20" customFormat="1">
       <c r="A9" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>33</v>
@@ -3683,30 +3683,30 @@
       <c r="G9" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="53"/>
-    </row>
-    <row r="10" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="47"/>
+    </row>
+    <row r="10" spans="1:30" s="20" customFormat="1">
       <c r="A10" s="20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>34</v>
@@ -3719,34 +3719,34 @@
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="K10" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="53"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="K10" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="47"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -3758,58 +3758,58 @@
         <v>166</v>
       </c>
       <c r="I11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="R11" s="20" t="s">
         <v>278</v>
-      </c>
-      <c r="M11" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="N11" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="O11" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="P11" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q11" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="R11" s="42" t="s">
-        <v>284</v>
       </c>
       <c r="S11" s="28"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="42" t="s">
+      <c r="V11" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="W11" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="X11" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y11" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z11" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA11" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB11" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="W11" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="X11" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y11" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z11" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA11" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB11" s="42" t="s">
-        <v>284</v>
-      </c>
       <c r="AC11" s="28"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -3874,9 +3874,9 @@
       </c>
       <c r="AC12" s="28"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -3922,7 +3922,7 @@
         <f>SUM(L13:R13)</f>
         <v>1396</v>
       </c>
-      <c r="T13" s="46">
+      <c r="T13" s="38">
         <v>62</v>
       </c>
       <c r="U13" s="35" t="s">
@@ -3953,13 +3953,13 @@
         <f>SUM(V13:AB13)</f>
         <v>1373</v>
       </c>
-      <c r="AD13" s="45">
+      <c r="AD13" s="40">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -3978,7 +3978,7 @@
         <v>20</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L14" s="22">
         <v>9</v>
@@ -4006,7 +4006,7 @@
         <v>62</v>
       </c>
       <c r="U14" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="V14" s="22">
         <v>14</v>
@@ -4033,13 +4033,13 @@
         <f>SUM(V14:AB14)</f>
         <v>85</v>
       </c>
-      <c r="AD14" s="48">
+      <c r="AD14" s="42">
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L15" s="20">
         <f>L13+L14</f>
@@ -4093,7 +4093,7 @@
         <v>1458</v>
       </c>
       <c r="U15" s="33" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V15" s="20">
         <f>V13+V14</f>
@@ -4128,12 +4128,12 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:30" ht="17.25" thickBot="1">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F16" t="s">
         <v>170</v>
@@ -4149,31 +4149,31 @@
         <v>2</v>
       </c>
       <c r="K16" s="26"/>
-      <c r="L16" s="44">
+      <c r="L16" s="39">
         <f>L14/L15</f>
         <v>4.1095890410958902E-2</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="39">
         <f t="shared" ref="M16" si="11">M14/M15</f>
         <v>5.9405940594059403E-2</v>
       </c>
-      <c r="N16" s="44">
+      <c r="N16" s="39">
         <f t="shared" ref="N16" si="12">N14/N15</f>
         <v>2.9556650246305417E-2</v>
       </c>
-      <c r="O16" s="44">
+      <c r="O16" s="39">
         <f t="shared" ref="O16" si="13">O14/O15</f>
         <v>3.5175879396984924E-2</v>
       </c>
-      <c r="P16" s="44">
+      <c r="P16" s="39">
         <f t="shared" ref="P16" si="14">P14/P15</f>
         <v>5.181347150259067E-2</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="39">
         <f t="shared" ref="Q16" si="15">Q14/Q15</f>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="R16" s="44">
+      <c r="R16" s="39">
         <f t="shared" ref="R16" si="16">R14/R15</f>
         <v>4.5871559633027525E-2</v>
       </c>
@@ -4212,9 +4212,9 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:30" ht="17.25" thickBot="1">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -4232,32 +4232,32 @@
         <f>COUNTIF(G:G,5)</f>
         <v>44</v>
       </c>
-      <c r="K17" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="U17" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="K17" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="U17" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -4276,55 +4276,55 @@
         <v>23</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="42" t="s">
+      <c r="L18" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="R18" s="20" t="s">
         <v>278</v>
-      </c>
-      <c r="M18" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="N18" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="O18" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="P18" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q18" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="R18" s="42" t="s">
-        <v>284</v>
       </c>
       <c r="S18" s="28"/>
       <c r="U18" s="32"/>
       <c r="V18" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="W18" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="X18" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y18" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z18" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA18" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB18" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="W18" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="X18" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y18" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z18" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA18" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB18" s="25" t="s">
-        <v>284</v>
-      </c>
       <c r="AC18" s="31"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -4386,9 +4386,9 @@
       </c>
       <c r="AC19" s="28"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -4427,7 +4427,7 @@
         <f>SUM(L20:R20)</f>
         <v>1387</v>
       </c>
-      <c r="T20" s="46">
+      <c r="T20" s="38">
         <v>37</v>
       </c>
       <c r="U20" s="35" t="s">
@@ -4459,9 +4459,9 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
@@ -4473,7 +4473,7 @@
         <v>169</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L21" s="22">
         <v>10</v>
@@ -4501,7 +4501,7 @@
         <v>71</v>
       </c>
       <c r="U21" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="V21" s="22">
         <v>17</v>
@@ -4529,9 +4529,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -4543,7 +4543,7 @@
         <v>169</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L22" s="20">
         <f>L20+L21</f>
@@ -4578,7 +4578,7 @@
         <v>1458</v>
       </c>
       <c r="U22" s="33" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V22" s="20">
         <f>V20+V21</f>
@@ -4613,9 +4613,9 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:30" ht="17.25" thickBot="1">
       <c r="A23" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
@@ -4687,9 +4687,9 @@
       </c>
       <c r="AC23" s="36"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -4700,22 +4700,22 @@
       <c r="G24" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F25" t="s">
         <v>170</v>
@@ -4724,9 +4724,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="A26" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F26" t="s">
         <v>170</v>
@@ -4734,66 +4734,66 @@
       <c r="G26" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="54"/>
-    </row>
-    <row r="27" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="K26" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="48"/>
+    </row>
+    <row r="27" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="F27" t="s">
         <v>165</v>
       </c>
       <c r="G27" t="s">
         <v>165</v>
       </c>
-      <c r="K27" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="54"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="K27" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="48"/>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
@@ -4806,55 +4806,55 @@
       </c>
       <c r="K28" s="24"/>
       <c r="L28" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="M28" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="O28" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q28" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="R28" s="25" t="s">
         <v>278</v>
-      </c>
-      <c r="M28" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="N28" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="O28" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="P28" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q28" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="R28" s="25" t="s">
-        <v>284</v>
       </c>
       <c r="S28" s="31"/>
       <c r="U28" s="32"/>
       <c r="V28" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="W28" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="X28" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y28" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z28" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA28" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB28" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="W28" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="X28" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y28" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z28" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA28" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB28" s="25" t="s">
-        <v>284</v>
-      </c>
       <c r="AC28" s="31"/>
-      <c r="AD28" s="49"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="AD28" s="43"/>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B29" t="s">
         <v>52</v>
@@ -4912,9 +4912,9 @@
       </c>
       <c r="AC29" s="28"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -4953,7 +4953,7 @@
         <f>SUM(L30:R30)</f>
         <v>1289</v>
       </c>
-      <c r="T30" s="46">
+      <c r="T30" s="38">
         <v>5</v>
       </c>
       <c r="U30" s="35" t="s">
@@ -4984,13 +4984,13 @@
         <f>SUM(V30:AB30)</f>
         <v>1289</v>
       </c>
-      <c r="AD30" s="52">
+      <c r="AD30" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
@@ -5002,7 +5002,7 @@
         <v>166</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L31" s="22">
         <v>26</v>
@@ -5030,7 +5030,7 @@
         <v>169</v>
       </c>
       <c r="U31" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="V31" s="22">
         <v>26</v>
@@ -5058,9 +5058,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B32" t="s">
         <v>55</v>
@@ -5072,7 +5072,7 @@
         <v>166</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L32" s="20">
         <f>L30+L31</f>
@@ -5107,7 +5107,7 @@
         <v>1458</v>
       </c>
       <c r="U32" s="33" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V32" s="20">
         <f>V30+V31</f>
@@ -5142,9 +5142,9 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:30" ht="17.25" thickBot="1">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
@@ -5216,9 +5216,9 @@
       </c>
       <c r="AC33" s="36"/>
     </row>
-    <row r="34" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:30" ht="17.25" thickBot="1">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
@@ -5229,28 +5229,28 @@
       <c r="G34" t="s">
         <v>167</v>
       </c>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-    </row>
-    <row r="35" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+    </row>
+    <row r="35" spans="1:30" ht="17.25" thickBot="1">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
@@ -5261,32 +5261,32 @@
       <c r="G35" t="s">
         <v>167</v>
       </c>
-      <c r="K35" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="U35" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-    </row>
-    <row r="36" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="K35" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="U35" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="57"/>
+      <c r="AB35" s="57"/>
+      <c r="AC35" s="57"/>
+    </row>
+    <row r="36" spans="1:30" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C36" s="1">
         <v>105049</v>
@@ -5299,54 +5299,54 @@
       </c>
       <c r="K36" s="24"/>
       <c r="L36" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="O36" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="P36" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q36" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="R36" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="M36" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="N36" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="O36" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="P36" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q36" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="R36" s="25" t="s">
-        <v>284</v>
-      </c>
       <c r="S36" s="31"/>
-      <c r="T36" s="47"/>
+      <c r="T36" s="41"/>
       <c r="U36" s="32"/>
       <c r="V36" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="W36" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="X36" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y36" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z36" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA36" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB36" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="W36" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="X36" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y36" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z36" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA36" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB36" s="25" t="s">
-        <v>284</v>
-      </c>
       <c r="AC36" s="31"/>
-      <c r="AD36" s="54"/>
-    </row>
-    <row r="37" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD36" s="48"/>
+    </row>
+    <row r="37" spans="1:30" s="1" customFormat="1">
       <c r="F37" t="s">
         <v>167</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>6</v>
       </c>
       <c r="S37" s="28"/>
-      <c r="T37" s="47"/>
+      <c r="T37" s="41"/>
       <c r="U37" s="33"/>
       <c r="V37" s="20">
         <v>0</v>
@@ -5400,11 +5400,11 @@
         <v>6</v>
       </c>
       <c r="AC37" s="28"/>
-      <c r="AD37" s="54"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="AD37" s="48"/>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
         <v>61</v>
@@ -5443,7 +5443,7 @@
         <f>SUM(L38:R38)</f>
         <v>1379</v>
       </c>
-      <c r="T38" s="46">
+      <c r="T38" s="38">
         <v>64</v>
       </c>
       <c r="U38" s="35" t="s">
@@ -5474,13 +5474,13 @@
         <f>SUM(V38:AB38)</f>
         <v>1373</v>
       </c>
-      <c r="AD38" s="45">
+      <c r="AD38" s="40">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B39" t="s">
         <v>62</v>
@@ -5492,7 +5492,7 @@
         <v>165</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L39" s="22">
         <v>11</v>
@@ -5520,7 +5520,7 @@
         <v>79</v>
       </c>
       <c r="U39" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="V39" s="22">
         <v>12</v>
@@ -5548,9 +5548,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s">
         <v>63</v>
@@ -5562,7 +5562,7 @@
         <v>165</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L40" s="20">
         <f>L38+L39</f>
@@ -5597,7 +5597,7 @@
         <v>1458</v>
       </c>
       <c r="U40" s="33" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V40" s="20">
         <f>V38+V39</f>
@@ -5632,9 +5632,9 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:30" ht="17.25" thickBot="1">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s">
         <v>64</v>
@@ -5706,9 +5706,9 @@
       </c>
       <c r="AC41" s="36"/>
     </row>
-    <row r="42" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:30" ht="17.25" thickBot="1">
       <c r="A42" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B42" t="s">
         <v>65</v>
@@ -5719,32 +5719,32 @@
       <c r="G42" t="s">
         <v>167</v>
       </c>
-      <c r="K42" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="U42" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="39"/>
-      <c r="AA42" s="39"/>
-      <c r="AB42" s="39"/>
-      <c r="AC42" s="39"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="K42" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="U42" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="57"/>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="57"/>
+      <c r="AA42" s="57"/>
+      <c r="AB42" s="57"/>
+      <c r="AC42" s="57"/>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B43" t="s">
         <v>66</v>
@@ -5757,54 +5757,54 @@
       </c>
       <c r="K43" s="24"/>
       <c r="L43" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="M43" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="N43" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="O43" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="P43" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q43" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="R43" s="25" t="s">
         <v>278</v>
-      </c>
-      <c r="M43" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="N43" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="O43" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="P43" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q43" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="R43" s="25" t="s">
-        <v>284</v>
       </c>
       <c r="S43" s="31"/>
       <c r="U43" s="32"/>
       <c r="V43" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="W43" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="X43" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y43" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z43" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA43" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB43" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="W43" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="X43" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y43" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z43" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA43" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB43" s="25" t="s">
-        <v>284</v>
-      </c>
       <c r="AC43" s="31"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
@@ -5862,9 +5862,9 @@
       </c>
       <c r="AC44" s="28"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B45" t="s">
         <v>68</v>
@@ -5903,7 +5903,7 @@
         <f>SUM(L45:R45)</f>
         <v>1351</v>
       </c>
-      <c r="T45" s="46">
+      <c r="T45" s="38">
         <v>111</v>
       </c>
       <c r="U45" s="35" t="s">
@@ -5934,13 +5934,13 @@
         <f>SUM(V45:AB45)</f>
         <v>1346</v>
       </c>
-      <c r="AD45" s="52">
+      <c r="AD45" s="46">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s">
         <v>69</v>
@@ -5952,7 +5952,7 @@
         <v>169</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L46" s="22">
         <v>18</v>
@@ -5980,7 +5980,7 @@
         <v>107</v>
       </c>
       <c r="U46" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="V46" s="22">
         <v>14</v>
@@ -6008,9 +6008,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s">
         <v>70</v>
@@ -6022,7 +6022,7 @@
         <v>169</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L47" s="20">
         <f>L45+L46</f>
@@ -6057,7 +6057,7 @@
         <v>1458</v>
       </c>
       <c r="U47" s="33" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V47" s="20">
         <f>V45+V46</f>
@@ -6092,9 +6092,9 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:30" ht="17.25" thickBot="1">
       <c r="A48" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s">
         <v>71</v>
@@ -6166,9 +6166,9 @@
       </c>
       <c r="AC48" s="36"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s">
         <v>72</v>
@@ -6180,9 +6180,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
@@ -6194,9 +6194,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:30" ht="17.25" thickBot="1">
       <c r="A51" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B51" t="s">
         <v>74</v>
@@ -6207,32 +6207,32 @@
       <c r="G51" t="s">
         <v>170</v>
       </c>
-      <c r="K51" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
-      <c r="U51" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="V51" s="38"/>
-      <c r="W51" s="38"/>
-      <c r="X51" s="38"/>
-      <c r="Y51" s="38"/>
-      <c r="Z51" s="38"/>
-      <c r="AA51" s="38"/>
-      <c r="AB51" s="38"/>
-      <c r="AC51" s="38"/>
-    </row>
-    <row r="52" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="K51" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="59"/>
+      <c r="U51" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="V51" s="59"/>
+      <c r="W51" s="59"/>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="59"/>
+      <c r="Z51" s="59"/>
+      <c r="AA51" s="59"/>
+      <c r="AB51" s="59"/>
+      <c r="AC51" s="59"/>
+    </row>
+    <row r="52" spans="1:30" ht="17.25" thickBot="1">
       <c r="A52" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
@@ -6243,32 +6243,32 @@
       <c r="G52" t="s">
         <v>170</v>
       </c>
-      <c r="K52" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="U52" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="39"/>
-      <c r="AA52" s="39"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="K52" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="U52" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="57"/>
+      <c r="Z52" s="57"/>
+      <c r="AA52" s="57"/>
+      <c r="AB52" s="57"/>
+      <c r="AC52" s="57"/>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B53" t="s">
         <v>76</v>
@@ -6281,54 +6281,54 @@
       </c>
       <c r="K53" s="24"/>
       <c r="L53" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="M53" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="N53" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="O53" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="P53" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q53" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="R53" s="25" t="s">
         <v>278</v>
-      </c>
-      <c r="M53" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="N53" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="O53" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="P53" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q53" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="R53" s="25" t="s">
-        <v>284</v>
       </c>
       <c r="S53" s="31"/>
       <c r="U53" s="32"/>
       <c r="V53" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="W53" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="X53" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y53" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z53" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA53" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB53" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="W53" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="X53" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y53" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z53" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA53" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB53" s="25" t="s">
-        <v>284</v>
-      </c>
       <c r="AC53" s="31"/>
     </row>
-    <row r="54" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:30" s="1" customFormat="1">
       <c r="A54" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C54" s="1">
         <v>105823</v>
@@ -6362,7 +6362,7 @@
         <v>6</v>
       </c>
       <c r="S54" s="28"/>
-      <c r="T54" s="47"/>
+      <c r="T54" s="41"/>
       <c r="U54" s="33"/>
       <c r="V54" s="20">
         <v>0</v>
@@ -6386,9 +6386,9 @@
         <v>6</v>
       </c>
       <c r="AC54" s="28"/>
-      <c r="AD54" s="54"/>
-    </row>
-    <row r="55" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD54" s="48"/>
+    </row>
+    <row r="55" spans="1:30" s="1" customFormat="1">
       <c r="F55" t="s">
         <v>169</v>
       </c>
@@ -6423,7 +6423,7 @@
         <f>SUM(L55:R55)</f>
         <v>1289</v>
       </c>
-      <c r="T55" s="47">
+      <c r="T55" s="41">
         <v>8</v>
       </c>
       <c r="U55" s="35" t="s">
@@ -6454,13 +6454,13 @@
         <f>SUM(V55:AB55)</f>
         <v>1297</v>
       </c>
-      <c r="AD55" s="54">
+      <c r="AD55" s="48">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:30" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C56" s="2">
         <v>105846</v>
@@ -6472,7 +6472,7 @@
         <v>169</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L56" s="22">
         <v>26</v>
@@ -6499,9 +6499,9 @@
         <f>SUM(L56:R56)</f>
         <v>169</v>
       </c>
-      <c r="T56" s="47"/>
+      <c r="T56" s="41"/>
       <c r="U56" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="V56" s="22">
         <v>26</v>
@@ -6528,9 +6528,9 @@
         <f>SUM(V56:AB56)</f>
         <v>161</v>
       </c>
-      <c r="AD56" s="55"/>
-    </row>
-    <row r="57" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD56" s="49"/>
+    </row>
+    <row r="57" spans="1:30" s="2" customFormat="1">
       <c r="F57" t="s">
         <v>169</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>169</v>
       </c>
       <c r="K57" s="26" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L57" s="20">
         <f>L55+L56</f>
@@ -6572,9 +6572,9 @@
         <f>SUM(L57:R57)</f>
         <v>1458</v>
       </c>
-      <c r="T57" s="47"/>
+      <c r="T57" s="41"/>
       <c r="U57" s="33" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V57" s="20">
         <f>V55+V56</f>
@@ -6608,9 +6608,9 @@
         <f>SUM(V57:AB57)</f>
         <v>1458</v>
       </c>
-      <c r="AD57" s="55"/>
-    </row>
-    <row r="58" spans="1:30" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="AD57" s="49"/>
+    </row>
+    <row r="58" spans="1:30" s="2" customFormat="1" ht="17.25" thickBot="1">
       <c r="F58" t="s">
         <v>165</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>0.13761467889908258</v>
       </c>
       <c r="S58" s="36"/>
-      <c r="T58" s="47"/>
+      <c r="T58" s="41"/>
       <c r="U58" s="37"/>
       <c r="V58" s="30">
         <f>V56/V57</f>
@@ -6678,39 +6678,39 @@
         <v>0.11467889908256881</v>
       </c>
       <c r="AC58" s="36"/>
-      <c r="AD58" s="55"/>
-    </row>
-    <row r="59" spans="1:30" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="AD58" s="49"/>
+    </row>
+    <row r="59" spans="1:30" s="2" customFormat="1" ht="17.25" thickBot="1">
       <c r="F59" t="s">
         <v>165</v>
       </c>
       <c r="G59" t="s">
         <v>165</v>
       </c>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="55"/>
-    </row>
-    <row r="60" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="57"/>
+      <c r="R59" s="57"/>
+      <c r="S59" s="57"/>
+      <c r="T59" s="41"/>
+      <c r="U59" s="57"/>
+      <c r="V59" s="57"/>
+      <c r="W59" s="57"/>
+      <c r="X59" s="57"/>
+      <c r="Y59" s="57"/>
+      <c r="Z59" s="57"/>
+      <c r="AA59" s="57"/>
+      <c r="AB59" s="57"/>
+      <c r="AC59" s="57"/>
+      <c r="AD59" s="49"/>
+    </row>
+    <row r="60" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="A60" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C60" s="1">
         <v>105919</v>
@@ -6721,32 +6721,32 @@
       <c r="G60" t="s">
         <v>165</v>
       </c>
-      <c r="K60" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="47"/>
-      <c r="U60" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="39"/>
-      <c r="AB60" s="39"/>
-      <c r="AC60" s="39"/>
-      <c r="AD60" s="54"/>
-    </row>
-    <row r="61" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="K60" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="57"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="V60" s="57"/>
+      <c r="W60" s="57"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="57"/>
+      <c r="Z60" s="57"/>
+      <c r="AA60" s="57"/>
+      <c r="AB60" s="57"/>
+      <c r="AC60" s="57"/>
+      <c r="AD60" s="48"/>
+    </row>
+    <row r="61" spans="1:30" s="1" customFormat="1">
       <c r="F61" t="s">
         <v>169</v>
       </c>
@@ -6755,54 +6755,54 @@
       </c>
       <c r="K61" s="24"/>
       <c r="L61" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="M61" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="N61" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="O61" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="P61" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q61" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="R61" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="M61" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="N61" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="O61" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="P61" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q61" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="R61" s="25" t="s">
-        <v>284</v>
-      </c>
       <c r="S61" s="31"/>
-      <c r="T61" s="47"/>
+      <c r="T61" s="41"/>
       <c r="U61" s="32"/>
       <c r="V61" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="W61" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="X61" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y61" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z61" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA61" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB61" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="W61" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="X61" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y61" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z61" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA61" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB61" s="25" t="s">
-        <v>284</v>
-      </c>
       <c r="AC61" s="31"/>
-      <c r="AD61" s="54"/>
-    </row>
-    <row r="62" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD61" s="48"/>
+    </row>
+    <row r="62" spans="1:30" s="1" customFormat="1">
       <c r="F62" t="s">
         <v>169</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>6</v>
       </c>
       <c r="S62" s="28"/>
-      <c r="T62" s="47"/>
+      <c r="T62" s="41"/>
       <c r="U62" s="33"/>
       <c r="V62" s="20">
         <v>0</v>
@@ -6856,11 +6856,11 @@
         <v>6</v>
       </c>
       <c r="AC62" s="28"/>
-      <c r="AD62" s="54"/>
-    </row>
-    <row r="63" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD62" s="48"/>
+    </row>
+    <row r="63" spans="1:30" s="2" customFormat="1">
       <c r="A63" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C63" s="2">
         <v>105940</v>
@@ -6899,7 +6899,7 @@
         <f>SUM(L63:R63)</f>
         <v>1319</v>
       </c>
-      <c r="T63" s="46">
+      <c r="T63" s="38">
         <v>20</v>
       </c>
       <c r="U63" s="35" t="s">
@@ -6930,11 +6930,11 @@
         <f>SUM(V63:AB63)</f>
         <v>1405</v>
       </c>
-      <c r="AD63" s="50">
+      <c r="AD63" s="44">
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:30" s="2" customFormat="1">
       <c r="F64" t="s">
         <v>165</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>165</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L64" s="22">
         <v>21</v>
@@ -6969,9 +6969,9 @@
         <f>SUM(L64:R64)</f>
         <v>139</v>
       </c>
-      <c r="T64" s="47"/>
+      <c r="T64" s="41"/>
       <c r="U64" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="V64" s="22">
         <v>6</v>
@@ -6998,9 +6998,9 @@
         <f>SUM(V64:AB64)</f>
         <v>53</v>
       </c>
-      <c r="AD64" s="55"/>
-    </row>
-    <row r="65" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD64" s="49"/>
+    </row>
+    <row r="65" spans="1:30" s="2" customFormat="1">
       <c r="F65" t="s">
         <v>169</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>169</v>
       </c>
       <c r="K65" s="26" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L65" s="20">
         <f>L63+L64</f>
@@ -7042,9 +7042,9 @@
         <f>SUM(L65:R65)</f>
         <v>1458</v>
       </c>
-      <c r="T65" s="47"/>
+      <c r="T65" s="41"/>
       <c r="U65" s="33" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V65" s="20">
         <f>V63+V64</f>
@@ -7078,11 +7078,11 @@
         <f>SUM(V65:AB65)</f>
         <v>1458</v>
       </c>
-      <c r="AD65" s="55"/>
-    </row>
-    <row r="66" spans="1:30" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="AD65" s="49"/>
+    </row>
+    <row r="66" spans="1:30" s="17" customFormat="1" ht="17.25" thickBot="1">
       <c r="A66" s="17" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C66" s="17">
         <v>110001</v>
@@ -7123,7 +7123,7 @@
         <v>6.8807339449541288E-2</v>
       </c>
       <c r="S66" s="36"/>
-      <c r="T66" s="47"/>
+      <c r="T66" s="41"/>
       <c r="U66" s="37"/>
       <c r="V66" s="30">
         <f>V64/V65</f>
@@ -7154,41 +7154,41 @@
         <v>4.1284403669724773E-2</v>
       </c>
       <c r="AC66" s="36"/>
-      <c r="AD66" s="56"/>
-    </row>
-    <row r="67" spans="1:30" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="AD66" s="50"/>
+    </row>
+    <row r="67" spans="1:30" s="17" customFormat="1" ht="17.25" thickBot="1">
       <c r="F67" t="s">
         <v>170</v>
       </c>
       <c r="G67" t="s">
         <v>170</v>
       </c>
-      <c r="K67" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="47"/>
-      <c r="U67" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
-      <c r="Z67" s="39"/>
-      <c r="AA67" s="39"/>
-      <c r="AB67" s="39"/>
-      <c r="AC67" s="39"/>
-      <c r="AD67" s="56"/>
-    </row>
-    <row r="68" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="K67" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="57"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="57"/>
+      <c r="S67" s="57"/>
+      <c r="T67" s="41"/>
+      <c r="U67" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="V67" s="57"/>
+      <c r="W67" s="57"/>
+      <c r="X67" s="57"/>
+      <c r="Y67" s="57"/>
+      <c r="Z67" s="57"/>
+      <c r="AA67" s="57"/>
+      <c r="AB67" s="57"/>
+      <c r="AC67" s="57"/>
+      <c r="AD67" s="50"/>
+    </row>
+    <row r="68" spans="1:30" s="17" customFormat="1">
       <c r="F68" t="s">
         <v>167</v>
       </c>
@@ -7197,56 +7197,56 @@
       </c>
       <c r="K68" s="24"/>
       <c r="L68" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="M68" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="N68" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="O68" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="P68" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q68" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="R68" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="M68" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="N68" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="O68" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="P68" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q68" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="R68" s="25" t="s">
-        <v>284</v>
-      </c>
       <c r="S68" s="31"/>
-      <c r="T68" s="47"/>
+      <c r="T68" s="41"/>
       <c r="U68" s="32"/>
       <c r="V68" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="W68" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="X68" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y68" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z68" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA68" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB68" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="W68" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="X68" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y68" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z68" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA68" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB68" s="25" t="s">
-        <v>284</v>
-      </c>
       <c r="AC68" s="31"/>
-      <c r="AD68" s="56"/>
-    </row>
-    <row r="69" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD68" s="50"/>
+    </row>
+    <row r="69" spans="1:30" s="18" customFormat="1">
       <c r="A69" s="18" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C69" s="18">
         <v>110023</v>
@@ -7280,7 +7280,7 @@
         <v>6</v>
       </c>
       <c r="S69" s="28"/>
-      <c r="T69" s="47"/>
+      <c r="T69" s="41"/>
       <c r="U69" s="33"/>
       <c r="V69" s="20">
         <v>0</v>
@@ -7304,9 +7304,9 @@
         <v>6</v>
       </c>
       <c r="AC69" s="28"/>
-      <c r="AD69" s="57"/>
-    </row>
-    <row r="70" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD69" s="51"/>
+    </row>
+    <row r="70" spans="1:30" s="18" customFormat="1">
       <c r="F70" t="s">
         <v>167</v>
       </c>
@@ -7341,7 +7341,7 @@
         <f>SUM(L70:R70)</f>
         <v>1329</v>
       </c>
-      <c r="T70" s="47">
+      <c r="T70" s="41">
         <v>64</v>
       </c>
       <c r="U70" s="35" t="s">
@@ -7372,13 +7372,13 @@
         <f>SUM(V70:AB70)</f>
         <v>1407</v>
       </c>
-      <c r="AD70" s="51">
+      <c r="AD70" s="45">
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:30" s="2" customFormat="1">
       <c r="A71" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C71" s="2">
         <v>110117</v>
@@ -7390,7 +7390,7 @@
         <v>167</v>
       </c>
       <c r="K71" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L71" s="22">
         <v>19</v>
@@ -7417,9 +7417,9 @@
         <f>SUM(L71:R71)</f>
         <v>129</v>
       </c>
-      <c r="T71" s="47"/>
+      <c r="T71" s="41"/>
       <c r="U71" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="V71" s="22">
         <v>6</v>
@@ -7446,9 +7446,9 @@
         <f>SUM(V71:AB71)</f>
         <v>51</v>
       </c>
-      <c r="AD71" s="55"/>
-    </row>
-    <row r="72" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD71" s="49"/>
+    </row>
+    <row r="72" spans="1:30" s="2" customFormat="1">
       <c r="F72" t="s">
         <v>166</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>166</v>
       </c>
       <c r="K72" s="26" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L72" s="20">
         <f>L70+L71</f>
@@ -7490,9 +7490,9 @@
         <f>SUM(L72:R72)</f>
         <v>1458</v>
       </c>
-      <c r="T72" s="47"/>
+      <c r="T72" s="41"/>
       <c r="U72" s="33" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V72" s="20">
         <f>V70+V71</f>
@@ -7526,9 +7526,9 @@
         <f>SUM(V72:AB72)</f>
         <v>1458</v>
       </c>
-      <c r="AD72" s="55"/>
-    </row>
-    <row r="73" spans="1:30" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="AD72" s="49"/>
+    </row>
+    <row r="73" spans="1:30" s="2" customFormat="1" ht="17.25" thickBot="1">
       <c r="F73" t="s">
         <v>170</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>7.7981651376146793E-2</v>
       </c>
       <c r="S73" s="36"/>
-      <c r="T73" s="47"/>
+      <c r="T73" s="41"/>
       <c r="U73" s="37"/>
       <c r="V73" s="30">
         <f>V71/V72</f>
@@ -7596,11 +7596,11 @@
         <v>4.1284403669724773E-2</v>
       </c>
       <c r="AC73" s="36"/>
-      <c r="AD73" s="55"/>
-    </row>
-    <row r="74" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD73" s="49"/>
+    </row>
+    <row r="74" spans="1:30" s="18" customFormat="1">
       <c r="A74" s="18" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C74" s="18">
         <v>110143</v>
@@ -7620,7 +7620,7 @@
       <c r="Q74" s="20"/>
       <c r="R74" s="20"/>
       <c r="S74" s="20"/>
-      <c r="T74" s="47"/>
+      <c r="T74" s="41"/>
       <c r="U74" s="20"/>
       <c r="V74" s="20"/>
       <c r="W74" s="20"/>
@@ -7630,9 +7630,9 @@
       <c r="AA74" s="20"/>
       <c r="AB74" s="20"/>
       <c r="AC74" s="20"/>
-      <c r="AD74" s="57"/>
-    </row>
-    <row r="75" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD74" s="51"/>
+    </row>
+    <row r="75" spans="1:30" s="18" customFormat="1">
       <c r="F75" t="s">
         <v>169</v>
       </c>
@@ -7648,7 +7648,7 @@
       <c r="Q75" s="20"/>
       <c r="R75" s="20"/>
       <c r="S75" s="20"/>
-      <c r="T75" s="47"/>
+      <c r="T75" s="41"/>
       <c r="U75" s="20"/>
       <c r="V75" s="20"/>
       <c r="W75" s="20"/>
@@ -7658,11 +7658,11 @@
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
       <c r="AC75" s="20"/>
-      <c r="AD75" s="57"/>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="AD75" s="51"/>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B76" t="s">
         <v>99</v>
@@ -7674,9 +7674,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:30">
       <c r="A77" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B77" t="s">
         <v>100</v>
@@ -7688,9 +7688,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:30" s="1" customFormat="1">
       <c r="A78" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C78" s="1">
         <v>110258</v>
@@ -7710,7 +7710,7 @@
       <c r="Q78" s="20"/>
       <c r="R78" s="20"/>
       <c r="S78" s="20"/>
-      <c r="T78" s="47"/>
+      <c r="T78" s="41"/>
       <c r="U78" s="20"/>
       <c r="V78" s="20"/>
       <c r="W78" s="20"/>
@@ -7720,9 +7720,9 @@
       <c r="AA78" s="20"/>
       <c r="AB78" s="20"/>
       <c r="AC78" s="20"/>
-      <c r="AD78" s="54"/>
-    </row>
-    <row r="79" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD78" s="48"/>
+    </row>
+    <row r="79" spans="1:30" s="1" customFormat="1">
       <c r="F79" t="s">
         <v>165</v>
       </c>
@@ -7738,7 +7738,7 @@
       <c r="Q79" s="20"/>
       <c r="R79" s="20"/>
       <c r="S79" s="20"/>
-      <c r="T79" s="47"/>
+      <c r="T79" s="41"/>
       <c r="U79" s="20"/>
       <c r="V79" s="20"/>
       <c r="W79" s="20"/>
@@ -7748,11 +7748,11 @@
       <c r="AA79" s="20"/>
       <c r="AB79" s="20"/>
       <c r="AC79" s="20"/>
-      <c r="AD79" s="54"/>
-    </row>
-    <row r="80" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD79" s="48"/>
+    </row>
+    <row r="80" spans="1:30" s="5" customFormat="1">
       <c r="A80" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C80" s="5">
         <v>110341</v>
@@ -7772,7 +7772,7 @@
       <c r="Q80" s="20"/>
       <c r="R80" s="20"/>
       <c r="S80" s="20"/>
-      <c r="T80" s="47"/>
+      <c r="T80" s="41"/>
       <c r="U80" s="20"/>
       <c r="V80" s="20"/>
       <c r="W80" s="20"/>
@@ -7782,9 +7782,9 @@
       <c r="AA80" s="20"/>
       <c r="AB80" s="20"/>
       <c r="AC80" s="20"/>
-      <c r="AD80" s="58"/>
-    </row>
-    <row r="81" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD80" s="52"/>
+    </row>
+    <row r="81" spans="1:30" s="5" customFormat="1">
       <c r="F81" t="s">
         <v>166</v>
       </c>
@@ -7800,7 +7800,7 @@
       <c r="Q81" s="20"/>
       <c r="R81" s="20"/>
       <c r="S81" s="20"/>
-      <c r="T81" s="47"/>
+      <c r="T81" s="41"/>
       <c r="U81" s="20"/>
       <c r="V81" s="20"/>
       <c r="W81" s="20"/>
@@ -7810,11 +7810,11 @@
       <c r="AA81" s="20"/>
       <c r="AB81" s="20"/>
       <c r="AC81" s="20"/>
-      <c r="AD81" s="58"/>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="AD81" s="52"/>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B82" t="s">
         <v>105</v>
@@ -7826,9 +7826,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:30">
       <c r="A83" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B83" t="s">
         <v>106</v>
@@ -7840,9 +7840,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:30" s="19" customFormat="1">
       <c r="A84" s="19" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C84" s="19">
         <v>110455</v>
@@ -7862,7 +7862,7 @@
       <c r="Q84" s="20"/>
       <c r="R84" s="20"/>
       <c r="S84" s="20"/>
-      <c r="T84" s="47"/>
+      <c r="T84" s="41"/>
       <c r="U84" s="20"/>
       <c r="V84" s="20"/>
       <c r="W84" s="20"/>
@@ -7872,9 +7872,9 @@
       <c r="AA84" s="20"/>
       <c r="AB84" s="20"/>
       <c r="AC84" s="20"/>
-      <c r="AD84" s="59"/>
-    </row>
-    <row r="85" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD84" s="53"/>
+    </row>
+    <row r="85" spans="1:30" s="19" customFormat="1">
       <c r="F85" t="s">
         <v>169</v>
       </c>
@@ -7890,7 +7890,7 @@
       <c r="Q85" s="20"/>
       <c r="R85" s="20"/>
       <c r="S85" s="20"/>
-      <c r="T85" s="47"/>
+      <c r="T85" s="41"/>
       <c r="U85" s="20"/>
       <c r="V85" s="20"/>
       <c r="W85" s="20"/>
@@ -7900,11 +7900,11 @@
       <c r="AA85" s="20"/>
       <c r="AB85" s="20"/>
       <c r="AC85" s="20"/>
-      <c r="AD85" s="59"/>
-    </row>
-    <row r="86" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD85" s="53"/>
+    </row>
+    <row r="86" spans="1:30" s="2" customFormat="1">
       <c r="A86" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B86" s="2">
         <v>6</v>
@@ -7927,7 +7927,7 @@
       <c r="Q86" s="20"/>
       <c r="R86" s="20"/>
       <c r="S86" s="20"/>
-      <c r="T86" s="47"/>
+      <c r="T86" s="41"/>
       <c r="U86" s="20"/>
       <c r="V86" s="20"/>
       <c r="W86" s="20"/>
@@ -7937,9 +7937,9 @@
       <c r="AA86" s="20"/>
       <c r="AB86" s="20"/>
       <c r="AC86" s="20"/>
-      <c r="AD86" s="55"/>
-    </row>
-    <row r="87" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD86" s="49"/>
+    </row>
+    <row r="87" spans="1:30" s="2" customFormat="1">
       <c r="B87" s="2">
         <v>2</v>
       </c>
@@ -7958,7 +7958,7 @@
       <c r="Q87" s="20"/>
       <c r="R87" s="20"/>
       <c r="S87" s="20"/>
-      <c r="T87" s="47"/>
+      <c r="T87" s="41"/>
       <c r="U87" s="20"/>
       <c r="V87" s="20"/>
       <c r="W87" s="20"/>
@@ -7968,11 +7968,11 @@
       <c r="AA87" s="20"/>
       <c r="AB87" s="20"/>
       <c r="AC87" s="20"/>
-      <c r="AD87" s="55"/>
-    </row>
-    <row r="88" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD87" s="49"/>
+    </row>
+    <row r="88" spans="1:30" s="1" customFormat="1">
       <c r="A88" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B88" s="1">
         <v>6</v>
@@ -7995,7 +7995,7 @@
       <c r="Q88" s="20"/>
       <c r="R88" s="20"/>
       <c r="S88" s="20"/>
-      <c r="T88" s="47"/>
+      <c r="T88" s="41"/>
       <c r="U88" s="20"/>
       <c r="V88" s="20"/>
       <c r="W88" s="20"/>
@@ -8005,9 +8005,9 @@
       <c r="AA88" s="20"/>
       <c r="AB88" s="20"/>
       <c r="AC88" s="20"/>
-      <c r="AD88" s="54"/>
-    </row>
-    <row r="89" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD88" s="48"/>
+    </row>
+    <row r="89" spans="1:30" s="1" customFormat="1">
       <c r="B89" s="1">
         <v>2</v>
       </c>
@@ -8026,7 +8026,7 @@
       <c r="Q89" s="20"/>
       <c r="R89" s="20"/>
       <c r="S89" s="20"/>
-      <c r="T89" s="47"/>
+      <c r="T89" s="41"/>
       <c r="U89" s="20"/>
       <c r="V89" s="20"/>
       <c r="W89" s="20"/>
@@ -8036,11 +8036,11 @@
       <c r="AA89" s="20"/>
       <c r="AB89" s="20"/>
       <c r="AC89" s="20"/>
-      <c r="AD89" s="54"/>
-    </row>
-    <row r="90" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD89" s="48"/>
+    </row>
+    <row r="90" spans="1:30" s="20" customFormat="1">
       <c r="A90" s="20" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B90" s="20" t="s">
         <v>113</v>
@@ -8051,12 +8051,12 @@
       <c r="G90" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="T90" s="47"/>
-      <c r="AD90" s="53"/>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="T90" s="41"/>
+      <c r="AD90" s="47"/>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -8069,7 +8069,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:30">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -8082,7 +8082,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:30">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -8095,9 +8095,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:30" s="18" customFormat="1">
       <c r="A94" s="18" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C94" s="18">
         <v>110628</v>
@@ -8117,7 +8117,7 @@
       <c r="Q94" s="20"/>
       <c r="R94" s="20"/>
       <c r="S94" s="20"/>
-      <c r="T94" s="47"/>
+      <c r="T94" s="41"/>
       <c r="U94" s="20"/>
       <c r="V94" s="20"/>
       <c r="W94" s="20"/>
@@ -8127,9 +8127,9 @@
       <c r="AA94" s="20"/>
       <c r="AB94" s="20"/>
       <c r="AC94" s="20"/>
-      <c r="AD94" s="57"/>
-    </row>
-    <row r="95" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD94" s="51"/>
+    </row>
+    <row r="95" spans="1:30" s="18" customFormat="1">
       <c r="F95" t="s">
         <v>166</v>
       </c>
@@ -8145,7 +8145,7 @@
       <c r="Q95" s="20"/>
       <c r="R95" s="20"/>
       <c r="S95" s="20"/>
-      <c r="T95" s="47"/>
+      <c r="T95" s="41"/>
       <c r="U95" s="20"/>
       <c r="V95" s="20"/>
       <c r="W95" s="20"/>
@@ -8155,9 +8155,9 @@
       <c r="AA95" s="20"/>
       <c r="AB95" s="20"/>
       <c r="AC95" s="20"/>
-      <c r="AD95" s="57"/>
-    </row>
-    <row r="96" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD95" s="51"/>
+    </row>
+    <row r="96" spans="1:30" s="18" customFormat="1">
       <c r="F96" t="s">
         <v>166</v>
       </c>
@@ -8173,7 +8173,7 @@
       <c r="Q96" s="20"/>
       <c r="R96" s="20"/>
       <c r="S96" s="20"/>
-      <c r="T96" s="47"/>
+      <c r="T96" s="41"/>
       <c r="U96" s="20"/>
       <c r="V96" s="20"/>
       <c r="W96" s="20"/>
@@ -8183,11 +8183,11 @@
       <c r="AA96" s="20"/>
       <c r="AB96" s="20"/>
       <c r="AC96" s="20"/>
-      <c r="AD96" s="57"/>
-    </row>
-    <row r="97" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD96" s="51"/>
+    </row>
+    <row r="97" spans="1:30" s="19" customFormat="1">
       <c r="A97" s="19" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C97" s="19">
         <v>110650</v>
@@ -8207,7 +8207,7 @@
       <c r="Q97" s="20"/>
       <c r="R97" s="20"/>
       <c r="S97" s="20"/>
-      <c r="T97" s="47"/>
+      <c r="T97" s="41"/>
       <c r="U97" s="20"/>
       <c r="V97" s="20"/>
       <c r="W97" s="20"/>
@@ -8217,9 +8217,9 @@
       <c r="AA97" s="20"/>
       <c r="AB97" s="20"/>
       <c r="AC97" s="20"/>
-      <c r="AD97" s="59"/>
-    </row>
-    <row r="98" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD97" s="53"/>
+    </row>
+    <row r="98" spans="1:30" s="19" customFormat="1">
       <c r="F98" t="s">
         <v>166</v>
       </c>
@@ -8235,7 +8235,7 @@
       <c r="Q98" s="20"/>
       <c r="R98" s="20"/>
       <c r="S98" s="20"/>
-      <c r="T98" s="47"/>
+      <c r="T98" s="41"/>
       <c r="U98" s="20"/>
       <c r="V98" s="20"/>
       <c r="W98" s="20"/>
@@ -8245,9 +8245,9 @@
       <c r="AA98" s="20"/>
       <c r="AB98" s="20"/>
       <c r="AC98" s="20"/>
-      <c r="AD98" s="59"/>
-    </row>
-    <row r="99" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD98" s="53"/>
+    </row>
+    <row r="99" spans="1:30" s="19" customFormat="1">
       <c r="F99" t="s">
         <v>166</v>
       </c>
@@ -8263,7 +8263,7 @@
       <c r="Q99" s="20"/>
       <c r="R99" s="20"/>
       <c r="S99" s="20"/>
-      <c r="T99" s="47"/>
+      <c r="T99" s="41"/>
       <c r="U99" s="20"/>
       <c r="V99" s="20"/>
       <c r="W99" s="20"/>
@@ -8273,14 +8273,14 @@
       <c r="AA99" s="20"/>
       <c r="AB99" s="20"/>
       <c r="AC99" s="20"/>
-      <c r="AD99" s="59"/>
-    </row>
-    <row r="100" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD99" s="53"/>
+    </row>
+    <row r="100" spans="1:30" s="20" customFormat="1">
       <c r="A100" s="20" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F100" s="20" t="s">
         <v>169</v>
@@ -8288,12 +8288,12 @@
       <c r="G100" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="T100" s="47"/>
-      <c r="AD100" s="53"/>
-    </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="T100" s="41"/>
+      <c r="AD100" s="47"/>
+    </row>
+    <row r="101" spans="1:30">
       <c r="A101" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B101" t="s">
         <v>124</v>
@@ -8305,9 +8305,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:30" s="20" customFormat="1">
       <c r="A102" s="20" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B102" s="20" t="s">
         <v>125</v>
@@ -8318,15 +8318,15 @@
       <c r="G102" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="T102" s="47"/>
-      <c r="AD102" s="53"/>
-    </row>
-    <row r="103" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="T102" s="41"/>
+      <c r="AD102" s="47"/>
+    </row>
+    <row r="103" spans="1:30" s="20" customFormat="1">
       <c r="A103" s="20" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F103" s="20" t="s">
         <v>169</v>
@@ -8334,12 +8334,12 @@
       <c r="G103" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="T103" s="47"/>
-      <c r="AD103" s="53"/>
-    </row>
-    <row r="104" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="T103" s="41"/>
+      <c r="AD103" s="47"/>
+    </row>
+    <row r="104" spans="1:30" s="6" customFormat="1">
       <c r="A104" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>135</v>
@@ -8359,7 +8359,7 @@
       <c r="Q104" s="20"/>
       <c r="R104" s="20"/>
       <c r="S104" s="20"/>
-      <c r="T104" s="47"/>
+      <c r="T104" s="41"/>
       <c r="U104" s="20"/>
       <c r="V104" s="20"/>
       <c r="W104" s="20"/>
@@ -8369,9 +8369,9 @@
       <c r="AA104" s="20"/>
       <c r="AB104" s="20"/>
       <c r="AC104" s="20"/>
-      <c r="AD104" s="60"/>
-    </row>
-    <row r="105" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD104" s="54"/>
+    </row>
+    <row r="105" spans="1:30" s="6" customFormat="1">
       <c r="B105" s="6" t="s">
         <v>136</v>
       </c>
@@ -8390,7 +8390,7 @@
       <c r="Q105" s="20"/>
       <c r="R105" s="20"/>
       <c r="S105" s="20"/>
-      <c r="T105" s="47"/>
+      <c r="T105" s="41"/>
       <c r="U105" s="20"/>
       <c r="V105" s="20"/>
       <c r="W105" s="20"/>
@@ -8400,11 +8400,11 @@
       <c r="AA105" s="20"/>
       <c r="AB105" s="20"/>
       <c r="AC105" s="20"/>
-      <c r="AD105" s="60"/>
-    </row>
-    <row r="106" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD105" s="54"/>
+    </row>
+    <row r="106" spans="1:30" s="1" customFormat="1">
       <c r="A106" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>137</v>
@@ -8424,7 +8424,7 @@
       <c r="Q106" s="20"/>
       <c r="R106" s="20"/>
       <c r="S106" s="20"/>
-      <c r="T106" s="47"/>
+      <c r="T106" s="41"/>
       <c r="U106" s="20"/>
       <c r="V106" s="20"/>
       <c r="W106" s="20"/>
@@ -8434,9 +8434,9 @@
       <c r="AA106" s="20"/>
       <c r="AB106" s="20"/>
       <c r="AC106" s="20"/>
-      <c r="AD106" s="54"/>
-    </row>
-    <row r="107" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD106" s="48"/>
+    </row>
+    <row r="107" spans="1:30" s="1" customFormat="1">
       <c r="B107" s="1" t="s">
         <v>138</v>
       </c>
@@ -8455,7 +8455,7 @@
       <c r="Q107" s="20"/>
       <c r="R107" s="20"/>
       <c r="S107" s="20"/>
-      <c r="T107" s="47"/>
+      <c r="T107" s="41"/>
       <c r="U107" s="20"/>
       <c r="V107" s="20"/>
       <c r="W107" s="20"/>
@@ -8465,11 +8465,11 @@
       <c r="AA107" s="20"/>
       <c r="AB107" s="20"/>
       <c r="AC107" s="20"/>
-      <c r="AD107" s="54"/>
-    </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="AD107" s="48"/>
+    </row>
+    <row r="108" spans="1:30">
       <c r="A108" s="20" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B108" t="s">
         <v>139</v>
@@ -8481,9 +8481,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:30" s="5" customFormat="1">
       <c r="A109" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>135</v>
@@ -8503,7 +8503,7 @@
       <c r="Q109" s="20"/>
       <c r="R109" s="20"/>
       <c r="S109" s="20"/>
-      <c r="T109" s="47"/>
+      <c r="T109" s="41"/>
       <c r="U109" s="20"/>
       <c r="V109" s="20"/>
       <c r="W109" s="20"/>
@@ -8513,9 +8513,9 @@
       <c r="AA109" s="20"/>
       <c r="AB109" s="20"/>
       <c r="AC109" s="20"/>
-      <c r="AD109" s="58"/>
-    </row>
-    <row r="110" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD109" s="52"/>
+    </row>
+    <row r="110" spans="1:30" s="5" customFormat="1">
       <c r="B110" s="5" t="s">
         <v>136</v>
       </c>
@@ -8534,7 +8534,7 @@
       <c r="Q110" s="20"/>
       <c r="R110" s="20"/>
       <c r="S110" s="20"/>
-      <c r="T110" s="47"/>
+      <c r="T110" s="41"/>
       <c r="U110" s="20"/>
       <c r="V110" s="20"/>
       <c r="W110" s="20"/>
@@ -8544,11 +8544,11 @@
       <c r="AA110" s="20"/>
       <c r="AB110" s="20"/>
       <c r="AC110" s="20"/>
-      <c r="AD110" s="58"/>
-    </row>
-    <row r="111" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD110" s="52"/>
+    </row>
+    <row r="111" spans="1:30" s="2" customFormat="1">
       <c r="A111" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>137</v>
@@ -8568,7 +8568,7 @@
       <c r="Q111" s="20"/>
       <c r="R111" s="20"/>
       <c r="S111" s="20"/>
-      <c r="T111" s="47"/>
+      <c r="T111" s="41"/>
       <c r="U111" s="20"/>
       <c r="V111" s="20"/>
       <c r="W111" s="20"/>
@@ -8578,9 +8578,9 @@
       <c r="AA111" s="20"/>
       <c r="AB111" s="20"/>
       <c r="AC111" s="20"/>
-      <c r="AD111" s="55"/>
-    </row>
-    <row r="112" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD111" s="49"/>
+    </row>
+    <row r="112" spans="1:30" s="2" customFormat="1">
       <c r="B112" s="2" t="s">
         <v>138</v>
       </c>
@@ -8599,7 +8599,7 @@
       <c r="Q112" s="20"/>
       <c r="R112" s="20"/>
       <c r="S112" s="20"/>
-      <c r="T112" s="47"/>
+      <c r="T112" s="41"/>
       <c r="U112" s="20"/>
       <c r="V112" s="20"/>
       <c r="W112" s="20"/>
@@ -8609,11 +8609,11 @@
       <c r="AA112" s="20"/>
       <c r="AB112" s="20"/>
       <c r="AC112" s="20"/>
-      <c r="AD112" s="55"/>
-    </row>
-    <row r="113" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD112" s="49"/>
+    </row>
+    <row r="113" spans="1:30" s="20" customFormat="1">
       <c r="A113" s="20" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B113" s="20" t="s">
         <v>139</v>
@@ -8624,12 +8624,12 @@
       <c r="G113" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="T113" s="47"/>
-      <c r="AD113" s="53"/>
-    </row>
-    <row r="114" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="T113" s="41"/>
+      <c r="AD113" s="47"/>
+    </row>
+    <row r="114" spans="1:30" s="2" customFormat="1">
       <c r="A114" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F114" t="s">
         <v>169</v>
@@ -8646,7 +8646,7 @@
       <c r="Q114" s="20"/>
       <c r="R114" s="20"/>
       <c r="S114" s="20"/>
-      <c r="T114" s="47"/>
+      <c r="T114" s="41"/>
       <c r="U114" s="20"/>
       <c r="V114" s="20"/>
       <c r="W114" s="20"/>
@@ -8656,9 +8656,9 @@
       <c r="AA114" s="20"/>
       <c r="AB114" s="20"/>
       <c r="AC114" s="20"/>
-      <c r="AD114" s="55"/>
-    </row>
-    <row r="115" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD114" s="49"/>
+    </row>
+    <row r="115" spans="1:30" s="2" customFormat="1">
       <c r="F115" t="s">
         <v>169</v>
       </c>
@@ -8674,7 +8674,7 @@
       <c r="Q115" s="20"/>
       <c r="R115" s="20"/>
       <c r="S115" s="20"/>
-      <c r="T115" s="47"/>
+      <c r="T115" s="41"/>
       <c r="U115" s="20"/>
       <c r="V115" s="20"/>
       <c r="W115" s="20"/>
@@ -8684,9 +8684,9 @@
       <c r="AA115" s="20"/>
       <c r="AB115" s="20"/>
       <c r="AC115" s="20"/>
-      <c r="AD115" s="55"/>
-    </row>
-    <row r="116" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD115" s="49"/>
+    </row>
+    <row r="116" spans="1:30" s="2" customFormat="1">
       <c r="F116" t="s">
         <v>165</v>
       </c>
@@ -8702,7 +8702,7 @@
       <c r="Q116" s="20"/>
       <c r="R116" s="20"/>
       <c r="S116" s="20"/>
-      <c r="T116" s="47"/>
+      <c r="T116" s="41"/>
       <c r="U116" s="20"/>
       <c r="V116" s="20"/>
       <c r="W116" s="20"/>
@@ -8712,11 +8712,11 @@
       <c r="AA116" s="20"/>
       <c r="AB116" s="20"/>
       <c r="AC116" s="20"/>
-      <c r="AD116" s="55"/>
-    </row>
-    <row r="117" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD116" s="49"/>
+    </row>
+    <row r="117" spans="1:30" s="1" customFormat="1">
       <c r="A117" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>169</v>
@@ -8733,7 +8733,7 @@
       <c r="Q117" s="20"/>
       <c r="R117" s="20"/>
       <c r="S117" s="20"/>
-      <c r="T117" s="47"/>
+      <c r="T117" s="41"/>
       <c r="U117" s="20"/>
       <c r="V117" s="20"/>
       <c r="W117" s="20"/>
@@ -8743,9 +8743,9 @@
       <c r="AA117" s="20"/>
       <c r="AB117" s="20"/>
       <c r="AC117" s="20"/>
-      <c r="AD117" s="54"/>
-    </row>
-    <row r="118" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD117" s="48"/>
+    </row>
+    <row r="118" spans="1:30" s="1" customFormat="1">
       <c r="F118" s="1" t="s">
         <v>169</v>
       </c>
@@ -8761,7 +8761,7 @@
       <c r="Q118" s="20"/>
       <c r="R118" s="20"/>
       <c r="S118" s="20"/>
-      <c r="T118" s="47"/>
+      <c r="T118" s="41"/>
       <c r="U118" s="20"/>
       <c r="V118" s="20"/>
       <c r="W118" s="20"/>
@@ -8771,9 +8771,9 @@
       <c r="AA118" s="20"/>
       <c r="AB118" s="20"/>
       <c r="AC118" s="20"/>
-      <c r="AD118" s="54"/>
-    </row>
-    <row r="119" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD118" s="48"/>
+    </row>
+    <row r="119" spans="1:30" s="1" customFormat="1">
       <c r="F119" s="1" t="s">
         <v>170</v>
       </c>
@@ -8789,7 +8789,7 @@
       <c r="Q119" s="20"/>
       <c r="R119" s="20"/>
       <c r="S119" s="20"/>
-      <c r="T119" s="47"/>
+      <c r="T119" s="41"/>
       <c r="U119" s="20"/>
       <c r="V119" s="20"/>
       <c r="W119" s="20"/>
@@ -8799,11 +8799,11 @@
       <c r="AA119" s="20"/>
       <c r="AB119" s="20"/>
       <c r="AC119" s="20"/>
-      <c r="AD119" s="54"/>
-    </row>
-    <row r="120" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD119" s="48"/>
+    </row>
+    <row r="120" spans="1:30" s="6" customFormat="1">
       <c r="A120" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>169</v>
@@ -8820,7 +8820,7 @@
       <c r="Q120" s="20"/>
       <c r="R120" s="20"/>
       <c r="S120" s="20"/>
-      <c r="T120" s="47"/>
+      <c r="T120" s="41"/>
       <c r="U120" s="20"/>
       <c r="V120" s="20"/>
       <c r="W120" s="20"/>
@@ -8830,9 +8830,9 @@
       <c r="AA120" s="20"/>
       <c r="AB120" s="20"/>
       <c r="AC120" s="20"/>
-      <c r="AD120" s="60"/>
-    </row>
-    <row r="121" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD120" s="54"/>
+    </row>
+    <row r="121" spans="1:30" s="6" customFormat="1">
       <c r="F121" s="6" t="s">
         <v>169</v>
       </c>
@@ -8848,7 +8848,7 @@
       <c r="Q121" s="20"/>
       <c r="R121" s="20"/>
       <c r="S121" s="20"/>
-      <c r="T121" s="47"/>
+      <c r="T121" s="41"/>
       <c r="U121" s="20"/>
       <c r="V121" s="20"/>
       <c r="W121" s="20"/>
@@ -8858,9 +8858,9 @@
       <c r="AA121" s="20"/>
       <c r="AB121" s="20"/>
       <c r="AC121" s="20"/>
-      <c r="AD121" s="60"/>
-    </row>
-    <row r="122" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD121" s="54"/>
+    </row>
+    <row r="122" spans="1:30" s="6" customFormat="1">
       <c r="F122" s="6" t="s">
         <v>170</v>
       </c>
@@ -8876,7 +8876,7 @@
       <c r="Q122" s="20"/>
       <c r="R122" s="20"/>
       <c r="S122" s="20"/>
-      <c r="T122" s="47"/>
+      <c r="T122" s="41"/>
       <c r="U122" s="20"/>
       <c r="V122" s="20"/>
       <c r="W122" s="20"/>
@@ -8886,11 +8886,11 @@
       <c r="AA122" s="20"/>
       <c r="AB122" s="20"/>
       <c r="AC122" s="20"/>
-      <c r="AD122" s="60"/>
-    </row>
-    <row r="123" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD122" s="54"/>
+    </row>
+    <row r="123" spans="1:30" s="1" customFormat="1">
       <c r="A123" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>170</v>
@@ -8907,7 +8907,7 @@
       <c r="Q123" s="20"/>
       <c r="R123" s="20"/>
       <c r="S123" s="20"/>
-      <c r="T123" s="47"/>
+      <c r="T123" s="41"/>
       <c r="U123" s="20"/>
       <c r="V123" s="20"/>
       <c r="W123" s="20"/>
@@ -8917,9 +8917,9 @@
       <c r="AA123" s="20"/>
       <c r="AB123" s="20"/>
       <c r="AC123" s="20"/>
-      <c r="AD123" s="54"/>
-    </row>
-    <row r="124" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD123" s="48"/>
+    </row>
+    <row r="124" spans="1:30" s="1" customFormat="1">
       <c r="F124" s="1" t="s">
         <v>169</v>
       </c>
@@ -8935,7 +8935,7 @@
       <c r="Q124" s="20"/>
       <c r="R124" s="20"/>
       <c r="S124" s="20"/>
-      <c r="T124" s="47"/>
+      <c r="T124" s="41"/>
       <c r="U124" s="20"/>
       <c r="V124" s="20"/>
       <c r="W124" s="20"/>
@@ -8945,9 +8945,9 @@
       <c r="AA124" s="20"/>
       <c r="AB124" s="20"/>
       <c r="AC124" s="20"/>
-      <c r="AD124" s="54"/>
-    </row>
-    <row r="125" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD124" s="48"/>
+    </row>
+    <row r="125" spans="1:30" s="1" customFormat="1">
       <c r="F125" s="1" t="s">
         <v>169</v>
       </c>
@@ -8963,7 +8963,7 @@
       <c r="Q125" s="20"/>
       <c r="R125" s="20"/>
       <c r="S125" s="20"/>
-      <c r="T125" s="47"/>
+      <c r="T125" s="41"/>
       <c r="U125" s="20"/>
       <c r="V125" s="20"/>
       <c r="W125" s="20"/>
@@ -8973,11 +8973,11 @@
       <c r="AA125" s="20"/>
       <c r="AB125" s="20"/>
       <c r="AC125" s="20"/>
-      <c r="AD125" s="54"/>
-    </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="AD125" s="48"/>
+    </row>
+    <row r="126" spans="1:30">
       <c r="A126" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B126" t="s">
         <v>152</v>
@@ -8989,9 +8989,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:30">
       <c r="A127" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B127" t="s">
         <v>153</v>
@@ -9003,9 +9003,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:30">
       <c r="A128" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B128" t="s">
         <v>154</v>
@@ -9017,9 +9017,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:30">
       <c r="A129" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B129" t="s">
         <v>155</v>
@@ -9031,12 +9031,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:30">
       <c r="A130" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B130" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F130" t="s">
         <v>166</v>
@@ -9045,9 +9045,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:30">
       <c r="A131" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B131" t="s">
         <v>157</v>
@@ -9059,9 +9059,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:30" s="20" customFormat="1">
       <c r="A132" s="20" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B132" s="20" t="s">
         <v>158</v>
@@ -9072,12 +9072,12 @@
       <c r="G132" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="T132" s="47"/>
-      <c r="AD132" s="53"/>
-    </row>
-    <row r="133" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="T132" s="41"/>
+      <c r="AD132" s="47"/>
+    </row>
+    <row r="133" spans="1:30" s="20" customFormat="1">
       <c r="A133" s="20" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B133" s="20" t="s">
         <v>159</v>
@@ -9088,12 +9088,12 @@
       <c r="G133" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="T133" s="47"/>
-      <c r="AD133" s="53"/>
-    </row>
-    <row r="134" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="T133" s="41"/>
+      <c r="AD133" s="47"/>
+    </row>
+    <row r="134" spans="1:30" s="5" customFormat="1">
       <c r="A134" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>160</v>
@@ -9113,7 +9113,7 @@
       <c r="Q134" s="20"/>
       <c r="R134" s="20"/>
       <c r="S134" s="20"/>
-      <c r="T134" s="47"/>
+      <c r="T134" s="41"/>
       <c r="U134" s="20"/>
       <c r="V134" s="20"/>
       <c r="W134" s="20"/>
@@ -9123,9 +9123,9 @@
       <c r="AA134" s="20"/>
       <c r="AB134" s="20"/>
       <c r="AC134" s="20"/>
-      <c r="AD134" s="58"/>
-    </row>
-    <row r="135" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD134" s="52"/>
+    </row>
+    <row r="135" spans="1:30" s="5" customFormat="1">
       <c r="B135" s="5" t="s">
         <v>161</v>
       </c>
@@ -9144,7 +9144,7 @@
       <c r="Q135" s="20"/>
       <c r="R135" s="20"/>
       <c r="S135" s="20"/>
-      <c r="T135" s="47"/>
+      <c r="T135" s="41"/>
       <c r="U135" s="20"/>
       <c r="V135" s="20"/>
       <c r="W135" s="20"/>
@@ -9154,11 +9154,11 @@
       <c r="AA135" s="20"/>
       <c r="AB135" s="20"/>
       <c r="AC135" s="20"/>
-      <c r="AD135" s="58"/>
-    </row>
-    <row r="136" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD135" s="52"/>
+    </row>
+    <row r="136" spans="1:30" s="18" customFormat="1">
       <c r="A136" s="18" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F136" s="18" t="s">
         <v>169</v>
@@ -9175,7 +9175,7 @@
       <c r="Q136" s="20"/>
       <c r="R136" s="20"/>
       <c r="S136" s="20"/>
-      <c r="T136" s="47"/>
+      <c r="T136" s="41"/>
       <c r="U136" s="20"/>
       <c r="V136" s="20"/>
       <c r="W136" s="20"/>
@@ -9185,9 +9185,9 @@
       <c r="AA136" s="20"/>
       <c r="AB136" s="20"/>
       <c r="AC136" s="20"/>
-      <c r="AD136" s="57"/>
-    </row>
-    <row r="137" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD136" s="51"/>
+    </row>
+    <row r="137" spans="1:30" s="18" customFormat="1">
       <c r="F137" s="18" t="s">
         <v>165</v>
       </c>
@@ -9203,7 +9203,7 @@
       <c r="Q137" s="20"/>
       <c r="R137" s="20"/>
       <c r="S137" s="20"/>
-      <c r="T137" s="47"/>
+      <c r="T137" s="41"/>
       <c r="U137" s="20"/>
       <c r="V137" s="20"/>
       <c r="W137" s="20"/>
@@ -9213,9 +9213,9 @@
       <c r="AA137" s="20"/>
       <c r="AB137" s="20"/>
       <c r="AC137" s="20"/>
-      <c r="AD137" s="57"/>
-    </row>
-    <row r="138" spans="1:30" s="18" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="AD137" s="51"/>
+    </row>
+    <row r="138" spans="1:30" s="18" customFormat="1">
       <c r="F138" s="18" t="s">
         <v>166</v>
       </c>
@@ -9231,7 +9231,7 @@
       <c r="Q138" s="20"/>
       <c r="R138" s="20"/>
       <c r="S138" s="20"/>
-      <c r="T138" s="47"/>
+      <c r="T138" s="41"/>
       <c r="U138" s="20"/>
       <c r="V138" s="20"/>
       <c r="W138" s="20"/>
@@ -9241,14 +9241,14 @@
       <c r="AA138" s="20"/>
       <c r="AB138" s="20"/>
       <c r="AC138" s="20"/>
-      <c r="AD138" s="57"/>
-    </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.6">
+      <c r="AD138" s="51"/>
+    </row>
+    <row r="139" spans="1:30">
       <c r="A139" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B139" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F139" s="18" t="s">
         <v>166</v>
@@ -9257,9 +9257,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:30">
       <c r="B140" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F140" s="18" t="s">
         <v>166</v>
@@ -9268,9 +9268,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:30">
       <c r="B141" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F141" s="18" t="s">
         <v>166</v>
@@ -9279,12 +9279,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:30">
       <c r="A142" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B142" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F142" s="18" t="s">
         <v>166</v>
@@ -9293,9 +9293,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:30">
       <c r="B143" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F143" s="18" t="s">
         <v>166</v>
@@ -9304,9 +9304,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:30">
       <c r="B144" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F144" s="18" t="s">
         <v>166</v>
@@ -9315,9 +9315,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.6">
+    <row r="145" spans="2:7">
       <c r="B145" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F145" s="18" t="s">
         <v>166</v>
@@ -9328,6 +9328,29 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="U51:AC51"/>
+    <mergeCell ref="U52:AC52"/>
+    <mergeCell ref="U59:AC59"/>
+    <mergeCell ref="U60:AC60"/>
+    <mergeCell ref="U67:AC67"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K52:S52"/>
+    <mergeCell ref="K59:S59"/>
+    <mergeCell ref="K60:S60"/>
+    <mergeCell ref="K67:S67"/>
+    <mergeCell ref="K42:S42"/>
+    <mergeCell ref="U26:AC26"/>
+    <mergeCell ref="U27:AC27"/>
+    <mergeCell ref="U34:AC34"/>
+    <mergeCell ref="U35:AC35"/>
+    <mergeCell ref="U42:AC42"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="K27:S27"/>
+    <mergeCell ref="K34:S34"/>
+    <mergeCell ref="K35:S35"/>
+    <mergeCell ref="K24:S24"/>
+    <mergeCell ref="K17:S17"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="U1:AC1"/>
     <mergeCell ref="U2:AC2"/>
@@ -9336,29 +9359,6 @@
     <mergeCell ref="K9:S9"/>
     <mergeCell ref="K2:S2"/>
     <mergeCell ref="K10:S10"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="K26:S26"/>
-    <mergeCell ref="K27:S27"/>
-    <mergeCell ref="K34:S34"/>
-    <mergeCell ref="K35:S35"/>
-    <mergeCell ref="K24:S24"/>
-    <mergeCell ref="K17:S17"/>
-    <mergeCell ref="K42:S42"/>
-    <mergeCell ref="U26:AC26"/>
-    <mergeCell ref="U27:AC27"/>
-    <mergeCell ref="U34:AC34"/>
-    <mergeCell ref="U35:AC35"/>
-    <mergeCell ref="U42:AC42"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K52:S52"/>
-    <mergeCell ref="K59:S59"/>
-    <mergeCell ref="K60:S60"/>
-    <mergeCell ref="K67:S67"/>
-    <mergeCell ref="U51:AC51"/>
-    <mergeCell ref="U52:AC52"/>
-    <mergeCell ref="U59:AC59"/>
-    <mergeCell ref="U60:AC60"/>
-    <mergeCell ref="U67:AC67"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9367,54 +9367,2193 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4702565-7A6E-4D99-B133-0C24801BA2A0}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="B2:N85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="11.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1">
+    <row r="2" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="26"/>
+      <c r="C4" s="60">
+        <v>0</v>
+      </c>
+      <c r="D4" s="60">
+        <v>1</v>
+      </c>
+      <c r="E4" s="60">
+        <v>2</v>
+      </c>
+      <c r="F4" s="60">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2">
+      <c r="G4" s="60">
+        <v>4</v>
+      </c>
+      <c r="H4" s="60">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3">
+      <c r="I4" s="60">
+        <v>6</v>
+      </c>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="21">
+        <v>209</v>
+      </c>
+      <c r="D5" s="21">
+        <v>197</v>
+      </c>
+      <c r="E5" s="21">
+        <v>193</v>
+      </c>
+      <c r="F5" s="21">
+        <v>192</v>
+      </c>
+      <c r="G5" s="21">
+        <v>183</v>
+      </c>
+      <c r="H5" s="21">
+        <v>214</v>
+      </c>
+      <c r="I5" s="21">
+        <v>204</v>
+      </c>
+      <c r="J5" s="34">
+        <f>SUM(C5:I5)</f>
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="22">
+        <v>10</v>
+      </c>
+      <c r="D6" s="22">
+        <v>5</v>
+      </c>
+      <c r="E6" s="22">
+        <v>10</v>
+      </c>
+      <c r="F6" s="22">
+        <v>7</v>
+      </c>
+      <c r="G6" s="22">
+        <v>10</v>
+      </c>
+      <c r="H6" s="22">
+        <v>10</v>
+      </c>
+      <c r="I6" s="22">
+        <v>14</v>
+      </c>
+      <c r="J6" s="34">
+        <f>SUM(C6:I6)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="60">
+        <f>C5+C6</f>
+        <v>219</v>
+      </c>
+      <c r="D7" s="60">
+        <f t="shared" ref="D7:I7" si="0">D5+D6</f>
+        <v>202</v>
+      </c>
+      <c r="E7" s="60">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="F7" s="60">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="G7" s="60">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="H7" s="60">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="I7" s="60">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="J7" s="28">
+        <f>SUM(C7:I7)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30">
+        <f>C6/C7</f>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="D8" s="30">
+        <f t="shared" ref="D8:I8" si="1">D6/D7</f>
+        <v>2.4752475247524754E-2</v>
+      </c>
+      <c r="E8" s="30">
+        <f t="shared" si="1"/>
+        <v>4.9261083743842367E-2</v>
+      </c>
+      <c r="F8" s="30">
+        <f t="shared" si="1"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G8" s="30">
+        <f t="shared" si="1"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H8" s="30">
+        <f t="shared" si="1"/>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="I8" s="30">
+        <f t="shared" si="1"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="26"/>
+      <c r="C11" s="60">
+        <v>0</v>
+      </c>
+      <c r="D11" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A6" t="s">
-        <v>176</v>
+      <c r="E11" s="60">
+        <v>2</v>
+      </c>
+      <c r="F11" s="60">
+        <v>3</v>
+      </c>
+      <c r="G11" s="60">
+        <v>4</v>
+      </c>
+      <c r="H11" s="60">
+        <v>5</v>
+      </c>
+      <c r="I11" s="60">
+        <v>6</v>
+      </c>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="21">
+        <v>207</v>
+      </c>
+      <c r="D12" s="21">
+        <v>192</v>
+      </c>
+      <c r="E12" s="21">
+        <v>182</v>
+      </c>
+      <c r="F12" s="21">
+        <v>192</v>
+      </c>
+      <c r="G12" s="21">
+        <v>183</v>
+      </c>
+      <c r="H12" s="21">
+        <v>213</v>
+      </c>
+      <c r="I12" s="21">
+        <v>205</v>
+      </c>
+      <c r="J12" s="34">
+        <f>SUM(C12:I12)</f>
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="22">
+        <v>12</v>
+      </c>
+      <c r="D13" s="22">
+        <v>10</v>
+      </c>
+      <c r="E13" s="22">
+        <v>21</v>
+      </c>
+      <c r="F13" s="22">
+        <v>7</v>
+      </c>
+      <c r="G13" s="22">
+        <v>10</v>
+      </c>
+      <c r="H13" s="22">
+        <v>11</v>
+      </c>
+      <c r="I13" s="22">
+        <v>13</v>
+      </c>
+      <c r="J13" s="34">
+        <f>SUM(C13:I13)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="60">
+        <f>C12+C13</f>
+        <v>219</v>
+      </c>
+      <c r="D14" s="60">
+        <f t="shared" ref="D14:I14" si="2">D12+D13</f>
+        <v>202</v>
+      </c>
+      <c r="E14" s="60">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="F14" s="60">
+        <f t="shared" si="2"/>
+        <v>199</v>
+      </c>
+      <c r="G14" s="60">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="H14" s="60">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="I14" s="60">
+        <f t="shared" si="2"/>
+        <v>218</v>
+      </c>
+      <c r="J14" s="28">
+        <f>SUM(C14:I14)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30">
+        <f>C13/C14</f>
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="D15" s="30">
+        <f t="shared" ref="D15:I15" si="3">D13/D14</f>
+        <v>4.9504950495049507E-2</v>
+      </c>
+      <c r="E15" s="30">
+        <f t="shared" si="3"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" si="3"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G15" s="30">
+        <f t="shared" si="3"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H15" s="30">
+        <f t="shared" si="3"/>
+        <v>4.9107142857142856E-2</v>
+      </c>
+      <c r="I15" s="30">
+        <f t="shared" si="3"/>
+        <v>5.9633027522935783E-2</v>
+      </c>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="26"/>
+      <c r="C18" s="60">
+        <v>0</v>
+      </c>
+      <c r="D18" s="60">
+        <v>1</v>
+      </c>
+      <c r="E18" s="60">
+        <v>2</v>
+      </c>
+      <c r="F18" s="60">
+        <v>3</v>
+      </c>
+      <c r="G18" s="60">
+        <v>4</v>
+      </c>
+      <c r="H18" s="60">
+        <v>5</v>
+      </c>
+      <c r="I18" s="60">
+        <v>6</v>
+      </c>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="21">
+        <v>200</v>
+      </c>
+      <c r="D19" s="21">
+        <v>186</v>
+      </c>
+      <c r="E19" s="21">
+        <v>187</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21">
+        <v>195</v>
+      </c>
+      <c r="I19" s="21">
+        <v>198</v>
+      </c>
+      <c r="J19" s="34">
+        <f>SUM(C19:I19)</f>
+        <v>966</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="22">
+        <v>19</v>
+      </c>
+      <c r="D20" s="22">
+        <v>16</v>
+      </c>
+      <c r="E20" s="22">
+        <v>16</v>
+      </c>
+      <c r="F20" s="22">
+        <v>199</v>
+      </c>
+      <c r="G20" s="22">
+        <v>193</v>
+      </c>
+      <c r="H20" s="22">
+        <v>29</v>
+      </c>
+      <c r="I20" s="22">
+        <v>20</v>
+      </c>
+      <c r="J20" s="34">
+        <f>SUM(C20:I20)</f>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="60">
+        <f>C19+C20</f>
+        <v>219</v>
+      </c>
+      <c r="D21" s="60">
+        <f t="shared" ref="D21:I21" si="4">D19+D20</f>
+        <v>202</v>
+      </c>
+      <c r="E21" s="60">
+        <f t="shared" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="F21" s="60">
+        <f t="shared" si="4"/>
+        <v>199</v>
+      </c>
+      <c r="G21" s="60">
+        <f t="shared" si="4"/>
+        <v>193</v>
+      </c>
+      <c r="H21" s="60">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="I21" s="60">
+        <f t="shared" si="4"/>
+        <v>218</v>
+      </c>
+      <c r="J21" s="28">
+        <f>SUM(C21:I21)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B22" s="29"/>
+      <c r="C22" s="30">
+        <f>C20/C21</f>
+        <v>8.6757990867579904E-2</v>
+      </c>
+      <c r="D22" s="30">
+        <f t="shared" ref="D22:I22" si="5">D20/D21</f>
+        <v>7.9207920792079209E-2</v>
+      </c>
+      <c r="E22" s="30">
+        <f t="shared" si="5"/>
+        <v>7.8817733990147784E-2</v>
+      </c>
+      <c r="F22" s="30">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="30">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="30">
+        <f t="shared" si="5"/>
+        <v>0.12946428571428573</v>
+      </c>
+      <c r="I22" s="30">
+        <f t="shared" si="5"/>
+        <v>9.1743119266055051E-2</v>
+      </c>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B23">
+        <v>0.1</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="26"/>
+      <c r="C25" s="60">
+        <v>0</v>
+      </c>
+      <c r="D25" s="60">
+        <v>1</v>
+      </c>
+      <c r="E25" s="60">
+        <v>2</v>
+      </c>
+      <c r="F25" s="60">
+        <v>3</v>
+      </c>
+      <c r="G25" s="60">
+        <v>4</v>
+      </c>
+      <c r="H25" s="60">
+        <v>5</v>
+      </c>
+      <c r="I25" s="60">
+        <v>6</v>
+      </c>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="21">
+        <v>209</v>
+      </c>
+      <c r="D26" s="21">
+        <v>192</v>
+      </c>
+      <c r="E26" s="21">
+        <v>195</v>
+      </c>
+      <c r="F26" s="21">
+        <v>192</v>
+      </c>
+      <c r="G26" s="21">
+        <v>183</v>
+      </c>
+      <c r="H26" s="21">
+        <v>218</v>
+      </c>
+      <c r="I26" s="21">
+        <v>206</v>
+      </c>
+      <c r="J26" s="34">
+        <f>SUM(C26:I26)</f>
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27" s="22">
+        <v>10</v>
+      </c>
+      <c r="D27" s="22">
+        <v>10</v>
+      </c>
+      <c r="E27" s="22">
+        <v>8</v>
+      </c>
+      <c r="F27" s="22">
+        <v>7</v>
+      </c>
+      <c r="G27" s="22">
+        <v>10</v>
+      </c>
+      <c r="H27" s="22">
+        <v>6</v>
+      </c>
+      <c r="I27" s="22">
+        <v>12</v>
+      </c>
+      <c r="J27" s="34">
+        <f>SUM(C27:I27)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="60">
+        <f>C26+C27</f>
+        <v>219</v>
+      </c>
+      <c r="D28" s="60">
+        <f t="shared" ref="D28:I28" si="6">D26+D27</f>
+        <v>202</v>
+      </c>
+      <c r="E28" s="60">
+        <f t="shared" si="6"/>
+        <v>203</v>
+      </c>
+      <c r="F28" s="60">
+        <f t="shared" si="6"/>
+        <v>199</v>
+      </c>
+      <c r="G28" s="60">
+        <f t="shared" si="6"/>
+        <v>193</v>
+      </c>
+      <c r="H28" s="60">
+        <f t="shared" si="6"/>
+        <v>224</v>
+      </c>
+      <c r="I28" s="60">
+        <f t="shared" si="6"/>
+        <v>218</v>
+      </c>
+      <c r="J28" s="28">
+        <f>SUM(C28:I28)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30">
+        <f>C27/C28</f>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="D29" s="30">
+        <f t="shared" ref="D29:I29" si="7">D27/D28</f>
+        <v>4.9504950495049507E-2</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="7"/>
+        <v>3.9408866995073892E-2</v>
+      </c>
+      <c r="F29" s="30">
+        <f t="shared" si="7"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G29" s="30">
+        <f t="shared" si="7"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H29" s="30">
+        <f t="shared" si="7"/>
+        <v>2.6785714285714284E-2</v>
+      </c>
+      <c r="I29" s="30">
+        <f t="shared" si="7"/>
+        <v>5.5045871559633031E-2</v>
+      </c>
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B30">
+        <v>0.2</v>
+      </c>
+      <c r="C30">
+        <v>0.2</v>
+      </c>
+      <c r="D30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="24"/>
+      <c r="C31" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" s="31"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="26"/>
+      <c r="C32" s="60">
+        <v>0</v>
+      </c>
+      <c r="D32" s="60">
+        <v>1</v>
+      </c>
+      <c r="E32" s="60">
+        <v>2</v>
+      </c>
+      <c r="F32" s="60">
+        <v>3</v>
+      </c>
+      <c r="G32" s="60">
+        <v>4</v>
+      </c>
+      <c r="H32" s="60">
+        <v>5</v>
+      </c>
+      <c r="I32" s="60">
+        <v>6</v>
+      </c>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="21">
+        <v>208</v>
+      </c>
+      <c r="D33" s="21">
+        <v>188</v>
+      </c>
+      <c r="E33" s="21">
+        <v>192</v>
+      </c>
+      <c r="F33" s="21">
+        <v>192</v>
+      </c>
+      <c r="G33" s="21">
+        <v>183</v>
+      </c>
+      <c r="H33" s="21">
+        <v>217</v>
+      </c>
+      <c r="I33" s="21">
+        <v>204</v>
+      </c>
+      <c r="J33" s="34">
+        <f>SUM(C33:I33)</f>
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="22">
+        <v>11</v>
+      </c>
+      <c r="D34" s="22">
+        <v>14</v>
+      </c>
+      <c r="E34" s="22">
+        <v>11</v>
+      </c>
+      <c r="F34" s="22">
+        <v>7</v>
+      </c>
+      <c r="G34" s="22">
+        <v>10</v>
+      </c>
+      <c r="H34" s="22">
+        <v>7</v>
+      </c>
+      <c r="I34" s="22">
+        <v>14</v>
+      </c>
+      <c r="J34" s="34">
+        <f>SUM(C34:I34)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" s="60">
+        <f>C33+C34</f>
+        <v>219</v>
+      </c>
+      <c r="D35" s="60">
+        <f t="shared" ref="D35:I35" si="8">D33+D34</f>
+        <v>202</v>
+      </c>
+      <c r="E35" s="60">
+        <f t="shared" si="8"/>
+        <v>203</v>
+      </c>
+      <c r="F35" s="60">
+        <f t="shared" si="8"/>
+        <v>199</v>
+      </c>
+      <c r="G35" s="60">
+        <f t="shared" si="8"/>
+        <v>193</v>
+      </c>
+      <c r="H35" s="60">
+        <f t="shared" si="8"/>
+        <v>224</v>
+      </c>
+      <c r="I35" s="60">
+        <f t="shared" si="8"/>
+        <v>218</v>
+      </c>
+      <c r="J35" s="28">
+        <f>SUM(C35:I35)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B36" s="29"/>
+      <c r="C36" s="30">
+        <f>C34/C35</f>
+        <v>5.0228310502283102E-2</v>
+      </c>
+      <c r="D36" s="30">
+        <f t="shared" ref="D36:I36" si="9">D34/D35</f>
+        <v>6.9306930693069313E-2</v>
+      </c>
+      <c r="E36" s="30">
+        <f t="shared" si="9"/>
+        <v>5.4187192118226604E-2</v>
+      </c>
+      <c r="F36" s="30">
+        <f t="shared" si="9"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G36" s="30">
+        <f t="shared" si="9"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H36" s="30">
+        <f t="shared" si="9"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I36" s="30">
+        <f t="shared" si="9"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="J36" s="36"/>
+    </row>
+    <row r="37" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B37">
+        <v>0.3</v>
+      </c>
+      <c r="C37">
+        <v>0.3</v>
+      </c>
+      <c r="D37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" s="31"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="26"/>
+      <c r="C39" s="60">
+        <v>0</v>
+      </c>
+      <c r="D39" s="60">
+        <v>1</v>
+      </c>
+      <c r="E39" s="60">
+        <v>2</v>
+      </c>
+      <c r="F39" s="60">
+        <v>3</v>
+      </c>
+      <c r="G39" s="60">
+        <v>4</v>
+      </c>
+      <c r="H39" s="60">
+        <v>5</v>
+      </c>
+      <c r="I39" s="60">
+        <v>6</v>
+      </c>
+      <c r="J39" s="28"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="21">
+        <v>204</v>
+      </c>
+      <c r="D40" s="21">
+        <v>193</v>
+      </c>
+      <c r="E40" s="21">
+        <v>183</v>
+      </c>
+      <c r="F40" s="21">
+        <v>192</v>
+      </c>
+      <c r="G40" s="21">
+        <v>183</v>
+      </c>
+      <c r="H40" s="21">
+        <v>201</v>
+      </c>
+      <c r="I40" s="21">
+        <v>206</v>
+      </c>
+      <c r="J40" s="34">
+        <f>SUM(C40:I40)</f>
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" s="22">
+        <v>15</v>
+      </c>
+      <c r="D41" s="22">
+        <v>9</v>
+      </c>
+      <c r="E41" s="22">
+        <v>20</v>
+      </c>
+      <c r="F41" s="22">
+        <v>7</v>
+      </c>
+      <c r="G41" s="22">
+        <v>10</v>
+      </c>
+      <c r="H41" s="22">
+        <v>23</v>
+      </c>
+      <c r="I41" s="22">
+        <v>12</v>
+      </c>
+      <c r="J41" s="34">
+        <f>SUM(C41:I41)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" s="60">
+        <f>C40+C41</f>
+        <v>219</v>
+      </c>
+      <c r="D42" s="60">
+        <f t="shared" ref="D42:I42" si="10">D40+D41</f>
+        <v>202</v>
+      </c>
+      <c r="E42" s="60">
+        <f t="shared" si="10"/>
+        <v>203</v>
+      </c>
+      <c r="F42" s="60">
+        <f t="shared" si="10"/>
+        <v>199</v>
+      </c>
+      <c r="G42" s="60">
+        <f t="shared" si="10"/>
+        <v>193</v>
+      </c>
+      <c r="H42" s="60">
+        <f t="shared" si="10"/>
+        <v>224</v>
+      </c>
+      <c r="I42" s="60">
+        <f t="shared" si="10"/>
+        <v>218</v>
+      </c>
+      <c r="J42" s="28">
+        <f>SUM(C42:I42)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B43" s="29"/>
+      <c r="C43" s="30">
+        <f>C41/C42</f>
+        <v>6.8493150684931503E-2</v>
+      </c>
+      <c r="D43" s="30">
+        <f t="shared" ref="D43:I43" si="11">D41/D42</f>
+        <v>4.4554455445544552E-2</v>
+      </c>
+      <c r="E43" s="30">
+        <f t="shared" si="11"/>
+        <v>9.8522167487684734E-2</v>
+      </c>
+      <c r="F43" s="30">
+        <f t="shared" si="11"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G43" s="30">
+        <f t="shared" si="11"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H43" s="30">
+        <f t="shared" si="11"/>
+        <v>0.10267857142857142</v>
+      </c>
+      <c r="I43" s="30">
+        <f t="shared" si="11"/>
+        <v>5.5045871559633031E-2</v>
+      </c>
+      <c r="J43" s="36"/>
+    </row>
+    <row r="44" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B44">
+        <v>0.4</v>
+      </c>
+      <c r="C44">
+        <v>0.4</v>
+      </c>
+      <c r="D44">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="24"/>
+      <c r="C45" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J45" s="31"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="26"/>
+      <c r="C46" s="60">
+        <v>0</v>
+      </c>
+      <c r="D46" s="60">
+        <v>1</v>
+      </c>
+      <c r="E46" s="60">
+        <v>2</v>
+      </c>
+      <c r="F46" s="60">
+        <v>3</v>
+      </c>
+      <c r="G46" s="60">
+        <v>4</v>
+      </c>
+      <c r="H46" s="60">
+        <v>5</v>
+      </c>
+      <c r="I46" s="60">
+        <v>6</v>
+      </c>
+      <c r="J46" s="28"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="21">
+        <v>201</v>
+      </c>
+      <c r="D47" s="21">
+        <v>186</v>
+      </c>
+      <c r="E47" s="21">
+        <v>181</v>
+      </c>
+      <c r="F47" s="21">
+        <v>192</v>
+      </c>
+      <c r="G47" s="21">
+        <v>183</v>
+      </c>
+      <c r="H47" s="21">
+        <v>199</v>
+      </c>
+      <c r="I47" s="21">
+        <v>198</v>
+      </c>
+      <c r="J47" s="34">
+        <f>SUM(C47:I47)</f>
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C48" s="22">
+        <v>18</v>
+      </c>
+      <c r="D48" s="22">
+        <v>16</v>
+      </c>
+      <c r="E48" s="22">
+        <v>22</v>
+      </c>
+      <c r="F48" s="22">
+        <v>7</v>
+      </c>
+      <c r="G48" s="22">
+        <v>10</v>
+      </c>
+      <c r="H48" s="22">
+        <v>25</v>
+      </c>
+      <c r="I48" s="22">
+        <v>20</v>
+      </c>
+      <c r="J48" s="34">
+        <f>SUM(C48:I48)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" s="60">
+        <f>C47+C48</f>
+        <v>219</v>
+      </c>
+      <c r="D49" s="60">
+        <f t="shared" ref="D49:I49" si="12">D47+D48</f>
+        <v>202</v>
+      </c>
+      <c r="E49" s="60">
+        <f t="shared" si="12"/>
+        <v>203</v>
+      </c>
+      <c r="F49" s="60">
+        <f t="shared" si="12"/>
+        <v>199</v>
+      </c>
+      <c r="G49" s="60">
+        <f t="shared" si="12"/>
+        <v>193</v>
+      </c>
+      <c r="H49" s="60">
+        <f t="shared" si="12"/>
+        <v>224</v>
+      </c>
+      <c r="I49" s="60">
+        <f t="shared" si="12"/>
+        <v>218</v>
+      </c>
+      <c r="J49" s="28">
+        <f>SUM(C49:I49)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B50" s="29"/>
+      <c r="C50" s="30">
+        <f>C48/C49</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="D50" s="30">
+        <f t="shared" ref="D50:I50" si="13">D48/D49</f>
+        <v>7.9207920792079209E-2</v>
+      </c>
+      <c r="E50" s="30">
+        <f t="shared" si="13"/>
+        <v>0.10837438423645321</v>
+      </c>
+      <c r="F50" s="30">
+        <f t="shared" si="13"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G50" s="30">
+        <f t="shared" si="13"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H50" s="30">
+        <f t="shared" si="13"/>
+        <v>0.11160714285714286</v>
+      </c>
+      <c r="I50" s="30">
+        <f t="shared" si="13"/>
+        <v>9.1743119266055051E-2</v>
+      </c>
+      <c r="J50" s="36"/>
+    </row>
+    <row r="51" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B51">
+        <v>0.6</v>
+      </c>
+      <c r="C51">
+        <v>0.6</v>
+      </c>
+      <c r="D51">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="24"/>
+      <c r="C52" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J52" s="31"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="26"/>
+      <c r="C53" s="60">
+        <v>0</v>
+      </c>
+      <c r="D53" s="60">
+        <v>1</v>
+      </c>
+      <c r="E53" s="60">
+        <v>2</v>
+      </c>
+      <c r="F53" s="60">
+        <v>3</v>
+      </c>
+      <c r="G53" s="60">
+        <v>4</v>
+      </c>
+      <c r="H53" s="60">
+        <v>5</v>
+      </c>
+      <c r="I53" s="60">
+        <v>6</v>
+      </c>
+      <c r="J53" s="28"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="21">
+        <v>206</v>
+      </c>
+      <c r="D54" s="21">
+        <v>180</v>
+      </c>
+      <c r="E54" s="21">
+        <v>183</v>
+      </c>
+      <c r="F54" s="21">
+        <v>193</v>
+      </c>
+      <c r="G54" s="21">
+        <v>183</v>
+      </c>
+      <c r="H54" s="21">
+        <v>202</v>
+      </c>
+      <c r="I54" s="21">
+        <v>197</v>
+      </c>
+      <c r="J54" s="34">
+        <f>SUM(C54:I54)</f>
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C55" s="22">
+        <v>13</v>
+      </c>
+      <c r="D55" s="22">
+        <v>22</v>
+      </c>
+      <c r="E55" s="22">
+        <v>20</v>
+      </c>
+      <c r="F55" s="22">
+        <v>6</v>
+      </c>
+      <c r="G55" s="22">
+        <v>10</v>
+      </c>
+      <c r="H55" s="22">
+        <v>22</v>
+      </c>
+      <c r="I55" s="22">
+        <v>21</v>
+      </c>
+      <c r="J55" s="34">
+        <f>SUM(C55:I55)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56" s="60">
+        <f>C54+C55</f>
+        <v>219</v>
+      </c>
+      <c r="D56" s="60">
+        <f t="shared" ref="D56:I56" si="14">D54+D55</f>
+        <v>202</v>
+      </c>
+      <c r="E56" s="60">
+        <f t="shared" si="14"/>
+        <v>203</v>
+      </c>
+      <c r="F56" s="60">
+        <f t="shared" si="14"/>
+        <v>199</v>
+      </c>
+      <c r="G56" s="60">
+        <f t="shared" si="14"/>
+        <v>193</v>
+      </c>
+      <c r="H56" s="60">
+        <f t="shared" si="14"/>
+        <v>224</v>
+      </c>
+      <c r="I56" s="60">
+        <f t="shared" si="14"/>
+        <v>218</v>
+      </c>
+      <c r="J56" s="28">
+        <f>SUM(C56:I56)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B57" s="29"/>
+      <c r="C57" s="30">
+        <f>C55/C56</f>
+        <v>5.9360730593607303E-2</v>
+      </c>
+      <c r="D57" s="30">
+        <f t="shared" ref="D57:I57" si="15">D55/D56</f>
+        <v>0.10891089108910891</v>
+      </c>
+      <c r="E57" s="30">
+        <f t="shared" si="15"/>
+        <v>9.8522167487684734E-2</v>
+      </c>
+      <c r="F57" s="30">
+        <f t="shared" si="15"/>
+        <v>3.015075376884422E-2</v>
+      </c>
+      <c r="G57" s="30">
+        <f t="shared" si="15"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H57" s="30">
+        <f t="shared" si="15"/>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="I57" s="30">
+        <f t="shared" si="15"/>
+        <v>9.6330275229357804E-2</v>
+      </c>
+      <c r="J57" s="36"/>
+    </row>
+    <row r="58" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B58">
+        <v>0.7</v>
+      </c>
+      <c r="C58">
+        <v>0.7</v>
+      </c>
+      <c r="D58">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="24"/>
+      <c r="C59" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J59" s="31"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="26"/>
+      <c r="C60" s="60">
+        <v>0</v>
+      </c>
+      <c r="D60" s="60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="60">
+        <v>2</v>
+      </c>
+      <c r="F60" s="60">
+        <v>3</v>
+      </c>
+      <c r="G60" s="60">
+        <v>4</v>
+      </c>
+      <c r="H60" s="60">
+        <v>5</v>
+      </c>
+      <c r="I60" s="60">
+        <v>6</v>
+      </c>
+      <c r="J60" s="28"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="21">
+        <v>207</v>
+      </c>
+      <c r="D61" s="21">
+        <v>188</v>
+      </c>
+      <c r="E61" s="21">
+        <v>191</v>
+      </c>
+      <c r="F61" s="21">
+        <v>192</v>
+      </c>
+      <c r="G61" s="21">
+        <v>183</v>
+      </c>
+      <c r="H61" s="21">
+        <v>216</v>
+      </c>
+      <c r="I61" s="21">
+        <v>206</v>
+      </c>
+      <c r="J61" s="34">
+        <f>SUM(C61:I61)</f>
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C62" s="22">
+        <v>12</v>
+      </c>
+      <c r="D62" s="22">
+        <v>14</v>
+      </c>
+      <c r="E62" s="22">
+        <v>12</v>
+      </c>
+      <c r="F62" s="22">
+        <v>7</v>
+      </c>
+      <c r="G62" s="22">
+        <v>10</v>
+      </c>
+      <c r="H62" s="22">
+        <v>8</v>
+      </c>
+      <c r="I62" s="22">
+        <v>12</v>
+      </c>
+      <c r="J62" s="34">
+        <f>SUM(C62:I62)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C63" s="60">
+        <f>C61+C62</f>
+        <v>219</v>
+      </c>
+      <c r="D63" s="60">
+        <f t="shared" ref="D63:I63" si="16">D61+D62</f>
+        <v>202</v>
+      </c>
+      <c r="E63" s="60">
+        <f t="shared" si="16"/>
+        <v>203</v>
+      </c>
+      <c r="F63" s="60">
+        <f t="shared" si="16"/>
+        <v>199</v>
+      </c>
+      <c r="G63" s="60">
+        <f t="shared" si="16"/>
+        <v>193</v>
+      </c>
+      <c r="H63" s="60">
+        <f t="shared" si="16"/>
+        <v>224</v>
+      </c>
+      <c r="I63" s="60">
+        <f t="shared" si="16"/>
+        <v>218</v>
+      </c>
+      <c r="J63" s="28">
+        <f>SUM(C63:I63)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B64" s="29"/>
+      <c r="C64" s="30">
+        <f>C62/C63</f>
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="D64" s="30">
+        <f t="shared" ref="D64:I64" si="17">D62/D63</f>
+        <v>6.9306930693069313E-2</v>
+      </c>
+      <c r="E64" s="30">
+        <f t="shared" si="17"/>
+        <v>5.9113300492610835E-2</v>
+      </c>
+      <c r="F64" s="30">
+        <f t="shared" si="17"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G64" s="30">
+        <f t="shared" si="17"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H64" s="30">
+        <f t="shared" si="17"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="I64" s="30">
+        <f t="shared" si="17"/>
+        <v>5.5045871559633031E-2</v>
+      </c>
+      <c r="J64" s="36"/>
+    </row>
+    <row r="65" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B65">
+        <v>0.8</v>
+      </c>
+      <c r="C65">
+        <v>0.8</v>
+      </c>
+      <c r="D65">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="24"/>
+      <c r="C66" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J66" s="31"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="26"/>
+      <c r="C67" s="60">
+        <v>0</v>
+      </c>
+      <c r="D67" s="60">
+        <v>1</v>
+      </c>
+      <c r="E67" s="60">
+        <v>2</v>
+      </c>
+      <c r="F67" s="60">
+        <v>3</v>
+      </c>
+      <c r="G67" s="60">
+        <v>4</v>
+      </c>
+      <c r="H67" s="60">
+        <v>5</v>
+      </c>
+      <c r="I67" s="60">
+        <v>6</v>
+      </c>
+      <c r="J67" s="28"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="21">
+        <v>208</v>
+      </c>
+      <c r="D68" s="21">
+        <v>183</v>
+      </c>
+      <c r="E68" s="21">
+        <v>196</v>
+      </c>
+      <c r="F68" s="21">
+        <v>192</v>
+      </c>
+      <c r="G68" s="21">
+        <v>183</v>
+      </c>
+      <c r="H68" s="21">
+        <v>212</v>
+      </c>
+      <c r="I68" s="21">
+        <v>204</v>
+      </c>
+      <c r="J68" s="34">
+        <f>SUM(C68:I68)</f>
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C69" s="22">
+        <v>11</v>
+      </c>
+      <c r="D69" s="22">
+        <v>19</v>
+      </c>
+      <c r="E69" s="22">
+        <v>7</v>
+      </c>
+      <c r="F69" s="22">
+        <v>7</v>
+      </c>
+      <c r="G69" s="22">
+        <v>10</v>
+      </c>
+      <c r="H69" s="22">
+        <v>12</v>
+      </c>
+      <c r="I69" s="22">
+        <v>14</v>
+      </c>
+      <c r="J69" s="34">
+        <f>SUM(C69:I69)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C70" s="60">
+        <f>C68+C69</f>
+        <v>219</v>
+      </c>
+      <c r="D70" s="60">
+        <f t="shared" ref="D70:I70" si="18">D68+D69</f>
+        <v>202</v>
+      </c>
+      <c r="E70" s="60">
+        <f t="shared" si="18"/>
+        <v>203</v>
+      </c>
+      <c r="F70" s="60">
+        <f t="shared" si="18"/>
+        <v>199</v>
+      </c>
+      <c r="G70" s="60">
+        <f t="shared" si="18"/>
+        <v>193</v>
+      </c>
+      <c r="H70" s="60">
+        <f t="shared" si="18"/>
+        <v>224</v>
+      </c>
+      <c r="I70" s="60">
+        <f t="shared" si="18"/>
+        <v>218</v>
+      </c>
+      <c r="J70" s="28">
+        <f>SUM(C70:I70)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B71" s="29"/>
+      <c r="C71" s="30">
+        <f>C69/C70</f>
+        <v>5.0228310502283102E-2</v>
+      </c>
+      <c r="D71" s="30">
+        <f t="shared" ref="D71:I71" si="19">D69/D70</f>
+        <v>9.405940594059406E-2</v>
+      </c>
+      <c r="E71" s="30">
+        <f t="shared" si="19"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="F71" s="30">
+        <f t="shared" si="19"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G71" s="30">
+        <f t="shared" si="19"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H71" s="30">
+        <f t="shared" si="19"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="I71" s="30">
+        <f t="shared" si="19"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="J71" s="36"/>
+    </row>
+    <row r="72" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B72">
+        <v>0.9</v>
+      </c>
+      <c r="C72">
+        <v>0.9</v>
+      </c>
+      <c r="D72">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="24"/>
+      <c r="C73" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J73" s="31"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="26"/>
+      <c r="C74" s="60">
+        <v>0</v>
+      </c>
+      <c r="D74" s="60">
+        <v>1</v>
+      </c>
+      <c r="E74" s="60">
+        <v>2</v>
+      </c>
+      <c r="F74" s="60">
+        <v>3</v>
+      </c>
+      <c r="G74" s="60">
+        <v>4</v>
+      </c>
+      <c r="H74" s="60">
+        <v>5</v>
+      </c>
+      <c r="I74" s="60">
+        <v>6</v>
+      </c>
+      <c r="J74" s="28"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="21">
+        <v>208</v>
+      </c>
+      <c r="D75" s="21">
+        <v>186</v>
+      </c>
+      <c r="E75" s="21">
+        <v>197</v>
+      </c>
+      <c r="F75" s="21">
+        <v>192</v>
+      </c>
+      <c r="G75" s="21">
+        <v>183</v>
+      </c>
+      <c r="H75" s="21">
+        <v>210</v>
+      </c>
+      <c r="I75" s="21">
+        <v>203</v>
+      </c>
+      <c r="J75" s="34">
+        <f>SUM(C75:I75)</f>
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C76" s="22">
+        <v>11</v>
+      </c>
+      <c r="D76" s="22">
+        <v>16</v>
+      </c>
+      <c r="E76" s="22">
+        <v>6</v>
+      </c>
+      <c r="F76" s="22">
+        <v>7</v>
+      </c>
+      <c r="G76" s="22">
+        <v>10</v>
+      </c>
+      <c r="H76" s="22">
+        <v>14</v>
+      </c>
+      <c r="I76" s="22">
+        <v>15</v>
+      </c>
+      <c r="J76" s="34">
+        <f>SUM(C76:I76)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="60">
+        <f>C75+C76</f>
+        <v>219</v>
+      </c>
+      <c r="D77" s="60">
+        <f t="shared" ref="D77:I77" si="20">D75+D76</f>
+        <v>202</v>
+      </c>
+      <c r="E77" s="60">
+        <f t="shared" si="20"/>
+        <v>203</v>
+      </c>
+      <c r="F77" s="60">
+        <f t="shared" si="20"/>
+        <v>199</v>
+      </c>
+      <c r="G77" s="60">
+        <f t="shared" si="20"/>
+        <v>193</v>
+      </c>
+      <c r="H77" s="60">
+        <f t="shared" si="20"/>
+        <v>224</v>
+      </c>
+      <c r="I77" s="60">
+        <f t="shared" si="20"/>
+        <v>218</v>
+      </c>
+      <c r="J77" s="28">
+        <f>SUM(C77:I77)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B78" s="29"/>
+      <c r="C78" s="30">
+        <f>C76/C77</f>
+        <v>5.0228310502283102E-2</v>
+      </c>
+      <c r="D78" s="30">
+        <f t="shared" ref="D78:I78" si="21">D76/D77</f>
+        <v>7.9207920792079209E-2</v>
+      </c>
+      <c r="E78" s="30">
+        <f t="shared" si="21"/>
+        <v>2.9556650246305417E-2</v>
+      </c>
+      <c r="F78" s="30">
+        <f t="shared" si="21"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G78" s="30">
+        <f t="shared" si="21"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H78" s="30">
+        <f t="shared" si="21"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I78" s="30">
+        <f t="shared" si="21"/>
+        <v>6.8807339449541288E-2</v>
+      </c>
+      <c r="J78" s="36"/>
+    </row>
+    <row r="81" spans="3:14">
+      <c r="D81" s="61">
+        <v>0</v>
+      </c>
+      <c r="E81" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="F81" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="G81" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="H81" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="I81" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="J81" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="K81" s="61">
+        <v>0.7</v>
+      </c>
+      <c r="L81" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="M81" s="61">
+        <v>0.9</v>
+      </c>
+      <c r="N81" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14">
+      <c r="C82" t="s">
+        <v>300</v>
+      </c>
+      <c r="D82" s="61">
+        <v>66</v>
+      </c>
+      <c r="E82" s="62">
+        <v>63</v>
+      </c>
+      <c r="F82" s="61">
+        <v>74</v>
+      </c>
+      <c r="G82" s="61">
+        <v>96</v>
+      </c>
+      <c r="H82" s="61">
+        <v>118</v>
+      </c>
+      <c r="I82" s="61">
+        <v>84</v>
+      </c>
+      <c r="J82" s="61">
+        <v>114</v>
+      </c>
+      <c r="K82" s="61">
+        <v>75</v>
+      </c>
+      <c r="L82" s="61">
+        <v>80</v>
+      </c>
+      <c r="M82" s="61">
+        <v>79</v>
+      </c>
+      <c r="N82" s="61">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="83" spans="3:14">
+      <c r="C83" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14">
+      <c r="C84" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14">
+      <c r="C85" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/논문/20250324/새 Microsoft Excel 워크시트.xlsx
+++ b/논문/20250324/새 Microsoft Excel 워크시트.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portfolio\논문\20250324\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE7BDB7-68FF-49A0-BBDC-F2A533B45135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8606851C-95D0-4BF3-9540-71EEB13BB198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1310" yWindow="-20880" windowWidth="27100" windowHeight="15290" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="-20510" windowWidth="25510" windowHeight="19530" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="YOLO_s" sheetId="4" r:id="rId4"/>
+    <sheet name="YOLO_n" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="304">
   <si>
     <t>4 0.602740 0.455446 0.365297 0.455446</t>
   </si>
@@ -996,15 +997,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1번 고정</t>
+    <t>1,2번 고정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2번 고정</t>
+    <t>2,3번 고정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3번 고정</t>
+    <t>1,3번 고정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1457,10 +1458,8 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,12 +1468,16 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -3183,28 +3186,28 @@
       <c r="G1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="U1" s="55" t="s">
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="U1" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
     </row>
     <row r="2" spans="1:30" ht="17.25" thickBot="1">
       <c r="A2" t="s">
@@ -3230,17 +3233,17 @@
       <c r="Q2" s="58"/>
       <c r="R2" s="58"/>
       <c r="S2" s="58"/>
-      <c r="U2" s="56" t="s">
+      <c r="U2" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" t="s">
@@ -4734,29 +4737,29 @@
       <c r="G26" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="59" t="s">
+      <c r="K26" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
       <c r="T26" s="41"/>
-      <c r="U26" s="59" t="s">
+      <c r="U26" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
       <c r="AD26" s="48"/>
     </row>
     <row r="27" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1">
@@ -6207,28 +6210,28 @@
       <c r="G51" t="s">
         <v>170</v>
       </c>
-      <c r="K51" s="59" t="s">
+      <c r="K51" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="59"/>
-      <c r="U51" s="59" t="s">
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="U51" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="V51" s="59"/>
-      <c r="W51" s="59"/>
-      <c r="X51" s="59"/>
-      <c r="Y51" s="59"/>
-      <c r="Z51" s="59"/>
-      <c r="AA51" s="59"/>
-      <c r="AB51" s="59"/>
-      <c r="AC51" s="59"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
+      <c r="X51" s="56"/>
+      <c r="Y51" s="56"/>
+      <c r="Z51" s="56"/>
+      <c r="AA51" s="56"/>
+      <c r="AB51" s="56"/>
+      <c r="AC51" s="56"/>
     </row>
     <row r="52" spans="1:30" ht="17.25" thickBot="1">
       <c r="A52" t="s">
@@ -9328,29 +9331,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="U51:AC51"/>
-    <mergeCell ref="U52:AC52"/>
-    <mergeCell ref="U59:AC59"/>
-    <mergeCell ref="U60:AC60"/>
-    <mergeCell ref="U67:AC67"/>
-    <mergeCell ref="K51:S51"/>
-    <mergeCell ref="K52:S52"/>
-    <mergeCell ref="K59:S59"/>
-    <mergeCell ref="K60:S60"/>
-    <mergeCell ref="K67:S67"/>
-    <mergeCell ref="K42:S42"/>
-    <mergeCell ref="U26:AC26"/>
-    <mergeCell ref="U27:AC27"/>
-    <mergeCell ref="U34:AC34"/>
-    <mergeCell ref="U35:AC35"/>
-    <mergeCell ref="U42:AC42"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="K26:S26"/>
-    <mergeCell ref="K27:S27"/>
-    <mergeCell ref="K34:S34"/>
-    <mergeCell ref="K35:S35"/>
-    <mergeCell ref="K24:S24"/>
-    <mergeCell ref="K17:S17"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="U1:AC1"/>
     <mergeCell ref="U2:AC2"/>
@@ -9359,6 +9339,29 @@
     <mergeCell ref="K9:S9"/>
     <mergeCell ref="K2:S2"/>
     <mergeCell ref="K10:S10"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="K27:S27"/>
+    <mergeCell ref="K34:S34"/>
+    <mergeCell ref="K35:S35"/>
+    <mergeCell ref="K24:S24"/>
+    <mergeCell ref="K17:S17"/>
+    <mergeCell ref="K42:S42"/>
+    <mergeCell ref="U26:AC26"/>
+    <mergeCell ref="U27:AC27"/>
+    <mergeCell ref="U34:AC34"/>
+    <mergeCell ref="U35:AC35"/>
+    <mergeCell ref="U42:AC42"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="K52:S52"/>
+    <mergeCell ref="K59:S59"/>
+    <mergeCell ref="K60:S60"/>
+    <mergeCell ref="K67:S67"/>
+    <mergeCell ref="U51:AC51"/>
+    <mergeCell ref="U52:AC52"/>
+    <mergeCell ref="U59:AC59"/>
+    <mergeCell ref="U60:AC60"/>
+    <mergeCell ref="U67:AC67"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9367,18 +9370,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4702565-7A6E-4D99-B133-0C24801BA2A0}">
-  <dimension ref="B2:N85"/>
+  <dimension ref="B2:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="11.1875" customWidth="1"/>
+    <col min="3" max="3" width="9.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="17.25" thickBot="1">
+    <row r="2" spans="2:20" ht="17.25" thickBot="1">
       <c r="B2">
         <v>0</v>
       </c>
@@ -9388,8 +9392,17 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
       <c r="B3" s="24"/>
       <c r="C3" s="25" t="s">
         <v>272</v>
@@ -9413,33 +9426,79 @@
         <v>278</v>
       </c>
       <c r="J3" s="31"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="L3" s="24"/>
+      <c r="M3" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T3" s="31"/>
+    </row>
+    <row r="4" spans="2:20">
       <c r="B4" s="26"/>
-      <c r="C4" s="60">
-        <v>0</v>
-      </c>
-      <c r="D4" s="60">
+      <c r="C4" s="20">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20">
         <v>1</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="20">
         <v>2</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="20">
         <v>3</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="20">
         <v>4</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="20">
         <v>5</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="20">
         <v>6</v>
       </c>
       <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="L4" s="26"/>
+      <c r="M4" s="20">
+        <v>0</v>
+      </c>
+      <c r="N4" s="20">
+        <v>1</v>
+      </c>
+      <c r="O4" s="20">
+        <v>2</v>
+      </c>
+      <c r="P4" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>4</v>
+      </c>
+      <c r="R4" s="20">
+        <v>5</v>
+      </c>
+      <c r="S4" s="20">
+        <v>6</v>
+      </c>
+      <c r="T4" s="28"/>
+    </row>
+    <row r="5" spans="2:20">
       <c r="B5" s="27" t="s">
         <v>23</v>
       </c>
@@ -9468,8 +9527,36 @@
         <f>SUM(C5:I5)</f>
         <v>1392</v>
       </c>
-    </row>
-    <row r="6" spans="2:10">
+      <c r="L5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="21">
+        <v>209</v>
+      </c>
+      <c r="N5" s="21">
+        <v>192</v>
+      </c>
+      <c r="O5" s="21">
+        <v>196</v>
+      </c>
+      <c r="P5" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>183</v>
+      </c>
+      <c r="R5" s="21">
+        <v>216</v>
+      </c>
+      <c r="S5" s="21">
+        <v>206</v>
+      </c>
+      <c r="T5" s="34">
+        <f>SUM(M5:S5)</f>
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
       <c r="B6" s="27" t="s">
         <v>299</v>
       </c>
@@ -9498,36 +9585,64 @@
         <f>SUM(C6:I6)</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="L6" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M6" s="22">
+        <v>10</v>
+      </c>
+      <c r="N6" s="22">
+        <v>10</v>
+      </c>
+      <c r="O6" s="22">
+        <v>7</v>
+      </c>
+      <c r="P6" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>10</v>
+      </c>
+      <c r="R6" s="22">
+        <v>8</v>
+      </c>
+      <c r="S6" s="22">
+        <v>12</v>
+      </c>
+      <c r="T6" s="34">
+        <f>SUM(M6:S6)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
       <c r="B7" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="20">
         <f>C5+C6</f>
         <v>219</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="20">
         <f t="shared" ref="D7:I7" si="0">D5+D6</f>
         <v>202</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="20">
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
         <v>199</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="20">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="20">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="20">
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
@@ -9535,40 +9650,105 @@
         <f>SUM(C7:I7)</f>
         <v>1458</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L7" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M7" s="20">
+        <f>M5+M6</f>
+        <v>219</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" ref="N7:S7" si="1">N5+N6</f>
+        <v>202</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="P7" s="20">
+        <f t="shared" si="1"/>
+        <v>199</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="R7" s="20">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="T7" s="28">
+        <f>SUM(M7:S7)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="17.25" thickBot="1">
       <c r="B8" s="29"/>
       <c r="C8" s="30">
         <f>C6/C7</f>
         <v>4.5662100456621002E-2</v>
       </c>
       <c r="D8" s="30">
-        <f t="shared" ref="D8:I8" si="1">D6/D7</f>
+        <f t="shared" ref="D8:I8" si="2">D6/D7</f>
         <v>2.4752475247524754E-2</v>
       </c>
       <c r="E8" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9261083743842367E-2</v>
       </c>
       <c r="F8" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G8" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H8" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4642857142857144E-2</v>
       </c>
       <c r="I8" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L8" s="29"/>
+      <c r="M8" s="30">
+        <f>M6/M7</f>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="N8" s="30">
+        <f t="shared" ref="N8:S8" si="3">N6/N7</f>
+        <v>4.9504950495049507E-2</v>
+      </c>
+      <c r="O8" s="30">
+        <f t="shared" si="3"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="P8" s="30">
+        <f t="shared" si="3"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q8" s="30">
+        <f t="shared" si="3"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R8" s="30">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="S8" s="30">
+        <f t="shared" si="3"/>
+        <v>5.5045871559633031E-2</v>
+      </c>
+      <c r="T8" s="36"/>
+    </row>
+    <row r="9" spans="2:20" ht="17.25" thickBot="1">
       <c r="B9">
         <v>0.5</v>
       </c>
@@ -9578,8 +9758,17 @@
       <c r="D9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
         <v>272</v>
@@ -9603,33 +9792,79 @@
         <v>278</v>
       </c>
       <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="L10" s="24"/>
+      <c r="M10" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S10" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="2:20">
       <c r="B11" s="26"/>
-      <c r="C11" s="60">
-        <v>0</v>
-      </c>
-      <c r="D11" s="60">
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20">
         <v>1</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="20">
         <v>2</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="20">
         <v>3</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="20">
         <v>4</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="20">
         <v>5</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="20">
         <v>6</v>
       </c>
       <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="L11" s="26"/>
+      <c r="M11" s="20">
+        <v>0</v>
+      </c>
+      <c r="N11" s="20">
+        <v>1</v>
+      </c>
+      <c r="O11" s="20">
+        <v>2</v>
+      </c>
+      <c r="P11" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>4</v>
+      </c>
+      <c r="R11" s="20">
+        <v>5</v>
+      </c>
+      <c r="S11" s="20">
+        <v>6</v>
+      </c>
+      <c r="T11" s="28"/>
+    </row>
+    <row r="12" spans="2:20">
       <c r="B12" s="27" t="s">
         <v>23</v>
       </c>
@@ -9658,8 +9893,36 @@
         <f>SUM(C12:I12)</f>
         <v>1374</v>
       </c>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="L12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="21">
+        <v>207</v>
+      </c>
+      <c r="N12" s="21">
+        <v>184</v>
+      </c>
+      <c r="O12" s="21">
+        <v>197</v>
+      </c>
+      <c r="P12" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>183</v>
+      </c>
+      <c r="R12" s="21">
+        <v>218</v>
+      </c>
+      <c r="S12" s="21">
+        <v>204</v>
+      </c>
+      <c r="T12" s="34">
+        <f>SUM(M12:S12)</f>
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
       <c r="B13" s="27" t="s">
         <v>299</v>
       </c>
@@ -9688,77 +9951,170 @@
         <f>SUM(C13:I13)</f>
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="L13" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M13" s="22">
+        <v>12</v>
+      </c>
+      <c r="N13" s="22">
+        <v>18</v>
+      </c>
+      <c r="O13" s="22">
+        <v>6</v>
+      </c>
+      <c r="P13" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>10</v>
+      </c>
+      <c r="R13" s="22">
+        <v>6</v>
+      </c>
+      <c r="S13" s="22">
+        <v>14</v>
+      </c>
+      <c r="T13" s="34">
+        <f>SUM(M13:S13)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
       <c r="B14" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="20">
         <f>C12+C13</f>
         <v>219</v>
       </c>
-      <c r="D14" s="60">
-        <f t="shared" ref="D14:I14" si="2">D12+D13</f>
+      <c r="D14" s="20">
+        <f t="shared" ref="D14:I14" si="4">D12+D13</f>
         <v>202</v>
       </c>
-      <c r="E14" s="60">
-        <f t="shared" si="2"/>
+      <c r="E14" s="20">
+        <f t="shared" si="4"/>
         <v>203</v>
       </c>
-      <c r="F14" s="60">
-        <f t="shared" si="2"/>
+      <c r="F14" s="20">
+        <f t="shared" si="4"/>
         <v>199</v>
       </c>
-      <c r="G14" s="60">
-        <f t="shared" si="2"/>
+      <c r="G14" s="20">
+        <f t="shared" si="4"/>
         <v>193</v>
       </c>
-      <c r="H14" s="60">
-        <f t="shared" si="2"/>
+      <c r="H14" s="20">
+        <f t="shared" si="4"/>
         <v>224</v>
       </c>
-      <c r="I14" s="60">
-        <f t="shared" si="2"/>
+      <c r="I14" s="20">
+        <f t="shared" si="4"/>
         <v>218</v>
       </c>
       <c r="J14" s="28">
         <f>SUM(C14:I14)</f>
         <v>1458</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L14" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M14" s="20">
+        <f>M12+M13</f>
+        <v>219</v>
+      </c>
+      <c r="N14" s="20">
+        <f t="shared" ref="N14:S14" si="5">N12+N13</f>
+        <v>202</v>
+      </c>
+      <c r="O14" s="20">
+        <f t="shared" si="5"/>
+        <v>203</v>
+      </c>
+      <c r="P14" s="20">
+        <f t="shared" si="5"/>
+        <v>199</v>
+      </c>
+      <c r="Q14" s="20">
+        <f t="shared" si="5"/>
+        <v>193</v>
+      </c>
+      <c r="R14" s="20">
+        <f t="shared" si="5"/>
+        <v>224</v>
+      </c>
+      <c r="S14" s="20">
+        <f t="shared" si="5"/>
+        <v>218</v>
+      </c>
+      <c r="T14" s="28">
+        <f>SUM(M14:S14)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="17.25" thickBot="1">
       <c r="B15" s="29"/>
       <c r="C15" s="30">
         <f>C13/C14</f>
         <v>5.4794520547945202E-2</v>
       </c>
       <c r="D15" s="30">
-        <f t="shared" ref="D15:I15" si="3">D13/D14</f>
+        <f t="shared" ref="D15:I15" si="6">D13/D14</f>
         <v>4.9504950495049507E-2</v>
       </c>
       <c r="E15" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.10344827586206896</v>
       </c>
       <c r="F15" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G15" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H15" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.9107142857142856E-2</v>
       </c>
       <c r="I15" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.9633027522935783E-2</v>
       </c>
       <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L15" s="29"/>
+      <c r="M15" s="30">
+        <f>M13/M14</f>
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="N15" s="30">
+        <f t="shared" ref="N15:S15" si="7">N13/N14</f>
+        <v>8.9108910891089105E-2</v>
+      </c>
+      <c r="O15" s="30">
+        <f t="shared" si="7"/>
+        <v>2.9556650246305417E-2</v>
+      </c>
+      <c r="P15" s="30">
+        <f t="shared" si="7"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q15" s="30">
+        <f t="shared" si="7"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R15" s="30">
+        <f t="shared" si="7"/>
+        <v>2.6785714285714284E-2</v>
+      </c>
+      <c r="S15" s="30">
+        <f t="shared" si="7"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="T15" s="36"/>
+    </row>
+    <row r="16" spans="2:20" ht="17.25" thickBot="1">
       <c r="B16">
         <v>1</v>
       </c>
@@ -9768,8 +10124,17 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
       <c r="B17" s="24"/>
       <c r="C17" s="25" t="s">
         <v>272</v>
@@ -9793,33 +10158,79 @@
         <v>278</v>
       </c>
       <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="L17" s="24"/>
+      <c r="M17" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q17" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R17" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S17" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T17" s="31"/>
+    </row>
+    <row r="18" spans="2:20">
       <c r="B18" s="26"/>
-      <c r="C18" s="60">
-        <v>0</v>
-      </c>
-      <c r="D18" s="60">
+      <c r="C18" s="20">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20">
         <v>1</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="20">
         <v>2</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="20">
         <v>3</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="20">
         <v>4</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="20">
         <v>5</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="20">
         <v>6</v>
       </c>
       <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="L18" s="26"/>
+      <c r="M18" s="20">
+        <v>0</v>
+      </c>
+      <c r="N18" s="20">
+        <v>1</v>
+      </c>
+      <c r="O18" s="20">
+        <v>2</v>
+      </c>
+      <c r="P18" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>4</v>
+      </c>
+      <c r="R18" s="20">
+        <v>5</v>
+      </c>
+      <c r="S18" s="20">
+        <v>6</v>
+      </c>
+      <c r="T18" s="28"/>
+    </row>
+    <row r="19" spans="2:20">
       <c r="B19" s="27" t="s">
         <v>23</v>
       </c>
@@ -9848,8 +10259,36 @@
         <f>SUM(C19:I19)</f>
         <v>966</v>
       </c>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="L19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="21">
+        <v>209</v>
+      </c>
+      <c r="N19" s="21">
+        <v>193</v>
+      </c>
+      <c r="O19" s="21">
+        <v>197</v>
+      </c>
+      <c r="P19" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>183</v>
+      </c>
+      <c r="R19" s="21">
+        <v>217</v>
+      </c>
+      <c r="S19" s="21">
+        <v>207</v>
+      </c>
+      <c r="T19" s="34">
+        <f>SUM(M19:S19)</f>
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
       <c r="B20" s="27" t="s">
         <v>299</v>
       </c>
@@ -9878,77 +10317,170 @@
         <f>SUM(C20:I20)</f>
         <v>492</v>
       </c>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="L20" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M20" s="22">
+        <v>10</v>
+      </c>
+      <c r="N20" s="22">
+        <v>9</v>
+      </c>
+      <c r="O20" s="22">
+        <v>6</v>
+      </c>
+      <c r="P20" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>10</v>
+      </c>
+      <c r="R20" s="22">
+        <v>7</v>
+      </c>
+      <c r="S20" s="22">
+        <v>11</v>
+      </c>
+      <c r="T20" s="34">
+        <f>SUM(M20:S20)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
       <c r="B21" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="20">
         <f>C19+C20</f>
         <v>219</v>
       </c>
-      <c r="D21" s="60">
-        <f t="shared" ref="D21:I21" si="4">D19+D20</f>
+      <c r="D21" s="20">
+        <f t="shared" ref="D21:I21" si="8">D19+D20</f>
         <v>202</v>
       </c>
-      <c r="E21" s="60">
-        <f t="shared" si="4"/>
+      <c r="E21" s="20">
+        <f t="shared" si="8"/>
         <v>203</v>
       </c>
-      <c r="F21" s="60">
-        <f t="shared" si="4"/>
+      <c r="F21" s="20">
+        <f t="shared" si="8"/>
         <v>199</v>
       </c>
-      <c r="G21" s="60">
-        <f t="shared" si="4"/>
+      <c r="G21" s="20">
+        <f t="shared" si="8"/>
         <v>193</v>
       </c>
-      <c r="H21" s="60">
-        <f t="shared" si="4"/>
+      <c r="H21" s="20">
+        <f t="shared" si="8"/>
         <v>224</v>
       </c>
-      <c r="I21" s="60">
-        <f t="shared" si="4"/>
+      <c r="I21" s="20">
+        <f t="shared" si="8"/>
         <v>218</v>
       </c>
       <c r="J21" s="28">
         <f>SUM(C21:I21)</f>
         <v>1458</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L21" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M21" s="20">
+        <f>M19+M20</f>
+        <v>219</v>
+      </c>
+      <c r="N21" s="20">
+        <f t="shared" ref="N21:S21" si="9">N19+N20</f>
+        <v>202</v>
+      </c>
+      <c r="O21" s="20">
+        <f t="shared" si="9"/>
+        <v>203</v>
+      </c>
+      <c r="P21" s="20">
+        <f t="shared" si="9"/>
+        <v>199</v>
+      </c>
+      <c r="Q21" s="20">
+        <f t="shared" si="9"/>
+        <v>193</v>
+      </c>
+      <c r="R21" s="20">
+        <f t="shared" si="9"/>
+        <v>224</v>
+      </c>
+      <c r="S21" s="20">
+        <f t="shared" si="9"/>
+        <v>218</v>
+      </c>
+      <c r="T21" s="28">
+        <f>SUM(M21:S21)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="17.25" thickBot="1">
       <c r="B22" s="29"/>
       <c r="C22" s="30">
         <f>C20/C21</f>
         <v>8.6757990867579904E-2</v>
       </c>
       <c r="D22" s="30">
-        <f t="shared" ref="D22:I22" si="5">D20/D21</f>
+        <f t="shared" ref="D22:I22" si="10">D20/D21</f>
         <v>7.9207920792079209E-2</v>
       </c>
       <c r="E22" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.8817733990147784E-2</v>
       </c>
       <c r="F22" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G22" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H22" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.12946428571428573</v>
       </c>
       <c r="I22" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.1743119266055051E-2</v>
       </c>
       <c r="J22" s="36"/>
-    </row>
-    <row r="23" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L22" s="29"/>
+      <c r="M22" s="30">
+        <f>M20/M21</f>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="N22" s="30">
+        <f t="shared" ref="N22:S22" si="11">N20/N21</f>
+        <v>4.4554455445544552E-2</v>
+      </c>
+      <c r="O22" s="30">
+        <f t="shared" si="11"/>
+        <v>2.9556650246305417E-2</v>
+      </c>
+      <c r="P22" s="30">
+        <f t="shared" si="11"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q22" s="30">
+        <f t="shared" si="11"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R22" s="30">
+        <f t="shared" si="11"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="S22" s="30">
+        <f t="shared" si="11"/>
+        <v>5.0458715596330278E-2</v>
+      </c>
+      <c r="T22" s="36"/>
+    </row>
+    <row r="23" spans="2:20" ht="17.25" thickBot="1">
       <c r="B23">
         <v>0.1</v>
       </c>
@@ -9958,8 +10490,17 @@
       <c r="D23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
       <c r="B24" s="24"/>
       <c r="C24" s="25" t="s">
         <v>272</v>
@@ -9983,33 +10524,79 @@
         <v>278</v>
       </c>
       <c r="J24" s="31"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="L24" s="24"/>
+      <c r="M24" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S24" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T24" s="31"/>
+    </row>
+    <row r="25" spans="2:20">
       <c r="B25" s="26"/>
-      <c r="C25" s="60">
-        <v>0</v>
-      </c>
-      <c r="D25" s="60">
+      <c r="C25" s="20">
+        <v>0</v>
+      </c>
+      <c r="D25" s="20">
         <v>1</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="20">
         <v>2</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="20">
         <v>3</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="20">
         <v>4</v>
       </c>
-      <c r="H25" s="60">
+      <c r="H25" s="20">
         <v>5</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="20">
         <v>6</v>
       </c>
       <c r="J25" s="28"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="L25" s="26"/>
+      <c r="M25" s="20">
+        <v>0</v>
+      </c>
+      <c r="N25" s="20">
+        <v>1</v>
+      </c>
+      <c r="O25" s="20">
+        <v>2</v>
+      </c>
+      <c r="P25" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="20">
+        <v>4</v>
+      </c>
+      <c r="R25" s="20">
+        <v>5</v>
+      </c>
+      <c r="S25" s="20">
+        <v>6</v>
+      </c>
+      <c r="T25" s="28"/>
+    </row>
+    <row r="26" spans="2:20">
       <c r="B26" s="27" t="s">
         <v>23</v>
       </c>
@@ -10038,8 +10625,36 @@
         <f>SUM(C26:I26)</f>
         <v>1395</v>
       </c>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="L26" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="21">
+        <v>209</v>
+      </c>
+      <c r="N26" s="21">
+        <v>190</v>
+      </c>
+      <c r="O26" s="21">
+        <v>198</v>
+      </c>
+      <c r="P26" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>183</v>
+      </c>
+      <c r="R26" s="21">
+        <v>218</v>
+      </c>
+      <c r="S26" s="21">
+        <v>204</v>
+      </c>
+      <c r="T26" s="34">
+        <f>SUM(M26:S26)</f>
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
       <c r="B27" s="27" t="s">
         <v>299</v>
       </c>
@@ -10068,77 +10683,170 @@
         <f>SUM(C27:I27)</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="L27" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M27" s="22">
+        <v>10</v>
+      </c>
+      <c r="N27" s="22">
+        <v>12</v>
+      </c>
+      <c r="O27" s="22">
+        <v>5</v>
+      </c>
+      <c r="P27" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>10</v>
+      </c>
+      <c r="R27" s="22">
+        <v>6</v>
+      </c>
+      <c r="S27" s="22">
+        <v>14</v>
+      </c>
+      <c r="T27" s="34">
+        <f>SUM(M27:S27)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
       <c r="B28" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C28" s="60">
+      <c r="C28" s="20">
         <f>C26+C27</f>
         <v>219</v>
       </c>
-      <c r="D28" s="60">
-        <f t="shared" ref="D28:I28" si="6">D26+D27</f>
+      <c r="D28" s="20">
+        <f t="shared" ref="D28:I28" si="12">D26+D27</f>
         <v>202</v>
       </c>
-      <c r="E28" s="60">
-        <f t="shared" si="6"/>
+      <c r="E28" s="20">
+        <f t="shared" si="12"/>
         <v>203</v>
       </c>
-      <c r="F28" s="60">
-        <f t="shared" si="6"/>
+      <c r="F28" s="20">
+        <f t="shared" si="12"/>
         <v>199</v>
       </c>
-      <c r="G28" s="60">
-        <f t="shared" si="6"/>
+      <c r="G28" s="20">
+        <f t="shared" si="12"/>
         <v>193</v>
       </c>
-      <c r="H28" s="60">
-        <f t="shared" si="6"/>
+      <c r="H28" s="20">
+        <f t="shared" si="12"/>
         <v>224</v>
       </c>
-      <c r="I28" s="60">
-        <f t="shared" si="6"/>
+      <c r="I28" s="20">
+        <f t="shared" si="12"/>
         <v>218</v>
       </c>
       <c r="J28" s="28">
         <f>SUM(C28:I28)</f>
         <v>1458</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L28" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M28" s="20">
+        <f>M26+M27</f>
+        <v>219</v>
+      </c>
+      <c r="N28" s="20">
+        <f t="shared" ref="N28:S28" si="13">N26+N27</f>
+        <v>202</v>
+      </c>
+      <c r="O28" s="20">
+        <f t="shared" si="13"/>
+        <v>203</v>
+      </c>
+      <c r="P28" s="20">
+        <f t="shared" si="13"/>
+        <v>199</v>
+      </c>
+      <c r="Q28" s="20">
+        <f t="shared" si="13"/>
+        <v>193</v>
+      </c>
+      <c r="R28" s="20">
+        <f t="shared" si="13"/>
+        <v>224</v>
+      </c>
+      <c r="S28" s="20">
+        <f t="shared" si="13"/>
+        <v>218</v>
+      </c>
+      <c r="T28" s="28">
+        <f>SUM(M28:S28)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="17.25" thickBot="1">
       <c r="B29" s="29"/>
       <c r="C29" s="30">
         <f>C27/C28</f>
         <v>4.5662100456621002E-2</v>
       </c>
       <c r="D29" s="30">
-        <f t="shared" ref="D29:I29" si="7">D27/D28</f>
+        <f t="shared" ref="D29:I29" si="14">D27/D28</f>
         <v>4.9504950495049507E-2</v>
       </c>
       <c r="E29" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.9408866995073892E-2</v>
       </c>
       <c r="F29" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G29" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H29" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2.6785714285714284E-2</v>
       </c>
       <c r="I29" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5.5045871559633031E-2</v>
       </c>
       <c r="J29" s="36"/>
-    </row>
-    <row r="30" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L29" s="29"/>
+      <c r="M29" s="30">
+        <f>M27/M28</f>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="N29" s="30">
+        <f t="shared" ref="N29:S29" si="15">N27/N28</f>
+        <v>5.9405940594059403E-2</v>
+      </c>
+      <c r="O29" s="30">
+        <f t="shared" si="15"/>
+        <v>2.4630541871921183E-2</v>
+      </c>
+      <c r="P29" s="30">
+        <f t="shared" si="15"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q29" s="30">
+        <f t="shared" si="15"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R29" s="30">
+        <f t="shared" si="15"/>
+        <v>2.6785714285714284E-2</v>
+      </c>
+      <c r="S29" s="30">
+        <f t="shared" si="15"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="T29" s="36"/>
+    </row>
+    <row r="30" spans="2:20" ht="17.25" thickBot="1">
       <c r="B30">
         <v>0.2</v>
       </c>
@@ -10148,8 +10856,17 @@
       <c r="D30">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
       <c r="B31" s="24"/>
       <c r="C31" s="25" t="s">
         <v>272</v>
@@ -10173,33 +10890,79 @@
         <v>278</v>
       </c>
       <c r="J31" s="31"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="L31" s="24"/>
+      <c r="M31" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N31" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P31" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q31" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R31" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S31" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T31" s="31"/>
+    </row>
+    <row r="32" spans="2:20">
       <c r="B32" s="26"/>
-      <c r="C32" s="60">
-        <v>0</v>
-      </c>
-      <c r="D32" s="60">
+      <c r="C32" s="20">
+        <v>0</v>
+      </c>
+      <c r="D32" s="20">
         <v>1</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="20">
         <v>2</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="20">
         <v>3</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="20">
         <v>4</v>
       </c>
-      <c r="H32" s="60">
+      <c r="H32" s="20">
         <v>5</v>
       </c>
-      <c r="I32" s="60">
+      <c r="I32" s="20">
         <v>6</v>
       </c>
       <c r="J32" s="28"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="L32" s="26"/>
+      <c r="M32" s="20">
+        <v>0</v>
+      </c>
+      <c r="N32" s="20">
+        <v>1</v>
+      </c>
+      <c r="O32" s="20">
+        <v>2</v>
+      </c>
+      <c r="P32" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="20">
+        <v>4</v>
+      </c>
+      <c r="R32" s="20">
+        <v>5</v>
+      </c>
+      <c r="S32" s="20">
+        <v>6</v>
+      </c>
+      <c r="T32" s="28"/>
+    </row>
+    <row r="33" spans="2:20">
       <c r="B33" s="27" t="s">
         <v>23</v>
       </c>
@@ -10228,8 +10991,36 @@
         <f>SUM(C33:I33)</f>
         <v>1384</v>
       </c>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="L33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="21">
+        <v>205</v>
+      </c>
+      <c r="N33" s="21">
+        <v>189</v>
+      </c>
+      <c r="O33" s="21">
+        <v>182</v>
+      </c>
+      <c r="P33" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>183</v>
+      </c>
+      <c r="R33" s="21">
+        <v>217</v>
+      </c>
+      <c r="S33" s="21">
+        <v>205</v>
+      </c>
+      <c r="T33" s="34">
+        <f>SUM(M33:S33)</f>
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20">
       <c r="B34" s="27" t="s">
         <v>299</v>
       </c>
@@ -10258,77 +11049,170 @@
         <f>SUM(C34:I34)</f>
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="L34" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M34" s="22">
+        <v>14</v>
+      </c>
+      <c r="N34" s="22">
+        <v>13</v>
+      </c>
+      <c r="O34" s="22">
+        <v>21</v>
+      </c>
+      <c r="P34" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>10</v>
+      </c>
+      <c r="R34" s="22">
+        <v>7</v>
+      </c>
+      <c r="S34" s="22">
+        <v>13</v>
+      </c>
+      <c r="T34" s="34">
+        <f>SUM(M34:S34)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20">
       <c r="B35" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C35" s="60">
+      <c r="C35" s="20">
         <f>C33+C34</f>
         <v>219</v>
       </c>
-      <c r="D35" s="60">
-        <f t="shared" ref="D35:I35" si="8">D33+D34</f>
+      <c r="D35" s="20">
+        <f t="shared" ref="D35:I35" si="16">D33+D34</f>
         <v>202</v>
       </c>
-      <c r="E35" s="60">
-        <f t="shared" si="8"/>
+      <c r="E35" s="20">
+        <f t="shared" si="16"/>
         <v>203</v>
       </c>
-      <c r="F35" s="60">
-        <f t="shared" si="8"/>
+      <c r="F35" s="20">
+        <f t="shared" si="16"/>
         <v>199</v>
       </c>
-      <c r="G35" s="60">
-        <f t="shared" si="8"/>
+      <c r="G35" s="20">
+        <f t="shared" si="16"/>
         <v>193</v>
       </c>
-      <c r="H35" s="60">
-        <f t="shared" si="8"/>
+      <c r="H35" s="20">
+        <f t="shared" si="16"/>
         <v>224</v>
       </c>
-      <c r="I35" s="60">
-        <f t="shared" si="8"/>
+      <c r="I35" s="20">
+        <f t="shared" si="16"/>
         <v>218</v>
       </c>
       <c r="J35" s="28">
         <f>SUM(C35:I35)</f>
         <v>1458</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L35" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M35" s="20">
+        <f>M33+M34</f>
+        <v>219</v>
+      </c>
+      <c r="N35" s="20">
+        <f t="shared" ref="N35:S35" si="17">N33+N34</f>
+        <v>202</v>
+      </c>
+      <c r="O35" s="20">
+        <f t="shared" si="17"/>
+        <v>203</v>
+      </c>
+      <c r="P35" s="20">
+        <f t="shared" si="17"/>
+        <v>199</v>
+      </c>
+      <c r="Q35" s="20">
+        <f t="shared" si="17"/>
+        <v>193</v>
+      </c>
+      <c r="R35" s="20">
+        <f t="shared" si="17"/>
+        <v>224</v>
+      </c>
+      <c r="S35" s="20">
+        <f t="shared" si="17"/>
+        <v>218</v>
+      </c>
+      <c r="T35" s="28">
+        <f>SUM(M35:S35)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" ht="17.25" thickBot="1">
       <c r="B36" s="29"/>
       <c r="C36" s="30">
         <f>C34/C35</f>
         <v>5.0228310502283102E-2</v>
       </c>
       <c r="D36" s="30">
-        <f t="shared" ref="D36:I36" si="9">D34/D35</f>
+        <f t="shared" ref="D36:I36" si="18">D34/D35</f>
         <v>6.9306930693069313E-2</v>
       </c>
       <c r="E36" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.4187192118226604E-2</v>
       </c>
       <c r="F36" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G36" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H36" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.125E-2</v>
       </c>
       <c r="I36" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="J36" s="36"/>
-    </row>
-    <row r="37" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L36" s="29"/>
+      <c r="M36" s="30">
+        <f>M34/M35</f>
+        <v>6.3926940639269403E-2</v>
+      </c>
+      <c r="N36" s="30">
+        <f t="shared" ref="N36:S36" si="19">N34/N35</f>
+        <v>6.4356435643564358E-2</v>
+      </c>
+      <c r="O36" s="30">
+        <f t="shared" si="19"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="P36" s="30">
+        <f t="shared" si="19"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q36" s="30">
+        <f t="shared" si="19"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R36" s="30">
+        <f t="shared" si="19"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="S36" s="30">
+        <f t="shared" si="19"/>
+        <v>5.9633027522935783E-2</v>
+      </c>
+      <c r="T36" s="36"/>
+    </row>
+    <row r="37" spans="2:20" ht="17.25" thickBot="1">
       <c r="B37">
         <v>0.3</v>
       </c>
@@ -10338,8 +11222,17 @@
       <c r="D37">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20">
       <c r="B38" s="24"/>
       <c r="C38" s="25" t="s">
         <v>272</v>
@@ -10363,33 +11256,79 @@
         <v>278</v>
       </c>
       <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="L38" s="24"/>
+      <c r="M38" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N38" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O38" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P38" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q38" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R38" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S38" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T38" s="31"/>
+    </row>
+    <row r="39" spans="2:20">
       <c r="B39" s="26"/>
-      <c r="C39" s="60">
-        <v>0</v>
-      </c>
-      <c r="D39" s="60">
+      <c r="C39" s="20">
+        <v>0</v>
+      </c>
+      <c r="D39" s="20">
         <v>1</v>
       </c>
-      <c r="E39" s="60">
+      <c r="E39" s="20">
         <v>2</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="20">
         <v>3</v>
       </c>
-      <c r="G39" s="60">
+      <c r="G39" s="20">
         <v>4</v>
       </c>
-      <c r="H39" s="60">
+      <c r="H39" s="20">
         <v>5</v>
       </c>
-      <c r="I39" s="60">
+      <c r="I39" s="20">
         <v>6</v>
       </c>
       <c r="J39" s="28"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="L39" s="26"/>
+      <c r="M39" s="20">
+        <v>0</v>
+      </c>
+      <c r="N39" s="20">
+        <v>1</v>
+      </c>
+      <c r="O39" s="20">
+        <v>2</v>
+      </c>
+      <c r="P39" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="20">
+        <v>4</v>
+      </c>
+      <c r="R39" s="20">
+        <v>5</v>
+      </c>
+      <c r="S39" s="20">
+        <v>6</v>
+      </c>
+      <c r="T39" s="28"/>
+    </row>
+    <row r="40" spans="2:20">
       <c r="B40" s="27" t="s">
         <v>23</v>
       </c>
@@ -10418,8 +11357,36 @@
         <f>SUM(C40:I40)</f>
         <v>1362</v>
       </c>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="L40" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="21">
+        <v>209</v>
+      </c>
+      <c r="N40" s="21">
+        <v>183</v>
+      </c>
+      <c r="O40" s="21">
+        <v>192</v>
+      </c>
+      <c r="P40" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q40" s="21">
+        <v>183</v>
+      </c>
+      <c r="R40" s="21">
+        <v>214</v>
+      </c>
+      <c r="S40" s="21">
+        <v>207</v>
+      </c>
+      <c r="T40" s="34">
+        <f>SUM(M40:S40)</f>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20">
       <c r="B41" s="27" t="s">
         <v>299</v>
       </c>
@@ -10448,77 +11415,170 @@
         <f>SUM(C41:I41)</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="L41" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M41" s="22">
+        <v>10</v>
+      </c>
+      <c r="N41" s="22">
+        <v>19</v>
+      </c>
+      <c r="O41" s="22">
+        <v>11</v>
+      </c>
+      <c r="P41" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>10</v>
+      </c>
+      <c r="R41" s="22">
+        <v>10</v>
+      </c>
+      <c r="S41" s="22">
+        <v>11</v>
+      </c>
+      <c r="T41" s="34">
+        <f>SUM(M41:S41)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20">
       <c r="B42" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C42" s="60">
+      <c r="C42" s="20">
         <f>C40+C41</f>
         <v>219</v>
       </c>
-      <c r="D42" s="60">
-        <f t="shared" ref="D42:I42" si="10">D40+D41</f>
+      <c r="D42" s="20">
+        <f t="shared" ref="D42:I42" si="20">D40+D41</f>
         <v>202</v>
       </c>
-      <c r="E42" s="60">
-        <f t="shared" si="10"/>
+      <c r="E42" s="20">
+        <f t="shared" si="20"/>
         <v>203</v>
       </c>
-      <c r="F42" s="60">
-        <f t="shared" si="10"/>
+      <c r="F42" s="20">
+        <f t="shared" si="20"/>
         <v>199</v>
       </c>
-      <c r="G42" s="60">
-        <f t="shared" si="10"/>
+      <c r="G42" s="20">
+        <f t="shared" si="20"/>
         <v>193</v>
       </c>
-      <c r="H42" s="60">
-        <f t="shared" si="10"/>
+      <c r="H42" s="20">
+        <f t="shared" si="20"/>
         <v>224</v>
       </c>
-      <c r="I42" s="60">
-        <f t="shared" si="10"/>
+      <c r="I42" s="20">
+        <f t="shared" si="20"/>
         <v>218</v>
       </c>
       <c r="J42" s="28">
         <f>SUM(C42:I42)</f>
         <v>1458</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L42" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M42" s="20">
+        <f>M40+M41</f>
+        <v>219</v>
+      </c>
+      <c r="N42" s="20">
+        <f t="shared" ref="N42:S42" si="21">N40+N41</f>
+        <v>202</v>
+      </c>
+      <c r="O42" s="20">
+        <f t="shared" si="21"/>
+        <v>203</v>
+      </c>
+      <c r="P42" s="20">
+        <f t="shared" si="21"/>
+        <v>199</v>
+      </c>
+      <c r="Q42" s="20">
+        <f t="shared" si="21"/>
+        <v>193</v>
+      </c>
+      <c r="R42" s="20">
+        <f t="shared" si="21"/>
+        <v>224</v>
+      </c>
+      <c r="S42" s="20">
+        <f t="shared" si="21"/>
+        <v>218</v>
+      </c>
+      <c r="T42" s="28">
+        <f>SUM(M42:S42)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" ht="17.25" thickBot="1">
       <c r="B43" s="29"/>
       <c r="C43" s="30">
         <f>C41/C42</f>
         <v>6.8493150684931503E-2</v>
       </c>
       <c r="D43" s="30">
-        <f t="shared" ref="D43:I43" si="11">D41/D42</f>
+        <f t="shared" ref="D43:I43" si="22">D41/D42</f>
         <v>4.4554455445544552E-2</v>
       </c>
       <c r="E43" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>9.8522167487684734E-2</v>
       </c>
       <c r="F43" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G43" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H43" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>0.10267857142857142</v>
       </c>
       <c r="I43" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>5.5045871559633031E-2</v>
       </c>
       <c r="J43" s="36"/>
-    </row>
-    <row r="44" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L43" s="29"/>
+      <c r="M43" s="30">
+        <f>M41/M42</f>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="N43" s="30">
+        <f t="shared" ref="N43:S43" si="23">N41/N42</f>
+        <v>9.405940594059406E-2</v>
+      </c>
+      <c r="O43" s="30">
+        <f t="shared" si="23"/>
+        <v>5.4187192118226604E-2</v>
+      </c>
+      <c r="P43" s="30">
+        <f t="shared" si="23"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q43" s="30">
+        <f t="shared" si="23"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R43" s="30">
+        <f t="shared" si="23"/>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="S43" s="30">
+        <f t="shared" si="23"/>
+        <v>5.0458715596330278E-2</v>
+      </c>
+      <c r="T43" s="36"/>
+    </row>
+    <row r="44" spans="2:20" ht="17.25" thickBot="1">
       <c r="B44">
         <v>0.4</v>
       </c>
@@ -10528,8 +11588,17 @@
       <c r="D44">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20">
       <c r="B45" s="24"/>
       <c r="C45" s="25" t="s">
         <v>272</v>
@@ -10553,33 +11622,79 @@
         <v>278</v>
       </c>
       <c r="J45" s="31"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="L45" s="24"/>
+      <c r="M45" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N45" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="O45" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="P45" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q45" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="R45" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S45" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T45" s="31"/>
+    </row>
+    <row r="46" spans="2:20">
       <c r="B46" s="26"/>
-      <c r="C46" s="60">
-        <v>0</v>
-      </c>
-      <c r="D46" s="60">
+      <c r="C46" s="20">
+        <v>0</v>
+      </c>
+      <c r="D46" s="20">
         <v>1</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E46" s="20">
         <v>2</v>
       </c>
-      <c r="F46" s="60">
+      <c r="F46" s="20">
         <v>3</v>
       </c>
-      <c r="G46" s="60">
+      <c r="G46" s="20">
         <v>4</v>
       </c>
-      <c r="H46" s="60">
+      <c r="H46" s="20">
         <v>5</v>
       </c>
-      <c r="I46" s="60">
+      <c r="I46" s="20">
         <v>6</v>
       </c>
       <c r="J46" s="28"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="L46" s="26"/>
+      <c r="M46" s="20">
+        <v>0</v>
+      </c>
+      <c r="N46" s="20">
+        <v>1</v>
+      </c>
+      <c r="O46" s="20">
+        <v>2</v>
+      </c>
+      <c r="P46" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="20">
+        <v>4</v>
+      </c>
+      <c r="R46" s="20">
+        <v>5</v>
+      </c>
+      <c r="S46" s="20">
+        <v>6</v>
+      </c>
+      <c r="T46" s="28"/>
+    </row>
+    <row r="47" spans="2:20">
       <c r="B47" s="27" t="s">
         <v>23</v>
       </c>
@@ -10608,8 +11723,36 @@
         <f>SUM(C47:I47)</f>
         <v>1340</v>
       </c>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="L47" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="21">
+        <v>207</v>
+      </c>
+      <c r="N47" s="21">
+        <v>192</v>
+      </c>
+      <c r="O47" s="21">
+        <v>193</v>
+      </c>
+      <c r="P47" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q47" s="21">
+        <v>183</v>
+      </c>
+      <c r="R47" s="21">
+        <v>214</v>
+      </c>
+      <c r="S47" s="21">
+        <v>204</v>
+      </c>
+      <c r="T47" s="34">
+        <f>SUM(M47:S47)</f>
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20">
       <c r="B48" s="27" t="s">
         <v>299</v>
       </c>
@@ -10638,77 +11781,170 @@
         <f>SUM(C48:I48)</f>
         <v>118</v>
       </c>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="L48" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M48" s="22">
+        <v>12</v>
+      </c>
+      <c r="N48" s="22">
+        <v>10</v>
+      </c>
+      <c r="O48" s="22">
+        <v>10</v>
+      </c>
+      <c r="P48" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q48" s="22">
+        <v>10</v>
+      </c>
+      <c r="R48" s="22">
+        <v>10</v>
+      </c>
+      <c r="S48" s="22">
+        <v>14</v>
+      </c>
+      <c r="T48" s="34">
+        <f>SUM(M48:S48)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20">
       <c r="B49" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C49" s="60">
+      <c r="C49" s="20">
         <f>C47+C48</f>
         <v>219</v>
       </c>
-      <c r="D49" s="60">
-        <f t="shared" ref="D49:I49" si="12">D47+D48</f>
+      <c r="D49" s="20">
+        <f t="shared" ref="D49:I49" si="24">D47+D48</f>
         <v>202</v>
       </c>
-      <c r="E49" s="60">
-        <f t="shared" si="12"/>
+      <c r="E49" s="20">
+        <f t="shared" si="24"/>
         <v>203</v>
       </c>
-      <c r="F49" s="60">
-        <f t="shared" si="12"/>
+      <c r="F49" s="20">
+        <f t="shared" si="24"/>
         <v>199</v>
       </c>
-      <c r="G49" s="60">
-        <f t="shared" si="12"/>
+      <c r="G49" s="20">
+        <f t="shared" si="24"/>
         <v>193</v>
       </c>
-      <c r="H49" s="60">
-        <f t="shared" si="12"/>
+      <c r="H49" s="20">
+        <f t="shared" si="24"/>
         <v>224</v>
       </c>
-      <c r="I49" s="60">
-        <f t="shared" si="12"/>
+      <c r="I49" s="20">
+        <f t="shared" si="24"/>
         <v>218</v>
       </c>
       <c r="J49" s="28">
         <f>SUM(C49:I49)</f>
         <v>1458</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L49" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M49" s="20">
+        <f>M47+M48</f>
+        <v>219</v>
+      </c>
+      <c r="N49" s="20">
+        <f t="shared" ref="N49:S49" si="25">N47+N48</f>
+        <v>202</v>
+      </c>
+      <c r="O49" s="20">
+        <f t="shared" si="25"/>
+        <v>203</v>
+      </c>
+      <c r="P49" s="20">
+        <f t="shared" si="25"/>
+        <v>199</v>
+      </c>
+      <c r="Q49" s="20">
+        <f t="shared" si="25"/>
+        <v>193</v>
+      </c>
+      <c r="R49" s="20">
+        <f t="shared" si="25"/>
+        <v>224</v>
+      </c>
+      <c r="S49" s="20">
+        <f t="shared" si="25"/>
+        <v>218</v>
+      </c>
+      <c r="T49" s="28">
+        <f>SUM(M49:S49)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="17.25" thickBot="1">
       <c r="B50" s="29"/>
       <c r="C50" s="30">
         <f>C48/C49</f>
         <v>8.2191780821917804E-2</v>
       </c>
       <c r="D50" s="30">
-        <f t="shared" ref="D50:I50" si="13">D48/D49</f>
+        <f t="shared" ref="D50:I50" si="26">D48/D49</f>
         <v>7.9207920792079209E-2</v>
       </c>
       <c r="E50" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>0.10837438423645321</v>
       </c>
       <c r="F50" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G50" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H50" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>0.11160714285714286</v>
       </c>
       <c r="I50" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>9.1743119266055051E-2</v>
       </c>
       <c r="J50" s="36"/>
-    </row>
-    <row r="51" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L50" s="29"/>
+      <c r="M50" s="30">
+        <f>M48/M49</f>
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="N50" s="30">
+        <f t="shared" ref="N50:S50" si="27">N48/N49</f>
+        <v>4.9504950495049507E-2</v>
+      </c>
+      <c r="O50" s="30">
+        <f t="shared" si="27"/>
+        <v>4.9261083743842367E-2</v>
+      </c>
+      <c r="P50" s="30">
+        <f t="shared" si="27"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q50" s="30">
+        <f t="shared" si="27"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R50" s="30">
+        <f t="shared" si="27"/>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="S50" s="30">
+        <f t="shared" si="27"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="T50" s="36"/>
+    </row>
+    <row r="51" spans="2:20" ht="17.25" thickBot="1">
       <c r="B51">
         <v>0.6</v>
       </c>
@@ -10718,8 +11954,17 @@
       <c r="D51">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20">
       <c r="B52" s="24"/>
       <c r="C52" s="25" t="s">
         <v>272</v>
@@ -10743,33 +11988,79 @@
         <v>278</v>
       </c>
       <c r="J52" s="31"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="L52" s="24"/>
+      <c r="M52" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N52" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O52" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P52" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q52" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R52" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S52" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T52" s="31"/>
+    </row>
+    <row r="53" spans="2:20">
       <c r="B53" s="26"/>
-      <c r="C53" s="60">
-        <v>0</v>
-      </c>
-      <c r="D53" s="60">
+      <c r="C53" s="20">
+        <v>0</v>
+      </c>
+      <c r="D53" s="20">
         <v>1</v>
       </c>
-      <c r="E53" s="60">
+      <c r="E53" s="20">
         <v>2</v>
       </c>
-      <c r="F53" s="60">
+      <c r="F53" s="20">
         <v>3</v>
       </c>
-      <c r="G53" s="60">
+      <c r="G53" s="20">
         <v>4</v>
       </c>
-      <c r="H53" s="60">
+      <c r="H53" s="20">
         <v>5</v>
       </c>
-      <c r="I53" s="60">
+      <c r="I53" s="20">
         <v>6</v>
       </c>
       <c r="J53" s="28"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="L53" s="26"/>
+      <c r="M53" s="20">
+        <v>0</v>
+      </c>
+      <c r="N53" s="20">
+        <v>1</v>
+      </c>
+      <c r="O53" s="20">
+        <v>2</v>
+      </c>
+      <c r="P53" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q53" s="20">
+        <v>4</v>
+      </c>
+      <c r="R53" s="20">
+        <v>5</v>
+      </c>
+      <c r="S53" s="20">
+        <v>6</v>
+      </c>
+      <c r="T53" s="28"/>
+    </row>
+    <row r="54" spans="2:20">
       <c r="B54" s="27" t="s">
         <v>23</v>
       </c>
@@ -10798,8 +12089,36 @@
         <f>SUM(C54:I54)</f>
         <v>1344</v>
       </c>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="L54" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="21">
+        <v>203</v>
+      </c>
+      <c r="N54" s="21">
+        <v>190</v>
+      </c>
+      <c r="O54" s="21">
+        <v>188</v>
+      </c>
+      <c r="P54" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q54" s="21">
+        <v>183</v>
+      </c>
+      <c r="R54" s="21">
+        <v>216</v>
+      </c>
+      <c r="S54" s="21">
+        <v>204</v>
+      </c>
+      <c r="T54" s="34">
+        <f>SUM(M54:S54)</f>
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20">
       <c r="B55" s="27" t="s">
         <v>299</v>
       </c>
@@ -10828,77 +12147,170 @@
         <f>SUM(C55:I55)</f>
         <v>114</v>
       </c>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="L55" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M55" s="22">
+        <v>15</v>
+      </c>
+      <c r="N55" s="22">
+        <v>12</v>
+      </c>
+      <c r="O55" s="22">
+        <v>15</v>
+      </c>
+      <c r="P55" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q55" s="22">
+        <v>10</v>
+      </c>
+      <c r="R55" s="22">
+        <v>8</v>
+      </c>
+      <c r="S55" s="22">
+        <v>14</v>
+      </c>
+      <c r="T55" s="34">
+        <f>SUM(M55:S55)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20">
       <c r="B56" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C56" s="60">
+      <c r="C56" s="20">
         <f>C54+C55</f>
         <v>219</v>
       </c>
-      <c r="D56" s="60">
-        <f t="shared" ref="D56:I56" si="14">D54+D55</f>
+      <c r="D56" s="20">
+        <f t="shared" ref="D56:I56" si="28">D54+D55</f>
         <v>202</v>
       </c>
-      <c r="E56" s="60">
-        <f t="shared" si="14"/>
+      <c r="E56" s="20">
+        <f t="shared" si="28"/>
         <v>203</v>
       </c>
-      <c r="F56" s="60">
-        <f t="shared" si="14"/>
+      <c r="F56" s="20">
+        <f t="shared" si="28"/>
         <v>199</v>
       </c>
-      <c r="G56" s="60">
-        <f t="shared" si="14"/>
+      <c r="G56" s="20">
+        <f t="shared" si="28"/>
         <v>193</v>
       </c>
-      <c r="H56" s="60">
-        <f t="shared" si="14"/>
+      <c r="H56" s="20">
+        <f t="shared" si="28"/>
         <v>224</v>
       </c>
-      <c r="I56" s="60">
-        <f t="shared" si="14"/>
+      <c r="I56" s="20">
+        <f t="shared" si="28"/>
         <v>218</v>
       </c>
       <c r="J56" s="28">
         <f>SUM(C56:I56)</f>
         <v>1458</v>
       </c>
-    </row>
-    <row r="57" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L56" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M56" s="20">
+        <f>M54+M55</f>
+        <v>218</v>
+      </c>
+      <c r="N56" s="20">
+        <f t="shared" ref="N56:S56" si="29">N54+N55</f>
+        <v>202</v>
+      </c>
+      <c r="O56" s="20">
+        <f t="shared" si="29"/>
+        <v>203</v>
+      </c>
+      <c r="P56" s="20">
+        <f t="shared" si="29"/>
+        <v>199</v>
+      </c>
+      <c r="Q56" s="20">
+        <f t="shared" si="29"/>
+        <v>193</v>
+      </c>
+      <c r="R56" s="20">
+        <f t="shared" si="29"/>
+        <v>224</v>
+      </c>
+      <c r="S56" s="20">
+        <f t="shared" si="29"/>
+        <v>218</v>
+      </c>
+      <c r="T56" s="28">
+        <f>SUM(M56:S56)</f>
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" ht="17.25" thickBot="1">
       <c r="B57" s="29"/>
       <c r="C57" s="30">
         <f>C55/C56</f>
         <v>5.9360730593607303E-2</v>
       </c>
       <c r="D57" s="30">
-        <f t="shared" ref="D57:I57" si="15">D55/D56</f>
+        <f t="shared" ref="D57:I57" si="30">D55/D56</f>
         <v>0.10891089108910891</v>
       </c>
       <c r="E57" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>9.8522167487684734E-2</v>
       </c>
       <c r="F57" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>3.015075376884422E-2</v>
       </c>
       <c r="G57" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H57" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>9.8214285714285712E-2</v>
       </c>
       <c r="I57" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>9.6330275229357804E-2</v>
       </c>
       <c r="J57" s="36"/>
-    </row>
-    <row r="58" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L57" s="29"/>
+      <c r="M57" s="30">
+        <f>M55/M56</f>
+        <v>6.8807339449541288E-2</v>
+      </c>
+      <c r="N57" s="30">
+        <f t="shared" ref="N57:S57" si="31">N55/N56</f>
+        <v>5.9405940594059403E-2</v>
+      </c>
+      <c r="O57" s="30">
+        <f t="shared" si="31"/>
+        <v>7.3891625615763554E-2</v>
+      </c>
+      <c r="P57" s="30">
+        <f t="shared" si="31"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q57" s="30">
+        <f t="shared" si="31"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R57" s="30">
+        <f t="shared" si="31"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="S57" s="30">
+        <f t="shared" si="31"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="T57" s="36"/>
+    </row>
+    <row r="58" spans="2:20" ht="17.25" thickBot="1">
       <c r="B58">
         <v>0.7</v>
       </c>
@@ -10908,8 +12320,17 @@
       <c r="D58">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20">
       <c r="B59" s="24"/>
       <c r="C59" s="25" t="s">
         <v>272</v>
@@ -10933,33 +12354,79 @@
         <v>278</v>
       </c>
       <c r="J59" s="31"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="L59" s="24"/>
+      <c r="M59" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N59" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O59" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P59" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q59" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R59" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S59" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T59" s="31"/>
+    </row>
+    <row r="60" spans="2:20">
       <c r="B60" s="26"/>
-      <c r="C60" s="60">
-        <v>0</v>
-      </c>
-      <c r="D60" s="60">
+      <c r="C60" s="20">
+        <v>0</v>
+      </c>
+      <c r="D60" s="20">
         <v>1</v>
       </c>
-      <c r="E60" s="60">
+      <c r="E60" s="20">
         <v>2</v>
       </c>
-      <c r="F60" s="60">
+      <c r="F60" s="20">
         <v>3</v>
       </c>
-      <c r="G60" s="60">
+      <c r="G60" s="20">
         <v>4</v>
       </c>
-      <c r="H60" s="60">
+      <c r="H60" s="20">
         <v>5</v>
       </c>
-      <c r="I60" s="60">
+      <c r="I60" s="20">
         <v>6</v>
       </c>
       <c r="J60" s="28"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="L60" s="26"/>
+      <c r="M60" s="20">
+        <v>0</v>
+      </c>
+      <c r="N60" s="20">
+        <v>1</v>
+      </c>
+      <c r="O60" s="20">
+        <v>2</v>
+      </c>
+      <c r="P60" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="20">
+        <v>4</v>
+      </c>
+      <c r="R60" s="20">
+        <v>5</v>
+      </c>
+      <c r="S60" s="20">
+        <v>6</v>
+      </c>
+      <c r="T60" s="28"/>
+    </row>
+    <row r="61" spans="2:20">
       <c r="B61" s="27" t="s">
         <v>23</v>
       </c>
@@ -10988,8 +12455,36 @@
         <f>SUM(C61:I61)</f>
         <v>1383</v>
       </c>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="L61" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" s="21">
+        <v>210</v>
+      </c>
+      <c r="N61" s="21">
+        <v>188</v>
+      </c>
+      <c r="O61" s="21">
+        <v>197</v>
+      </c>
+      <c r="P61" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q61" s="21">
+        <v>183</v>
+      </c>
+      <c r="R61" s="21">
+        <v>210</v>
+      </c>
+      <c r="S61" s="21">
+        <v>205</v>
+      </c>
+      <c r="T61" s="34">
+        <f>SUM(M61:S61)</f>
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20">
       <c r="B62" s="27" t="s">
         <v>299</v>
       </c>
@@ -11018,77 +12513,170 @@
         <f>SUM(C62:I62)</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="L62" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M62" s="22">
+        <v>9</v>
+      </c>
+      <c r="N62" s="22">
+        <v>14</v>
+      </c>
+      <c r="O62" s="22">
+        <v>6</v>
+      </c>
+      <c r="P62" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q62" s="22">
+        <v>10</v>
+      </c>
+      <c r="R62" s="22">
+        <v>14</v>
+      </c>
+      <c r="S62" s="22">
+        <v>13</v>
+      </c>
+      <c r="T62" s="34">
+        <f>SUM(M62:S62)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20">
       <c r="B63" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C63" s="60">
+      <c r="C63" s="20">
         <f>C61+C62</f>
         <v>219</v>
       </c>
-      <c r="D63" s="60">
-        <f t="shared" ref="D63:I63" si="16">D61+D62</f>
+      <c r="D63" s="20">
+        <f t="shared" ref="D63:I63" si="32">D61+D62</f>
         <v>202</v>
       </c>
-      <c r="E63" s="60">
-        <f t="shared" si="16"/>
+      <c r="E63" s="20">
+        <f t="shared" si="32"/>
         <v>203</v>
       </c>
-      <c r="F63" s="60">
-        <f t="shared" si="16"/>
+      <c r="F63" s="20">
+        <f t="shared" si="32"/>
         <v>199</v>
       </c>
-      <c r="G63" s="60">
-        <f t="shared" si="16"/>
+      <c r="G63" s="20">
+        <f t="shared" si="32"/>
         <v>193</v>
       </c>
-      <c r="H63" s="60">
-        <f t="shared" si="16"/>
+      <c r="H63" s="20">
+        <f t="shared" si="32"/>
         <v>224</v>
       </c>
-      <c r="I63" s="60">
-        <f t="shared" si="16"/>
+      <c r="I63" s="20">
+        <f t="shared" si="32"/>
         <v>218</v>
       </c>
       <c r="J63" s="28">
         <f>SUM(C63:I63)</f>
         <v>1458</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L63" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M63" s="20">
+        <f>M61+M62</f>
+        <v>219</v>
+      </c>
+      <c r="N63" s="20">
+        <f t="shared" ref="N63:S63" si="33">N61+N62</f>
+        <v>202</v>
+      </c>
+      <c r="O63" s="20">
+        <f t="shared" si="33"/>
+        <v>203</v>
+      </c>
+      <c r="P63" s="20">
+        <f t="shared" si="33"/>
+        <v>199</v>
+      </c>
+      <c r="Q63" s="20">
+        <f t="shared" si="33"/>
+        <v>193</v>
+      </c>
+      <c r="R63" s="20">
+        <f t="shared" si="33"/>
+        <v>224</v>
+      </c>
+      <c r="S63" s="20">
+        <f t="shared" si="33"/>
+        <v>218</v>
+      </c>
+      <c r="T63" s="28">
+        <f>SUM(M63:S63)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" ht="17.25" thickBot="1">
       <c r="B64" s="29"/>
       <c r="C64" s="30">
         <f>C62/C63</f>
         <v>5.4794520547945202E-2</v>
       </c>
       <c r="D64" s="30">
-        <f t="shared" ref="D64:I64" si="17">D62/D63</f>
+        <f t="shared" ref="D64:I64" si="34">D62/D63</f>
         <v>6.9306930693069313E-2</v>
       </c>
       <c r="E64" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>5.9113300492610835E-2</v>
       </c>
       <c r="F64" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G64" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H64" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="I64" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>5.5045871559633031E-2</v>
       </c>
       <c r="J64" s="36"/>
-    </row>
-    <row r="65" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L64" s="29"/>
+      <c r="M64" s="30">
+        <f>M62/M63</f>
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="N64" s="30">
+        <f t="shared" ref="N64:S64" si="35">N62/N63</f>
+        <v>6.9306930693069313E-2</v>
+      </c>
+      <c r="O64" s="30">
+        <f t="shared" si="35"/>
+        <v>2.9556650246305417E-2</v>
+      </c>
+      <c r="P64" s="30">
+        <f t="shared" si="35"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q64" s="30">
+        <f t="shared" si="35"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R64" s="30">
+        <f t="shared" si="35"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="S64" s="30">
+        <f t="shared" si="35"/>
+        <v>5.9633027522935783E-2</v>
+      </c>
+      <c r="T64" s="36"/>
+    </row>
+    <row r="65" spans="2:20" ht="17.25" thickBot="1">
       <c r="B65">
         <v>0.8</v>
       </c>
@@ -11098,8 +12686,17 @@
       <c r="D65">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20">
       <c r="B66" s="24"/>
       <c r="C66" s="25" t="s">
         <v>272</v>
@@ -11123,33 +12720,79 @@
         <v>278</v>
       </c>
       <c r="J66" s="31"/>
-    </row>
-    <row r="67" spans="2:10">
+      <c r="L66" s="24"/>
+      <c r="M66" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N66" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O66" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P66" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q66" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R66" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S66" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T66" s="31"/>
+    </row>
+    <row r="67" spans="2:20">
       <c r="B67" s="26"/>
-      <c r="C67" s="60">
-        <v>0</v>
-      </c>
-      <c r="D67" s="60">
+      <c r="C67" s="20">
+        <v>0</v>
+      </c>
+      <c r="D67" s="20">
         <v>1</v>
       </c>
-      <c r="E67" s="60">
+      <c r="E67" s="20">
         <v>2</v>
       </c>
-      <c r="F67" s="60">
+      <c r="F67" s="20">
         <v>3</v>
       </c>
-      <c r="G67" s="60">
+      <c r="G67" s="20">
         <v>4</v>
       </c>
-      <c r="H67" s="60">
+      <c r="H67" s="20">
         <v>5</v>
       </c>
-      <c r="I67" s="60">
+      <c r="I67" s="20">
         <v>6</v>
       </c>
       <c r="J67" s="28"/>
-    </row>
-    <row r="68" spans="2:10">
+      <c r="L67" s="26"/>
+      <c r="M67" s="20">
+        <v>0</v>
+      </c>
+      <c r="N67" s="20">
+        <v>1</v>
+      </c>
+      <c r="O67" s="20">
+        <v>2</v>
+      </c>
+      <c r="P67" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q67" s="20">
+        <v>4</v>
+      </c>
+      <c r="R67" s="20">
+        <v>5</v>
+      </c>
+      <c r="S67" s="20">
+        <v>6</v>
+      </c>
+      <c r="T67" s="28"/>
+    </row>
+    <row r="68" spans="2:20">
       <c r="B68" s="27" t="s">
         <v>23</v>
       </c>
@@ -11178,8 +12821,36 @@
         <f>SUM(C68:I68)</f>
         <v>1378</v>
       </c>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="L68" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="21">
+        <v>18</v>
+      </c>
+      <c r="N68" s="21">
+        <v>178</v>
+      </c>
+      <c r="O68" s="21">
+        <v>180</v>
+      </c>
+      <c r="P68" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q68" s="21">
+        <v>109</v>
+      </c>
+      <c r="R68" s="21">
+        <v>191</v>
+      </c>
+      <c r="S68" s="21">
+        <v>201</v>
+      </c>
+      <c r="T68" s="34">
+        <f>SUM(M68:S68)</f>
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20">
       <c r="B69" s="27" t="s">
         <v>299</v>
       </c>
@@ -11208,77 +12879,170 @@
         <f>SUM(C69:I69)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="L69" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M69" s="22">
+        <v>201</v>
+      </c>
+      <c r="N69" s="22">
+        <v>24</v>
+      </c>
+      <c r="O69" s="22">
+        <v>23</v>
+      </c>
+      <c r="P69" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q69" s="22">
+        <v>84</v>
+      </c>
+      <c r="R69" s="22">
+        <v>33</v>
+      </c>
+      <c r="S69" s="22">
+        <v>17</v>
+      </c>
+      <c r="T69" s="34">
+        <f>SUM(M69:S69)</f>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20">
       <c r="B70" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C70" s="60">
+      <c r="C70" s="20">
         <f>C68+C69</f>
         <v>219</v>
       </c>
-      <c r="D70" s="60">
-        <f t="shared" ref="D70:I70" si="18">D68+D69</f>
+      <c r="D70" s="20">
+        <f t="shared" ref="D70:I70" si="36">D68+D69</f>
         <v>202</v>
       </c>
-      <c r="E70" s="60">
-        <f t="shared" si="18"/>
+      <c r="E70" s="20">
+        <f t="shared" si="36"/>
         <v>203</v>
       </c>
-      <c r="F70" s="60">
-        <f t="shared" si="18"/>
+      <c r="F70" s="20">
+        <f t="shared" si="36"/>
         <v>199</v>
       </c>
-      <c r="G70" s="60">
-        <f t="shared" si="18"/>
+      <c r="G70" s="20">
+        <f t="shared" si="36"/>
         <v>193</v>
       </c>
-      <c r="H70" s="60">
-        <f t="shared" si="18"/>
+      <c r="H70" s="20">
+        <f t="shared" si="36"/>
         <v>224</v>
       </c>
-      <c r="I70" s="60">
-        <f t="shared" si="18"/>
+      <c r="I70" s="20">
+        <f t="shared" si="36"/>
         <v>218</v>
       </c>
       <c r="J70" s="28">
         <f>SUM(C70:I70)</f>
         <v>1458</v>
       </c>
-    </row>
-    <row r="71" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L70" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M70" s="20">
+        <f>M68+M69</f>
+        <v>219</v>
+      </c>
+      <c r="N70" s="20">
+        <f t="shared" ref="N70:S70" si="37">N68+N69</f>
+        <v>202</v>
+      </c>
+      <c r="O70" s="20">
+        <f t="shared" si="37"/>
+        <v>203</v>
+      </c>
+      <c r="P70" s="20">
+        <f t="shared" si="37"/>
+        <v>199</v>
+      </c>
+      <c r="Q70" s="20">
+        <f t="shared" si="37"/>
+        <v>193</v>
+      </c>
+      <c r="R70" s="20">
+        <f t="shared" si="37"/>
+        <v>224</v>
+      </c>
+      <c r="S70" s="20">
+        <f t="shared" si="37"/>
+        <v>218</v>
+      </c>
+      <c r="T70" s="28">
+        <f>SUM(M70:S70)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" ht="17.25" thickBot="1">
       <c r="B71" s="29"/>
       <c r="C71" s="30">
         <f>C69/C70</f>
         <v>5.0228310502283102E-2</v>
       </c>
       <c r="D71" s="30">
-        <f t="shared" ref="D71:I71" si="19">D69/D70</f>
+        <f t="shared" ref="D71:I71" si="38">D69/D70</f>
         <v>9.405940594059406E-2</v>
       </c>
       <c r="E71" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="F71" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G71" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H71" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>5.3571428571428568E-2</v>
       </c>
       <c r="I71" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="J71" s="36"/>
-    </row>
-    <row r="72" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L71" s="29"/>
+      <c r="M71" s="30">
+        <f>M69/M70</f>
+        <v>0.9178082191780822</v>
+      </c>
+      <c r="N71" s="30">
+        <f t="shared" ref="N71:S71" si="39">N69/N70</f>
+        <v>0.11881188118811881</v>
+      </c>
+      <c r="O71" s="30">
+        <f t="shared" si="39"/>
+        <v>0.11330049261083744</v>
+      </c>
+      <c r="P71" s="30">
+        <f t="shared" si="39"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q71" s="30">
+        <f t="shared" si="39"/>
+        <v>0.43523316062176165</v>
+      </c>
+      <c r="R71" s="30">
+        <f t="shared" si="39"/>
+        <v>0.14732142857142858</v>
+      </c>
+      <c r="S71" s="30">
+        <f t="shared" si="39"/>
+        <v>7.7981651376146793E-2</v>
+      </c>
+      <c r="T71" s="36"/>
+    </row>
+    <row r="72" spans="2:20" ht="17.25" thickBot="1">
       <c r="B72">
         <v>0.9</v>
       </c>
@@ -11289,7 +13053,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:20">
       <c r="B73" s="24"/>
       <c r="C73" s="25" t="s">
         <v>272</v>
@@ -11313,33 +13077,51 @@
         <v>278</v>
       </c>
       <c r="J73" s="31"/>
-    </row>
-    <row r="74" spans="2:10">
+      <c r="L73" s="24"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="31"/>
+    </row>
+    <row r="74" spans="2:20">
       <c r="B74" s="26"/>
-      <c r="C74" s="60">
-        <v>0</v>
-      </c>
-      <c r="D74" s="60">
+      <c r="C74" s="20">
+        <v>0</v>
+      </c>
+      <c r="D74" s="20">
         <v>1</v>
       </c>
-      <c r="E74" s="60">
+      <c r="E74" s="20">
         <v>2</v>
       </c>
-      <c r="F74" s="60">
+      <c r="F74" s="20">
         <v>3</v>
       </c>
-      <c r="G74" s="60">
+      <c r="G74" s="20">
         <v>4</v>
       </c>
-      <c r="H74" s="60">
+      <c r="H74" s="20">
         <v>5</v>
       </c>
-      <c r="I74" s="60">
+      <c r="I74" s="20">
         <v>6</v>
       </c>
       <c r="J74" s="28"/>
-    </row>
-    <row r="75" spans="2:10">
+      <c r="L74" s="26"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="28"/>
+    </row>
+    <row r="75" spans="2:20">
       <c r="B75" s="27" t="s">
         <v>23</v>
       </c>
@@ -11368,8 +13150,17 @@
         <f>SUM(C75:I75)</f>
         <v>1379</v>
       </c>
-    </row>
-    <row r="76" spans="2:10">
+      <c r="L75" s="27"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="34"/>
+    </row>
+    <row r="76" spans="2:20">
       <c r="B76" s="27" t="s">
         <v>299</v>
       </c>
@@ -11398,108 +13189,135 @@
         <f>SUM(C76:I76)</f>
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="2:10">
+      <c r="L76" s="27"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="34"/>
+    </row>
+    <row r="77" spans="2:20">
       <c r="B77" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C77" s="60">
+      <c r="C77" s="20">
         <f>C75+C76</f>
         <v>219</v>
       </c>
-      <c r="D77" s="60">
-        <f t="shared" ref="D77:I77" si="20">D75+D76</f>
+      <c r="D77" s="20">
+        <f t="shared" ref="D77:I77" si="40">D75+D76</f>
         <v>202</v>
       </c>
-      <c r="E77" s="60">
-        <f t="shared" si="20"/>
+      <c r="E77" s="20">
+        <f t="shared" si="40"/>
         <v>203</v>
       </c>
-      <c r="F77" s="60">
-        <f t="shared" si="20"/>
+      <c r="F77" s="20">
+        <f t="shared" si="40"/>
         <v>199</v>
       </c>
-      <c r="G77" s="60">
-        <f t="shared" si="20"/>
+      <c r="G77" s="20">
+        <f t="shared" si="40"/>
         <v>193</v>
       </c>
-      <c r="H77" s="60">
-        <f t="shared" si="20"/>
+      <c r="H77" s="20">
+        <f t="shared" si="40"/>
         <v>224</v>
       </c>
-      <c r="I77" s="60">
-        <f t="shared" si="20"/>
+      <c r="I77" s="20">
+        <f t="shared" si="40"/>
         <v>218</v>
       </c>
       <c r="J77" s="28">
         <f>SUM(C77:I77)</f>
         <v>1458</v>
       </c>
-    </row>
-    <row r="78" spans="2:10" ht="17.25" thickBot="1">
+      <c r="L77" s="26"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="28"/>
+    </row>
+    <row r="78" spans="2:20" ht="17.25" thickBot="1">
       <c r="B78" s="29"/>
       <c r="C78" s="30">
         <f>C76/C77</f>
         <v>5.0228310502283102E-2</v>
       </c>
       <c r="D78" s="30">
-        <f t="shared" ref="D78:I78" si="21">D76/D77</f>
+        <f t="shared" ref="D78:I78" si="41">D76/D77</f>
         <v>7.9207920792079209E-2</v>
       </c>
       <c r="E78" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>2.9556650246305417E-2</v>
       </c>
       <c r="F78" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>3.5175879396984924E-2</v>
       </c>
       <c r="G78" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="H78" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>6.25E-2</v>
       </c>
       <c r="I78" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="41"/>
         <v>6.8807339449541288E-2</v>
       </c>
       <c r="J78" s="36"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="36"/>
     </row>
     <row r="81" spans="3:14">
-      <c r="D81" s="61">
-        <v>0</v>
-      </c>
-      <c r="E81" s="61">
+      <c r="D81" s="55">
+        <v>0</v>
+      </c>
+      <c r="E81" s="55">
         <v>0.1</v>
       </c>
-      <c r="F81" s="61">
+      <c r="F81" s="55">
         <v>0.2</v>
       </c>
-      <c r="G81" s="61">
+      <c r="G81" s="55">
         <v>0.3</v>
       </c>
-      <c r="H81" s="61">
+      <c r="H81" s="55">
         <v>0.4</v>
       </c>
-      <c r="I81" s="61">
+      <c r="I81" s="55">
         <v>0.5</v>
       </c>
-      <c r="J81" s="61">
+      <c r="J81" s="55">
         <v>0.6</v>
       </c>
-      <c r="K81" s="61">
+      <c r="K81" s="55">
         <v>0.7</v>
       </c>
-      <c r="L81" s="61">
+      <c r="L81" s="55">
         <v>0.8</v>
       </c>
-      <c r="M81" s="61">
+      <c r="M81" s="55">
         <v>0.9</v>
       </c>
-      <c r="N81" s="61">
+      <c r="N81" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11507,37 +13325,37 @@
       <c r="C82" t="s">
         <v>300</v>
       </c>
-      <c r="D82" s="61">
+      <c r="D82" s="55">
         <v>66</v>
       </c>
       <c r="E82" s="62">
         <v>63</v>
       </c>
-      <c r="F82" s="61">
+      <c r="F82" s="55">
         <v>74</v>
       </c>
-      <c r="G82" s="61">
+      <c r="G82" s="55">
         <v>96</v>
       </c>
-      <c r="H82" s="61">
+      <c r="H82" s="55">
         <v>118</v>
       </c>
-      <c r="I82" s="61">
+      <c r="I82" s="55">
         <v>84</v>
       </c>
-      <c r="J82" s="61">
+      <c r="J82" s="55">
         <v>114</v>
       </c>
-      <c r="K82" s="61">
+      <c r="K82" s="55">
         <v>75</v>
       </c>
-      <c r="L82" s="61">
+      <c r="L82" s="55">
         <v>80</v>
       </c>
-      <c r="M82" s="61">
+      <c r="M82" s="55">
         <v>79</v>
       </c>
-      <c r="N82" s="61">
+      <c r="N82" s="55">
         <v>492</v>
       </c>
     </row>
@@ -11545,16 +13363,3546 @@
       <c r="C83" t="s">
         <v>301</v>
       </c>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55">
+        <v>64</v>
+      </c>
+      <c r="F83" s="55">
+        <v>73</v>
+      </c>
+      <c r="G83" s="62">
+        <v>60</v>
+      </c>
+      <c r="H83" s="55">
+        <v>64</v>
+      </c>
+      <c r="I83" s="55">
+        <v>85</v>
+      </c>
+      <c r="J83" s="55">
+        <v>78</v>
+      </c>
+      <c r="K83" s="55">
+        <v>73</v>
+      </c>
+      <c r="L83" s="55">
+        <v>81</v>
+      </c>
+      <c r="M83" s="55">
+        <v>73</v>
+      </c>
+      <c r="N83" s="55">
+        <v>389</v>
+      </c>
     </row>
     <row r="84" spans="3:14">
       <c r="C84" t="s">
-        <v>302</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
     </row>
     <row r="85" spans="3:14">
       <c r="C85" t="s">
+        <v>302</v>
+      </c>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="55"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37C049D-D7B6-433B-9FDE-E9B6A2B6BB57}">
+  <dimension ref="B2:T85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <cols>
+    <col min="1" max="1" width="11.1875" customWidth="1"/>
+    <col min="3" max="3" width="9.9375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T3" s="31"/>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="26"/>
+      <c r="C4" s="20">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20">
+        <v>2</v>
+      </c>
+      <c r="F4" s="20">
+        <v>3</v>
+      </c>
+      <c r="G4" s="20">
+        <v>4</v>
+      </c>
+      <c r="H4" s="20">
+        <v>5</v>
+      </c>
+      <c r="I4" s="20">
+        <v>6</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="20">
+        <v>0</v>
+      </c>
+      <c r="N4" s="20">
+        <v>1</v>
+      </c>
+      <c r="O4" s="20">
+        <v>2</v>
+      </c>
+      <c r="P4" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>4</v>
+      </c>
+      <c r="R4" s="20">
+        <v>5</v>
+      </c>
+      <c r="S4" s="20">
+        <v>6</v>
+      </c>
+      <c r="T4" s="28"/>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="34">
+        <f>SUM(C5:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="34">
+        <f>SUM(M5:S5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="34">
+        <f>SUM(C6:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="34">
+        <f>SUM(M6:S6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="20">
+        <f>C5+C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" ref="D7:I7" si="0">D5+D6</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="28">
+        <f>SUM(C7:I7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M7" s="20">
+        <f>M5+M6</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" ref="N7:S7" si="1">N5+N6</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="28">
+        <f>SUM(M7:S7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="e">
+        <f>C6/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="30" t="e">
+        <f t="shared" ref="D8:I8" si="2">D6/D7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="30" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="30" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="30" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="30" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="30" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30" t="e">
+        <f>M6/M7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" s="30" t="e">
+        <f t="shared" ref="N8:S8" si="3">N6/N7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R8" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S8" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" s="36"/>
+    </row>
+    <row r="9" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S10" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11" s="26"/>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20">
+        <v>2</v>
+      </c>
+      <c r="F11" s="20">
+        <v>3</v>
+      </c>
+      <c r="G11" s="20">
+        <v>4</v>
+      </c>
+      <c r="H11" s="20">
+        <v>5</v>
+      </c>
+      <c r="I11" s="20">
+        <v>6</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="20">
+        <v>0</v>
+      </c>
+      <c r="N11" s="20">
+        <v>1</v>
+      </c>
+      <c r="O11" s="20">
+        <v>2</v>
+      </c>
+      <c r="P11" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>4</v>
+      </c>
+      <c r="R11" s="20">
+        <v>5</v>
+      </c>
+      <c r="S11" s="20">
+        <v>6</v>
+      </c>
+      <c r="T11" s="28"/>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="34">
+        <f>SUM(C12:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="34">
+        <f>SUM(M12:S12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="34">
+        <f>SUM(C13:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="34">
+        <f>SUM(M13:S13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="20">
+        <f>C12+C13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" ref="D14:I14" si="4">D12+D13</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="28">
+        <f>SUM(C14:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M14" s="20">
+        <f>M12+M13</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="20">
+        <f t="shared" ref="N14:S14" si="5">N12+N13</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="28">
+        <f>SUM(M14:S14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="e">
+        <f>C13/C14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="30" t="e">
+        <f t="shared" ref="D15:I15" si="6">D13/D14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="30" t="e">
+        <f>M13/M14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="30" t="e">
+        <f t="shared" ref="N15:S15" si="7">N13/N14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" s="30" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15" s="30" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="30" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" s="30" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" s="30" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" s="36"/>
+    </row>
+    <row r="16" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q17" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R17" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S17" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T17" s="31"/>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="26"/>
+      <c r="C18" s="20">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1</v>
+      </c>
+      <c r="E18" s="20">
+        <v>2</v>
+      </c>
+      <c r="F18" s="20">
+        <v>3</v>
+      </c>
+      <c r="G18" s="20">
+        <v>4</v>
+      </c>
+      <c r="H18" s="20">
+        <v>5</v>
+      </c>
+      <c r="I18" s="20">
+        <v>6</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="20">
+        <v>0</v>
+      </c>
+      <c r="N18" s="20">
+        <v>1</v>
+      </c>
+      <c r="O18" s="20">
+        <v>2</v>
+      </c>
+      <c r="P18" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>4</v>
+      </c>
+      <c r="R18" s="20">
+        <v>5</v>
+      </c>
+      <c r="S18" s="20">
+        <v>6</v>
+      </c>
+      <c r="T18" s="28"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="34">
+        <f>SUM(C19:I19)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="34">
+        <f>SUM(M19:S19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="34">
+        <f>SUM(C20:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="34">
+        <f>SUM(M20:S20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="20">
+        <f>C19+C20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" ref="D21:I21" si="8">D19+D20</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="28">
+        <f>SUM(C21:I21)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M21" s="20">
+        <f>M19+M20</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="20">
+        <f t="shared" ref="N21:S21" si="9">N19+N20</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="28">
+        <f>SUM(M21:S21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B22" s="29"/>
+      <c r="C22" s="30" t="e">
+        <f>C20/C21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="30" t="e">
+        <f t="shared" ref="D22:I22" si="10">D20/D21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="30" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="30" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="30" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="30" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="30" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30" t="e">
+        <f>M20/M21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="30" t="e">
+        <f t="shared" ref="N22:S22" si="11">N20/N21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" s="30" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" s="30" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" s="30" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" s="30" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" s="30" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="36"/>
+    </row>
+    <row r="23" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B23">
+        <v>0.1</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S24" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T24" s="31"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="26"/>
+      <c r="C25" s="20">
+        <v>0</v>
+      </c>
+      <c r="D25" s="20">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20">
+        <v>2</v>
+      </c>
+      <c r="F25" s="20">
+        <v>3</v>
+      </c>
+      <c r="G25" s="20">
+        <v>4</v>
+      </c>
+      <c r="H25" s="20">
+        <v>5</v>
+      </c>
+      <c r="I25" s="20">
+        <v>6</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="20">
+        <v>0</v>
+      </c>
+      <c r="N25" s="20">
+        <v>1</v>
+      </c>
+      <c r="O25" s="20">
+        <v>2</v>
+      </c>
+      <c r="P25" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="20">
+        <v>4</v>
+      </c>
+      <c r="R25" s="20">
+        <v>5</v>
+      </c>
+      <c r="S25" s="20">
+        <v>6</v>
+      </c>
+      <c r="T25" s="28"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="34">
+        <f>SUM(C26:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="34">
+        <f>SUM(M26:S26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="34">
+        <f>SUM(C27:I27)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="34">
+        <f>SUM(M27:S27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="20">
+        <f>C26+C27</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" ref="D28:I28" si="12">D26+D27</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="28">
+        <f>SUM(C28:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M28" s="20">
+        <f>M26+M27</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="20">
+        <f t="shared" ref="N28:S28" si="13">N26+N27</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="28">
+        <f>SUM(M28:S28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30" t="e">
+        <f>C27/C28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="30" t="e">
+        <f t="shared" ref="D29:I29" si="14">D27/D28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="30" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="30" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="30" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="30" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="30" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="36"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="30" t="e">
+        <f>M27/M28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="30" t="e">
+        <f t="shared" ref="N29:S29" si="15">N27/N28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="30" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="30" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" s="30" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="30" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="30" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="36"/>
+    </row>
+    <row r="30" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B30">
+        <v>0.2</v>
+      </c>
+      <c r="C30">
+        <v>0.2</v>
+      </c>
+      <c r="D30">
+        <v>0.2</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="24"/>
+      <c r="C31" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" s="31"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N31" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P31" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q31" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R31" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S31" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T31" s="31"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="26"/>
+      <c r="C32" s="20">
+        <v>0</v>
+      </c>
+      <c r="D32" s="20">
+        <v>1</v>
+      </c>
+      <c r="E32" s="20">
+        <v>2</v>
+      </c>
+      <c r="F32" s="20">
+        <v>3</v>
+      </c>
+      <c r="G32" s="20">
+        <v>4</v>
+      </c>
+      <c r="H32" s="20">
+        <v>5</v>
+      </c>
+      <c r="I32" s="20">
+        <v>6</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="20">
+        <v>0</v>
+      </c>
+      <c r="N32" s="20">
+        <v>1</v>
+      </c>
+      <c r="O32" s="20">
+        <v>2</v>
+      </c>
+      <c r="P32" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="20">
+        <v>4</v>
+      </c>
+      <c r="R32" s="20">
+        <v>5</v>
+      </c>
+      <c r="S32" s="20">
+        <v>6</v>
+      </c>
+      <c r="T32" s="28"/>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="34">
+        <f>SUM(C33:I33)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="34">
+        <f>SUM(M33:S33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="34">
+        <f>SUM(C34:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="34">
+        <f>SUM(M34:S34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" s="20">
+        <f>C33+C34</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="20">
+        <f t="shared" ref="D35:I35" si="16">D33+D34</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="28">
+        <f>SUM(C35:I35)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M35" s="20">
+        <f>M33+M34</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="20">
+        <f t="shared" ref="N35:S35" si="17">N33+N34</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="28">
+        <f>SUM(M35:S35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B36" s="29"/>
+      <c r="C36" s="30" t="e">
+        <f>C34/C35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="30" t="e">
+        <f t="shared" ref="D36:I36" si="18">D34/D35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="30" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="30" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="30" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="30" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="30" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="36"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="30" t="e">
+        <f>M34/M35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="30" t="e">
+        <f t="shared" ref="N36:S36" si="19">N34/N35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="30" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P36" s="30" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q36" s="30" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R36" s="30" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S36" s="30" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T36" s="36"/>
+    </row>
+    <row r="37" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B37">
+        <v>0.3</v>
+      </c>
+      <c r="C37">
+        <v>0.3</v>
+      </c>
+      <c r="D37">
+        <v>0.3</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" s="31"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N38" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O38" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P38" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q38" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R38" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S38" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T38" s="31"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="26"/>
+      <c r="C39" s="20">
+        <v>0</v>
+      </c>
+      <c r="D39" s="20">
+        <v>1</v>
+      </c>
+      <c r="E39" s="20">
+        <v>2</v>
+      </c>
+      <c r="F39" s="20">
+        <v>3</v>
+      </c>
+      <c r="G39" s="20">
+        <v>4</v>
+      </c>
+      <c r="H39" s="20">
+        <v>5</v>
+      </c>
+      <c r="I39" s="20">
+        <v>6</v>
+      </c>
+      <c r="J39" s="28"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="20">
+        <v>0</v>
+      </c>
+      <c r="N39" s="20">
+        <v>1</v>
+      </c>
+      <c r="O39" s="20">
+        <v>2</v>
+      </c>
+      <c r="P39" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="20">
+        <v>4</v>
+      </c>
+      <c r="R39" s="20">
+        <v>5</v>
+      </c>
+      <c r="S39" s="20">
+        <v>6</v>
+      </c>
+      <c r="T39" s="28"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="34">
+        <f>SUM(C40:I40)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="34">
+        <f>SUM(M40:S40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="34">
+        <f>SUM(C41:I41)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="34">
+        <f>SUM(M41:S41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" s="20">
+        <f>C40+C41</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="20">
+        <f t="shared" ref="D42:I42" si="20">D40+D41</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="28">
+        <f>SUM(C42:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M42" s="20">
+        <f>M40+M41</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="20">
+        <f t="shared" ref="N42:S42" si="21">N40+N41</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="28">
+        <f>SUM(M42:S42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B43" s="29"/>
+      <c r="C43" s="30" t="e">
+        <f>C41/C42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="30" t="e">
+        <f t="shared" ref="D43:I43" si="22">D41/D42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="30" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="30" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="30" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="30" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="30" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" s="36"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="30" t="e">
+        <f>M41/M42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N43" s="30" t="e">
+        <f t="shared" ref="N43:S43" si="23">N41/N42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O43" s="30" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P43" s="30" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q43" s="30" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R43" s="30" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S43" s="30" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T43" s="36"/>
+    </row>
+    <row r="44" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B44">
+        <v>0.4</v>
+      </c>
+      <c r="C44">
+        <v>0.4</v>
+      </c>
+      <c r="D44">
+        <v>0.4</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" s="24"/>
+      <c r="C45" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J45" s="31"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N45" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="O45" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="P45" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q45" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="R45" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S45" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T45" s="31"/>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="B46" s="26"/>
+      <c r="C46" s="20">
+        <v>0</v>
+      </c>
+      <c r="D46" s="20">
+        <v>1</v>
+      </c>
+      <c r="E46" s="20">
+        <v>2</v>
+      </c>
+      <c r="F46" s="20">
+        <v>3</v>
+      </c>
+      <c r="G46" s="20">
+        <v>4</v>
+      </c>
+      <c r="H46" s="20">
+        <v>5</v>
+      </c>
+      <c r="I46" s="20">
+        <v>6</v>
+      </c>
+      <c r="J46" s="28"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="20">
+        <v>0</v>
+      </c>
+      <c r="N46" s="20">
+        <v>1</v>
+      </c>
+      <c r="O46" s="20">
+        <v>2</v>
+      </c>
+      <c r="P46" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="20">
+        <v>4</v>
+      </c>
+      <c r="R46" s="20">
+        <v>5</v>
+      </c>
+      <c r="S46" s="20">
+        <v>6</v>
+      </c>
+      <c r="T46" s="28"/>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="B47" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="34">
+        <f>SUM(C47:I47)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="34">
+        <f>SUM(M47:S47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="B48" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="34">
+        <f>SUM(C48:I48)</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="34">
+        <f>SUM(M48:S48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20">
+      <c r="B49" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" s="20">
+        <f>C47+C48</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="20">
+        <f t="shared" ref="D49:I49" si="24">D47+D48</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="28">
+        <f>SUM(C49:I49)</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M49" s="20">
+        <f>M47+M48</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="20">
+        <f t="shared" ref="N49:S49" si="25">N47+N48</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="28">
+        <f>SUM(M49:S49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B50" s="29"/>
+      <c r="C50" s="30" t="e">
+        <f>C48/C49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="30" t="e">
+        <f t="shared" ref="D50:I50" si="26">D48/D49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50" s="30" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F50" s="30" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G50" s="30" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H50" s="30" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I50" s="30" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J50" s="36"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="30" t="e">
+        <f>M48/M49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N50" s="30" t="e">
+        <f t="shared" ref="N50:S50" si="27">N48/N49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O50" s="30" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P50" s="30" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q50" s="30" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R50" s="30" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S50" s="30" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T50" s="36"/>
+    </row>
+    <row r="51" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B51">
+        <v>0.6</v>
+      </c>
+      <c r="C51">
+        <v>0.6</v>
+      </c>
+      <c r="D51">
+        <v>0.6</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20">
+      <c r="B52" s="24"/>
+      <c r="C52" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J52" s="31"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N52" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O52" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P52" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q52" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R52" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S52" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T52" s="31"/>
+    </row>
+    <row r="53" spans="2:20">
+      <c r="B53" s="26"/>
+      <c r="C53" s="20">
+        <v>0</v>
+      </c>
+      <c r="D53" s="20">
+        <v>1</v>
+      </c>
+      <c r="E53" s="20">
+        <v>2</v>
+      </c>
+      <c r="F53" s="20">
+        <v>3</v>
+      </c>
+      <c r="G53" s="20">
+        <v>4</v>
+      </c>
+      <c r="H53" s="20">
+        <v>5</v>
+      </c>
+      <c r="I53" s="20">
+        <v>6</v>
+      </c>
+      <c r="J53" s="28"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="20">
+        <v>0</v>
+      </c>
+      <c r="N53" s="20">
+        <v>1</v>
+      </c>
+      <c r="O53" s="20">
+        <v>2</v>
+      </c>
+      <c r="P53" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q53" s="20">
+        <v>4</v>
+      </c>
+      <c r="R53" s="20">
+        <v>5</v>
+      </c>
+      <c r="S53" s="20">
+        <v>6</v>
+      </c>
+      <c r="T53" s="28"/>
+    </row>
+    <row r="54" spans="2:20">
+      <c r="B54" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="34">
+        <f>SUM(C54:I54)</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="34">
+        <f>SUM(M54:S54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20">
+      <c r="B55" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="34">
+        <f>SUM(C55:I55)</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="34">
+        <f>SUM(M55:S55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20">
+      <c r="B56" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56" s="20">
+        <f>C54+C55</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="20">
+        <f t="shared" ref="D56:I56" si="28">D54+D55</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="20">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="20">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="20">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="20">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="20">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="28">
+        <f>SUM(C56:I56)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M56" s="20">
+        <f>M54+M55</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="20">
+        <f t="shared" ref="N56:S56" si="29">N54+N55</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="20">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="20">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="20">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="20">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="20">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="28">
+        <f>SUM(M56:S56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B57" s="29"/>
+      <c r="C57" s="30" t="e">
+        <f>C55/C56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D57" s="30" t="e">
+        <f t="shared" ref="D57:I57" si="30">D55/D56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E57" s="30" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F57" s="30" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G57" s="30" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H57" s="30" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I57" s="30" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J57" s="36"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="30" t="e">
+        <f>M55/M56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N57" s="30" t="e">
+        <f t="shared" ref="N57:S57" si="31">N55/N56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O57" s="30" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P57" s="30" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q57" s="30" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R57" s="30" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S57" s="30" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T57" s="36"/>
+    </row>
+    <row r="58" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B58">
+        <v>0.7</v>
+      </c>
+      <c r="C58">
+        <v>0.7</v>
+      </c>
+      <c r="D58">
+        <v>0.7</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20">
+      <c r="B59" s="24"/>
+      <c r="C59" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J59" s="31"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N59" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O59" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P59" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q59" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R59" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S59" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T59" s="31"/>
+    </row>
+    <row r="60" spans="2:20">
+      <c r="B60" s="26"/>
+      <c r="C60" s="20">
+        <v>0</v>
+      </c>
+      <c r="D60" s="20">
+        <v>1</v>
+      </c>
+      <c r="E60" s="20">
+        <v>2</v>
+      </c>
+      <c r="F60" s="20">
+        <v>3</v>
+      </c>
+      <c r="G60" s="20">
+        <v>4</v>
+      </c>
+      <c r="H60" s="20">
+        <v>5</v>
+      </c>
+      <c r="I60" s="20">
+        <v>6</v>
+      </c>
+      <c r="J60" s="28"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="20">
+        <v>0</v>
+      </c>
+      <c r="N60" s="20">
+        <v>1</v>
+      </c>
+      <c r="O60" s="20">
+        <v>2</v>
+      </c>
+      <c r="P60" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="20">
+        <v>4</v>
+      </c>
+      <c r="R60" s="20">
+        <v>5</v>
+      </c>
+      <c r="S60" s="20">
+        <v>6</v>
+      </c>
+      <c r="T60" s="28"/>
+    </row>
+    <row r="61" spans="2:20">
+      <c r="B61" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="34">
+        <f>SUM(C61:I61)</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="34">
+        <f>SUM(M61:S61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20">
+      <c r="B62" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="34">
+        <f>SUM(C62:I62)</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="22"/>
+      <c r="S62" s="22"/>
+      <c r="T62" s="34">
+        <f>SUM(M62:S62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20">
+      <c r="B63" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C63" s="20">
+        <f>C61+C62</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="20">
+        <f t="shared" ref="D63:I63" si="32">D61+D62</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="20">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="20">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="20">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="20">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="20">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="28">
+        <f>SUM(C63:I63)</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M63" s="20">
+        <f>M61+M62</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="20">
+        <f t="shared" ref="N63:S63" si="33">N61+N62</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="20">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="20">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="20">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="20">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="20">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="28">
+        <f>SUM(M63:S63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B64" s="29"/>
+      <c r="C64" s="30" t="e">
+        <f>C62/C63</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D64" s="30" t="e">
+        <f t="shared" ref="D64:I64" si="34">D62/D63</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E64" s="30" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F64" s="30" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="30" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" s="30" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="30" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J64" s="36"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="30" t="e">
+        <f>M62/M63</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N64" s="30" t="e">
+        <f t="shared" ref="N64:S64" si="35">N62/N63</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O64" s="30" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P64" s="30" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q64" s="30" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R64" s="30" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S64" s="30" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T64" s="36"/>
+    </row>
+    <row r="65" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B65">
+        <v>0.8</v>
+      </c>
+      <c r="C65">
+        <v>0.8</v>
+      </c>
+      <c r="D65">
+        <v>0.8</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20">
+      <c r="B66" s="24"/>
+      <c r="C66" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J66" s="31"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N66" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="O66" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="P66" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q66" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="R66" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S66" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="T66" s="31"/>
+    </row>
+    <row r="67" spans="2:20">
+      <c r="B67" s="26"/>
+      <c r="C67" s="20">
+        <v>0</v>
+      </c>
+      <c r="D67" s="20">
+        <v>1</v>
+      </c>
+      <c r="E67" s="20">
+        <v>2</v>
+      </c>
+      <c r="F67" s="20">
+        <v>3</v>
+      </c>
+      <c r="G67" s="20">
+        <v>4</v>
+      </c>
+      <c r="H67" s="20">
+        <v>5</v>
+      </c>
+      <c r="I67" s="20">
+        <v>6</v>
+      </c>
+      <c r="J67" s="28"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="20">
+        <v>0</v>
+      </c>
+      <c r="N67" s="20">
+        <v>1</v>
+      </c>
+      <c r="O67" s="20">
+        <v>2</v>
+      </c>
+      <c r="P67" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q67" s="20">
+        <v>4</v>
+      </c>
+      <c r="R67" s="20">
+        <v>5</v>
+      </c>
+      <c r="S67" s="20">
+        <v>6</v>
+      </c>
+      <c r="T67" s="28"/>
+    </row>
+    <row r="68" spans="2:20">
+      <c r="B68" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="34">
+        <f>SUM(C68:I68)</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="34">
+        <f>SUM(M68:S68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20">
+      <c r="B69" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="34">
+        <f>SUM(C69:I69)</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="34">
+        <f>SUM(M69:S69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20">
+      <c r="B70" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C70" s="20">
+        <f>C68+C69</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="20">
+        <f t="shared" ref="D70:I70" si="36">D68+D69</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="20">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="20">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="20">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="20">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="20">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="28">
+        <f>SUM(C70:I70)</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="M70" s="20">
+        <f>M68+M69</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="20">
+        <f t="shared" ref="N70:S70" si="37">N68+N69</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="20">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="20">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="20">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="20">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="20">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="28">
+        <f>SUM(M70:S70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B71" s="29"/>
+      <c r="C71" s="30" t="e">
+        <f>C69/C70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D71" s="30" t="e">
+        <f t="shared" ref="D71:I71" si="38">D69/D70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E71" s="30" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F71" s="30" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G71" s="30" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H71" s="30" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I71" s="30" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J71" s="36"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="30" t="e">
+        <f>M69/M70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N71" s="30" t="e">
+        <f t="shared" ref="N71:S71" si="39">N69/N70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O71" s="30" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P71" s="30" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q71" s="30" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R71" s="30" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S71" s="30" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T71" s="36"/>
+    </row>
+    <row r="72" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B72">
+        <v>0.9</v>
+      </c>
+      <c r="C72">
+        <v>0.9</v>
+      </c>
+      <c r="D72">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20">
+      <c r="B73" s="24"/>
+      <c r="C73" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="J73" s="31"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="31"/>
+    </row>
+    <row r="74" spans="2:20">
+      <c r="B74" s="26"/>
+      <c r="C74" s="20">
+        <v>0</v>
+      </c>
+      <c r="D74" s="20">
+        <v>1</v>
+      </c>
+      <c r="E74" s="20">
+        <v>2</v>
+      </c>
+      <c r="F74" s="20">
+        <v>3</v>
+      </c>
+      <c r="G74" s="20">
+        <v>4</v>
+      </c>
+      <c r="H74" s="20">
+        <v>5</v>
+      </c>
+      <c r="I74" s="20">
+        <v>6</v>
+      </c>
+      <c r="J74" s="28"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="28"/>
+    </row>
+    <row r="75" spans="2:20">
+      <c r="B75" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="34">
+        <f>SUM(C75:I75)</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="27"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="34"/>
+    </row>
+    <row r="76" spans="2:20">
+      <c r="B76" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="34">
+        <f>SUM(C76:I76)</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="27"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="34"/>
+    </row>
+    <row r="77" spans="2:20">
+      <c r="B77" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="20">
+        <f>C75+C76</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="20">
+        <f t="shared" ref="D77:I77" si="40">D75+D76</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="28">
+        <f>SUM(C77:I77)</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="26"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="28"/>
+    </row>
+    <row r="78" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B78" s="29"/>
+      <c r="C78" s="30" t="e">
+        <f>C76/C77</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D78" s="30" t="e">
+        <f t="shared" ref="D78:I78" si="41">D76/D77</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E78" s="30" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F78" s="30" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G78" s="30" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H78" s="30" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I78" s="30" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J78" s="36"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="36"/>
+    </row>
+    <row r="81" spans="3:14">
+      <c r="D81" s="55">
+        <v>0</v>
+      </c>
+      <c r="E81" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="F81" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="G81" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="H81" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="I81" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="J81" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="K81" s="55">
+        <v>0.7</v>
+      </c>
+      <c r="L81" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="M81" s="55">
+        <v>0.9</v>
+      </c>
+      <c r="N81" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14">
+      <c r="C82" t="s">
+        <v>300</v>
+      </c>
+      <c r="D82" s="55">
+        <v>66</v>
+      </c>
+      <c r="E82" s="62">
+        <v>63</v>
+      </c>
+      <c r="F82" s="55">
+        <v>74</v>
+      </c>
+      <c r="G82" s="55">
+        <v>96</v>
+      </c>
+      <c r="H82" s="55">
+        <v>118</v>
+      </c>
+      <c r="I82" s="55">
+        <v>84</v>
+      </c>
+      <c r="J82" s="55">
+        <v>114</v>
+      </c>
+      <c r="K82" s="55">
+        <v>75</v>
+      </c>
+      <c r="L82" s="55">
+        <v>80</v>
+      </c>
+      <c r="M82" s="55">
+        <v>79</v>
+      </c>
+      <c r="N82" s="55">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="83" spans="3:14">
+      <c r="C83" t="s">
+        <v>301</v>
+      </c>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55">
+        <v>64</v>
+      </c>
+      <c r="F83" s="55">
+        <v>73</v>
+      </c>
+      <c r="G83" s="62">
+        <v>60</v>
+      </c>
+      <c r="H83" s="55">
+        <v>64</v>
+      </c>
+      <c r="I83" s="55">
+        <v>85</v>
+      </c>
+      <c r="J83" s="55">
+        <v>78</v>
+      </c>
+      <c r="K83" s="55">
+        <v>73</v>
+      </c>
+      <c r="L83" s="55">
+        <v>81</v>
+      </c>
+      <c r="M83" s="55">
+        <v>73</v>
+      </c>
+      <c r="N83" s="55">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14">
+      <c r="C84" t="s">
         <v>303</v>
       </c>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
+    </row>
+    <row r="85" spans="3:14">
+      <c r="C85" t="s">
+        <v>302</v>
+      </c>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/논문/20250324/새 Microsoft Excel 워크시트.xlsx
+++ b/논문/20250324/새 Microsoft Excel 워크시트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portfolio\논문\20250324\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8606851C-95D0-4BF3-9540-71EEB13BB198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EF1486-5BE2-41CE-A139-389389A490DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="-20510" windowWidth="25510" windowHeight="19530" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="322" windowWidth="19328" windowHeight="11866" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="310">
   <si>
     <t>4 0.602740 0.455446 0.365297 0.455446</t>
   </si>
@@ -1006,6 +1006,30 @@
   </si>
   <si>
     <t>1,3번 고정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0_0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0_0_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0.1_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>degrees</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flipud</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fliplr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1040,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,8 +1109,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1153,8 +1185,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1341,6 +1379,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1348,7 +1423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1459,6 +1534,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,10 +1561,15 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -3160,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68973864-0F46-4A02-99C8-DA7932EAF9E2}">
   <dimension ref="A1:AD145"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y74" sqref="Y74"/>
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC56" sqref="AC56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -3186,28 +3278,28 @@
       <c r="G1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="U1" s="59" t="s">
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="U1" s="67" t="s">
         <v>293</v>
       </c>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
     </row>
     <row r="2" spans="1:30" ht="17.25" thickBot="1">
       <c r="A2" t="s">
@@ -3222,28 +3314,28 @@
       <c r="G2" t="s">
         <v>169</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="U2" s="60" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="U2" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" t="s">
@@ -3686,25 +3778,25 @@
       <c r="G9" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
       <c r="AD9" s="47"/>
     </row>
     <row r="10" spans="1:30" s="20" customFormat="1">
@@ -3722,29 +3814,29 @@
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="66" t="s">
         <v>290</v>
       </c>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="58" t="s">
+      <c r="U10" s="66" t="s">
         <v>290</v>
       </c>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
       <c r="AD10" s="47"/>
     </row>
     <row r="11" spans="1:30">
@@ -4235,28 +4327,28 @@
         <f>COUNTIF(G:G,5)</f>
         <v>44</v>
       </c>
-      <c r="K17" s="58" t="s">
+      <c r="K17" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="U17" s="57" t="s">
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="U17" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" t="s">
@@ -4703,15 +4795,15 @@
       <c r="G24" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" t="s">
@@ -4737,29 +4829,29 @@
       <c r="G26" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="56" t="s">
+      <c r="K26" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
       <c r="T26" s="41"/>
-      <c r="U26" s="56" t="s">
+      <c r="U26" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
       <c r="AD26" s="48"/>
     </row>
     <row r="27" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1">
@@ -4769,29 +4861,29 @@
       <c r="G27" t="s">
         <v>165</v>
       </c>
-      <c r="K27" s="57" t="s">
+      <c r="K27" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
       <c r="T27" s="41"/>
-      <c r="U27" s="57" t="s">
+      <c r="U27" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
       <c r="AD27" s="48"/>
     </row>
     <row r="28" spans="1:30">
@@ -5232,24 +5324,24 @@
       <c r="G34" t="s">
         <v>167</v>
       </c>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="57"/>
-      <c r="AC34" s="57"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="65"/>
     </row>
     <row r="35" spans="1:30" ht="17.25" thickBot="1">
       <c r="A35" t="s">
@@ -5264,28 +5356,28 @@
       <c r="G35" t="s">
         <v>167</v>
       </c>
-      <c r="K35" s="57" t="s">
+      <c r="K35" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="U35" s="57" t="s">
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
+      <c r="U35" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57"/>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="57"/>
-      <c r="AB35" s="57"/>
-      <c r="AC35" s="57"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65"/>
+      <c r="Y35" s="65"/>
+      <c r="Z35" s="65"/>
+      <c r="AA35" s="65"/>
+      <c r="AB35" s="65"/>
+      <c r="AC35" s="65"/>
     </row>
     <row r="36" spans="1:30" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
@@ -5722,28 +5814,28 @@
       <c r="G42" t="s">
         <v>167</v>
       </c>
-      <c r="K42" s="57" t="s">
+      <c r="K42" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="57"/>
-      <c r="U42" s="57" t="s">
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="U42" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="V42" s="57"/>
-      <c r="W42" s="57"/>
-      <c r="X42" s="57"/>
-      <c r="Y42" s="57"/>
-      <c r="Z42" s="57"/>
-      <c r="AA42" s="57"/>
-      <c r="AB42" s="57"/>
-      <c r="AC42" s="57"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="65"/>
+      <c r="AB42" s="65"/>
+      <c r="AC42" s="65"/>
     </row>
     <row r="43" spans="1:30">
       <c r="A43" t="s">
@@ -6210,28 +6302,28 @@
       <c r="G51" t="s">
         <v>170</v>
       </c>
-      <c r="K51" s="56" t="s">
+      <c r="K51" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="U51" s="56" t="s">
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="S51" s="64"/>
+      <c r="U51" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="V51" s="56"/>
-      <c r="W51" s="56"/>
-      <c r="X51" s="56"/>
-      <c r="Y51" s="56"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="56"/>
-      <c r="AB51" s="56"/>
-      <c r="AC51" s="56"/>
+      <c r="V51" s="64"/>
+      <c r="W51" s="64"/>
+      <c r="X51" s="64"/>
+      <c r="Y51" s="64"/>
+      <c r="Z51" s="64"/>
+      <c r="AA51" s="64"/>
+      <c r="AB51" s="64"/>
+      <c r="AC51" s="64"/>
     </row>
     <row r="52" spans="1:30" ht="17.25" thickBot="1">
       <c r="A52" t="s">
@@ -6246,28 +6338,28 @@
       <c r="G52" t="s">
         <v>170</v>
       </c>
-      <c r="K52" s="57" t="s">
+      <c r="K52" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="U52" s="57" t="s">
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="65"/>
+      <c r="S52" s="65"/>
+      <c r="U52" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
-      <c r="Z52" s="57"/>
-      <c r="AA52" s="57"/>
-      <c r="AB52" s="57"/>
-      <c r="AC52" s="57"/>
+      <c r="V52" s="65"/>
+      <c r="W52" s="65"/>
+      <c r="X52" s="65"/>
+      <c r="Y52" s="65"/>
+      <c r="Z52" s="65"/>
+      <c r="AA52" s="65"/>
+      <c r="AB52" s="65"/>
+      <c r="AC52" s="65"/>
     </row>
     <row r="53" spans="1:30">
       <c r="A53" t="s">
@@ -6690,25 +6782,25 @@
       <c r="G59" t="s">
         <v>165</v>
       </c>
-      <c r="K59" s="57"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="57"/>
-      <c r="R59" s="57"/>
-      <c r="S59" s="57"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="65"/>
+      <c r="P59" s="65"/>
+      <c r="Q59" s="65"/>
+      <c r="R59" s="65"/>
+      <c r="S59" s="65"/>
       <c r="T59" s="41"/>
-      <c r="U59" s="57"/>
-      <c r="V59" s="57"/>
-      <c r="W59" s="57"/>
-      <c r="X59" s="57"/>
-      <c r="Y59" s="57"/>
-      <c r="Z59" s="57"/>
-      <c r="AA59" s="57"/>
-      <c r="AB59" s="57"/>
-      <c r="AC59" s="57"/>
+      <c r="U59" s="65"/>
+      <c r="V59" s="65"/>
+      <c r="W59" s="65"/>
+      <c r="X59" s="65"/>
+      <c r="Y59" s="65"/>
+      <c r="Z59" s="65"/>
+      <c r="AA59" s="65"/>
+      <c r="AB59" s="65"/>
+      <c r="AC59" s="65"/>
       <c r="AD59" s="49"/>
     </row>
     <row r="60" spans="1:30" s="1" customFormat="1" ht="17.25" thickBot="1">
@@ -6724,29 +6816,29 @@
       <c r="G60" t="s">
         <v>165</v>
       </c>
-      <c r="K60" s="57" t="s">
+      <c r="K60" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="65"/>
+      <c r="S60" s="65"/>
       <c r="T60" s="41"/>
-      <c r="U60" s="57" t="s">
+      <c r="U60" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="V60" s="57"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="57"/>
-      <c r="AA60" s="57"/>
-      <c r="AB60" s="57"/>
-      <c r="AC60" s="57"/>
+      <c r="V60" s="65"/>
+      <c r="W60" s="65"/>
+      <c r="X60" s="65"/>
+      <c r="Y60" s="65"/>
+      <c r="Z60" s="65"/>
+      <c r="AA60" s="65"/>
+      <c r="AB60" s="65"/>
+      <c r="AC60" s="65"/>
       <c r="AD60" s="48"/>
     </row>
     <row r="61" spans="1:30" s="1" customFormat="1">
@@ -7166,29 +7258,29 @@
       <c r="G67" t="s">
         <v>170</v>
       </c>
-      <c r="K67" s="57" t="s">
+      <c r="K67" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="L67" s="57"/>
-      <c r="M67" s="57"/>
-      <c r="N67" s="57"/>
-      <c r="O67" s="57"/>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="57"/>
-      <c r="R67" s="57"/>
-      <c r="S67" s="57"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="65"/>
+      <c r="N67" s="65"/>
+      <c r="O67" s="65"/>
+      <c r="P67" s="65"/>
+      <c r="Q67" s="65"/>
+      <c r="R67" s="65"/>
+      <c r="S67" s="65"/>
       <c r="T67" s="41"/>
-      <c r="U67" s="57" t="s">
+      <c r="U67" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="V67" s="57"/>
-      <c r="W67" s="57"/>
-      <c r="X67" s="57"/>
-      <c r="Y67" s="57"/>
-      <c r="Z67" s="57"/>
-      <c r="AA67" s="57"/>
-      <c r="AB67" s="57"/>
-      <c r="AC67" s="57"/>
+      <c r="V67" s="65"/>
+      <c r="W67" s="65"/>
+      <c r="X67" s="65"/>
+      <c r="Y67" s="65"/>
+      <c r="Z67" s="65"/>
+      <c r="AA67" s="65"/>
+      <c r="AB67" s="65"/>
+      <c r="AC67" s="65"/>
       <c r="AD67" s="50"/>
     </row>
     <row r="68" spans="1:30" s="17" customFormat="1">
@@ -9372,8 +9464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4702565-7A6E-4D99-B133-0C24801BA2A0}">
   <dimension ref="B2:T85"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M86" sqref="M86"/>
+    <sheetView topLeftCell="C70" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -11626,16 +11718,16 @@
       <c r="M45" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="N45" s="61" t="s">
+      <c r="N45" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="O45" s="61" t="s">
+      <c r="O45" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="P45" s="61" t="s">
+      <c r="P45" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="Q45" s="61" t="s">
+      <c r="Q45" s="56" t="s">
         <v>276</v>
       </c>
       <c r="R45" s="25" t="s">
@@ -13328,7 +13420,7 @@
       <c r="D82" s="55">
         <v>66</v>
       </c>
-      <c r="E82" s="62">
+      <c r="E82" s="57">
         <v>63</v>
       </c>
       <c r="F82" s="55">
@@ -13370,7 +13462,7 @@
       <c r="F83" s="55">
         <v>73</v>
       </c>
-      <c r="G83" s="62">
+      <c r="G83" s="57">
         <v>60</v>
       </c>
       <c r="H83" s="55">
@@ -13435,10 +13527,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37C049D-D7B6-433B-9FDE-E9B6A2B6BB57}">
-  <dimension ref="B2:T85"/>
+  <dimension ref="B2:AD91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -13447,7 +13539,7 @@
     <col min="3" max="3" width="9.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="17.25" thickBot="1">
+    <row r="2" spans="2:30" ht="17.25" thickBot="1">
       <c r="B2">
         <v>0</v>
       </c>
@@ -13455,19 +13547,28 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="2:20">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30">
       <c r="B3" s="24"/>
       <c r="C3" s="25" t="s">
         <v>272</v>
@@ -13514,8 +13615,31 @@
         <v>278</v>
       </c>
       <c r="T3" s="31"/>
-    </row>
-    <row r="4" spans="2:20">
+      <c r="V3" s="24"/>
+      <c r="W3" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="X3" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y3" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z3" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA3" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB3" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC3" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD3" s="31"/>
+    </row>
+    <row r="4" spans="2:30">
       <c r="B4" s="26"/>
       <c r="C4" s="20">
         <v>0</v>
@@ -13562,222 +13686,431 @@
         <v>6</v>
       </c>
       <c r="T4" s="28"/>
-    </row>
-    <row r="5" spans="2:20">
+      <c r="V4" s="26"/>
+      <c r="W4" s="20">
+        <v>0</v>
+      </c>
+      <c r="X4" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="20">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="20">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="20">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="28"/>
+    </row>
+    <row r="5" spans="2:30">
       <c r="B5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="C5" s="21">
+        <v>211</v>
+      </c>
+      <c r="D5" s="21">
+        <v>194</v>
+      </c>
+      <c r="E5" s="21">
+        <v>197</v>
+      </c>
+      <c r="F5" s="21">
+        <v>192</v>
+      </c>
+      <c r="G5" s="21">
+        <v>183</v>
+      </c>
+      <c r="H5" s="21">
+        <v>214</v>
+      </c>
+      <c r="I5" s="21">
+        <v>205</v>
+      </c>
       <c r="J5" s="34">
         <f>SUM(C5:I5)</f>
-        <v>0</v>
+        <v>1396</v>
       </c>
       <c r="L5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="M5" s="21">
+        <v>209</v>
+      </c>
+      <c r="N5" s="21">
+        <v>190</v>
+      </c>
+      <c r="O5" s="21">
+        <v>198</v>
+      </c>
+      <c r="P5" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>183</v>
+      </c>
+      <c r="R5" s="21">
+        <v>212</v>
+      </c>
+      <c r="S5" s="21">
+        <v>205</v>
+      </c>
       <c r="T5" s="34">
         <f>SUM(M5:S5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20">
+        <v>1389</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="21">
+        <v>210</v>
+      </c>
+      <c r="X5" s="21">
+        <v>193</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>194</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>192</v>
+      </c>
+      <c r="AA5" s="21">
+        <v>183</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>214</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>208</v>
+      </c>
+      <c r="AD5" s="34">
+        <f>SUM(W5:AC5)</f>
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30">
       <c r="B6" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="C6" s="22">
+        <v>8</v>
+      </c>
+      <c r="D6" s="22">
+        <v>8</v>
+      </c>
+      <c r="E6" s="22">
+        <v>6</v>
+      </c>
+      <c r="F6" s="22">
+        <v>7</v>
+      </c>
+      <c r="G6" s="22">
+        <v>10</v>
+      </c>
+      <c r="H6" s="22">
+        <v>10</v>
+      </c>
+      <c r="I6" s="22">
+        <v>13</v>
+      </c>
       <c r="J6" s="34">
         <f>SUM(C6:I6)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L6" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
+      <c r="M6" s="22">
+        <v>10</v>
+      </c>
+      <c r="N6" s="22">
+        <v>12</v>
+      </c>
+      <c r="O6" s="22">
+        <v>5</v>
+      </c>
+      <c r="P6" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>10</v>
+      </c>
+      <c r="R6" s="22">
+        <v>12</v>
+      </c>
+      <c r="S6" s="22">
+        <v>13</v>
+      </c>
       <c r="T6" s="34">
         <f>SUM(M6:S6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20">
+        <v>69</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="W6" s="22">
+        <v>9</v>
+      </c>
+      <c r="X6" s="22">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="22">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="22">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="34">
+        <f>SUM(W6:AC6)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30">
       <c r="B7" s="26" t="s">
         <v>279</v>
       </c>
       <c r="C7" s="20">
         <f>C5+C6</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D7" s="20">
         <f t="shared" ref="D7:I7" si="0">D5+D6</f>
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="F7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="G7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="H7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="J7" s="28">
         <f>SUM(C7:I7)</f>
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="L7" s="26" t="s">
         <v>279</v>
       </c>
       <c r="M7" s="20">
         <f>M5+M6</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="N7" s="20">
         <f t="shared" ref="N7:S7" si="1">N5+N6</f>
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="O7" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="P7" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="R7" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="S7" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="T7" s="28">
         <f>SUM(M7:S7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="17.25" thickBot="1">
+        <v>1458</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="W7" s="20">
+        <f>W5+W6</f>
+        <v>219</v>
+      </c>
+      <c r="X7" s="20">
+        <f t="shared" ref="X7:AC7" si="2">X5+X6</f>
+        <v>202</v>
+      </c>
+      <c r="Y7" s="20">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="Z7" s="20">
+        <f t="shared" si="2"/>
+        <v>199</v>
+      </c>
+      <c r="AA7" s="20">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="AB7" s="20">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="AC7" s="20">
+        <f t="shared" si="2"/>
+        <v>218</v>
+      </c>
+      <c r="AD7" s="28">
+        <f>SUM(W7:AC7)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" ht="17.25" thickBot="1">
       <c r="B8" s="29"/>
-      <c r="C8" s="30" t="e">
+      <c r="C8" s="30">
         <f>C6/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="30" t="e">
-        <f t="shared" ref="D8:I8" si="2">D6/D7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.6529680365296802E-2</v>
+      </c>
+      <c r="D8" s="30">
+        <f t="shared" ref="D8:I8" si="3">D6/D7</f>
+        <v>3.9603960396039604E-2</v>
+      </c>
+      <c r="E8" s="30">
+        <f t="shared" si="3"/>
+        <v>2.9556650246305417E-2</v>
+      </c>
+      <c r="F8" s="30">
+        <f t="shared" si="3"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G8" s="30">
+        <f t="shared" si="3"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H8" s="30">
+        <f t="shared" si="3"/>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="I8" s="30">
+        <f t="shared" si="3"/>
+        <v>5.9633027522935783E-2</v>
       </c>
       <c r="J8" s="36"/>
       <c r="L8" s="29"/>
-      <c r="M8" s="30" t="e">
+      <c r="M8" s="30">
         <f>M6/M7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="30" t="e">
-        <f t="shared" ref="N8:S8" si="3">N6/N7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="30" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="30" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="30" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R8" s="30" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S8" s="30" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="N8" s="30">
+        <f t="shared" ref="N8:S8" si="4">N6/N7</f>
+        <v>5.9405940594059403E-2</v>
+      </c>
+      <c r="O8" s="30">
+        <f t="shared" si="4"/>
+        <v>2.4630541871921183E-2</v>
+      </c>
+      <c r="P8" s="30">
+        <f t="shared" si="4"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q8" s="30">
+        <f t="shared" si="4"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R8" s="30">
+        <f t="shared" si="4"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="S8" s="30">
+        <f t="shared" si="4"/>
+        <v>5.9633027522935783E-2</v>
       </c>
       <c r="T8" s="36"/>
-    </row>
-    <row r="9" spans="2:20" ht="17.25" thickBot="1">
+      <c r="V8" s="29"/>
+      <c r="W8" s="30">
+        <f>W6/W7</f>
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="X8" s="30">
+        <f t="shared" ref="X8:AC8" si="5">X6/X7</f>
+        <v>4.4554455445544552E-2</v>
+      </c>
+      <c r="Y8" s="30">
+        <f t="shared" si="5"/>
+        <v>4.4334975369458129E-2</v>
+      </c>
+      <c r="Z8" s="30">
+        <f t="shared" si="5"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="AA8" s="30">
+        <f t="shared" si="5"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="AB8" s="30">
+        <f t="shared" si="5"/>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AC8" s="30">
+        <f t="shared" si="5"/>
+        <v>4.5871559633027525E-2</v>
+      </c>
+      <c r="AD8" s="36"/>
+    </row>
+    <row r="9" spans="2:30" ht="17.25" thickBot="1">
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="2:20">
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30">
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
         <v>272</v>
@@ -13824,8 +14157,31 @@
         <v>278</v>
       </c>
       <c r="T10" s="31"/>
-    </row>
-    <row r="11" spans="2:20">
+      <c r="V10" s="24"/>
+      <c r="W10" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="X10" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y10" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z10" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA10" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB10" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC10" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD10" s="31"/>
+    </row>
+    <row r="11" spans="2:30">
       <c r="B11" s="26"/>
       <c r="C11" s="20">
         <v>0</v>
@@ -13872,222 +14228,431 @@
         <v>6</v>
       </c>
       <c r="T11" s="28"/>
-    </row>
-    <row r="12" spans="2:20">
+      <c r="V11" s="26"/>
+      <c r="W11" s="20">
+        <v>0</v>
+      </c>
+      <c r="X11" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="20">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="20">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="28"/>
+    </row>
+    <row r="12" spans="2:30">
       <c r="B12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="C12" s="21">
+        <v>211</v>
+      </c>
+      <c r="D12" s="21">
+        <v>188</v>
+      </c>
+      <c r="E12" s="21">
+        <v>200</v>
+      </c>
+      <c r="F12" s="21">
+        <v>192</v>
+      </c>
+      <c r="G12" s="21">
+        <v>183</v>
+      </c>
+      <c r="H12" s="21">
+        <v>218</v>
+      </c>
+      <c r="I12" s="21">
+        <v>208</v>
+      </c>
       <c r="J12" s="34">
         <f>SUM(C12:I12)</f>
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="L12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
+      <c r="M12" s="21">
+        <v>209</v>
+      </c>
+      <c r="N12" s="21">
+        <v>192</v>
+      </c>
+      <c r="O12" s="21">
+        <v>195</v>
+      </c>
+      <c r="P12" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>183</v>
+      </c>
+      <c r="R12" s="21">
+        <v>216</v>
+      </c>
+      <c r="S12" s="21">
+        <v>207</v>
+      </c>
       <c r="T12" s="34">
         <f>SUM(M12:S12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20">
+        <v>1394</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="21">
+        <v>210</v>
+      </c>
+      <c r="X12" s="21">
+        <v>188</v>
+      </c>
+      <c r="Y12" s="21">
+        <v>195</v>
+      </c>
+      <c r="Z12" s="21">
+        <v>192</v>
+      </c>
+      <c r="AA12" s="21">
+        <v>183</v>
+      </c>
+      <c r="AB12" s="21">
+        <v>215</v>
+      </c>
+      <c r="AC12" s="21">
+        <v>207</v>
+      </c>
+      <c r="AD12" s="34">
+        <f>SUM(W12:AC12)</f>
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30">
       <c r="B13" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="C13" s="22">
+        <v>8</v>
+      </c>
+      <c r="D13" s="22">
+        <v>14</v>
+      </c>
+      <c r="E13" s="22">
+        <v>3</v>
+      </c>
+      <c r="F13" s="22">
+        <v>7</v>
+      </c>
+      <c r="G13" s="22">
+        <v>10</v>
+      </c>
+      <c r="H13" s="22">
+        <v>6</v>
+      </c>
+      <c r="I13" s="22">
+        <v>10</v>
+      </c>
       <c r="J13" s="34">
         <f>SUM(C13:I13)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="L13" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
+      <c r="M13" s="22">
+        <v>10</v>
+      </c>
+      <c r="N13" s="22">
+        <v>10</v>
+      </c>
+      <c r="O13" s="22">
+        <v>8</v>
+      </c>
+      <c r="P13" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>10</v>
+      </c>
+      <c r="R13" s="22">
+        <v>8</v>
+      </c>
+      <c r="S13" s="22">
+        <v>11</v>
+      </c>
       <c r="T13" s="34">
         <f>SUM(M13:S13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20">
+        <v>64</v>
+      </c>
+      <c r="V13" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="W13" s="22">
+        <v>9</v>
+      </c>
+      <c r="X13" s="22">
+        <v>14</v>
+      </c>
+      <c r="Y13" s="22">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="22">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="22">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="22">
+        <v>11</v>
+      </c>
+      <c r="AD13" s="34">
+        <f>SUM(W13:AC13)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30">
       <c r="B14" s="26" t="s">
         <v>279</v>
       </c>
       <c r="C14" s="20">
         <f>C12+C13</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D14" s="20">
-        <f t="shared" ref="D14:I14" si="4">D12+D13</f>
-        <v>0</v>
+        <f t="shared" ref="D14:I14" si="6">D12+D13</f>
+        <v>202</v>
       </c>
       <c r="E14" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>203</v>
       </c>
       <c r="F14" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>199</v>
       </c>
       <c r="G14" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>193</v>
       </c>
       <c r="H14" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>224</v>
       </c>
       <c r="I14" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>218</v>
       </c>
       <c r="J14" s="28">
         <f>SUM(C14:I14)</f>
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="L14" s="26" t="s">
         <v>279</v>
       </c>
       <c r="M14" s="20">
         <f>M12+M13</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="N14" s="20">
-        <f t="shared" ref="N14:S14" si="5">N12+N13</f>
-        <v>0</v>
+        <f t="shared" ref="N14:S14" si="7">N12+N13</f>
+        <v>202</v>
       </c>
       <c r="O14" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>203</v>
       </c>
       <c r="P14" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>199</v>
       </c>
       <c r="Q14" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>193</v>
       </c>
       <c r="R14" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>224</v>
       </c>
       <c r="S14" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>218</v>
       </c>
       <c r="T14" s="28">
         <f>SUM(M14:S14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" ht="17.25" thickBot="1">
+        <v>1458</v>
+      </c>
+      <c r="V14" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="W14" s="20">
+        <f>W12+W13</f>
+        <v>219</v>
+      </c>
+      <c r="X14" s="20">
+        <f t="shared" ref="X14:AC14" si="8">X12+X13</f>
+        <v>202</v>
+      </c>
+      <c r="Y14" s="20">
+        <f t="shared" si="8"/>
+        <v>203</v>
+      </c>
+      <c r="Z14" s="20">
+        <f t="shared" si="8"/>
+        <v>199</v>
+      </c>
+      <c r="AA14" s="20">
+        <f t="shared" si="8"/>
+        <v>193</v>
+      </c>
+      <c r="AB14" s="20">
+        <f t="shared" si="8"/>
+        <v>224</v>
+      </c>
+      <c r="AC14" s="20">
+        <f t="shared" si="8"/>
+        <v>218</v>
+      </c>
+      <c r="AD14" s="28">
+        <f>SUM(W14:AC14)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" ht="17.25" thickBot="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="30" t="e">
+      <c r="C15" s="30">
         <f>C13/C14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="30" t="e">
-        <f t="shared" ref="D15:I15" si="6">D13/D14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="30" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="30" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="30" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="30" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="30" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>3.6529680365296802E-2</v>
+      </c>
+      <c r="D15" s="30">
+        <f t="shared" ref="D15:I15" si="9">D13/D14</f>
+        <v>6.9306930693069313E-2</v>
+      </c>
+      <c r="E15" s="30">
+        <f t="shared" si="9"/>
+        <v>1.4778325123152709E-2</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" si="9"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G15" s="30">
+        <f t="shared" si="9"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H15" s="30">
+        <f t="shared" si="9"/>
+        <v>2.6785714285714284E-2</v>
+      </c>
+      <c r="I15" s="30">
+        <f t="shared" si="9"/>
+        <v>4.5871559633027525E-2</v>
       </c>
       <c r="J15" s="36"/>
       <c r="L15" s="29"/>
-      <c r="M15" s="30" t="e">
+      <c r="M15" s="30">
         <f>M13/M14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="30" t="e">
-        <f t="shared" ref="N15:S15" si="7">N13/N14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" s="30" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P15" s="30" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q15" s="30" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R15" s="30" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S15" s="30" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="N15" s="30">
+        <f t="shared" ref="N15:S15" si="10">N13/N14</f>
+        <v>4.9504950495049507E-2</v>
+      </c>
+      <c r="O15" s="30">
+        <f t="shared" si="10"/>
+        <v>3.9408866995073892E-2</v>
+      </c>
+      <c r="P15" s="30">
+        <f t="shared" si="10"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q15" s="30">
+        <f t="shared" si="10"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R15" s="30">
+        <f t="shared" si="10"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="S15" s="30">
+        <f t="shared" si="10"/>
+        <v>5.0458715596330278E-2</v>
       </c>
       <c r="T15" s="36"/>
-    </row>
-    <row r="16" spans="2:20" ht="17.25" thickBot="1">
+      <c r="V15" s="29"/>
+      <c r="W15" s="30">
+        <f>W13/W14</f>
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="X15" s="30">
+        <f t="shared" ref="X15:AC15" si="11">X13/X14</f>
+        <v>6.9306930693069313E-2</v>
+      </c>
+      <c r="Y15" s="30">
+        <f t="shared" si="11"/>
+        <v>3.9408866995073892E-2</v>
+      </c>
+      <c r="Z15" s="30">
+        <f t="shared" si="11"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="AA15" s="30">
+        <f t="shared" si="11"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="AB15" s="30">
+        <f t="shared" si="11"/>
+        <v>4.0178571428571432E-2</v>
+      </c>
+      <c r="AC15" s="30">
+        <f t="shared" si="11"/>
+        <v>5.0458715596330278E-2</v>
+      </c>
+      <c r="AD15" s="36"/>
+    </row>
+    <row r="16" spans="2:30" ht="17.25" thickBot="1">
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="17" spans="2:20">
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30">
       <c r="B17" s="24"/>
       <c r="C17" s="25" t="s">
         <v>272</v>
@@ -14134,8 +14699,31 @@
         <v>278</v>
       </c>
       <c r="T17" s="31"/>
-    </row>
-    <row r="18" spans="2:20">
+      <c r="V17" s="24"/>
+      <c r="W17" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="X17" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y17" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z17" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA17" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB17" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC17" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD17" s="31"/>
+    </row>
+    <row r="18" spans="2:30">
       <c r="B18" s="26"/>
       <c r="C18" s="20">
         <v>0</v>
@@ -14182,222 +14770,431 @@
         <v>6</v>
       </c>
       <c r="T18" s="28"/>
-    </row>
-    <row r="19" spans="2:20">
+      <c r="V18" s="26"/>
+      <c r="W18" s="20">
+        <v>0</v>
+      </c>
+      <c r="X18" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="20">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="20">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="20">
+        <v>6</v>
+      </c>
+      <c r="AD18" s="28"/>
+    </row>
+    <row r="19" spans="2:30">
       <c r="B19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="C19" s="21">
+        <v>209</v>
+      </c>
+      <c r="D19" s="21">
+        <v>192</v>
+      </c>
+      <c r="E19" s="21">
+        <v>197</v>
+      </c>
+      <c r="F19" s="21">
+        <v>192</v>
+      </c>
+      <c r="G19" s="21">
+        <v>183</v>
+      </c>
+      <c r="H19" s="21">
+        <v>217</v>
+      </c>
+      <c r="I19" s="21">
+        <v>204</v>
+      </c>
       <c r="J19" s="34">
         <f>SUM(C19:I19)</f>
-        <v>0</v>
+        <v>1394</v>
       </c>
       <c r="L19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
+      <c r="M19" s="21">
+        <v>209</v>
+      </c>
+      <c r="N19" s="21">
+        <v>189</v>
+      </c>
+      <c r="O19" s="21">
+        <v>197</v>
+      </c>
+      <c r="P19" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>183</v>
+      </c>
+      <c r="R19" s="21">
+        <v>215</v>
+      </c>
+      <c r="S19" s="21">
+        <v>209</v>
+      </c>
       <c r="T19" s="34">
         <f>SUM(M19:S19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20">
+        <v>1394</v>
+      </c>
+      <c r="V19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="W19" s="21">
+        <v>208</v>
+      </c>
+      <c r="X19" s="21">
+        <v>188</v>
+      </c>
+      <c r="Y19" s="21">
+        <v>197</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>192</v>
+      </c>
+      <c r="AA19" s="21">
+        <v>183</v>
+      </c>
+      <c r="AB19" s="21">
+        <v>216</v>
+      </c>
+      <c r="AC19" s="21">
+        <v>209</v>
+      </c>
+      <c r="AD19" s="34">
+        <f>SUM(W19:AC19)</f>
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30">
       <c r="B20" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="C20" s="22">
+        <v>10</v>
+      </c>
+      <c r="D20" s="22">
+        <v>10</v>
+      </c>
+      <c r="E20" s="22">
+        <v>6</v>
+      </c>
+      <c r="F20" s="22">
+        <v>7</v>
+      </c>
+      <c r="G20" s="22">
+        <v>10</v>
+      </c>
+      <c r="H20" s="22">
+        <v>7</v>
+      </c>
+      <c r="I20" s="22">
+        <v>14</v>
+      </c>
       <c r="J20" s="34">
         <f>SUM(C20:I20)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L20" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
+      <c r="M20" s="22">
+        <v>10</v>
+      </c>
+      <c r="N20" s="22">
+        <v>13</v>
+      </c>
+      <c r="O20" s="22">
+        <v>6</v>
+      </c>
+      <c r="P20" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>10</v>
+      </c>
+      <c r="R20" s="22">
+        <v>9</v>
+      </c>
+      <c r="S20" s="22">
+        <v>9</v>
+      </c>
       <c r="T20" s="34">
         <f>SUM(M20:S20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20">
+        <v>64</v>
+      </c>
+      <c r="V20" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="W20" s="22">
+        <v>11</v>
+      </c>
+      <c r="X20" s="22">
+        <v>14</v>
+      </c>
+      <c r="Y20" s="22">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="22">
+        <v>7</v>
+      </c>
+      <c r="AA20" s="22">
+        <v>10</v>
+      </c>
+      <c r="AB20" s="22">
+        <v>8</v>
+      </c>
+      <c r="AC20" s="22">
+        <v>9</v>
+      </c>
+      <c r="AD20" s="34">
+        <f>SUM(W20:AC20)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30">
       <c r="B21" s="26" t="s">
         <v>279</v>
       </c>
       <c r="C21" s="20">
         <f>C19+C20</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D21" s="20">
-        <f t="shared" ref="D21:I21" si="8">D19+D20</f>
-        <v>0</v>
+        <f t="shared" ref="D21:I21" si="12">D19+D20</f>
+        <v>202</v>
       </c>
       <c r="E21" s="20">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>203</v>
       </c>
       <c r="F21" s="20">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>199</v>
       </c>
       <c r="G21" s="20">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>193</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>224</v>
       </c>
       <c r="I21" s="20">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>218</v>
       </c>
       <c r="J21" s="28">
         <f>SUM(C21:I21)</f>
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="L21" s="26" t="s">
         <v>279</v>
       </c>
       <c r="M21" s="20">
         <f>M19+M20</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="N21" s="20">
-        <f t="shared" ref="N21:S21" si="9">N19+N20</f>
-        <v>0</v>
+        <f t="shared" ref="N21:S21" si="13">N19+N20</f>
+        <v>202</v>
       </c>
       <c r="O21" s="20">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>203</v>
       </c>
       <c r="P21" s="20">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>199</v>
       </c>
       <c r="Q21" s="20">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>193</v>
       </c>
       <c r="R21" s="20">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>224</v>
       </c>
       <c r="S21" s="20">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>218</v>
       </c>
       <c r="T21" s="28">
         <f>SUM(M21:S21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" ht="17.25" thickBot="1">
+        <v>1458</v>
+      </c>
+      <c r="V21" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="W21" s="20">
+        <f>W19+W20</f>
+        <v>219</v>
+      </c>
+      <c r="X21" s="20">
+        <f t="shared" ref="X21:AC21" si="14">X19+X20</f>
+        <v>202</v>
+      </c>
+      <c r="Y21" s="20">
+        <f t="shared" si="14"/>
+        <v>203</v>
+      </c>
+      <c r="Z21" s="20">
+        <f t="shared" si="14"/>
+        <v>199</v>
+      </c>
+      <c r="AA21" s="20">
+        <f t="shared" si="14"/>
+        <v>193</v>
+      </c>
+      <c r="AB21" s="20">
+        <f t="shared" si="14"/>
+        <v>224</v>
+      </c>
+      <c r="AC21" s="20">
+        <f t="shared" si="14"/>
+        <v>218</v>
+      </c>
+      <c r="AD21" s="28">
+        <f>SUM(W21:AC21)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" ht="17.25" thickBot="1">
       <c r="B22" s="29"/>
-      <c r="C22" s="30" t="e">
+      <c r="C22" s="30">
         <f>C20/C21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="30" t="e">
-        <f t="shared" ref="D22:I22" si="10">D20/D21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="30" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="30" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="30" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="30" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="30" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="D22" s="30">
+        <f t="shared" ref="D22:I22" si="15">D20/D21</f>
+        <v>4.9504950495049507E-2</v>
+      </c>
+      <c r="E22" s="30">
+        <f t="shared" si="15"/>
+        <v>2.9556650246305417E-2</v>
+      </c>
+      <c r="F22" s="30">
+        <f t="shared" si="15"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G22" s="30">
+        <f t="shared" si="15"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H22" s="30">
+        <f t="shared" si="15"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I22" s="30">
+        <f t="shared" si="15"/>
+        <v>6.4220183486238536E-2</v>
       </c>
       <c r="J22" s="36"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="30" t="e">
+      <c r="M22" s="30">
         <f>M20/M21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="30" t="e">
-        <f t="shared" ref="N22:S22" si="11">N20/N21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="30" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" s="30" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q22" s="30" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R22" s="30" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="30" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="N22" s="30">
+        <f t="shared" ref="N22:S22" si="16">N20/N21</f>
+        <v>6.4356435643564358E-2</v>
+      </c>
+      <c r="O22" s="30">
+        <f t="shared" si="16"/>
+        <v>2.9556650246305417E-2</v>
+      </c>
+      <c r="P22" s="30">
+        <f t="shared" si="16"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q22" s="30">
+        <f t="shared" si="16"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R22" s="30">
+        <f t="shared" si="16"/>
+        <v>4.0178571428571432E-2</v>
+      </c>
+      <c r="S22" s="30">
+        <f t="shared" si="16"/>
+        <v>4.1284403669724773E-2</v>
       </c>
       <c r="T22" s="36"/>
-    </row>
-    <row r="23" spans="2:20" ht="17.25" thickBot="1">
+      <c r="V22" s="29"/>
+      <c r="W22" s="30">
+        <f>W20/W21</f>
+        <v>5.0228310502283102E-2</v>
+      </c>
+      <c r="X22" s="30">
+        <f t="shared" ref="X22:AC22" si="17">X20/X21</f>
+        <v>6.9306930693069313E-2</v>
+      </c>
+      <c r="Y22" s="30">
+        <f t="shared" si="17"/>
+        <v>2.9556650246305417E-2</v>
+      </c>
+      <c r="Z22" s="30">
+        <f t="shared" si="17"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="AA22" s="30">
+        <f t="shared" si="17"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="AB22" s="30">
+        <f t="shared" si="17"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="AC22" s="30">
+        <f t="shared" si="17"/>
+        <v>4.1284403669724773E-2</v>
+      </c>
+      <c r="AD22" s="36"/>
+    </row>
+    <row r="23" spans="2:30" ht="17.25" thickBot="1">
       <c r="B23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="24" spans="2:20">
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30">
       <c r="B24" s="24"/>
       <c r="C24" s="25" t="s">
         <v>272</v>
@@ -14444,8 +15241,31 @@
         <v>278</v>
       </c>
       <c r="T24" s="31"/>
-    </row>
-    <row r="25" spans="2:20">
+      <c r="V24" s="24"/>
+      <c r="W24" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="X24" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y24" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z24" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA24" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB24" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC24" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD24" s="31"/>
+    </row>
+    <row r="25" spans="2:30">
       <c r="B25" s="26"/>
       <c r="C25" s="20">
         <v>0</v>
@@ -14492,222 +15312,431 @@
         <v>6</v>
       </c>
       <c r="T25" s="28"/>
-    </row>
-    <row r="26" spans="2:20">
+      <c r="V25" s="26"/>
+      <c r="W25" s="20">
+        <v>0</v>
+      </c>
+      <c r="X25" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="20">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA25" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB25" s="20">
+        <v>5</v>
+      </c>
+      <c r="AC25" s="20">
+        <v>6</v>
+      </c>
+      <c r="AD25" s="28"/>
+    </row>
+    <row r="26" spans="2:30">
       <c r="B26" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="C26" s="21">
+        <v>212</v>
+      </c>
+      <c r="D26" s="21">
+        <v>189</v>
+      </c>
+      <c r="E26" s="21">
+        <v>197</v>
+      </c>
+      <c r="F26" s="21">
+        <v>192</v>
+      </c>
+      <c r="G26" s="21">
+        <v>183</v>
+      </c>
+      <c r="H26" s="21">
+        <v>217</v>
+      </c>
+      <c r="I26" s="21">
+        <v>205</v>
+      </c>
       <c r="J26" s="34">
         <f>SUM(C26:I26)</f>
-        <v>0</v>
+        <v>1395</v>
       </c>
       <c r="L26" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
+      <c r="M26" s="21">
+        <v>209</v>
+      </c>
+      <c r="N26" s="21">
+        <v>193</v>
+      </c>
+      <c r="O26" s="21">
+        <v>196</v>
+      </c>
+      <c r="P26" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>183</v>
+      </c>
+      <c r="R26" s="21">
+        <v>216</v>
+      </c>
+      <c r="S26" s="21">
+        <v>205</v>
+      </c>
       <c r="T26" s="34">
         <f>SUM(M26:S26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20">
+        <v>1394</v>
+      </c>
+      <c r="V26" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="W26" s="21">
+        <v>210</v>
+      </c>
+      <c r="X26" s="21">
+        <v>189</v>
+      </c>
+      <c r="Y26" s="21">
+        <v>196</v>
+      </c>
+      <c r="Z26" s="21">
+        <v>192</v>
+      </c>
+      <c r="AA26" s="21">
+        <v>183</v>
+      </c>
+      <c r="AB26" s="21">
+        <v>213</v>
+      </c>
+      <c r="AC26" s="21">
+        <v>211</v>
+      </c>
+      <c r="AD26" s="34">
+        <f>SUM(W26:AC26)</f>
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30">
       <c r="B27" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
+      <c r="C27" s="22">
+        <v>7</v>
+      </c>
+      <c r="D27" s="22">
+        <v>13</v>
+      </c>
+      <c r="E27" s="22">
+        <v>6</v>
+      </c>
+      <c r="F27" s="22">
+        <v>7</v>
+      </c>
+      <c r="G27" s="22">
+        <v>10</v>
+      </c>
+      <c r="H27" s="22">
+        <v>7</v>
+      </c>
+      <c r="I27" s="22">
+        <v>13</v>
+      </c>
       <c r="J27" s="34">
         <f>SUM(C27:I27)</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L27" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
+      <c r="M27" s="22">
+        <v>10</v>
+      </c>
+      <c r="N27" s="22">
+        <v>9</v>
+      </c>
+      <c r="O27" s="22">
+        <v>7</v>
+      </c>
+      <c r="P27" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>10</v>
+      </c>
+      <c r="R27" s="22">
+        <v>8</v>
+      </c>
+      <c r="S27" s="22">
+        <v>13</v>
+      </c>
       <c r="T27" s="34">
         <f>SUM(M27:S27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20">
+        <v>64</v>
+      </c>
+      <c r="V27" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="W27" s="22">
+        <v>9</v>
+      </c>
+      <c r="X27" s="22">
+        <v>13</v>
+      </c>
+      <c r="Y27" s="22">
+        <v>7</v>
+      </c>
+      <c r="Z27" s="22">
+        <v>7</v>
+      </c>
+      <c r="AA27" s="22">
+        <v>10</v>
+      </c>
+      <c r="AB27" s="22">
+        <v>11</v>
+      </c>
+      <c r="AC27" s="22">
+        <v>7</v>
+      </c>
+      <c r="AD27" s="34">
+        <f>SUM(W27:AC27)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30">
       <c r="B28" s="26" t="s">
         <v>279</v>
       </c>
       <c r="C28" s="20">
         <f>C26+C27</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D28" s="20">
-        <f t="shared" ref="D28:I28" si="12">D26+D27</f>
-        <v>0</v>
+        <f t="shared" ref="D28:I28" si="18">D26+D27</f>
+        <v>202</v>
       </c>
       <c r="E28" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>203</v>
       </c>
       <c r="F28" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>199</v>
       </c>
       <c r="G28" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>193</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>224</v>
       </c>
       <c r="I28" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>218</v>
       </c>
       <c r="J28" s="28">
         <f>SUM(C28:I28)</f>
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="L28" s="26" t="s">
         <v>279</v>
       </c>
       <c r="M28" s="20">
         <f>M26+M27</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="N28" s="20">
-        <f t="shared" ref="N28:S28" si="13">N26+N27</f>
-        <v>0</v>
+        <f t="shared" ref="N28:S28" si="19">N26+N27</f>
+        <v>202</v>
       </c>
       <c r="O28" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>203</v>
       </c>
       <c r="P28" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>199</v>
       </c>
       <c r="Q28" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>193</v>
       </c>
       <c r="R28" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>224</v>
       </c>
       <c r="S28" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>218</v>
       </c>
       <c r="T28" s="28">
         <f>SUM(M28:S28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" ht="17.25" thickBot="1">
+        <v>1458</v>
+      </c>
+      <c r="V28" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="W28" s="20">
+        <f>W26+W27</f>
+        <v>219</v>
+      </c>
+      <c r="X28" s="20">
+        <f t="shared" ref="X28:AC28" si="20">X26+X27</f>
+        <v>202</v>
+      </c>
+      <c r="Y28" s="20">
+        <f t="shared" si="20"/>
+        <v>203</v>
+      </c>
+      <c r="Z28" s="20">
+        <f t="shared" si="20"/>
+        <v>199</v>
+      </c>
+      <c r="AA28" s="20">
+        <f t="shared" si="20"/>
+        <v>193</v>
+      </c>
+      <c r="AB28" s="20">
+        <f t="shared" si="20"/>
+        <v>224</v>
+      </c>
+      <c r="AC28" s="20">
+        <f t="shared" si="20"/>
+        <v>218</v>
+      </c>
+      <c r="AD28" s="28">
+        <f>SUM(W28:AC28)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" ht="17.25" thickBot="1">
       <c r="B29" s="29"/>
-      <c r="C29" s="30" t="e">
+      <c r="C29" s="30">
         <f>C27/C28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="30" t="e">
-        <f t="shared" ref="D29:I29" si="14">D27/D28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="30" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="30" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="30" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="30" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="30" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>3.1963470319634701E-2</v>
+      </c>
+      <c r="D29" s="30">
+        <f t="shared" ref="D29:I29" si="21">D27/D28</f>
+        <v>6.4356435643564358E-2</v>
+      </c>
+      <c r="E29" s="30">
+        <f t="shared" si="21"/>
+        <v>2.9556650246305417E-2</v>
+      </c>
+      <c r="F29" s="30">
+        <f t="shared" si="21"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G29" s="30">
+        <f t="shared" si="21"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H29" s="30">
+        <f t="shared" si="21"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I29" s="30">
+        <f t="shared" si="21"/>
+        <v>5.9633027522935783E-2</v>
       </c>
       <c r="J29" s="36"/>
       <c r="L29" s="29"/>
-      <c r="M29" s="30" t="e">
+      <c r="M29" s="30">
         <f>M27/M28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="30" t="e">
-        <f t="shared" ref="N29:S29" si="15">N27/N28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="30" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P29" s="30" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="30" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="30" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="30" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="N29" s="30">
+        <f t="shared" ref="N29:S29" si="22">N27/N28</f>
+        <v>4.4554455445544552E-2</v>
+      </c>
+      <c r="O29" s="30">
+        <f t="shared" si="22"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="P29" s="30">
+        <f t="shared" si="22"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q29" s="30">
+        <f t="shared" si="22"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R29" s="30">
+        <f t="shared" si="22"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="S29" s="30">
+        <f t="shared" si="22"/>
+        <v>5.9633027522935783E-2</v>
       </c>
       <c r="T29" s="36"/>
-    </row>
-    <row r="30" spans="2:20" ht="17.25" thickBot="1">
+      <c r="V29" s="29"/>
+      <c r="W29" s="30">
+        <f>W27/W28</f>
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="X29" s="30">
+        <f t="shared" ref="X29:AC29" si="23">X27/X28</f>
+        <v>6.4356435643564358E-2</v>
+      </c>
+      <c r="Y29" s="30">
+        <f t="shared" si="23"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="Z29" s="30">
+        <f t="shared" si="23"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="AA29" s="30">
+        <f t="shared" si="23"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="AB29" s="30">
+        <f t="shared" si="23"/>
+        <v>4.9107142857142856E-2</v>
+      </c>
+      <c r="AC29" s="30">
+        <f t="shared" si="23"/>
+        <v>3.2110091743119268E-2</v>
+      </c>
+      <c r="AD29" s="36"/>
+    </row>
+    <row r="30" spans="2:30" ht="17.25" thickBot="1">
       <c r="B30">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="2:20">
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30">
       <c r="B31" s="24"/>
       <c r="C31" s="25" t="s">
         <v>272</v>
@@ -14754,8 +15783,31 @@
         <v>278</v>
       </c>
       <c r="T31" s="31"/>
-    </row>
-    <row r="32" spans="2:20">
+      <c r="V31" s="24"/>
+      <c r="W31" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="X31" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y31" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z31" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA31" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB31" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC31" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD31" s="31"/>
+    </row>
+    <row r="32" spans="2:30">
       <c r="B32" s="26"/>
       <c r="C32" s="20">
         <v>0</v>
@@ -14802,222 +15854,430 @@
         <v>6</v>
       </c>
       <c r="T32" s="28"/>
-    </row>
-    <row r="33" spans="2:20">
+      <c r="V32" s="26"/>
+      <c r="W32" s="20">
+        <v>0</v>
+      </c>
+      <c r="X32" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="20">
+        <v>2</v>
+      </c>
+      <c r="Z32" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB32" s="20">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="20">
+        <v>6</v>
+      </c>
+      <c r="AD32" s="28"/>
+    </row>
+    <row r="33" spans="2:30">
       <c r="B33" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="C33" s="21">
+        <v>210</v>
+      </c>
+      <c r="D33" s="21">
+        <v>190</v>
+      </c>
+      <c r="E33" s="21">
+        <v>197</v>
+      </c>
+      <c r="F33" s="21">
+        <v>192</v>
+      </c>
+      <c r="G33" s="21">
+        <v>183</v>
+      </c>
+      <c r="H33" s="21">
+        <v>216</v>
+      </c>
+      <c r="I33" s="21">
+        <v>208</v>
+      </c>
       <c r="J33" s="34">
         <f>SUM(C33:I33)</f>
-        <v>0</v>
+        <v>1396</v>
       </c>
       <c r="L33" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
+      <c r="M33" s="21">
+        <v>209</v>
+      </c>
+      <c r="N33" s="21">
+        <v>190</v>
+      </c>
+      <c r="O33" s="21">
+        <v>198</v>
+      </c>
+      <c r="P33" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>183</v>
+      </c>
+      <c r="R33" s="21">
+        <v>215</v>
+      </c>
+      <c r="S33" s="21">
+        <v>205</v>
+      </c>
       <c r="T33" s="34">
         <f>SUM(M33:S33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20">
+        <v>1392</v>
+      </c>
+      <c r="V33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="W33" s="21">
+        <v>210</v>
+      </c>
+      <c r="X33" s="21">
+        <v>192</v>
+      </c>
+      <c r="Y33" s="21">
+        <v>196</v>
+      </c>
+      <c r="Z33" s="21">
+        <v>192</v>
+      </c>
+      <c r="AA33" s="21">
+        <v>183</v>
+      </c>
+      <c r="AB33" s="21">
+        <v>217</v>
+      </c>
+      <c r="AC33" s="21">
+        <v>207</v>
+      </c>
+      <c r="AD33" s="34">
+        <f>SUM(W33:AC33)</f>
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30">
       <c r="B34" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
+      <c r="C34" s="22">
+        <v>9</v>
+      </c>
+      <c r="D34" s="22">
+        <v>12</v>
+      </c>
+      <c r="E34" s="22">
+        <v>6</v>
+      </c>
+      <c r="F34" s="22">
+        <v>7</v>
+      </c>
+      <c r="G34" s="22">
+        <v>10</v>
+      </c>
+      <c r="H34" s="22">
+        <v>8</v>
+      </c>
+      <c r="I34" s="22">
+        <v>10</v>
+      </c>
       <c r="J34" s="34">
         <f>SUM(C34:I34)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L34" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
+      <c r="M34" s="22">
+        <v>10</v>
+      </c>
+      <c r="N34" s="22">
+        <v>12</v>
+      </c>
+      <c r="O34" s="22">
+        <v>5</v>
+      </c>
+      <c r="P34" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>10</v>
+      </c>
+      <c r="R34" s="22">
+        <v>9</v>
+      </c>
+      <c r="S34" s="22">
+        <v>13</v>
+      </c>
       <c r="T34" s="34">
         <f>SUM(M34:S34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20">
+        <v>66</v>
+      </c>
+      <c r="V34" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="W34" s="22">
+        <v>9</v>
+      </c>
+      <c r="X34" s="22">
+        <v>10</v>
+      </c>
+      <c r="Y34" s="22">
+        <v>7</v>
+      </c>
+      <c r="Z34" s="22">
+        <v>7</v>
+      </c>
+      <c r="AA34" s="22">
+        <v>10</v>
+      </c>
+      <c r="AB34" s="22">
+        <v>7</v>
+      </c>
+      <c r="AC34" s="22">
+        <v>11</v>
+      </c>
+      <c r="AD34" s="34">
+        <f>SUM(W34:AC34)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30">
       <c r="B35" s="26" t="s">
         <v>279</v>
       </c>
       <c r="C35" s="20">
         <f>C33+C34</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D35" s="20">
-        <f t="shared" ref="D35:I35" si="16">D33+D34</f>
-        <v>0</v>
+        <f t="shared" ref="D35:H35" si="24">D33+D34</f>
+        <v>202</v>
       </c>
       <c r="E35" s="20">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>203</v>
       </c>
       <c r="F35" s="20">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>199</v>
       </c>
       <c r="G35" s="20">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>193</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>224</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="28">
         <f>SUM(C35:I35)</f>
-        <v>0</v>
+        <v>1241</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>279</v>
       </c>
       <c r="M35" s="20">
         <f>M33+M34</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="N35" s="20">
-        <f t="shared" ref="N35:S35" si="17">N33+N34</f>
-        <v>0</v>
+        <f t="shared" ref="N35:S35" si="25">N33+N34</f>
+        <v>202</v>
       </c>
       <c r="O35" s="20">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>203</v>
       </c>
       <c r="P35" s="20">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>199</v>
       </c>
       <c r="Q35" s="20">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>193</v>
       </c>
       <c r="R35" s="20">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>224</v>
       </c>
       <c r="S35" s="20">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>218</v>
       </c>
       <c r="T35" s="28">
         <f>SUM(M35:S35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20" ht="17.25" thickBot="1">
+        <v>1458</v>
+      </c>
+      <c r="V35" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="W35" s="20">
+        <f>W33+W34</f>
+        <v>219</v>
+      </c>
+      <c r="X35" s="20">
+        <f t="shared" ref="X35:AC35" si="26">X33+X34</f>
+        <v>202</v>
+      </c>
+      <c r="Y35" s="20">
+        <f t="shared" si="26"/>
+        <v>203</v>
+      </c>
+      <c r="Z35" s="20">
+        <f t="shared" si="26"/>
+        <v>199</v>
+      </c>
+      <c r="AA35" s="20">
+        <f t="shared" si="26"/>
+        <v>193</v>
+      </c>
+      <c r="AB35" s="20">
+        <f t="shared" si="26"/>
+        <v>224</v>
+      </c>
+      <c r="AC35" s="20">
+        <f t="shared" si="26"/>
+        <v>218</v>
+      </c>
+      <c r="AD35" s="28">
+        <f>SUM(W35:AC35)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" ht="17.25" thickBot="1">
       <c r="B36" s="29"/>
-      <c r="C36" s="30" t="e">
+      <c r="C36" s="30">
         <f>C34/C35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D36" s="30" t="e">
-        <f t="shared" ref="D36:I36" si="18">D34/D35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="30" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="30" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="30" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="30" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="30" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="D36" s="30">
+        <f t="shared" ref="D36:I36" si="27">D34/D35</f>
+        <v>5.9405940594059403E-2</v>
+      </c>
+      <c r="E36" s="30">
+        <f t="shared" si="27"/>
+        <v>2.9556650246305417E-2</v>
+      </c>
+      <c r="F36" s="30">
+        <f t="shared" si="27"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G36" s="30">
+        <f t="shared" si="27"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H36" s="30">
+        <f t="shared" si="27"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="I36" s="30">
+        <f t="shared" si="27"/>
+        <v>10</v>
       </c>
       <c r="J36" s="36"/>
       <c r="L36" s="29"/>
-      <c r="M36" s="30" t="e">
+      <c r="M36" s="30">
         <f>M34/M35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="30" t="e">
-        <f t="shared" ref="N36:S36" si="19">N34/N35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O36" s="30" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P36" s="30" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q36" s="30" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R36" s="30" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S36" s="30" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="N36" s="30">
+        <f t="shared" ref="N36:S36" si="28">N34/N35</f>
+        <v>5.9405940594059403E-2</v>
+      </c>
+      <c r="O36" s="30">
+        <f t="shared" si="28"/>
+        <v>2.4630541871921183E-2</v>
+      </c>
+      <c r="P36" s="30">
+        <f t="shared" si="28"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q36" s="30">
+        <f t="shared" si="28"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R36" s="30">
+        <f t="shared" si="28"/>
+        <v>4.0178571428571432E-2</v>
+      </c>
+      <c r="S36" s="30">
+        <f t="shared" si="28"/>
+        <v>5.9633027522935783E-2</v>
       </c>
       <c r="T36" s="36"/>
-    </row>
-    <row r="37" spans="2:20" ht="17.25" thickBot="1">
+      <c r="V36" s="29"/>
+      <c r="W36" s="30">
+        <f>W34/W35</f>
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="X36" s="30">
+        <f t="shared" ref="X36:AC36" si="29">X34/X35</f>
+        <v>4.9504950495049507E-2</v>
+      </c>
+      <c r="Y36" s="30">
+        <f t="shared" si="29"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="Z36" s="30">
+        <f t="shared" si="29"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="AA36" s="30">
+        <f t="shared" si="29"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="AB36" s="30">
+        <f t="shared" si="29"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="AC36" s="30">
+        <f t="shared" si="29"/>
+        <v>5.0458715596330278E-2</v>
+      </c>
+      <c r="AD36" s="36"/>
+    </row>
+    <row r="37" spans="2:30" ht="17.25" thickBot="1">
       <c r="B37">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="38" spans="2:20">
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30">
       <c r="B38" s="24"/>
       <c r="C38" s="25" t="s">
         <v>272</v>
@@ -15064,8 +16324,31 @@
         <v>278</v>
       </c>
       <c r="T38" s="31"/>
-    </row>
-    <row r="39" spans="2:20">
+      <c r="V38" s="24"/>
+      <c r="W38" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="X38" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y38" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z38" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA38" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB38" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC38" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD38" s="31"/>
+    </row>
+    <row r="39" spans="2:30">
       <c r="B39" s="26"/>
       <c r="C39" s="20">
         <v>0</v>
@@ -15112,222 +16395,431 @@
         <v>6</v>
       </c>
       <c r="T39" s="28"/>
-    </row>
-    <row r="40" spans="2:20">
+      <c r="V39" s="26"/>
+      <c r="W39" s="20">
+        <v>0</v>
+      </c>
+      <c r="X39" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="20">
+        <v>2</v>
+      </c>
+      <c r="Z39" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA39" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB39" s="20">
+        <v>5</v>
+      </c>
+      <c r="AC39" s="20">
+        <v>6</v>
+      </c>
+      <c r="AD39" s="28"/>
+    </row>
+    <row r="40" spans="2:30">
       <c r="B40" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="C40" s="21">
+        <v>209</v>
+      </c>
+      <c r="D40" s="21">
+        <v>188</v>
+      </c>
+      <c r="E40" s="21">
+        <v>193</v>
+      </c>
+      <c r="F40" s="21">
+        <v>192</v>
+      </c>
+      <c r="G40" s="21">
+        <v>183</v>
+      </c>
+      <c r="H40" s="21">
+        <v>215</v>
+      </c>
+      <c r="I40" s="21">
+        <v>205</v>
+      </c>
       <c r="J40" s="34">
         <f>SUM(C40:I40)</f>
-        <v>0</v>
+        <v>1385</v>
       </c>
       <c r="L40" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
+      <c r="M40" s="21">
+        <v>209</v>
+      </c>
+      <c r="N40" s="21">
+        <v>192</v>
+      </c>
+      <c r="O40" s="21">
+        <v>196</v>
+      </c>
+      <c r="P40" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q40" s="21">
+        <v>183</v>
+      </c>
+      <c r="R40" s="21">
+        <v>216</v>
+      </c>
+      <c r="S40" s="21">
+        <v>204</v>
+      </c>
       <c r="T40" s="34">
         <f>SUM(M40:S40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20">
+        <v>1392</v>
+      </c>
+      <c r="V40" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="W40" s="21">
+        <v>210</v>
+      </c>
+      <c r="X40" s="21">
+        <v>190</v>
+      </c>
+      <c r="Y40" s="21">
+        <v>195</v>
+      </c>
+      <c r="Z40" s="21">
+        <v>192</v>
+      </c>
+      <c r="AA40" s="21">
+        <v>183</v>
+      </c>
+      <c r="AB40" s="21">
+        <v>216</v>
+      </c>
+      <c r="AC40" s="21">
+        <v>208</v>
+      </c>
+      <c r="AD40" s="34">
+        <f>SUM(W40:AC40)</f>
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30">
       <c r="B41" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
+      <c r="C41" s="22">
+        <v>10</v>
+      </c>
+      <c r="D41" s="22">
+        <v>14</v>
+      </c>
+      <c r="E41" s="22">
+        <v>10</v>
+      </c>
+      <c r="F41" s="22">
+        <v>7</v>
+      </c>
+      <c r="G41" s="22">
+        <v>10</v>
+      </c>
+      <c r="H41" s="22">
+        <v>9</v>
+      </c>
+      <c r="I41" s="22">
+        <v>13</v>
+      </c>
       <c r="J41" s="34">
         <f>SUM(C41:I41)</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="L41" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
+      <c r="M41" s="22">
+        <v>10</v>
+      </c>
+      <c r="N41" s="22">
+        <v>10</v>
+      </c>
+      <c r="O41" s="22">
+        <v>7</v>
+      </c>
+      <c r="P41" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>10</v>
+      </c>
+      <c r="R41" s="22">
+        <v>8</v>
+      </c>
+      <c r="S41" s="22">
+        <v>14</v>
+      </c>
       <c r="T41" s="34">
         <f>SUM(M41:S41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20">
+        <v>66</v>
+      </c>
+      <c r="V41" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="W41" s="22">
+        <v>9</v>
+      </c>
+      <c r="X41" s="22">
+        <v>12</v>
+      </c>
+      <c r="Y41" s="22">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="22">
+        <v>7</v>
+      </c>
+      <c r="AA41" s="22">
+        <v>10</v>
+      </c>
+      <c r="AB41" s="22">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="22">
+        <v>10</v>
+      </c>
+      <c r="AD41" s="34">
+        <f>SUM(W41:AC41)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30">
       <c r="B42" s="26" t="s">
         <v>279</v>
       </c>
       <c r="C42" s="20">
         <f>C40+C41</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D42" s="20">
-        <f t="shared" ref="D42:I42" si="20">D40+D41</f>
-        <v>0</v>
+        <f t="shared" ref="D42:I42" si="30">D40+D41</f>
+        <v>202</v>
       </c>
       <c r="E42" s="20">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>203</v>
       </c>
       <c r="F42" s="20">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>199</v>
       </c>
       <c r="G42" s="20">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>193</v>
       </c>
       <c r="H42" s="20">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>224</v>
       </c>
       <c r="I42" s="20">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>218</v>
       </c>
       <c r="J42" s="28">
         <f>SUM(C42:I42)</f>
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="L42" s="26" t="s">
         <v>279</v>
       </c>
       <c r="M42" s="20">
         <f>M40+M41</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="N42" s="20">
-        <f t="shared" ref="N42:S42" si="21">N40+N41</f>
-        <v>0</v>
+        <f t="shared" ref="N42:S42" si="31">N40+N41</f>
+        <v>202</v>
       </c>
       <c r="O42" s="20">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>203</v>
       </c>
       <c r="P42" s="20">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>199</v>
       </c>
       <c r="Q42" s="20">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>193</v>
       </c>
       <c r="R42" s="20">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>224</v>
       </c>
       <c r="S42" s="20">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>218</v>
       </c>
       <c r="T42" s="28">
         <f>SUM(M42:S42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" ht="17.25" thickBot="1">
+        <v>1458</v>
+      </c>
+      <c r="V42" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="W42" s="20">
+        <f>W40+W41</f>
+        <v>219</v>
+      </c>
+      <c r="X42" s="20">
+        <f t="shared" ref="X42:AC42" si="32">X40+X41</f>
+        <v>202</v>
+      </c>
+      <c r="Y42" s="20">
+        <f t="shared" si="32"/>
+        <v>203</v>
+      </c>
+      <c r="Z42" s="20">
+        <f t="shared" si="32"/>
+        <v>199</v>
+      </c>
+      <c r="AA42" s="20">
+        <f t="shared" si="32"/>
+        <v>193</v>
+      </c>
+      <c r="AB42" s="20">
+        <f t="shared" si="32"/>
+        <v>224</v>
+      </c>
+      <c r="AC42" s="20">
+        <f t="shared" si="32"/>
+        <v>218</v>
+      </c>
+      <c r="AD42" s="28">
+        <f>SUM(W42:AC42)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" ht="17.25" thickBot="1">
       <c r="B43" s="29"/>
-      <c r="C43" s="30" t="e">
+      <c r="C43" s="30">
         <f>C41/C42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D43" s="30" t="e">
-        <f t="shared" ref="D43:I43" si="22">D41/D42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E43" s="30" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F43" s="30" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" s="30" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H43" s="30" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="30" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="D43" s="30">
+        <f t="shared" ref="D43:I43" si="33">D41/D42</f>
+        <v>6.9306930693069313E-2</v>
+      </c>
+      <c r="E43" s="30">
+        <f t="shared" si="33"/>
+        <v>4.9261083743842367E-2</v>
+      </c>
+      <c r="F43" s="30">
+        <f t="shared" si="33"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G43" s="30">
+        <f t="shared" si="33"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H43" s="30">
+        <f t="shared" si="33"/>
+        <v>4.0178571428571432E-2</v>
+      </c>
+      <c r="I43" s="30">
+        <f t="shared" si="33"/>
+        <v>5.9633027522935783E-2</v>
       </c>
       <c r="J43" s="36"/>
       <c r="L43" s="29"/>
-      <c r="M43" s="30" t="e">
+      <c r="M43" s="30">
         <f>M41/M42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N43" s="30" t="e">
-        <f t="shared" ref="N43:S43" si="23">N41/N42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O43" s="30" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P43" s="30" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q43" s="30" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R43" s="30" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S43" s="30" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="N43" s="30">
+        <f t="shared" ref="N43:S43" si="34">N41/N42</f>
+        <v>4.9504950495049507E-2</v>
+      </c>
+      <c r="O43" s="30">
+        <f t="shared" si="34"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="P43" s="30">
+        <f t="shared" si="34"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q43" s="30">
+        <f t="shared" si="34"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R43" s="30">
+        <f t="shared" si="34"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="S43" s="30">
+        <f t="shared" si="34"/>
+        <v>6.4220183486238536E-2</v>
       </c>
       <c r="T43" s="36"/>
-    </row>
-    <row r="44" spans="2:20" ht="17.25" thickBot="1">
+      <c r="V43" s="29"/>
+      <c r="W43" s="30">
+        <f>W41/W42</f>
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="X43" s="30">
+        <f t="shared" ref="X43:AC43" si="35">X41/X42</f>
+        <v>5.9405940594059403E-2</v>
+      </c>
+      <c r="Y43" s="30">
+        <f t="shared" si="35"/>
+        <v>3.9408866995073892E-2</v>
+      </c>
+      <c r="Z43" s="30">
+        <f t="shared" si="35"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="AA43" s="30">
+        <f t="shared" si="35"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="AB43" s="30">
+        <f t="shared" si="35"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="AC43" s="30">
+        <f t="shared" si="35"/>
+        <v>4.5871559633027525E-2</v>
+      </c>
+      <c r="AD43" s="36"/>
+    </row>
+    <row r="44" spans="2:30" ht="17.25" thickBot="1">
       <c r="B44">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="45" spans="2:20">
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30">
       <c r="B45" s="24"/>
       <c r="C45" s="25" t="s">
         <v>272</v>
@@ -15355,16 +16847,16 @@
       <c r="M45" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="N45" s="61" t="s">
+      <c r="N45" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="O45" s="61" t="s">
+      <c r="O45" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="P45" s="61" t="s">
+      <c r="P45" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="Q45" s="61" t="s">
+      <c r="Q45" s="56" t="s">
         <v>276</v>
       </c>
       <c r="R45" s="25" t="s">
@@ -15374,8 +16866,31 @@
         <v>278</v>
       </c>
       <c r="T45" s="31"/>
-    </row>
-    <row r="46" spans="2:20">
+      <c r="V45" s="24"/>
+      <c r="W45" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="X45" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y45" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z45" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA45" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB45" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC45" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD45" s="31"/>
+    </row>
+    <row r="46" spans="2:30">
       <c r="B46" s="26"/>
       <c r="C46" s="20">
         <v>0</v>
@@ -15422,222 +16937,431 @@
         <v>6</v>
       </c>
       <c r="T46" s="28"/>
-    </row>
-    <row r="47" spans="2:20">
+      <c r="V46" s="26"/>
+      <c r="W46" s="20">
+        <v>0</v>
+      </c>
+      <c r="X46" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="20">
+        <v>2</v>
+      </c>
+      <c r="Z46" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA46" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB46" s="20">
+        <v>5</v>
+      </c>
+      <c r="AC46" s="20">
+        <v>6</v>
+      </c>
+      <c r="AD46" s="28"/>
+    </row>
+    <row r="47" spans="2:30">
       <c r="B47" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
+      <c r="C47" s="21">
+        <v>209</v>
+      </c>
+      <c r="D47" s="21">
+        <v>186</v>
+      </c>
+      <c r="E47" s="21">
+        <v>196</v>
+      </c>
+      <c r="F47" s="21">
+        <v>192</v>
+      </c>
+      <c r="G47" s="21">
+        <v>183</v>
+      </c>
+      <c r="H47" s="21">
+        <v>215</v>
+      </c>
+      <c r="I47" s="21">
+        <v>205</v>
+      </c>
       <c r="J47" s="34">
         <f>SUM(C47:I47)</f>
-        <v>0</v>
+        <v>1386</v>
       </c>
       <c r="L47" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
+      <c r="M47" s="21">
+        <v>208</v>
+      </c>
+      <c r="N47" s="21">
+        <v>190</v>
+      </c>
+      <c r="O47" s="21">
+        <v>194</v>
+      </c>
+      <c r="P47" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q47" s="21">
+        <v>183</v>
+      </c>
+      <c r="R47" s="21">
+        <v>216</v>
+      </c>
+      <c r="S47" s="21">
+        <v>204</v>
+      </c>
       <c r="T47" s="34">
         <f>SUM(M47:S47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20">
+        <v>1387</v>
+      </c>
+      <c r="V47" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="W47" s="21">
+        <v>206</v>
+      </c>
+      <c r="X47" s="21">
+        <v>184</v>
+      </c>
+      <c r="Y47" s="21">
+        <v>190</v>
+      </c>
+      <c r="Z47" s="21">
+        <v>192</v>
+      </c>
+      <c r="AA47" s="21">
+        <v>183</v>
+      </c>
+      <c r="AB47" s="21">
+        <v>206</v>
+      </c>
+      <c r="AC47" s="21">
+        <v>206</v>
+      </c>
+      <c r="AD47" s="34">
+        <f>SUM(W47:AC47)</f>
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30">
       <c r="B48" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="C48" s="22">
+        <v>10</v>
+      </c>
+      <c r="D48" s="22">
+        <v>16</v>
+      </c>
+      <c r="E48" s="22">
+        <v>7</v>
+      </c>
+      <c r="F48" s="22">
+        <v>7</v>
+      </c>
+      <c r="G48" s="22">
+        <v>10</v>
+      </c>
+      <c r="H48" s="22">
+        <v>9</v>
+      </c>
+      <c r="I48" s="22">
+        <v>13</v>
+      </c>
       <c r="J48" s="34">
         <f>SUM(C48:I48)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="L48" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
+      <c r="M48" s="22">
+        <v>11</v>
+      </c>
+      <c r="N48" s="22">
+        <v>12</v>
+      </c>
+      <c r="O48" s="22">
+        <v>9</v>
+      </c>
+      <c r="P48" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q48" s="22">
+        <v>10</v>
+      </c>
+      <c r="R48" s="22">
+        <v>8</v>
+      </c>
+      <c r="S48" s="22">
+        <v>14</v>
+      </c>
       <c r="T48" s="34">
         <f>SUM(M48:S48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20">
+        <v>71</v>
+      </c>
+      <c r="V48" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="W48" s="22">
+        <v>13</v>
+      </c>
+      <c r="X48" s="22">
+        <v>18</v>
+      </c>
+      <c r="Y48" s="22">
+        <v>13</v>
+      </c>
+      <c r="Z48" s="22">
+        <v>7</v>
+      </c>
+      <c r="AA48" s="22">
+        <v>10</v>
+      </c>
+      <c r="AB48" s="22">
+        <v>18</v>
+      </c>
+      <c r="AC48" s="22">
+        <v>12</v>
+      </c>
+      <c r="AD48" s="34">
+        <f>SUM(W48:AC48)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30">
       <c r="B49" s="26" t="s">
         <v>279</v>
       </c>
       <c r="C49" s="20">
         <f>C47+C48</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D49" s="20">
-        <f t="shared" ref="D49:I49" si="24">D47+D48</f>
-        <v>0</v>
+        <f t="shared" ref="D49:I49" si="36">D47+D48</f>
+        <v>202</v>
       </c>
       <c r="E49" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>203</v>
       </c>
       <c r="F49" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>199</v>
       </c>
       <c r="G49" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>193</v>
       </c>
       <c r="H49" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>224</v>
       </c>
       <c r="I49" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>218</v>
       </c>
       <c r="J49" s="28">
         <f>SUM(C49:I49)</f>
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="L49" s="26" t="s">
         <v>279</v>
       </c>
       <c r="M49" s="20">
         <f>M47+M48</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="N49" s="20">
-        <f t="shared" ref="N49:S49" si="25">N47+N48</f>
-        <v>0</v>
+        <f t="shared" ref="N49:S49" si="37">N47+N48</f>
+        <v>202</v>
       </c>
       <c r="O49" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>203</v>
       </c>
       <c r="P49" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>199</v>
       </c>
       <c r="Q49" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>193</v>
       </c>
       <c r="R49" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>224</v>
       </c>
       <c r="S49" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>218</v>
       </c>
       <c r="T49" s="28">
         <f>SUM(M49:S49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" ht="17.25" thickBot="1">
+        <v>1458</v>
+      </c>
+      <c r="V49" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="W49" s="20">
+        <f>W47+W48</f>
+        <v>219</v>
+      </c>
+      <c r="X49" s="20">
+        <f t="shared" ref="X49:AC49" si="38">X47+X48</f>
+        <v>202</v>
+      </c>
+      <c r="Y49" s="20">
+        <f t="shared" si="38"/>
+        <v>203</v>
+      </c>
+      <c r="Z49" s="20">
+        <f t="shared" si="38"/>
+        <v>199</v>
+      </c>
+      <c r="AA49" s="20">
+        <f t="shared" si="38"/>
+        <v>193</v>
+      </c>
+      <c r="AB49" s="20">
+        <f t="shared" si="38"/>
+        <v>224</v>
+      </c>
+      <c r="AC49" s="20">
+        <f t="shared" si="38"/>
+        <v>218</v>
+      </c>
+      <c r="AD49" s="28">
+        <f>SUM(W49:AC49)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" ht="17.25" thickBot="1">
       <c r="B50" s="29"/>
-      <c r="C50" s="30" t="e">
+      <c r="C50" s="30">
         <f>C48/C49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="30" t="e">
-        <f t="shared" ref="D50:I50" si="26">D48/D49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E50" s="30" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="30" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G50" s="30" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H50" s="30" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50" s="30" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="D50" s="30">
+        <f t="shared" ref="D50:I50" si="39">D48/D49</f>
+        <v>7.9207920792079209E-2</v>
+      </c>
+      <c r="E50" s="30">
+        <f t="shared" si="39"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="F50" s="30">
+        <f t="shared" si="39"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G50" s="30">
+        <f t="shared" si="39"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H50" s="30">
+        <f t="shared" si="39"/>
+        <v>4.0178571428571432E-2</v>
+      </c>
+      <c r="I50" s="30">
+        <f t="shared" si="39"/>
+        <v>5.9633027522935783E-2</v>
       </c>
       <c r="J50" s="36"/>
       <c r="L50" s="29"/>
-      <c r="M50" s="30" t="e">
+      <c r="M50" s="30">
         <f>M48/M49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N50" s="30" t="e">
-        <f t="shared" ref="N50:S50" si="27">N48/N49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O50" s="30" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P50" s="30" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q50" s="30" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R50" s="30" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S50" s="30" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>5.0228310502283102E-2</v>
+      </c>
+      <c r="N50" s="30">
+        <f t="shared" ref="N50:S50" si="40">N48/N49</f>
+        <v>5.9405940594059403E-2</v>
+      </c>
+      <c r="O50" s="30">
+        <f t="shared" si="40"/>
+        <v>4.4334975369458129E-2</v>
+      </c>
+      <c r="P50" s="30">
+        <f t="shared" si="40"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q50" s="30">
+        <f t="shared" si="40"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R50" s="30">
+        <f t="shared" si="40"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="S50" s="30">
+        <f t="shared" si="40"/>
+        <v>6.4220183486238536E-2</v>
       </c>
       <c r="T50" s="36"/>
-    </row>
-    <row r="51" spans="2:20" ht="17.25" thickBot="1">
+      <c r="V50" s="29"/>
+      <c r="W50" s="30">
+        <f>W48/W49</f>
+        <v>5.9360730593607303E-2</v>
+      </c>
+      <c r="X50" s="30">
+        <f t="shared" ref="X50:AC50" si="41">X48/X49</f>
+        <v>8.9108910891089105E-2</v>
+      </c>
+      <c r="Y50" s="30">
+        <f t="shared" si="41"/>
+        <v>6.4039408866995079E-2</v>
+      </c>
+      <c r="Z50" s="30">
+        <f t="shared" si="41"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="AA50" s="30">
+        <f t="shared" si="41"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="AB50" s="30">
+        <f t="shared" si="41"/>
+        <v>8.0357142857142863E-2</v>
+      </c>
+      <c r="AC50" s="30">
+        <f t="shared" si="41"/>
+        <v>5.5045871559633031E-2</v>
+      </c>
+      <c r="AD50" s="36"/>
+    </row>
+    <row r="51" spans="2:30" ht="17.25" thickBot="1">
       <c r="B51">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="52" spans="2:20">
+      <c r="X51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30">
       <c r="B52" s="24"/>
       <c r="C52" s="25" t="s">
         <v>272</v>
@@ -15684,8 +17408,31 @@
         <v>278</v>
       </c>
       <c r="T52" s="31"/>
-    </row>
-    <row r="53" spans="2:20">
+      <c r="V52" s="24"/>
+      <c r="W52" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="X52" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y52" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z52" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA52" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB52" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC52" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD52" s="31"/>
+    </row>
+    <row r="53" spans="2:30">
       <c r="B53" s="26"/>
       <c r="C53" s="20">
         <v>0</v>
@@ -15732,222 +17479,431 @@
         <v>6</v>
       </c>
       <c r="T53" s="28"/>
-    </row>
-    <row r="54" spans="2:20">
+      <c r="V53" s="26"/>
+      <c r="W53" s="20">
+        <v>0</v>
+      </c>
+      <c r="X53" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="20">
+        <v>2</v>
+      </c>
+      <c r="Z53" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA53" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB53" s="20">
+        <v>5</v>
+      </c>
+      <c r="AC53" s="20">
+        <v>6</v>
+      </c>
+      <c r="AD53" s="28"/>
+    </row>
+    <row r="54" spans="2:30">
       <c r="B54" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
+      <c r="C54" s="21">
+        <v>211</v>
+      </c>
+      <c r="D54" s="21">
+        <v>192</v>
+      </c>
+      <c r="E54" s="21">
+        <v>194</v>
+      </c>
+      <c r="F54" s="21">
+        <v>192</v>
+      </c>
+      <c r="G54" s="21">
+        <v>183</v>
+      </c>
+      <c r="H54" s="21">
+        <v>217</v>
+      </c>
+      <c r="I54" s="21">
+        <v>205</v>
+      </c>
       <c r="J54" s="34">
         <f>SUM(C54:I54)</f>
-        <v>0</v>
+        <v>1394</v>
       </c>
       <c r="L54" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
+      <c r="M54" s="21">
+        <v>211</v>
+      </c>
+      <c r="N54" s="21">
+        <v>190</v>
+      </c>
+      <c r="O54" s="21">
+        <v>195</v>
+      </c>
+      <c r="P54" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q54" s="21">
+        <v>183</v>
+      </c>
+      <c r="R54" s="21">
+        <v>216</v>
+      </c>
+      <c r="S54" s="21">
+        <v>204</v>
+      </c>
       <c r="T54" s="34">
         <f>SUM(M54:S54)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20">
+        <v>1391</v>
+      </c>
+      <c r="V54" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="W54" s="21">
+        <v>211</v>
+      </c>
+      <c r="X54" s="21">
+        <v>189</v>
+      </c>
+      <c r="Y54" s="21">
+        <v>195</v>
+      </c>
+      <c r="Z54" s="21">
+        <v>192</v>
+      </c>
+      <c r="AA54" s="21">
+        <v>183</v>
+      </c>
+      <c r="AB54" s="21">
+        <v>215</v>
+      </c>
+      <c r="AC54" s="21">
+        <v>205</v>
+      </c>
+      <c r="AD54" s="34">
+        <f>SUM(W54:AC54)</f>
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30">
       <c r="B55" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="C55" s="22">
+        <v>8</v>
+      </c>
+      <c r="D55" s="22">
+        <v>10</v>
+      </c>
+      <c r="E55" s="22">
+        <v>9</v>
+      </c>
+      <c r="F55" s="22">
+        <v>7</v>
+      </c>
+      <c r="G55" s="22">
+        <v>10</v>
+      </c>
+      <c r="H55" s="22">
+        <v>7</v>
+      </c>
+      <c r="I55" s="22">
+        <v>13</v>
+      </c>
       <c r="J55" s="34">
         <f>SUM(C55:I55)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L55" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
+      <c r="M55" s="22">
+        <v>8</v>
+      </c>
+      <c r="N55" s="22">
+        <v>12</v>
+      </c>
+      <c r="O55" s="22">
+        <v>8</v>
+      </c>
+      <c r="P55" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q55" s="22">
+        <v>10</v>
+      </c>
+      <c r="R55" s="22">
+        <v>8</v>
+      </c>
+      <c r="S55" s="22">
+        <v>14</v>
+      </c>
       <c r="T55" s="34">
         <f>SUM(M55:S55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:20">
+        <v>67</v>
+      </c>
+      <c r="V55" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="W55" s="22">
+        <v>8</v>
+      </c>
+      <c r="X55" s="22">
+        <v>13</v>
+      </c>
+      <c r="Y55" s="22">
+        <v>8</v>
+      </c>
+      <c r="Z55" s="22">
+        <v>7</v>
+      </c>
+      <c r="AA55" s="22">
+        <v>10</v>
+      </c>
+      <c r="AB55" s="22">
+        <v>8</v>
+      </c>
+      <c r="AC55" s="22">
+        <v>12</v>
+      </c>
+      <c r="AD55" s="34">
+        <f>SUM(W55:AC55)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="2:30">
       <c r="B56" s="26" t="s">
         <v>279</v>
       </c>
       <c r="C56" s="20">
         <f>C54+C55</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D56" s="20">
-        <f t="shared" ref="D56:I56" si="28">D54+D55</f>
-        <v>0</v>
+        <f t="shared" ref="D56:I56" si="42">D54+D55</f>
+        <v>202</v>
       </c>
       <c r="E56" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>203</v>
       </c>
       <c r="F56" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>199</v>
       </c>
       <c r="G56" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>193</v>
       </c>
       <c r="H56" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>224</v>
       </c>
       <c r="I56" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>218</v>
       </c>
       <c r="J56" s="28">
         <f>SUM(C56:I56)</f>
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="L56" s="26" t="s">
         <v>279</v>
       </c>
       <c r="M56" s="20">
         <f>M54+M55</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="N56" s="20">
-        <f t="shared" ref="N56:S56" si="29">N54+N55</f>
-        <v>0</v>
+        <f t="shared" ref="N56:S56" si="43">N54+N55</f>
+        <v>202</v>
       </c>
       <c r="O56" s="20">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>203</v>
       </c>
       <c r="P56" s="20">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>199</v>
       </c>
       <c r="Q56" s="20">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>193</v>
       </c>
       <c r="R56" s="20">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>224</v>
       </c>
       <c r="S56" s="20">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>218</v>
       </c>
       <c r="T56" s="28">
         <f>SUM(M56:S56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:20" ht="17.25" thickBot="1">
+        <v>1458</v>
+      </c>
+      <c r="V56" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="W56" s="20">
+        <f>W54+W55</f>
+        <v>219</v>
+      </c>
+      <c r="X56" s="20">
+        <f t="shared" ref="X56:AC56" si="44">X54+X55</f>
+        <v>202</v>
+      </c>
+      <c r="Y56" s="20">
+        <f t="shared" si="44"/>
+        <v>203</v>
+      </c>
+      <c r="Z56" s="20">
+        <f t="shared" si="44"/>
+        <v>199</v>
+      </c>
+      <c r="AA56" s="20">
+        <f t="shared" si="44"/>
+        <v>193</v>
+      </c>
+      <c r="AB56" s="20">
+        <f t="shared" si="44"/>
+        <v>223</v>
+      </c>
+      <c r="AC56" s="20">
+        <f t="shared" si="44"/>
+        <v>217</v>
+      </c>
+      <c r="AD56" s="28">
+        <f>SUM(W56:AC56)</f>
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="57" spans="2:30" ht="17.25" thickBot="1">
       <c r="B57" s="29"/>
-      <c r="C57" s="30" t="e">
+      <c r="C57" s="30">
         <f>C55/C56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D57" s="30" t="e">
-        <f t="shared" ref="D57:I57" si="30">D55/D56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E57" s="30" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F57" s="30" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G57" s="30" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H57" s="30" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I57" s="30" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>3.6529680365296802E-2</v>
+      </c>
+      <c r="D57" s="30">
+        <f t="shared" ref="D57:I57" si="45">D55/D56</f>
+        <v>4.9504950495049507E-2</v>
+      </c>
+      <c r="E57" s="30">
+        <f t="shared" si="45"/>
+        <v>4.4334975369458129E-2</v>
+      </c>
+      <c r="F57" s="30">
+        <f t="shared" si="45"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G57" s="30">
+        <f t="shared" si="45"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H57" s="30">
+        <f t="shared" si="45"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I57" s="30">
+        <f t="shared" si="45"/>
+        <v>5.9633027522935783E-2</v>
       </c>
       <c r="J57" s="36"/>
       <c r="L57" s="29"/>
-      <c r="M57" s="30" t="e">
+      <c r="M57" s="30">
         <f>M55/M56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N57" s="30" t="e">
-        <f t="shared" ref="N57:S57" si="31">N55/N56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O57" s="30" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P57" s="30" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q57" s="30" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R57" s="30" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S57" s="30" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
+        <v>3.6529680365296802E-2</v>
+      </c>
+      <c r="N57" s="30">
+        <f t="shared" ref="N57:S57" si="46">N55/N56</f>
+        <v>5.9405940594059403E-2</v>
+      </c>
+      <c r="O57" s="30">
+        <f t="shared" si="46"/>
+        <v>3.9408866995073892E-2</v>
+      </c>
+      <c r="P57" s="30">
+        <f t="shared" si="46"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q57" s="30">
+        <f t="shared" si="46"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R57" s="30">
+        <f t="shared" si="46"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="S57" s="30">
+        <f t="shared" si="46"/>
+        <v>6.4220183486238536E-2</v>
       </c>
       <c r="T57" s="36"/>
-    </row>
-    <row r="58" spans="2:20" ht="17.25" thickBot="1">
+      <c r="V57" s="29"/>
+      <c r="W57" s="30">
+        <f>W55/W56</f>
+        <v>3.6529680365296802E-2</v>
+      </c>
+      <c r="X57" s="30">
+        <f t="shared" ref="X57:AC57" si="47">X55/X56</f>
+        <v>6.4356435643564358E-2</v>
+      </c>
+      <c r="Y57" s="30">
+        <f t="shared" si="47"/>
+        <v>3.9408866995073892E-2</v>
+      </c>
+      <c r="Z57" s="30">
+        <f t="shared" si="47"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="AA57" s="30">
+        <f t="shared" si="47"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="AB57" s="30">
+        <f t="shared" si="47"/>
+        <v>3.5874439461883408E-2</v>
+      </c>
+      <c r="AC57" s="30">
+        <f t="shared" si="47"/>
+        <v>5.5299539170506916E-2</v>
+      </c>
+      <c r="AD57" s="36"/>
+    </row>
+    <row r="58" spans="2:30" ht="17.25" thickBot="1">
       <c r="B58">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="59" spans="2:20">
+      <c r="X58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30">
       <c r="B59" s="24"/>
       <c r="C59" s="25" t="s">
         <v>272</v>
@@ -15994,8 +17950,31 @@
         <v>278</v>
       </c>
       <c r="T59" s="31"/>
-    </row>
-    <row r="60" spans="2:20">
+      <c r="V59" s="24"/>
+      <c r="W59" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="X59" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y59" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z59" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA59" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB59" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC59" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD59" s="31"/>
+    </row>
+    <row r="60" spans="2:30">
       <c r="B60" s="26"/>
       <c r="C60" s="20">
         <v>0</v>
@@ -16042,869 +18021,830 @@
         <v>6</v>
       </c>
       <c r="T60" s="28"/>
-    </row>
-    <row r="61" spans="2:20">
+      <c r="V60" s="26"/>
+      <c r="W60" s="20">
+        <v>0</v>
+      </c>
+      <c r="X60" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="20">
+        <v>2</v>
+      </c>
+      <c r="Z60" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA60" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB60" s="20">
+        <v>5</v>
+      </c>
+      <c r="AC60" s="20">
+        <v>6</v>
+      </c>
+      <c r="AD60" s="28"/>
+    </row>
+    <row r="61" spans="2:30">
       <c r="B61" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
+      <c r="C61" s="21">
+        <v>208</v>
+      </c>
+      <c r="D61" s="21">
+        <v>188</v>
+      </c>
+      <c r="E61" s="21">
+        <v>186</v>
+      </c>
+      <c r="F61" s="21">
+        <v>192</v>
+      </c>
+      <c r="G61" s="21">
+        <v>183</v>
+      </c>
+      <c r="H61" s="21">
+        <v>215</v>
+      </c>
+      <c r="I61" s="21">
+        <v>215</v>
+      </c>
       <c r="J61" s="34">
         <f>SUM(C61:I61)</f>
-        <v>0</v>
+        <v>1387</v>
       </c>
       <c r="L61" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="21"/>
+      <c r="M61" s="21">
+        <v>210</v>
+      </c>
+      <c r="N61" s="21">
+        <v>191</v>
+      </c>
+      <c r="O61" s="21">
+        <v>196</v>
+      </c>
+      <c r="P61" s="21">
+        <v>192</v>
+      </c>
+      <c r="Q61" s="21">
+        <v>183</v>
+      </c>
+      <c r="R61" s="21">
+        <v>216</v>
+      </c>
+      <c r="S61" s="21">
+        <v>207</v>
+      </c>
       <c r="T61" s="34">
         <f>SUM(M61:S61)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:20">
+        <v>1395</v>
+      </c>
+      <c r="V61" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="W61" s="21">
+        <v>209</v>
+      </c>
+      <c r="X61" s="21">
+        <v>188</v>
+      </c>
+      <c r="Y61" s="21">
+        <v>197</v>
+      </c>
+      <c r="Z61" s="21">
+        <v>192</v>
+      </c>
+      <c r="AA61" s="21">
+        <v>183</v>
+      </c>
+      <c r="AB61" s="21">
+        <v>215</v>
+      </c>
+      <c r="AC61" s="21">
+        <v>205</v>
+      </c>
+      <c r="AD61" s="34">
+        <f>SUM(W61:AC61)</f>
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="62" spans="2:30">
       <c r="B62" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
+      <c r="C62" s="22">
+        <v>11</v>
+      </c>
+      <c r="D62" s="22">
+        <v>14</v>
+      </c>
+      <c r="E62" s="22">
+        <v>17</v>
+      </c>
+      <c r="F62" s="22">
+        <v>7</v>
+      </c>
+      <c r="G62" s="22">
+        <v>10</v>
+      </c>
+      <c r="H62" s="22">
+        <v>9</v>
+      </c>
+      <c r="I62" s="22">
+        <v>9</v>
+      </c>
       <c r="J62" s="34">
         <f>SUM(C62:I62)</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="L62" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="22"/>
+      <c r="M62" s="22">
+        <v>9</v>
+      </c>
+      <c r="N62" s="22">
+        <v>11</v>
+      </c>
+      <c r="O62" s="22">
+        <v>7</v>
+      </c>
+      <c r="P62" s="22">
+        <v>7</v>
+      </c>
+      <c r="Q62" s="22">
+        <v>10</v>
+      </c>
+      <c r="R62" s="22">
+        <v>8</v>
+      </c>
+      <c r="S62" s="22">
+        <v>11</v>
+      </c>
       <c r="T62" s="34">
         <f>SUM(M62:S62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:20">
+        <v>63</v>
+      </c>
+      <c r="V62" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="W62" s="22">
+        <v>10</v>
+      </c>
+      <c r="X62" s="22">
+        <v>14</v>
+      </c>
+      <c r="Y62" s="22">
+        <v>6</v>
+      </c>
+      <c r="Z62" s="22">
+        <v>7</v>
+      </c>
+      <c r="AA62" s="22">
+        <v>10</v>
+      </c>
+      <c r="AB62" s="22">
+        <v>9</v>
+      </c>
+      <c r="AC62" s="22">
+        <v>13</v>
+      </c>
+      <c r="AD62" s="34">
+        <f>SUM(W62:AC62)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="2:30">
       <c r="B63" s="26" t="s">
         <v>279</v>
       </c>
       <c r="C63" s="20">
         <f>C61+C62</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D63" s="20">
-        <f t="shared" ref="D63:I63" si="32">D61+D62</f>
-        <v>0</v>
+        <f t="shared" ref="D63:I63" si="48">D61+D62</f>
+        <v>202</v>
       </c>
       <c r="E63" s="20">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>203</v>
       </c>
       <c r="F63" s="20">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>199</v>
       </c>
       <c r="G63" s="20">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>193</v>
       </c>
       <c r="H63" s="20">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>224</v>
       </c>
       <c r="I63" s="20">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="48"/>
+        <v>224</v>
       </c>
       <c r="J63" s="28">
         <f>SUM(C63:I63)</f>
-        <v>0</v>
+        <v>1464</v>
       </c>
       <c r="L63" s="26" t="s">
         <v>279</v>
       </c>
       <c r="M63" s="20">
         <f>M61+M62</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="N63" s="20">
-        <f t="shared" ref="N63:S63" si="33">N61+N62</f>
-        <v>0</v>
+        <f t="shared" ref="N63:S63" si="49">N61+N62</f>
+        <v>202</v>
       </c>
       <c r="O63" s="20">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>203</v>
       </c>
       <c r="P63" s="20">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>199</v>
       </c>
       <c r="Q63" s="20">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>193</v>
       </c>
       <c r="R63" s="20">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>224</v>
       </c>
       <c r="S63" s="20">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>218</v>
       </c>
       <c r="T63" s="28">
         <f>SUM(M63:S63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:20" ht="17.25" thickBot="1">
+        <v>1458</v>
+      </c>
+      <c r="V63" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="W63" s="20">
+        <f>W61+W62</f>
+        <v>219</v>
+      </c>
+      <c r="X63" s="20">
+        <f t="shared" ref="X63:AC63" si="50">X61+X62</f>
+        <v>202</v>
+      </c>
+      <c r="Y63" s="20">
+        <f t="shared" si="50"/>
+        <v>203</v>
+      </c>
+      <c r="Z63" s="20">
+        <f t="shared" si="50"/>
+        <v>199</v>
+      </c>
+      <c r="AA63" s="20">
+        <f t="shared" si="50"/>
+        <v>193</v>
+      </c>
+      <c r="AB63" s="20">
+        <f t="shared" si="50"/>
+        <v>224</v>
+      </c>
+      <c r="AC63" s="20">
+        <f t="shared" si="50"/>
+        <v>218</v>
+      </c>
+      <c r="AD63" s="28">
+        <f>SUM(W63:AC63)</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="64" spans="2:30" ht="17.25" thickBot="1">
       <c r="B64" s="29"/>
-      <c r="C64" s="30" t="e">
+      <c r="C64" s="30">
         <f>C62/C63</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D64" s="30" t="e">
-        <f t="shared" ref="D64:I64" si="34">D62/D63</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E64" s="30" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" s="30" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G64" s="30" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H64" s="30" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I64" s="30" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>5.0228310502283102E-2</v>
+      </c>
+      <c r="D64" s="30">
+        <f t="shared" ref="D64:I64" si="51">D62/D63</f>
+        <v>6.9306930693069313E-2</v>
+      </c>
+      <c r="E64" s="30">
+        <f t="shared" si="51"/>
+        <v>8.3743842364532015E-2</v>
+      </c>
+      <c r="F64" s="30">
+        <f t="shared" si="51"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="G64" s="30">
+        <f t="shared" si="51"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="H64" s="30">
+        <f t="shared" si="51"/>
+        <v>4.0178571428571432E-2</v>
+      </c>
+      <c r="I64" s="30">
+        <f t="shared" si="51"/>
+        <v>4.0178571428571432E-2</v>
       </c>
       <c r="J64" s="36"/>
       <c r="L64" s="29"/>
-      <c r="M64" s="30" t="e">
+      <c r="M64" s="30">
         <f>M62/M63</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N64" s="30" t="e">
-        <f t="shared" ref="N64:S64" si="35">N62/N63</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O64" s="30" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P64" s="30" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q64" s="30" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R64" s="30" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S64" s="30" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="N64" s="30">
+        <f t="shared" ref="N64:S64" si="52">N62/N63</f>
+        <v>5.4455445544554455E-2</v>
+      </c>
+      <c r="O64" s="30">
+        <f t="shared" si="52"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="P64" s="30">
+        <f t="shared" si="52"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="Q64" s="30">
+        <f t="shared" si="52"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="R64" s="30">
+        <f t="shared" si="52"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="S64" s="30">
+        <f t="shared" si="52"/>
+        <v>5.0458715596330278E-2</v>
       </c>
       <c r="T64" s="36"/>
-    </row>
-    <row r="65" spans="2:20" ht="17.25" thickBot="1">
+      <c r="V64" s="29"/>
+      <c r="W64" s="30">
+        <f>W62/W63</f>
+        <v>4.5662100456621002E-2</v>
+      </c>
+      <c r="X64" s="30">
+        <f t="shared" ref="X64:AC64" si="53">X62/X63</f>
+        <v>6.9306930693069313E-2</v>
+      </c>
+      <c r="Y64" s="30">
+        <f t="shared" si="53"/>
+        <v>2.9556650246305417E-2</v>
+      </c>
+      <c r="Z64" s="30">
+        <f t="shared" si="53"/>
+        <v>3.5175879396984924E-2</v>
+      </c>
+      <c r="AA64" s="30">
+        <f t="shared" si="53"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="AB64" s="30">
+        <f t="shared" si="53"/>
+        <v>4.0178571428571432E-2</v>
+      </c>
+      <c r="AC64" s="30">
+        <f t="shared" si="53"/>
+        <v>5.9633027522935783E-2</v>
+      </c>
+      <c r="AD64" s="36"/>
+    </row>
+    <row r="65" spans="2:24">
       <c r="B65">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="2:20">
-      <c r="B66" s="24"/>
-      <c r="C66" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G66" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I66" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="J66" s="31"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="N66" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="O66" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="P66" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q66" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="R66" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="S66" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="T66" s="31"/>
-    </row>
-    <row r="67" spans="2:20">
-      <c r="B67" s="26"/>
-      <c r="C67" s="20">
+      <c r="X65">
         <v>0</v>
       </c>
-      <c r="D67" s="20">
+    </row>
+    <row r="69" spans="2:24">
+      <c r="D69" s="55">
+        <v>0</v>
+      </c>
+      <c r="E69" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="F69" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="G69" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="H69" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="I69" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="J69" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="K69" s="55">
+        <v>0.7</v>
+      </c>
+      <c r="L69" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="M69" s="55">
+        <v>0.9</v>
+      </c>
+      <c r="N69" s="62">
         <v>1</v>
       </c>
-      <c r="E67" s="20">
+    </row>
+    <row r="70" spans="2:24">
+      <c r="B70" t="s">
+        <v>304</v>
+      </c>
+      <c r="C70" t="s">
+        <v>301</v>
+      </c>
+      <c r="D70" s="69"/>
+      <c r="E70" s="55">
+        <v>62</v>
+      </c>
+      <c r="F70" s="57">
+        <v>58</v>
+      </c>
+      <c r="G70" s="58">
+        <v>64</v>
+      </c>
+      <c r="H70" s="55">
+        <v>63</v>
+      </c>
+      <c r="I70" s="63">
+        <v>62</v>
+      </c>
+      <c r="J70" s="55">
+        <v>73</v>
+      </c>
+      <c r="K70" s="55">
+        <v>72</v>
+      </c>
+      <c r="L70" s="55">
+        <v>64</v>
+      </c>
+      <c r="M70" s="55">
+        <v>77</v>
+      </c>
+      <c r="N70" s="61"/>
+    </row>
+    <row r="71" spans="2:24">
+      <c r="B71" t="s">
+        <v>305</v>
+      </c>
+      <c r="C71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D71" s="70"/>
+      <c r="E71" s="55">
+        <v>69</v>
+      </c>
+      <c r="F71" s="63">
+        <v>64</v>
+      </c>
+      <c r="G71" s="63">
+        <v>64</v>
+      </c>
+      <c r="H71" s="63">
+        <v>64</v>
+      </c>
+      <c r="I71" s="55">
+        <v>66</v>
+      </c>
+      <c r="J71" s="55">
+        <v>66</v>
+      </c>
+      <c r="K71" s="55">
+        <v>71</v>
+      </c>
+      <c r="L71" s="55">
+        <v>67</v>
+      </c>
+      <c r="M71" s="57">
+        <v>63</v>
+      </c>
+      <c r="N71" s="61"/>
+    </row>
+    <row r="72" spans="2:24">
+      <c r="B72" t="s">
+        <v>306</v>
+      </c>
+      <c r="C72" t="s">
+        <v>303</v>
+      </c>
+      <c r="D72" s="71"/>
+      <c r="E72" s="58">
+        <v>64</v>
+      </c>
+      <c r="F72" s="55">
+        <v>68</v>
+      </c>
+      <c r="G72" s="55">
+        <v>65</v>
+      </c>
+      <c r="H72" s="63">
+        <v>64</v>
+      </c>
+      <c r="I72" s="57">
+        <v>61</v>
+      </c>
+      <c r="J72" s="55">
+        <v>64</v>
+      </c>
+      <c r="K72" s="55">
+        <v>91</v>
+      </c>
+      <c r="L72" s="55">
+        <v>66</v>
+      </c>
+      <c r="M72" s="55">
+        <v>69</v>
+      </c>
+      <c r="N72" s="61"/>
+    </row>
+    <row r="74" spans="2:24">
+      <c r="B74" s="55"/>
+      <c r="C74" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="D74" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="E74" s="60" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24">
+      <c r="B75" s="55">
+        <v>1</v>
+      </c>
+      <c r="C75" s="55">
+        <v>0</v>
+      </c>
+      <c r="D75" s="55">
+        <v>0</v>
+      </c>
+      <c r="E75" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24">
+      <c r="B76" s="55">
         <v>2</v>
       </c>
-      <c r="F67" s="20">
+      <c r="C76" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="D76" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="E76" s="55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24">
+      <c r="B77" s="55">
         <v>3</v>
       </c>
-      <c r="G67" s="20">
+      <c r="C77" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="D77" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="E77" s="55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24">
+      <c r="B78" s="55">
         <v>4</v>
       </c>
-      <c r="H67" s="20">
+      <c r="C78" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="D78" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="E78" s="55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24">
+      <c r="B79" s="59">
         <v>5</v>
       </c>
-      <c r="I67" s="20">
+      <c r="C79" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="D79" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="E79" s="59">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24">
+      <c r="B80" s="55">
         <v>6</v>
       </c>
-      <c r="J67" s="28"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="20">
-        <v>0</v>
-      </c>
-      <c r="N67" s="20">
-        <v>1</v>
-      </c>
-      <c r="O67" s="20">
-        <v>2</v>
-      </c>
-      <c r="P67" s="20">
-        <v>3</v>
-      </c>
-      <c r="Q67" s="20">
-        <v>4</v>
-      </c>
-      <c r="R67" s="20">
-        <v>5</v>
-      </c>
-      <c r="S67" s="20">
-        <v>6</v>
-      </c>
-      <c r="T67" s="28"/>
-    </row>
-    <row r="68" spans="2:20">
-      <c r="B68" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="34">
-        <f>SUM(C68:I68)</f>
-        <v>0</v>
-      </c>
-      <c r="L68" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="34">
-        <f>SUM(M68:S68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:20">
-      <c r="B69" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="34">
-        <f>SUM(C69:I69)</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="34">
-        <f>SUM(M69:S69)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:20">
-      <c r="B70" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C70" s="20">
-        <f>C68+C69</f>
-        <v>0</v>
-      </c>
-      <c r="D70" s="20">
-        <f t="shared" ref="D70:I70" si="36">D68+D69</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="20">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="20">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="20">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="20">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="20">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="28">
-        <f>SUM(C70:I70)</f>
-        <v>0</v>
-      </c>
-      <c r="L70" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="M70" s="20">
-        <f>M68+M69</f>
-        <v>0</v>
-      </c>
-      <c r="N70" s="20">
-        <f t="shared" ref="N70:S70" si="37">N68+N69</f>
-        <v>0</v>
-      </c>
-      <c r="O70" s="20">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="20">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="20">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="R70" s="20">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="S70" s="20">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="T70" s="28">
-        <f>SUM(M70:S70)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B71" s="29"/>
-      <c r="C71" s="30" t="e">
-        <f>C69/C70</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D71" s="30" t="e">
-        <f t="shared" ref="D71:I71" si="38">D69/D70</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E71" s="30" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" s="30" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G71" s="30" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H71" s="30" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I71" s="30" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J71" s="36"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="30" t="e">
-        <f>M69/M70</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N71" s="30" t="e">
-        <f t="shared" ref="N71:S71" si="39">N69/N70</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O71" s="30" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P71" s="30" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q71" s="30" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R71" s="30" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S71" s="30" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T71" s="36"/>
-    </row>
-    <row r="72" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B72">
+      <c r="C80" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="D80" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="E80" s="55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="55">
+        <v>7</v>
+      </c>
+      <c r="C81" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="D81" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="E81" s="55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="55">
+        <v>8</v>
+      </c>
+      <c r="C82" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="D82" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="E82" s="55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="55">
+        <v>9</v>
+      </c>
+      <c r="C83" s="55">
         <v>0.9</v>
       </c>
-      <c r="C72">
+      <c r="D83" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="E83" s="55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="55">
+        <v>10</v>
+      </c>
+      <c r="C84" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="D84" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="E84" s="55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="55">
+        <v>11</v>
+      </c>
+      <c r="C85" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="D85" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="E85" s="55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="55">
+        <v>12</v>
+      </c>
+      <c r="C86" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="D86" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="E86" s="55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="55">
+        <v>13</v>
+      </c>
+      <c r="C87" s="55">
         <v>0.9</v>
       </c>
-      <c r="D72">
+      <c r="D87" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="E87" s="55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="55">
+        <v>14</v>
+      </c>
+      <c r="C88" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="D88" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="E88" s="55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="55">
+        <v>15</v>
+      </c>
+      <c r="C89" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="D89" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="E89" s="55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="55">
+        <v>16</v>
+      </c>
+      <c r="C90" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="D90" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="E90" s="55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="55">
+        <v>17</v>
+      </c>
+      <c r="C91" s="55">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="73" spans="2:20">
-      <c r="B73" s="24"/>
-      <c r="C73" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="G73" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I73" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="J73" s="31"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="25"/>
-      <c r="R73" s="25"/>
-      <c r="S73" s="25"/>
-      <c r="T73" s="31"/>
-    </row>
-    <row r="74" spans="2:20">
-      <c r="B74" s="26"/>
-      <c r="C74" s="20">
-        <v>0</v>
-      </c>
-      <c r="D74" s="20">
-        <v>1</v>
-      </c>
-      <c r="E74" s="20">
-        <v>2</v>
-      </c>
-      <c r="F74" s="20">
-        <v>3</v>
-      </c>
-      <c r="G74" s="20">
-        <v>4</v>
-      </c>
-      <c r="H74" s="20">
-        <v>5</v>
-      </c>
-      <c r="I74" s="20">
-        <v>6</v>
-      </c>
-      <c r="J74" s="28"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="20"/>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="20"/>
-      <c r="T74" s="28"/>
-    </row>
-    <row r="75" spans="2:20">
-      <c r="B75" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="34">
-        <f>SUM(C75:I75)</f>
-        <v>0</v>
-      </c>
-      <c r="L75" s="27"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="34"/>
-    </row>
-    <row r="76" spans="2:20">
-      <c r="B76" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="34">
-        <f>SUM(C76:I76)</f>
-        <v>0</v>
-      </c>
-      <c r="L76" s="27"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="22"/>
-      <c r="S76" s="22"/>
-      <c r="T76" s="34"/>
-    </row>
-    <row r="77" spans="2:20">
-      <c r="B77" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C77" s="20">
-        <f>C75+C76</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="20">
-        <f t="shared" ref="D77:I77" si="40">D75+D76</f>
-        <v>0</v>
-      </c>
-      <c r="E77" s="20">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="20">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="20">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="20">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="20">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="28">
-        <f>SUM(C77:I77)</f>
-        <v>0</v>
-      </c>
-      <c r="L77" s="26"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="20"/>
-      <c r="P77" s="20"/>
-      <c r="Q77" s="20"/>
-      <c r="R77" s="20"/>
-      <c r="S77" s="20"/>
-      <c r="T77" s="28"/>
-    </row>
-    <row r="78" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B78" s="29"/>
-      <c r="C78" s="30" t="e">
-        <f>C76/C77</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D78" s="30" t="e">
-        <f t="shared" ref="D78:I78" si="41">D76/D77</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E78" s="30" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F78" s="30" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G78" s="30" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H78" s="30" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I78" s="30" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J78" s="36"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="30"/>
-      <c r="N78" s="30"/>
-      <c r="O78" s="30"/>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="30"/>
-      <c r="R78" s="30"/>
-      <c r="S78" s="30"/>
-      <c r="T78" s="36"/>
-    </row>
-    <row r="81" spans="3:14">
-      <c r="D81" s="55">
-        <v>0</v>
-      </c>
-      <c r="E81" s="55">
-        <v>0.1</v>
-      </c>
-      <c r="F81" s="55">
-        <v>0.2</v>
-      </c>
-      <c r="G81" s="55">
-        <v>0.3</v>
-      </c>
-      <c r="H81" s="55">
+      <c r="D91" s="55">
         <v>0.4</v>
       </c>
-      <c r="I81" s="55">
+      <c r="E91" s="55">
         <v>0.5</v>
       </c>
-      <c r="J81" s="55">
-        <v>0.6</v>
-      </c>
-      <c r="K81" s="55">
-        <v>0.7</v>
-      </c>
-      <c r="L81" s="55">
-        <v>0.8</v>
-      </c>
-      <c r="M81" s="55">
-        <v>0.9</v>
-      </c>
-      <c r="N81" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14">
-      <c r="C82" t="s">
-        <v>300</v>
-      </c>
-      <c r="D82" s="55">
-        <v>66</v>
-      </c>
-      <c r="E82" s="62">
-        <v>63</v>
-      </c>
-      <c r="F82" s="55">
-        <v>74</v>
-      </c>
-      <c r="G82" s="55">
-        <v>96</v>
-      </c>
-      <c r="H82" s="55">
-        <v>118</v>
-      </c>
-      <c r="I82" s="55">
-        <v>84</v>
-      </c>
-      <c r="J82" s="55">
-        <v>114</v>
-      </c>
-      <c r="K82" s="55">
-        <v>75</v>
-      </c>
-      <c r="L82" s="55">
-        <v>80</v>
-      </c>
-      <c r="M82" s="55">
-        <v>79</v>
-      </c>
-      <c r="N82" s="55">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="83" spans="3:14">
-      <c r="C83" t="s">
-        <v>301</v>
-      </c>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55">
-        <v>64</v>
-      </c>
-      <c r="F83" s="55">
-        <v>73</v>
-      </c>
-      <c r="G83" s="62">
-        <v>60</v>
-      </c>
-      <c r="H83" s="55">
-        <v>64</v>
-      </c>
-      <c r="I83" s="55">
-        <v>85</v>
-      </c>
-      <c r="J83" s="55">
-        <v>78</v>
-      </c>
-      <c r="K83" s="55">
-        <v>73</v>
-      </c>
-      <c r="L83" s="55">
-        <v>81</v>
-      </c>
-      <c r="M83" s="55">
-        <v>73</v>
-      </c>
-      <c r="N83" s="55">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14">
-      <c r="C84" t="s">
-        <v>303</v>
-      </c>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="55"/>
-    </row>
-    <row r="85" spans="3:14">
-      <c r="C85" t="s">
-        <v>302</v>
-      </c>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="55"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="55"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D70:D72"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
